--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="191">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -571,12 +569,45 @@
   <si>
     <t>Bootstrap</t>
   </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Excel Sheet Name</t>
+  </si>
+  <si>
+    <t>2_Definitions.xlsx</t>
+  </si>
+  <si>
+    <t>3_Definitions.xlsx</t>
+  </si>
+  <si>
+    <t>Ionic</t>
+  </si>
+  <si>
+    <t>Phone Gap</t>
+  </si>
+  <si>
+    <t>Node JS</t>
+  </si>
+  <si>
+    <t>Spring REST</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +637,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,8 +665,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -676,25 +733,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -718,14 +762,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,701 +1072,849 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:3" ht="30">
+      <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="75">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:3" ht="75">
+      <c r="A54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="6" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="9" t="s">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="10"/>
-      <c r="B85" s="3" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
+      <c r="C87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="6" t="s">
+    <row r="91" spans="1:3" ht="30">
+      <c r="A91" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="6" t="s">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="6" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="6" t="s">
+      <c r="B96" s="2"/>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="2"/>
+      <c r="C97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>143</v>
       </c>
@@ -1724,43 +1922,43 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>149</v>
       </c>
@@ -1768,7 +1966,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30">
+    <row r="107" spans="1:3" ht="30">
       <c r="A107" s="6" t="s">
         <v>151</v>
       </c>
@@ -1776,208 +1974,231 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="11" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="11" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="11" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="11" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="11" t="s">
+      <c r="C118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="11" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="11" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="11" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="11" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="11" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="11" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="11" t="s">
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A85:A86"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B84" r:id="rId2"/>
-    <hyperlink ref="B87" r:id="rId3"/>
-    <hyperlink ref="B88" r:id="rId4"/>
-    <hyperlink ref="B89" r:id="rId5"/>
-    <hyperlink ref="B90" r:id="rId6"/>
-    <hyperlink ref="B91" r:id="rId7"/>
-    <hyperlink ref="B66" r:id="rId8"/>
-    <hyperlink ref="B76" r:id="rId9"/>
-    <hyperlink ref="B62" r:id="rId10"/>
-    <hyperlink ref="B55" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B57" r:id="rId13"/>
-    <hyperlink ref="B92" r:id="rId14"/>
-    <hyperlink ref="B86" r:id="rId15"/>
-    <hyperlink ref="B79" r:id="rId16"/>
-    <hyperlink ref="B31" r:id="rId17"/>
-    <hyperlink ref="B52" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B51" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B85" r:id="rId2"/>
+    <hyperlink ref="B88" r:id="rId3"/>
+    <hyperlink ref="B89" r:id="rId4"/>
+    <hyperlink ref="B90" r:id="rId5"/>
+    <hyperlink ref="B91" r:id="rId6"/>
+    <hyperlink ref="B92" r:id="rId7"/>
+    <hyperlink ref="B67" r:id="rId8"/>
+    <hyperlink ref="B77" r:id="rId9"/>
+    <hyperlink ref="B63" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12"/>
+    <hyperlink ref="B58" r:id="rId13"/>
+    <hyperlink ref="B93" r:id="rId14"/>
+    <hyperlink ref="B87" r:id="rId15"/>
+    <hyperlink ref="B80" r:id="rId16"/>
+    <hyperlink ref="B32" r:id="rId17"/>
+    <hyperlink ref="B53" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B52" r:id="rId19"/>
     <hyperlink ref="B106" r:id="rId20"/>
     <hyperlink ref="B107" r:id="rId21"/>
-    <hyperlink ref="B45" r:id="rId22"/>
-    <hyperlink ref="B41" r:id="rId23"/>
+    <hyperlink ref="B46" r:id="rId22"/>
+    <hyperlink ref="B42" r:id="rId23"/>
     <hyperlink ref="B120" r:id="rId24"/>
-    <hyperlink ref="B75" r:id="rId25"/>
+    <hyperlink ref="B76" r:id="rId25"/>
     <hyperlink ref="B125" r:id="rId26"/>
     <hyperlink ref="B126" r:id="rId27" location="commandLine"/>
     <hyperlink ref="B127" r:id="rId28"/>
-    <hyperlink ref="B85" r:id="rId29"/>
+    <hyperlink ref="B86" r:id="rId29"/>
     <hyperlink ref="B128" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="203">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Garbage Collection</t>
-  </si>
-  <si>
-    <t>JVM</t>
   </si>
   <si>
     <t>EJB Practice example - videos</t>
@@ -601,6 +598,45 @@
   </si>
   <si>
     <t>Cordova</t>
+  </si>
+  <si>
+    <t>JDK Tools and Utilities</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/technotes/tools/</t>
+  </si>
+  <si>
+    <t>JavaDB</t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javadb/</t>
+  </si>
+  <si>
+    <t>3DNS</t>
+  </si>
+  <si>
+    <t>https://www.artima.com/insidejvm/ed2/jvm.html</t>
+  </si>
+  <si>
+    <t>https://www.artima.com/insidejvm/ed2/gc.html</t>
+  </si>
+  <si>
+    <t>SSL Certificate in Java</t>
+  </si>
+  <si>
+    <t>JVM 8 specification</t>
+  </si>
+  <si>
+    <t>Inside Java Virtual Machine (JVM)</t>
+  </si>
+  <si>
+    <t>http://www.javacodegeeks.com/2013/06/java-security-tutorial-step-by-step-guide-to-create-ssl-connection-and-certificates.html</t>
+  </si>
+  <si>
+    <t>Autosys</t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
 </sst>
 </file>
@@ -738,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,7 +785,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -765,18 +800,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1072,29 +1110,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1105,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -1116,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1127,16 +1165,15 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1147,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1158,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1169,16 +1206,15 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
@@ -1189,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60">
@@ -1200,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -1211,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1222,16 +1258,15 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1242,36 +1277,34 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45">
@@ -1282,81 +1315,74 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2"/>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
@@ -1367,838 +1393,856 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2"/>
+      <c r="A30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s">
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30">
+      <c r="A56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75">
+      <c r="A57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
+      <c r="A93" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30">
+      <c r="A109" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
+      <c r="A140" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30">
-      <c r="A53" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="75">
-      <c r="A54" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
-      <c r="A91" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="30">
-      <c r="A107" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A85:A86"/>
+  <mergeCells count="2">
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B85" r:id="rId2"/>
-    <hyperlink ref="B88" r:id="rId3"/>
-    <hyperlink ref="B89" r:id="rId4"/>
-    <hyperlink ref="B90" r:id="rId5"/>
-    <hyperlink ref="B91" r:id="rId6"/>
-    <hyperlink ref="B92" r:id="rId7"/>
-    <hyperlink ref="B67" r:id="rId8"/>
-    <hyperlink ref="B77" r:id="rId9"/>
-    <hyperlink ref="B63" r:id="rId10"/>
-    <hyperlink ref="B56" r:id="rId11"/>
+    <hyperlink ref="B87" r:id="rId2"/>
+    <hyperlink ref="B90" r:id="rId3"/>
+    <hyperlink ref="B91" r:id="rId4"/>
+    <hyperlink ref="B92" r:id="rId5"/>
+    <hyperlink ref="B93" r:id="rId6"/>
+    <hyperlink ref="B94" r:id="rId7"/>
+    <hyperlink ref="B69" r:id="rId8"/>
+    <hyperlink ref="B80" r:id="rId9"/>
+    <hyperlink ref="B65" r:id="rId10"/>
+    <hyperlink ref="B58" r:id="rId11"/>
     <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B58" r:id="rId13"/>
-    <hyperlink ref="B93" r:id="rId14"/>
-    <hyperlink ref="B87" r:id="rId15"/>
-    <hyperlink ref="B80" r:id="rId16"/>
-    <hyperlink ref="B32" r:id="rId17"/>
-    <hyperlink ref="B53" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B52" r:id="rId19"/>
-    <hyperlink ref="B106" r:id="rId20"/>
-    <hyperlink ref="B107" r:id="rId21"/>
-    <hyperlink ref="B46" r:id="rId22"/>
-    <hyperlink ref="B42" r:id="rId23"/>
-    <hyperlink ref="B120" r:id="rId24"/>
-    <hyperlink ref="B76" r:id="rId25"/>
-    <hyperlink ref="B125" r:id="rId26"/>
-    <hyperlink ref="B126" r:id="rId27" location="commandLine"/>
-    <hyperlink ref="B127" r:id="rId28"/>
-    <hyperlink ref="B86" r:id="rId29"/>
-    <hyperlink ref="B128" r:id="rId30"/>
+    <hyperlink ref="B60" r:id="rId13"/>
+    <hyperlink ref="B95" r:id="rId14"/>
+    <hyperlink ref="B89" r:id="rId15"/>
+    <hyperlink ref="B83" r:id="rId16"/>
+    <hyperlink ref="B35" r:id="rId17"/>
+    <hyperlink ref="B56" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B55" r:id="rId19"/>
+    <hyperlink ref="B108" r:id="rId20"/>
+    <hyperlink ref="B109" r:id="rId21"/>
+    <hyperlink ref="B49" r:id="rId22"/>
+    <hyperlink ref="B45" r:id="rId23"/>
+    <hyperlink ref="B122" r:id="rId24"/>
+    <hyperlink ref="B79" r:id="rId25"/>
+    <hyperlink ref="B127" r:id="rId26"/>
+    <hyperlink ref="B128" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B88" r:id="rId29"/>
+    <hyperlink ref="B129" r:id="rId30"/>
+    <hyperlink ref="B78" r:id="rId31"/>
+    <hyperlink ref="B138" r:id="rId32"/>
+    <hyperlink ref="B31" r:id="rId33"/>
+    <hyperlink ref="B29" r:id="rId34"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="B140" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -600,9 +600,6 @@
     <t>Cordova</t>
   </si>
   <si>
-    <t>JDK Tools and Utilities</t>
-  </si>
-  <si>
     <t>https://docs.oracle.com/javase/8/docs/technotes/tools/</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>HTML</t>
+  </si>
+  <si>
+    <t>JDK Tools and Utilities (JDK bin tools)</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C32"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,7 +1401,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>182</v>
@@ -1420,18 +1420,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C78" t="s">
         <v>183</v>
@@ -2161,15 +2161,15 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
         <v>182</v>
@@ -2177,15 +2177,15 @@
     </row>
     <row r="140" spans="1:3" ht="30">
       <c r="A140" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>183</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>183</v>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>JDK Tools and Utilities (JDK bin tools)</t>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,6 +810,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1110,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1425,7 +1429,7 @@
       <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1436,7 +1440,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1820,7 +1824,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1828,7 +1832,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="14"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -2196,6 +2200,14 @@
         <v>201</v>
       </c>
       <c r="C142" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>183</v>
       </c>
     </row>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="209">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -640,6 +640,21 @@
   </si>
   <si>
     <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>http://camel.apache.org/getting-started.html</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>Mule</t>
   </si>
 </sst>
 </file>
@@ -777,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -810,6 +825,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,7 +1446,7 @@
       <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="18" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1440,7 +1457,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1824,7 +1841,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1832,7 +1849,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -1957,257 +1974,286 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" s="15" customFormat="1">
       <c r="A104" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" s="15" customFormat="1">
       <c r="A105" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>207</v>
+      </c>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" s="15" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" s="15" customFormat="1">
       <c r="A107" s="5" t="s">
-        <v>59</v>
+        <v>204</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="3"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30">
       <c r="A113" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" t="s">
-        <v>182</v>
+        <v>170</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>189</v>
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30">
+      <c r="A144" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C147" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2236,25 +2282,26 @@
     <hyperlink ref="B35" r:id="rId17"/>
     <hyperlink ref="B56" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B55" r:id="rId19"/>
-    <hyperlink ref="B108" r:id="rId20"/>
-    <hyperlink ref="B109" r:id="rId21"/>
+    <hyperlink ref="B112" r:id="rId20"/>
+    <hyperlink ref="B113" r:id="rId21"/>
     <hyperlink ref="B49" r:id="rId22"/>
     <hyperlink ref="B45" r:id="rId23"/>
-    <hyperlink ref="B122" r:id="rId24"/>
+    <hyperlink ref="B126" r:id="rId24"/>
     <hyperlink ref="B79" r:id="rId25"/>
-    <hyperlink ref="B127" r:id="rId26"/>
-    <hyperlink ref="B128" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B131" r:id="rId26"/>
+    <hyperlink ref="B132" r:id="rId27" location="commandLine"/>
     <hyperlink ref="B30" r:id="rId28"/>
     <hyperlink ref="B88" r:id="rId29"/>
-    <hyperlink ref="B129" r:id="rId30"/>
+    <hyperlink ref="B133" r:id="rId30"/>
     <hyperlink ref="B78" r:id="rId31"/>
-    <hyperlink ref="B138" r:id="rId32"/>
+    <hyperlink ref="B142" r:id="rId32"/>
     <hyperlink ref="B31" r:id="rId33"/>
     <hyperlink ref="B29" r:id="rId34"/>
     <hyperlink ref="B33" r:id="rId35"/>
-    <hyperlink ref="B140" r:id="rId36"/>
+    <hyperlink ref="B144" r:id="rId36"/>
+    <hyperlink ref="B107" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1134,8 +1134,8 @@
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -636,9 +636,6 @@
     <t>HTML</t>
   </si>
   <si>
-    <t>JDK Tools and Utilities (JDK bin tools)</t>
-  </si>
-  <si>
     <t>ActiveMQ</t>
   </si>
   <si>
@@ -655,6 +652,10 @@
   </si>
   <si>
     <t>Mule</t>
+  </si>
+  <si>
+    <t>JDK Tools and Utilities (JDK bin tools)
+JPS, VisualVM</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1135,8 @@
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,9 +1769,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="30">
       <c r="A78" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>190</v>
@@ -1976,28 +1977,28 @@
     </row>
     <row r="104" spans="1:3" s="15" customFormat="1">
       <c r="A104" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:3" s="15" customFormat="1">
       <c r="A105" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:3" s="15" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:3" s="15" customFormat="1">
       <c r="A107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>183</v>
@@ -2251,7 +2252,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>183</v>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1136,7 +1136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1135,8 +1135,8 @@
   <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="210">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -656,6 +656,9 @@
   <si>
     <t>JDK Tools and Utilities (JDK bin tools)
 JPS, VisualVM</t>
+  </si>
+  <si>
+    <t>OpenAM</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -826,6 +829,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1132,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1447,7 +1451,7 @@
       <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1458,7 +1462,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1842,7 +1846,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="17"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -2255,6 +2259,14 @@
         <v>202</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="16" t="s">
         <v>183</v>
       </c>
     </row>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>OpenAM</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -829,6 +832,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1136,11 +1140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,7 +1455,7 @@
       <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1462,7 +1466,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1846,7 +1850,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -2267,6 +2271,14 @@
         <v>209</v>
       </c>
       <c r="C148" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>183</v>
       </c>
     </row>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -468,9 +468,6 @@
     <t>SOA - Service Oriented Architecture</t>
   </si>
   <si>
-    <t>Jersey</t>
-  </si>
-  <si>
     <t>AWS - Amazon Web Services</t>
   </si>
   <si>
@@ -662,6 +659,15 @@
   </si>
   <si>
     <t>MongoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey - RESTful web services implementation </t>
+  </si>
+  <si>
+    <t>Junit</t>
+  </si>
+  <si>
+    <t>Mockito</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -832,6 +838,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1140,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,13 +1164,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1173,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -1184,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1195,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1203,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1214,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1225,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1236,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -1244,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
@@ -1255,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60">
@@ -1266,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -1277,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1288,7 +1296,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1296,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1307,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1315,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1323,7 +1331,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1334,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45">
@@ -1345,7 +1353,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1353,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1361,7 +1369,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
@@ -1372,7 +1380,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1380,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1388,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1396,7 +1404,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1404,7 +1412,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
@@ -1412,7 +1420,7 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
@@ -1423,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1431,42 +1439,42 @@
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>183</v>
+        <v>193</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1481,7 +1489,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1492,7 +1500,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1539,7 +1547,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1640,7 +1648,7 @@
         <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1648,7 +1656,7 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1667,7 +1675,7 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1683,7 +1691,7 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1699,7 +1707,7 @@
         <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1733,7 +1741,7 @@
         <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1751,7 +1759,7 @@
         <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1779,13 +1787,13 @@
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1850,7 +1858,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1858,7 +1866,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="19"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1882,7 +1890,7 @@
         <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1917,7 +1925,7 @@
         <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1938,7 +1946,7 @@
         <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1946,7 +1954,7 @@
         <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1954,7 +1962,7 @@
         <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1962,7 +1970,7 @@
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1985,41 +1993,41 @@
     </row>
     <row r="104" spans="1:3" s="15" customFormat="1">
       <c r="A104" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:3" s="15" customFormat="1">
       <c r="A105" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:3" s="15" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:3" s="15" customFormat="1">
       <c r="A107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C107" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2034,150 +2042,150 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30">
       <c r="A113" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2185,101 +2193,117 @@
         <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C143" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30">
       <c r="A144" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="213">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -805,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -838,6 +838,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1151,8 +1152,8 @@
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1463,7 +1464,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1474,7 +1475,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1858,7 +1859,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1866,7 +1867,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="21"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -2028,6 +2029,9 @@
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
         <v>146</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:3">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="214">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>Mockito</t>
+  </si>
+  <si>
+    <t>Apache Cassandra</t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -838,6 +841,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1149,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,7 +1468,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1475,7 +1479,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1859,7 +1863,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="22"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -1982,331 +1986,340 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" s="21" customFormat="1">
       <c r="A102" s="5" t="s">
-        <v>144</v>
+        <v>213</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" s="15" customFormat="1">
-      <c r="A104" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:3" s="15" customFormat="1">
       <c r="A105" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:3" s="15" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:3" s="15" customFormat="1">
       <c r="A107" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" s="15" customFormat="1">
+      <c r="A108" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C108" s="14" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30">
-      <c r="A113" s="5" t="s">
+    <row r="114" spans="1:3" ht="30">
+      <c r="A114" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124" s="3"/>
-      <c r="C124" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125" s="3"/>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>185</v>
+        <v>141</v>
+      </c>
+      <c r="C136" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C143" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="30">
-      <c r="A144" s="5" t="s">
+      <c r="C144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
+      <c r="A145" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C146" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C147" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C148" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C149" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C150" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C152" s="19" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2335,24 +2348,24 @@
     <hyperlink ref="B35" r:id="rId17"/>
     <hyperlink ref="B56" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B55" r:id="rId19"/>
-    <hyperlink ref="B112" r:id="rId20"/>
-    <hyperlink ref="B113" r:id="rId21"/>
+    <hyperlink ref="B113" r:id="rId20"/>
+    <hyperlink ref="B114" r:id="rId21"/>
     <hyperlink ref="B49" r:id="rId22"/>
     <hyperlink ref="B45" r:id="rId23"/>
-    <hyperlink ref="B126" r:id="rId24"/>
+    <hyperlink ref="B127" r:id="rId24"/>
     <hyperlink ref="B79" r:id="rId25"/>
-    <hyperlink ref="B131" r:id="rId26"/>
-    <hyperlink ref="B132" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B132" r:id="rId26"/>
+    <hyperlink ref="B133" r:id="rId27" location="commandLine"/>
     <hyperlink ref="B30" r:id="rId28"/>
     <hyperlink ref="B88" r:id="rId29"/>
-    <hyperlink ref="B133" r:id="rId30"/>
+    <hyperlink ref="B134" r:id="rId30"/>
     <hyperlink ref="B78" r:id="rId31"/>
-    <hyperlink ref="B142" r:id="rId32"/>
+    <hyperlink ref="B143" r:id="rId32"/>
     <hyperlink ref="B31" r:id="rId33"/>
     <hyperlink ref="B29" r:id="rId34"/>
     <hyperlink ref="B33" r:id="rId35"/>
-    <hyperlink ref="B144" r:id="rId36"/>
-    <hyperlink ref="B107" r:id="rId37"/>
+    <hyperlink ref="B145" r:id="rId36"/>
+    <hyperlink ref="B108" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -841,6 +841,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1156,8 +1157,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,7 +1469,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1479,7 +1480,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1605,6 +1606,9 @@
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="C51" s="22" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
@@ -1863,7 +1867,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1871,7 +1875,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="215">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Apache Cassandra</t>
+  </si>
+  <si>
+    <t>4_Definitions.xlsx</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -841,6 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1157,8 +1161,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1469,7 +1473,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1480,7 +1484,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1552,8 +1556,8 @@
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" t="s">
-        <v>181</v>
+      <c r="C42" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1875,7 +1879,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="24"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -811,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1161,8 +1162,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1440,8 +1441,8 @@
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" t="s">
-        <v>181</v>
+      <c r="C28" s="24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1473,7 +1474,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1484,7 +1485,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="27"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1871,7 +1872,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1879,7 +1880,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="25"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="216">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -673,7 +673,10 @@
     <t>Apache Cassandra</t>
   </si>
   <si>
-    <t>4_Definitions.xlsx</t>
+    <t>5_Definitions_JMS.xlsx</t>
+  </si>
+  <si>
+    <t>4_Definitions_Algorithms.xlsx</t>
   </si>
 </sst>
 </file>
@@ -811,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +847,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1162,8 +1166,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1441,7 +1445,7 @@
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1474,7 +1478,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1485,7 +1489,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1557,8 +1561,8 @@
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>214</v>
+      <c r="C42" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1611,7 +1615,7 @@
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1720,8 +1724,8 @@
       <c r="B65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C65" t="s">
-        <v>181</v>
+      <c r="C65" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1872,7 +1876,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1880,7 +1884,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="26"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -1995,12 +1999,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="21" customFormat="1">
+    <row r="102" spans="1:3" s="20" customFormat="1">
       <c r="A102" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2014,32 +2018,32 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="15" customFormat="1">
+    <row r="105" spans="1:3" s="14" customFormat="1">
       <c r="A105" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:3" s="15" customFormat="1">
+    <row r="106" spans="1:3" s="14" customFormat="1">
       <c r="A106" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:3" s="15" customFormat="1">
+    <row r="107" spans="1:3" s="14" customFormat="1">
       <c r="A107" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:3" s="15" customFormat="1">
+    <row r="108" spans="1:3" s="14" customFormat="1">
       <c r="A108" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2052,7 +2056,7 @@
       <c r="A110" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="19" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2296,15 +2300,15 @@
       <c r="A148" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C148" s="13" t="s">
-        <v>182</v>
+      <c r="C148" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C149" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2312,7 +2316,7 @@
       <c r="A150" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2320,7 +2324,7 @@
       <c r="A151" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2328,7 +2332,7 @@
       <c r="A152" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="18" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="217">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>4_Definitions_Algorithms.xlsx</t>
+  </si>
+  <si>
+    <t>6_Definitions_Spring.xlsx</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,6 +850,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1166,8 +1170,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,8 +1333,8 @@
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>181</v>
+      <c r="C15" s="26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1478,7 +1482,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1489,7 +1493,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1876,7 +1880,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1884,7 +1888,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="27"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="218">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>6_Definitions_Spring.xlsx</t>
+  </si>
+  <si>
+    <t>8_Definitions_Angular_JS.xlsx</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,6 +853,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1170,8 +1174,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,7 +1486,7 @@
       <c r="B31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1493,7 +1497,7 @@
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
@@ -1880,7 +1884,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1888,7 +1892,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="28"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
@@ -2226,8 +2230,8 @@
       <c r="A136" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C136" t="s">
-        <v>181</v>
+      <c r="C136" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:3">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="215">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>RESTful web service</t>
-  </si>
-  <si>
-    <t>http://www.tutorialspoint.com/restful/index.htm</t>
-  </si>
-  <si>
-    <t>SOAP Web Services Advanced topics</t>
   </si>
   <si>
     <t>Clustering</t>
@@ -588,9 +582,6 @@
     <t>Node JS</t>
   </si>
   <si>
-    <t>Spring REST</t>
-  </si>
-  <si>
     <t>SPA</t>
   </si>
   <si>
@@ -661,9 +652,6 @@
     <t>MongoDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey - RESTful web services implementation </t>
-  </si>
-  <si>
     <t>Junit</t>
   </si>
   <si>
@@ -683,6 +671,9 @@
   </si>
   <si>
     <t>8_Definitions_Angular_JS.xlsx</t>
+  </si>
+  <si>
+    <t>9_Definitions_Web_Services.xlsx</t>
   </si>
 </sst>
 </file>
@@ -820,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -853,6 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1171,11 +1163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,13 +1179,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1204,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -1215,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1226,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1234,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1245,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1256,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1267,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -1275,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
@@ -1286,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60">
@@ -1297,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -1308,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1319,924 +1311,914 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="28" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>216</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45">
-      <c r="A22" s="4" t="s">
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60">
-      <c r="A28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>197</v>
+      <c r="A31" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="30"/>
+        <v>194</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>215</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="30">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:3" ht="75">
+      <c r="A58" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="75">
-      <c r="A57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
+        <v>90</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30">
       <c r="A79" s="5" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>103</v>
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="28" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="30"/>
+      <c r="B89" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="29"/>
-      <c r="B88" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
+      <c r="A94" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30">
-      <c r="A93" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="20" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="20" customFormat="1">
       <c r="A103" s="5" t="s">
-        <v>144</v>
+        <v>209</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="20" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="14" customFormat="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="106" spans="1:3" s="14" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:3" s="14" customFormat="1">
       <c r="A107" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:3" s="14" customFormat="1">
       <c r="A108" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" s="14" customFormat="1">
       <c r="A109" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>182</v>
+        <v>199</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>60</v>
+        <v>144</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
+      <c r="A115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
-      <c r="A114" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B125" s="3"/>
-      <c r="C125" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B126" s="3"/>
+      <c r="C126" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>185</v>
+        <v>139</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2246,147 +2228,147 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
+      <c r="A146" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="30">
-      <c r="A145" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>214</v>
+        <v>197</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>182</v>
+        <v>198</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>182</v>
+        <v>205</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>182</v>
+        <v>207</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B87" r:id="rId2"/>
-    <hyperlink ref="B90" r:id="rId3"/>
-    <hyperlink ref="B91" r:id="rId4"/>
-    <hyperlink ref="B92" r:id="rId5"/>
-    <hyperlink ref="B93" r:id="rId6"/>
-    <hyperlink ref="B94" r:id="rId7"/>
-    <hyperlink ref="B69" r:id="rId8"/>
-    <hyperlink ref="B80" r:id="rId9"/>
-    <hyperlink ref="B65" r:id="rId10"/>
-    <hyperlink ref="B58" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B60" r:id="rId13"/>
-    <hyperlink ref="B95" r:id="rId14"/>
-    <hyperlink ref="B89" r:id="rId15"/>
-    <hyperlink ref="B83" r:id="rId16"/>
-    <hyperlink ref="B35" r:id="rId17"/>
-    <hyperlink ref="B56" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B55" r:id="rId19"/>
-    <hyperlink ref="B113" r:id="rId20"/>
-    <hyperlink ref="B114" r:id="rId21"/>
-    <hyperlink ref="B49" r:id="rId22"/>
-    <hyperlink ref="B45" r:id="rId23"/>
-    <hyperlink ref="B127" r:id="rId24"/>
-    <hyperlink ref="B79" r:id="rId25"/>
-    <hyperlink ref="B132" r:id="rId26"/>
-    <hyperlink ref="B133" r:id="rId27" location="commandLine"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B88" r:id="rId29"/>
-    <hyperlink ref="B134" r:id="rId30"/>
-    <hyperlink ref="B78" r:id="rId31"/>
-    <hyperlink ref="B143" r:id="rId32"/>
-    <hyperlink ref="B31" r:id="rId33"/>
-    <hyperlink ref="B29" r:id="rId34"/>
-    <hyperlink ref="B33" r:id="rId35"/>
-    <hyperlink ref="B145" r:id="rId36"/>
-    <hyperlink ref="B108" r:id="rId37"/>
+    <hyperlink ref="B88" r:id="rId2"/>
+    <hyperlink ref="B91" r:id="rId3"/>
+    <hyperlink ref="B92" r:id="rId4"/>
+    <hyperlink ref="B93" r:id="rId5"/>
+    <hyperlink ref="B94" r:id="rId6"/>
+    <hyperlink ref="B95" r:id="rId7"/>
+    <hyperlink ref="B70" r:id="rId8"/>
+    <hyperlink ref="B81" r:id="rId9"/>
+    <hyperlink ref="B66" r:id="rId10"/>
+    <hyperlink ref="B59" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B61" r:id="rId13"/>
+    <hyperlink ref="B96" r:id="rId14"/>
+    <hyperlink ref="B90" r:id="rId15"/>
+    <hyperlink ref="B84" r:id="rId16"/>
+    <hyperlink ref="B36" r:id="rId17"/>
+    <hyperlink ref="B57" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B56" r:id="rId19"/>
+    <hyperlink ref="B114" r:id="rId20"/>
+    <hyperlink ref="B115" r:id="rId21"/>
+    <hyperlink ref="B50" r:id="rId22"/>
+    <hyperlink ref="B15" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B128" r:id="rId24"/>
+    <hyperlink ref="B80" r:id="rId25"/>
+    <hyperlink ref="B133" r:id="rId26"/>
+    <hyperlink ref="B134" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B89" r:id="rId29"/>
+    <hyperlink ref="B135" r:id="rId30"/>
+    <hyperlink ref="B79" r:id="rId31"/>
+    <hyperlink ref="B144" r:id="rId32"/>
+    <hyperlink ref="B32" r:id="rId33"/>
+    <hyperlink ref="B30" r:id="rId34"/>
+    <hyperlink ref="B34" r:id="rId35"/>
+    <hyperlink ref="B146" r:id="rId36"/>
+    <hyperlink ref="B109" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="219">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -674,6 +674,18 @@
   </si>
   <si>
     <t>9_Definitions_Web_Services.xlsx</t>
+  </si>
+  <si>
+    <t>Togglz</t>
+  </si>
+  <si>
+    <t>7_Definitions_Design_Patterns.xlsx</t>
+  </si>
+  <si>
+    <t>Utils</t>
+  </si>
+  <si>
+    <t>a_Definitions_Util.xlsx</t>
   </si>
 </sst>
 </file>
@@ -811,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +856,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1166,8 +1180,8 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1487,7 +1501,7 @@
       <c r="B32" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="33" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1498,7 +1512,7 @@
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
@@ -1876,7 +1890,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -1884,7 +1898,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="30"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="3" t="s">
         <v>119</v>
       </c>
@@ -2047,6 +2061,14 @@
         <v>180</v>
       </c>
     </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
         <v>144</v>
@@ -2241,9 +2263,17 @@
         <v>185</v>
       </c>
     </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
         <v>184</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:3">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="221">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -686,6 +686,12 @@
   </si>
   <si>
     <t>a_Definitions_Util.xlsx</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>b_Definitions_Tools.xlsx</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,6 +862,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1177,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1501,7 +1508,7 @@
       <c r="B32" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1512,7 +1519,7 @@
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
@@ -1890,7 +1897,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="32" t="s">
         <v>117</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -1898,7 +1905,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="3" t="s">
         <v>119</v>
       </c>
@@ -2354,6 +2361,14 @@
       </c>
       <c r="C153" s="18" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -366,12 +366,6 @@
     <t>JavaPrep/tutorial/information/glossary.html</t>
   </si>
   <si>
-    <t>JVM connection and invocation details</t>
-  </si>
-  <si>
-    <t>http://docs.oracle.com/javase/6/docs/technotes/guides/jpda/conninv.html</t>
-  </si>
-  <si>
     <t>Project Lambda</t>
   </si>
   <si>
@@ -543,12 +537,6 @@
     <t>http://winstone.sourceforge.net/#commandLine</t>
   </si>
   <si>
-    <t>Garbage Collection ergonomics</t>
-  </si>
-  <si>
-    <t>http://docs.oracle.com/javase/7/docs/technotes/guides/vm/gc-ergonomics.html</t>
-  </si>
-  <si>
     <t>PMD</t>
   </si>
   <si>
@@ -600,19 +588,10 @@
     <t>3DNS</t>
   </si>
   <si>
-    <t>https://www.artima.com/insidejvm/ed2/jvm.html</t>
-  </si>
-  <si>
-    <t>https://www.artima.com/insidejvm/ed2/gc.html</t>
-  </si>
-  <si>
     <t>SSL Certificate in Java</t>
   </si>
   <si>
     <t>JVM 8 specification</t>
-  </si>
-  <si>
-    <t>Inside Java Virtual Machine (JVM)</t>
   </si>
   <si>
     <t>http://www.javacodegeeks.com/2013/06/java-security-tutorial-step-by-step-guide-to-create-ssl-connection-and-certificates.html</t>
@@ -692,6 +671,9 @@
   </si>
   <si>
     <t>b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>c_Definitions_JVM</t>
   </si>
 </sst>
 </file>
@@ -882,13 +864,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1184,11 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,13 +1182,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1217,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -1228,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1239,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1247,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1258,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1269,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1280,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
@@ -1288,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
@@ -1299,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60">
@@ -1310,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -1321,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1332,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1340,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="28" customFormat="1">
@@ -1349,7 +1331,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1360,7 +1342,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1368,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1376,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1387,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45">
@@ -1398,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1406,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1414,7 +1396,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
@@ -1425,7 +1407,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1433,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1441,7 +1423,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1449,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1457,7 +1439,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
@@ -1465,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60">
@@ -1476,946 +1458,911 @@
         <v>41</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
+      <c r="B30" s="3"/>
+      <c r="C30" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" t="s">
-        <v>179</v>
+      <c r="A31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>180</v>
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="34"/>
+      <c r="A33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>179</v>
-      </c>
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>179</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="C44" s="28"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
       <c r="A54" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="75">
       <c r="A55" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="75">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" s="5" t="s">
-        <v>96</v>
+        <v>197</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30">
+        <v>102</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" t="s">
-        <v>180</v>
+        <v>104</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>111</v>
+      <c r="A85" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>115</v>
+      <c r="A86" s="34"/>
+      <c r="B86" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="32" t="s">
-        <v>117</v>
+      <c r="A88" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="B89" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30">
       <c r="A91" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="20" customFormat="1">
       <c r="A100" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="20" customFormat="1">
+    <row r="103" spans="1:3" s="14" customFormat="1">
       <c r="A103" s="5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:3" s="14" customFormat="1">
       <c r="A104" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" s="14" customFormat="1">
       <c r="A105" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:3" s="14" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" s="14" customFormat="1">
+        <v>192</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" s="14" customFormat="1">
+        <v>208</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" s="14" customFormat="1">
+        <v>142</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:3" ht="30">
       <c r="A112" s="5" t="s">
-        <v>58</v>
+        <v>145</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
+        <v>148</v>
+      </c>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>148</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B123" s="3"/>
+      <c r="C123" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>170</v>
+        <v>137</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="C142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30">
       <c r="A143" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>218</v>
+        <v>186</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="30">
+        <v>190</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>180</v>
+        <v>198</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>180</v>
+        <v>199</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C32:C33"/>
+  <mergeCells count="1">
+    <mergeCell ref="A85:A86"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B88" r:id="rId2"/>
-    <hyperlink ref="B91" r:id="rId3"/>
-    <hyperlink ref="B92" r:id="rId4"/>
-    <hyperlink ref="B93" r:id="rId5"/>
-    <hyperlink ref="B94" r:id="rId6"/>
-    <hyperlink ref="B95" r:id="rId7"/>
-    <hyperlink ref="B70" r:id="rId8"/>
-    <hyperlink ref="B81" r:id="rId9"/>
-    <hyperlink ref="B66" r:id="rId10"/>
-    <hyperlink ref="B59" r:id="rId11"/>
+    <hyperlink ref="B85" r:id="rId2"/>
+    <hyperlink ref="B88" r:id="rId3"/>
+    <hyperlink ref="B89" r:id="rId4"/>
+    <hyperlink ref="B90" r:id="rId5"/>
+    <hyperlink ref="B91" r:id="rId6"/>
+    <hyperlink ref="B92" r:id="rId7"/>
+    <hyperlink ref="B67" r:id="rId8"/>
+    <hyperlink ref="B78" r:id="rId9"/>
+    <hyperlink ref="B63" r:id="rId10"/>
+    <hyperlink ref="B56" r:id="rId11"/>
     <hyperlink ref="B19" r:id="rId12"/>
-    <hyperlink ref="B61" r:id="rId13"/>
-    <hyperlink ref="B96" r:id="rId14"/>
-    <hyperlink ref="B90" r:id="rId15"/>
-    <hyperlink ref="B84" r:id="rId16"/>
-    <hyperlink ref="B36" r:id="rId17"/>
-    <hyperlink ref="B57" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B56" r:id="rId19"/>
-    <hyperlink ref="B114" r:id="rId20"/>
-    <hyperlink ref="B115" r:id="rId21"/>
-    <hyperlink ref="B50" r:id="rId22"/>
+    <hyperlink ref="B58" r:id="rId13"/>
+    <hyperlink ref="B93" r:id="rId14"/>
+    <hyperlink ref="B87" r:id="rId15"/>
+    <hyperlink ref="B81" r:id="rId16"/>
+    <hyperlink ref="B33" r:id="rId17"/>
+    <hyperlink ref="B54" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B53" r:id="rId19"/>
+    <hyperlink ref="B111" r:id="rId20"/>
+    <hyperlink ref="B112" r:id="rId21"/>
+    <hyperlink ref="B47" r:id="rId22"/>
     <hyperlink ref="B15" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B128" r:id="rId24"/>
-    <hyperlink ref="B80" r:id="rId25"/>
-    <hyperlink ref="B133" r:id="rId26"/>
-    <hyperlink ref="B134" r:id="rId27" location="commandLine"/>
-    <hyperlink ref="B31" r:id="rId28"/>
-    <hyperlink ref="B89" r:id="rId29"/>
-    <hyperlink ref="B135" r:id="rId30"/>
-    <hyperlink ref="B79" r:id="rId31"/>
-    <hyperlink ref="B144" r:id="rId32"/>
-    <hyperlink ref="B32" r:id="rId33"/>
-    <hyperlink ref="B30" r:id="rId34"/>
-    <hyperlink ref="B34" r:id="rId35"/>
-    <hyperlink ref="B146" r:id="rId36"/>
-    <hyperlink ref="B109" r:id="rId37"/>
+    <hyperlink ref="B125" r:id="rId24"/>
+    <hyperlink ref="B77" r:id="rId25"/>
+    <hyperlink ref="B130" r:id="rId26"/>
+    <hyperlink ref="B131" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B86" r:id="rId28"/>
+    <hyperlink ref="B132" r:id="rId29"/>
+    <hyperlink ref="B76" r:id="rId30"/>
+    <hyperlink ref="B141" r:id="rId31"/>
+    <hyperlink ref="B143" r:id="rId32"/>
+    <hyperlink ref="B106" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="217">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>c_Definitions_JVM</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>Apiary</t>
   </si>
 </sst>
 </file>
@@ -1166,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1936,8 +1942,8 @@
       <c r="A95" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C95" t="s">
-        <v>175</v>
+      <c r="C95" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2320,6 +2326,22 @@
         <v>212</v>
       </c>
       <c r="C151" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" s="31" t="s">
         <v>213</v>
       </c>
     </row>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -681,12 +681,45 @@
   <si>
     <t>Apiary</t>
   </si>
+  <si>
+    <t>d_Definitions_unit_test.xlsx</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Easy Mock</t>
+  </si>
+  <si>
+    <t>Power Mock</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Core Java</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Web Services</t>
+  </si>
+  <si>
+    <t>e_Definitions_Amazon_AWS.xlsx</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>Build Tools</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,8 +757,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +804,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -812,12 +866,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -866,16 +957,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,11 +1277,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1186,7 +1291,7 @@
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>172</v>
       </c>
@@ -1196,164 +1301,168 @@
       <c r="C1" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60">
-      <c r="A11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="28" customFormat="1">
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
@@ -1361,7 +1470,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>175</v>
@@ -1369,21 +1478,15 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
@@ -1391,285 +1494,281 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45">
-      <c r="A23" s="4" t="s">
-        <v>33</v>
+    <row r="23" spans="1:3" ht="60">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
+        <v>41</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>175</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>175</v>
+        <v>187</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="60">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>176</v>
-      </c>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
+      <c r="A30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="32" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>214</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>175</v>
-      </c>
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>175</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>204</v>
+        <v>59</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
       <c r="A47" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75">
       <c r="A48" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>176</v>
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="75">
+        <v>85</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
@@ -1677,203 +1776,215 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30">
       <c r="A66" s="5" t="s">
-        <v>89</v>
+        <v>197</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>175</v>
+        <v>102</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>49</v>
+        <v>106</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>175</v>
+        <v>108</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="A75" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="30"/>
       <c r="B76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C76" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30">
       <c r="A81" s="5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>116</v>
+      <c r="A85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="3" t="s">
-        <v>117</v>
+      <c r="A86" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>175</v>
@@ -1881,10 +1992,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
         <v>175</v>
@@ -1892,497 +2000,590 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="14" customFormat="1">
       <c r="A92" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>194</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" s="14" customFormat="1">
       <c r="A93" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>195</v>
+      </c>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" s="14" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" s="14" customFormat="1">
       <c r="A95" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>213</v>
+        <v>192</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="20" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
       <c r="A100" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="14" customFormat="1">
+        <v>150</v>
+      </c>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" s="14" customFormat="1">
+        <v>151</v>
+      </c>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" s="14" customFormat="1">
+        <v>152</v>
+      </c>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" s="14" customFormat="1">
+        <v>153</v>
+      </c>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>159</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="30">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" s="3"/>
+        <v>171</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>179</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="3"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="3"/>
+        <v>181</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="3"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="3"/>
+        <v>185</v>
+      </c>
       <c r="C123" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>160</v>
+        <v>189</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>161</v>
+        <v>190</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>162</v>
+        <v>191</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>163</v>
+        <v>198</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>164</v>
+        <v>212</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A131" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A132" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" s="35"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>171</v>
+      <c r="A133" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>179</v>
+        <v>219</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A138" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="35"/>
+      <c r="C138" s="36"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>211</v>
+        <v>183</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="30">
-      <c r="A143" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C144" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A144" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="35"/>
+      <c r="C144" s="36"/>
+    </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>176</v>
+      <c r="A145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>191</v>
-      </c>
+      <c r="A146" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A149" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C151" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>213</v>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A158" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="35"/>
+      <c r="C158" s="36"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A168" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="45">
+      <c r="A170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A85:A86"/>
+  <mergeCells count="8">
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A138:C138"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B85" r:id="rId2"/>
-    <hyperlink ref="B88" r:id="rId3"/>
-    <hyperlink ref="B89" r:id="rId4"/>
-    <hyperlink ref="B90" r:id="rId5"/>
-    <hyperlink ref="B91" r:id="rId6"/>
-    <hyperlink ref="B92" r:id="rId7"/>
-    <hyperlink ref="B67" r:id="rId8"/>
-    <hyperlink ref="B78" r:id="rId9"/>
-    <hyperlink ref="B63" r:id="rId10"/>
-    <hyperlink ref="B56" r:id="rId11"/>
-    <hyperlink ref="B19" r:id="rId12"/>
-    <hyperlink ref="B58" r:id="rId13"/>
-    <hyperlink ref="B93" r:id="rId14"/>
-    <hyperlink ref="B87" r:id="rId15"/>
-    <hyperlink ref="B81" r:id="rId16"/>
-    <hyperlink ref="B33" r:id="rId17"/>
-    <hyperlink ref="B54" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B53" r:id="rId19"/>
-    <hyperlink ref="B111" r:id="rId20"/>
-    <hyperlink ref="B112" r:id="rId21"/>
-    <hyperlink ref="B47" r:id="rId22"/>
-    <hyperlink ref="B15" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B125" r:id="rId24"/>
-    <hyperlink ref="B77" r:id="rId25"/>
-    <hyperlink ref="B130" r:id="rId26"/>
-    <hyperlink ref="B131" r:id="rId27" location="commandLine"/>
-    <hyperlink ref="B86" r:id="rId28"/>
-    <hyperlink ref="B132" r:id="rId29"/>
-    <hyperlink ref="B76" r:id="rId30"/>
-    <hyperlink ref="B141" r:id="rId31"/>
-    <hyperlink ref="B143" r:id="rId32"/>
-    <hyperlink ref="B106" r:id="rId33"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B75" r:id="rId2"/>
+    <hyperlink ref="B78" r:id="rId3"/>
+    <hyperlink ref="B79" r:id="rId4"/>
+    <hyperlink ref="B80" r:id="rId5"/>
+    <hyperlink ref="B81" r:id="rId6"/>
+    <hyperlink ref="B82" r:id="rId7"/>
+    <hyperlink ref="B58" r:id="rId8"/>
+    <hyperlink ref="B68" r:id="rId9"/>
+    <hyperlink ref="B54" r:id="rId10"/>
+    <hyperlink ref="B154" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B50" r:id="rId13"/>
+    <hyperlink ref="B83" r:id="rId14"/>
+    <hyperlink ref="B77" r:id="rId15"/>
+    <hyperlink ref="B71" r:id="rId16"/>
+    <hyperlink ref="B27" r:id="rId17"/>
+    <hyperlink ref="B47" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B46" r:id="rId19"/>
+    <hyperlink ref="B99" r:id="rId20"/>
+    <hyperlink ref="B100" r:id="rId21"/>
+    <hyperlink ref="B40" r:id="rId22"/>
+    <hyperlink ref="B146" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B107" r:id="rId24"/>
+    <hyperlink ref="B67" r:id="rId25"/>
+    <hyperlink ref="B112" r:id="rId26"/>
+    <hyperlink ref="B113" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B76" r:id="rId28"/>
+    <hyperlink ref="B114" r:id="rId29"/>
+    <hyperlink ref="B66" r:id="rId30"/>
+    <hyperlink ref="B140" r:id="rId31"/>
+    <hyperlink ref="B124" r:id="rId32"/>
+    <hyperlink ref="B95" r:id="rId33"/>
+    <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="231">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -713,6 +713,15 @@
   </si>
   <si>
     <t>Build Tools</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/using-yaml-java-application</t>
   </si>
 </sst>
 </file>
@@ -958,12 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,6 +984,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,11 +1286,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1301,16 +1310,16 @@
       <c r="C1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1883,7 +1892,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1891,7 +1900,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="30"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="3" t="s">
         <v>117</v>
       </c>
@@ -1966,14 +1975,6 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
         <v>134</v>
@@ -2278,7 +2279,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="30" t="s">
         <v>216</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -2286,14 +2287,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="34"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -2326,11 +2327,11 @@
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="138" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="34"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
@@ -2358,11 +2359,11 @@
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="34"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
@@ -2391,11 +2392,11 @@
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="149" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="34"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
@@ -2434,11 +2435,11 @@
     </row>
     <row r="157" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="158" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="35"/>
-      <c r="C158" s="36"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="34"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
@@ -2505,11 +2506,11 @@
     </row>
     <row r="167" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="168" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
@@ -2538,16 +2539,41 @@
         <v>97</v>
       </c>
     </row>
+    <row r="173" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="174" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A174" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A174:C174"/>
     <mergeCell ref="A144:C144"/>
     <mergeCell ref="A149:C149"/>
     <mergeCell ref="A158:C158"/>
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A138:C138"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2584,8 +2610,9 @@
     <hyperlink ref="B124" r:id="rId32"/>
     <hyperlink ref="B95" r:id="rId33"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
+    <hyperlink ref="B175" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -108,11 +108,6 @@
   </si>
   <si>
     <t>Maven</t>
-  </si>
-  <si>
-    <t>1_maven_tutorial.pdf
-2_mvnex-pdf
-http://maven.apache.org/guides/getting-started/maven-in-five-minutes.html</t>
   </si>
   <si>
     <t>EJB Theory</t>
@@ -646,9 +641,6 @@
     <t>4_Definitions_Algorithms.xlsx</t>
   </si>
   <si>
-    <t>6_Definitions_Spring.xlsx</t>
-  </si>
-  <si>
     <t>8_Definitions_Angular_JS.xlsx</t>
   </si>
   <si>
@@ -682,12 +674,6 @@
     <t>Apiary</t>
   </si>
   <si>
-    <t>d_Definitions_unit_test.xlsx</t>
-  </si>
-  <si>
-    <t>Unit Testing</t>
-  </si>
-  <si>
     <t>Easy Mock</t>
   </si>
   <si>
@@ -700,9 +686,6 @@
     <t>Core Java</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>Web Services</t>
   </si>
   <si>
@@ -712,16 +695,38 @@
     <t>Frameworks</t>
   </si>
   <si>
-    <t>Build Tools</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
     <t>YAML</t>
   </si>
   <si>
     <t>https://dzone.com/articles/using-yaml-java-application</t>
+  </si>
+  <si>
+    <t>1_maven_tutorial.pdf
+2_mvnex-pdf</t>
+  </si>
+  <si>
+    <t>http://maven.apache.org/guides/getting-started/maven-in-five-minutes.html</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>Best Practices - 7_Definitions_Design_Patterns.xlsx</t>
+  </si>
+  <si>
+    <t>Spring - 6_Definitions_Spring.xlsx</t>
+  </si>
+  <si>
+    <t>Build Tools - f_Definitions_Build_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>DB - g_Definitions_DB.xlsx</t>
+  </si>
+  <si>
+    <t>Unit Testing - d_Definitions_unit_test.xlsx</t>
   </si>
 </sst>
 </file>
@@ -917,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -976,6 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -991,6 +997,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1286,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,24 +1316,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="D1" s="29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1329,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
@@ -1340,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1351,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1359,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1370,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1381,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1392,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
@@ -1400,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
@@ -1411,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -1422,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -1433,7 +1447,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1444,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1455,176 +1469,168 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60">
       <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C23" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C34" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1633,947 +1639,955 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75">
       <c r="A48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="36" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="35" t="s">
+      <c r="B75" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="3" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="37"/>
+      <c r="B76" s="3" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="36"/>
-      <c r="B76" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30">
       <c r="A81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="14" customFormat="1">
       <c r="A92" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:3" s="14" customFormat="1">
       <c r="A93" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:3" s="14" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:3" s="14" customFormat="1">
       <c r="A95" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="C95" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="30">
       <c r="A124" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
       <c r="A131" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A132" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="34"/>
+      <c r="A132" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" s="34"/>
+      <c r="C132" s="35"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C133" s="27"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C134" s="27"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C135" s="27"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>217</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C136" s="27"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="138" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A138" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34"/>
+      <c r="A138" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" s="34"/>
+      <c r="C138" s="35"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>176</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C139" s="16"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>176</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C141" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="34"/>
+      <c r="A144" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="34"/>
+      <c r="C144" s="35"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="149" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A149" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="34"/>
+      <c r="A149" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="34"/>
+      <c r="C149" s="35"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
-        <v>32</v>
+      <c r="A153" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C153" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="158" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A158" s="32" t="s">
+    <row r="156" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A157" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="34"/>
+      <c r="C157" s="35"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="34"/>
+      <c r="B158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" s="27"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="A159" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" s="27"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="C160" s="27"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>205</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="27"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B162" s="3"/>
-      <c r="C162" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="C162" s="27"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B163" s="3"/>
-      <c r="C163" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="C163" s="27"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A168" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
+      <c r="C164" s="27"/>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A167" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" s="34"/>
+      <c r="C167" s="35"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C169" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="45">
-      <c r="A170" s="1" t="s">
+    </row>
+    <row r="169" spans="1:3" ht="30">
+      <c r="A169" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C170" t="s">
-        <v>175</v>
-      </c>
+      <c r="B169" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="40"/>
+    </row>
+    <row r="170" spans="1:3" s="27" customFormat="1">
+      <c r="A170" s="39"/>
+      <c r="B170" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C170" s="40"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="174" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A174" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
+      <c r="A174" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" s="34"/>
+      <c r="C174" s="35"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C175" s="27"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C176" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="27" customFormat="1">
+      <c r="A177" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" s="32" customFormat="1">
+      <c r="A178" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" s="32" customFormat="1">
+      <c r="A179" s="5" t="s">
         <v>213</v>
       </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="27"/>
+    </row>
+    <row r="180" spans="1:3" s="32" customFormat="1">
+      <c r="A180" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A182" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="34"/>
+      <c r="C182" s="35"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A182:C182"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A174:C174"/>
     <mergeCell ref="A144:C144"/>
     <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A167:C167"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="C169:C170"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2586,7 +2600,7 @@
     <hyperlink ref="B58" r:id="rId8"/>
     <hyperlink ref="B68" r:id="rId9"/>
     <hyperlink ref="B54" r:id="rId10"/>
-    <hyperlink ref="B154" r:id="rId11"/>
+    <hyperlink ref="B153" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
     <hyperlink ref="B50" r:id="rId13"/>
     <hyperlink ref="B83" r:id="rId14"/>
@@ -2611,8 +2625,9 @@
     <hyperlink ref="B95" r:id="rId33"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B175" r:id="rId34"/>
+    <hyperlink ref="B170" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="232">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -648,9 +648,6 @@
   </si>
   <si>
     <t>Togglz</t>
-  </si>
-  <si>
-    <t>7_Definitions_Design_Patterns.xlsx</t>
   </si>
   <si>
     <t>Utils</t>
@@ -982,6 +979,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1004,7 +1002,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,15 +1322,15 @@
         <v>173</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="34" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1548,7 +1545,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1559,7 +1556,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1898,7 +1895,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="37" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1906,7 +1903,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="37"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="3" t="s">
         <v>116</v>
       </c>
@@ -2052,14 +2049,6 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>57</v>
@@ -2209,7 +2198,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2217,7 +2206,7 @@
         <v>179</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2270,26 +2259,26 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" s="27" t="s">
         <v>210</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
       <c r="A131" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A132" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="35"/>
+      <c r="A132" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="35"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="31" t="s">
@@ -2305,23 +2294,23 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" s="27"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" s="27"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="138" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A138" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="35"/>
+      <c r="A138" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="35"/>
+      <c r="C138" s="36"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
@@ -2345,11 +2334,11 @@
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="35"/>
+      <c r="A144" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144" s="35"/>
+      <c r="C144" s="36"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
@@ -2373,16 +2362,16 @@
         <v>141</v>
       </c>
       <c r="C147" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="149" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A149" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="35"/>
+      <c r="A149" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
@@ -2421,11 +2410,11 @@
     </row>
     <row r="156" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A157" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B157" s="34"/>
-      <c r="C157" s="35"/>
+      <c r="A157" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="35"/>
+      <c r="C157" s="36"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
@@ -2478,11 +2467,11 @@
     </row>
     <row r="166" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="167" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A167" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B167" s="34"/>
-      <c r="C167" s="35"/>
+      <c r="A167" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B167" s="35"/>
+      <c r="C167" s="36"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
@@ -2493,20 +2482,20 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="30">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" s="41"/>
+    </row>
+    <row r="170" spans="1:3" s="27" customFormat="1">
+      <c r="A170" s="40"/>
+      <c r="B170" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C169" s="40"/>
-    </row>
-    <row r="170" spans="1:3" s="27" customFormat="1">
-      <c r="A170" s="39"/>
-      <c r="B170" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C170" s="40"/>
+      <c r="C170" s="41"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
@@ -2515,18 +2504,18 @@
     </row>
     <row r="173" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="174" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A174" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174" s="34"/>
-      <c r="C174" s="35"/>
+      <c r="A174" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="C175" s="27"/>
     </row>
@@ -2537,42 +2526,48 @@
     </row>
     <row r="177" spans="1:3" s="27" customFormat="1">
       <c r="A177" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:3" s="32" customFormat="1">
-      <c r="A178" s="41" t="s">
-        <v>210</v>
+      <c r="A178" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:3" s="32" customFormat="1">
       <c r="A179" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="27"/>
     </row>
     <row r="180" spans="1:3" s="32" customFormat="1">
-      <c r="A180" s="41" t="s">
-        <v>214</v>
+      <c r="A180" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="182" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A182" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B182" s="34"/>
-      <c r="C182" s="35"/>
+      <c r="A182" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" s="35"/>
+      <c r="C182" s="36"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C183" s="27"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="232">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -604,9 +604,6 @@
     <t>Apache Camel</t>
   </si>
   <si>
-    <t>http://camel.apache.org/getting-started.html</t>
-  </si>
-  <si>
     <t>ESB</t>
   </si>
   <si>
@@ -724,6 +721,9 @@
   </si>
   <si>
     <t>Unit Testing - d_Definitions_unit_test.xlsx</t>
+  </si>
+  <si>
+    <t>h_Definitions_Camel.xlsx</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,6 +979,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1300,8 +1300,8 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,13 +1321,13 @@
       <c r="C1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="34" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>217</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="36"/>
@@ -1535,7 +1535,7 @@
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1544,8 +1544,8 @@
         <v>41</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="28" t="s">
-        <v>211</v>
+      <c r="C24" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1555,8 +1555,8 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>211</v>
+      <c r="C25" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1621,8 +1621,8 @@
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>203</v>
+      <c r="C34" s="21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
@@ -1661,7 +1661,7 @@
       <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1748,8 +1748,8 @@
       <c r="B54" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>202</v>
+      <c r="C54" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1824,7 +1824,7 @@
     </row>
     <row r="66" spans="1:3" ht="30">
       <c r="A66" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -2020,33 +2020,31 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="14" customFormat="1">
+    <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1">
+      <c r="A93" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" s="14" customFormat="1">
-      <c r="A93" s="5" t="s">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" s="13" customFormat="1">
+      <c r="A94" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" s="14" customFormat="1">
-      <c r="A94" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:3" s="14" customFormat="1">
+    <row r="95" spans="1:3" s="13" customFormat="1">
       <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>175</v>
+      <c r="B95" s="3"/>
+      <c r="C95" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2172,8 +2170,8 @@
       <c r="A116" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>204</v>
+      <c r="C116" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2198,15 +2196,15 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C122" s="26" t="s">
-        <v>208</v>
+      <c r="C122" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2245,78 +2243,78 @@
       <c r="A127" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>202</v>
+      <c r="C127" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C129" s="27" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>210</v>
+      <c r="A131" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1">
       <c r="A132" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" s="35"/>
       <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C133" s="27"/>
+      <c r="A133" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C133" s="26"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C134" s="27"/>
+        <v>199</v>
+      </c>
+      <c r="C134" s="26"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="27"/>
+        <v>213</v>
+      </c>
+      <c r="C135" s="26"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" s="27"/>
+        <v>214</v>
+      </c>
+      <c r="C136" s="26"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="138" spans="1:3" ht="15.75" thickBot="1">
       <c r="A138" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B138" s="35"/>
       <c r="C138" s="36"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C139" s="16"/>
+        <v>197</v>
+      </c>
+      <c r="C139" s="15"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
@@ -2328,14 +2326,14 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="C141" s="16"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
       <c r="A144" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" s="35"/>
       <c r="C144" s="36"/>
@@ -2344,8 +2342,8 @@
       <c r="A145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>205</v>
+      <c r="C145" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2353,22 +2351,22 @@
         <v>55</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="24" t="s">
-        <v>205</v>
+      <c r="C146" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C147" s="27" t="s">
-        <v>219</v>
+      <c r="C147" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="149" spans="1:3" ht="15.75" thickBot="1">
       <c r="A149" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="35"/>
       <c r="C149" s="36"/>
@@ -2411,7 +2409,7 @@
     <row r="156" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="157" spans="1:3" ht="15.75" thickBot="1">
       <c r="A157" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B157" s="35"/>
       <c r="C157" s="36"/>
@@ -2423,52 +2421,52 @@
       <c r="B158" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C158" s="27"/>
+      <c r="C158" s="26"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C159" s="27"/>
+      <c r="C159" s="26"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="27"/>
+      <c r="C160" s="26"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B161" s="3"/>
-      <c r="C161" s="27"/>
+      <c r="C161" s="26"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B162" s="3"/>
-      <c r="C162" s="27"/>
+      <c r="C162" s="26"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B163" s="3"/>
-      <c r="C163" s="27"/>
+      <c r="C163" s="26"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B164" s="3"/>
-      <c r="C164" s="27"/>
+      <c r="C164" s="26"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="167" spans="1:3" ht="15.75" thickBot="1">
       <c r="A167" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" s="35"/>
       <c r="C167" s="36"/>
@@ -2486,14 +2484,14 @@
         <v>29</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" s="41"/>
     </row>
-    <row r="170" spans="1:3" s="27" customFormat="1">
+    <row r="170" spans="1:3" s="26" customFormat="1">
       <c r="A170" s="40"/>
       <c r="B170" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="41"/>
     </row>
@@ -2505,54 +2503,54 @@
     <row r="173" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="174" spans="1:3" ht="15.75" thickBot="1">
       <c r="A174" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B174" s="35"/>
       <c r="C174" s="36"/>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="27" t="s">
+      <c r="A175" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C175" s="27"/>
+      <c r="C175" s="26"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="27" customFormat="1">
-      <c r="A177" s="27" t="s">
-        <v>225</v>
+    <row r="177" spans="1:3" s="26" customFormat="1">
+      <c r="A177" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:3" s="32" customFormat="1">
-      <c r="A178" s="33" t="s">
-        <v>209</v>
+    <row r="178" spans="1:3" s="31" customFormat="1">
+      <c r="A178" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:3" s="32" customFormat="1">
+    <row r="179" spans="1:3" s="31" customFormat="1">
       <c r="A179" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="26"/>
+    </row>
+    <row r="180" spans="1:3" s="31" customFormat="1">
+      <c r="A180" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="27"/>
-    </row>
-    <row r="180" spans="1:3" s="32" customFormat="1">
-      <c r="A180" s="33" t="s">
-        <v>213</v>
       </c>
       <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="182" spans="1:3" ht="15.75" thickBot="1">
       <c r="A182" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B182" s="35"/>
       <c r="C182" s="36"/>
@@ -2561,13 +2559,13 @@
       <c r="A183" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="27"/>
+      <c r="C183" s="26"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C184" s="25"/>
+        <v>205</v>
+      </c>
+      <c r="C184" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2617,12 +2615,11 @@
     <hyperlink ref="B66" r:id="rId30"/>
     <hyperlink ref="B140" r:id="rId31"/>
     <hyperlink ref="B124" r:id="rId32"/>
-    <hyperlink ref="B95" r:id="rId33"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B175" r:id="rId34"/>
-    <hyperlink ref="B170" r:id="rId35"/>
+    <hyperlink ref="B175" r:id="rId33"/>
+    <hyperlink ref="B170" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="233">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>h_Definitions_Camel.xlsx</t>
+  </si>
+  <si>
+    <t>SAML</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1303,8 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2547,7 +2550,11 @@
       </c>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A181" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="182" spans="1:3" ht="15.75" thickBot="1">
       <c r="A182" s="34" t="s">
         <v>226</v>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1303,8 +1303,8 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1303,8 +1303,8 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="237">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -659,9 +659,6 @@
     <t>b_Definitions_Tools.xlsx</t>
   </si>
   <si>
-    <t>c_Definitions_JVM</t>
-  </si>
-  <si>
     <t>Swagger</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
   </si>
   <si>
     <t>YAML</t>
-  </si>
-  <si>
-    <t>https://dzone.com/articles/using-yaml-java-application</t>
   </si>
   <si>
     <t>1_maven_tutorial.pdf
@@ -727,6 +721,24 @@
   </si>
   <si>
     <t>SAML</t>
+  </si>
+  <si>
+    <t>JVM and JDK Tools - c_Definitions_JVM.xlsx</t>
+  </si>
+  <si>
+    <t>Jmeter</t>
+  </si>
+  <si>
+    <t>Docker Hub</t>
+  </si>
+  <si>
+    <t>APIGEE</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Authentication/Autherization - i_Definitions_Authentication.xlsx</t>
   </si>
 </sst>
 </file>
@@ -831,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -917,12 +929,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,7 +993,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,6 +1005,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1300,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,16 +1350,16 @@
       <c r="C1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="35" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1544,446 +1570,452 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="27" t="s">
-        <v>210</v>
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>210</v>
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>174</v>
-      </c>
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>174</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3"/>
+      <c r="A33" s="34" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>202</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
       <c r="A45" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="75">
       <c r="A46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30">
+        <v>69</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
+        <v>83</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30">
       <c r="A64" s="5" t="s">
-        <v>95</v>
+        <v>195</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30">
+        <v>99</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>112</v>
+      <c r="A73" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
-        <v>113</v>
+      <c r="A74" s="39"/>
+      <c r="B74" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="37" t="s">
-        <v>114</v>
+      <c r="A75" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="38"/>
+      <c r="A76" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="B76" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30">
       <c r="A79" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>130</v>
+      <c r="A83" s="34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
         <v>174</v>
@@ -1991,642 +2023,665 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>192</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1">
       <c r="A91" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:3" s="13" customFormat="1">
       <c r="A93" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" s="13" customFormat="1">
-      <c r="A94" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" s="13" customFormat="1">
+        <v>191</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="33" t="s">
-        <v>231</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
       <c r="A98" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="30">
+        <v>146</v>
+      </c>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>169</v>
+        <v>136</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>207</v>
+        <v>185</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30">
+        <v>188</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
         <v>208</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A129" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1">
+    <row r="130" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A130" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C131" s="26"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" s="26"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A132" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="C133" s="26"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C134" s="26"/>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" s="26"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C136" s="26"/>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A138" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A136" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136" s="36"/>
+      <c r="C136" s="37"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C139" s="15"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C141" s="16"/>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="34" t="s">
+      <c r="C139" s="16"/>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A142" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="36"/>
+      <c r="C142" s="37"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" s="26" t="s">
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A147" s="35" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="149" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A149" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="37"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C150" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>26</v>
+      <c r="A151" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C153" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A157" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="36"/>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A155" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" s="36"/>
+      <c r="C155" s="37"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="26"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C157" s="26"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>24</v>
+      <c r="A158" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C158" s="26"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="26"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B160" s="3"/>
       <c r="C160" s="26"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="26"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="26"/>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="26"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="26"/>
-    </row>
-    <row r="166" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="167" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A167" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B167" s="35"/>
-      <c r="C167" s="36"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
+    <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A165" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="36"/>
+      <c r="C165" s="37"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30">
-      <c r="A169" s="39" t="s">
+    <row r="167" spans="1:3" ht="30">
+      <c r="A167" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B167" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" s="42"/>
+    </row>
+    <row r="168" spans="1:3" s="26" customFormat="1">
+      <c r="A168" s="41"/>
+      <c r="B168" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" s="42"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="172" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A172" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B172" s="36"/>
+      <c r="C172" s="37"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C173" s="26"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="26" customFormat="1">
+      <c r="A175" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C169" s="41"/>
-    </row>
-    <row r="170" spans="1:3" s="26" customFormat="1">
-      <c r="A170" s="40"/>
-      <c r="B170" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C170" s="41"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="174" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A174" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C175" s="26"/>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="26" customFormat="1">
-      <c r="A177" s="26" t="s">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" s="30" customFormat="1">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" s="30" customFormat="1">
+      <c r="A177" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="26"/>
+    </row>
+    <row r="178" spans="1:3" s="30" customFormat="1">
+      <c r="A178" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A180" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:3" s="31" customFormat="1">
-      <c r="A178" s="32" t="s">
+      <c r="B180" s="36"/>
+      <c r="C180" s="37"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="26"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C182" s="24"/>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A185" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B185" s="36"/>
+      <c r="C185" s="37"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="190" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A190" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B190" s="36"/>
+      <c r="C190" s="37"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="14"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:3" s="31" customFormat="1">
-      <c r="A179" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="26"/>
-    </row>
-    <row r="180" spans="1:3" s="31" customFormat="1">
-      <c r="A180" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A181" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A182" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B182" s="35"/>
-      <c r="C182" s="36"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C183" s="26"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C184" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A182:C182"/>
+  <mergeCells count="14">
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A180:C180"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="C167:C168"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B75" r:id="rId2"/>
-    <hyperlink ref="B78" r:id="rId3"/>
-    <hyperlink ref="B79" r:id="rId4"/>
-    <hyperlink ref="B80" r:id="rId5"/>
-    <hyperlink ref="B81" r:id="rId6"/>
-    <hyperlink ref="B82" r:id="rId7"/>
-    <hyperlink ref="B58" r:id="rId8"/>
-    <hyperlink ref="B68" r:id="rId9"/>
-    <hyperlink ref="B54" r:id="rId10"/>
-    <hyperlink ref="B153" r:id="rId11"/>
+    <hyperlink ref="B73" r:id="rId2"/>
+    <hyperlink ref="B76" r:id="rId3"/>
+    <hyperlink ref="B77" r:id="rId4"/>
+    <hyperlink ref="B78" r:id="rId5"/>
+    <hyperlink ref="B79" r:id="rId6"/>
+    <hyperlink ref="B80" r:id="rId7"/>
+    <hyperlink ref="B56" r:id="rId8"/>
+    <hyperlink ref="B66" r:id="rId9"/>
+    <hyperlink ref="B52" r:id="rId10"/>
+    <hyperlink ref="B151" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B50" r:id="rId13"/>
-    <hyperlink ref="B83" r:id="rId14"/>
-    <hyperlink ref="B77" r:id="rId15"/>
-    <hyperlink ref="B71" r:id="rId16"/>
-    <hyperlink ref="B27" r:id="rId17"/>
-    <hyperlink ref="B47" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B46" r:id="rId19"/>
-    <hyperlink ref="B99" r:id="rId20"/>
-    <hyperlink ref="B100" r:id="rId21"/>
-    <hyperlink ref="B40" r:id="rId22"/>
-    <hyperlink ref="B146" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B107" r:id="rId24"/>
-    <hyperlink ref="B67" r:id="rId25"/>
-    <hyperlink ref="B112" r:id="rId26"/>
-    <hyperlink ref="B113" r:id="rId27" location="commandLine"/>
-    <hyperlink ref="B76" r:id="rId28"/>
-    <hyperlink ref="B114" r:id="rId29"/>
-    <hyperlink ref="B66" r:id="rId30"/>
-    <hyperlink ref="B140" r:id="rId31"/>
-    <hyperlink ref="B124" r:id="rId32"/>
+    <hyperlink ref="B48" r:id="rId13"/>
+    <hyperlink ref="B81" r:id="rId14"/>
+    <hyperlink ref="B75" r:id="rId15"/>
+    <hyperlink ref="B69" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B45" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B44" r:id="rId19"/>
+    <hyperlink ref="B97" r:id="rId20"/>
+    <hyperlink ref="B98" r:id="rId21"/>
+    <hyperlink ref="B38" r:id="rId22"/>
+    <hyperlink ref="B144" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B105" r:id="rId24"/>
+    <hyperlink ref="B65" r:id="rId25"/>
+    <hyperlink ref="B110" r:id="rId26"/>
+    <hyperlink ref="B111" r:id="rId27" location="commandLine"/>
+    <hyperlink ref="B74" r:id="rId28"/>
+    <hyperlink ref="B112" r:id="rId29"/>
+    <hyperlink ref="B64" r:id="rId30"/>
+    <hyperlink ref="B138" r:id="rId31"/>
+    <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B175" r:id="rId33"/>
-    <hyperlink ref="B170" r:id="rId34"/>
+    <hyperlink ref="B168" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1329,8 +1329,8 @@
   <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="248">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -726,9 +726,6 @@
     <t>JVM and JDK Tools - c_Definitions_JVM.xlsx</t>
   </si>
   <si>
-    <t>Jmeter</t>
-  </si>
-  <si>
     <t>Docker Hub</t>
   </si>
   <si>
@@ -739,6 +736,42 @@
   </si>
   <si>
     <t>Authentication/Autherization - i_Definitions_Authentication.xlsx</t>
+  </si>
+  <si>
+    <t>Linux - j_Definitions_Linux.xlsx</t>
+  </si>
+  <si>
+    <t>Ecl Emma</t>
+  </si>
+  <si>
+    <t>Coburtura</t>
+  </si>
+  <si>
+    <t>Jacoco</t>
+  </si>
+  <si>
+    <t>Jcov</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Java_Code_Coverage_Tools</t>
+  </si>
+  <si>
+    <t>Code coverage tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>Apache Jmeter</t>
+  </si>
+  <si>
+    <t>Load and performance testing tool by Apache</t>
+  </si>
+  <si>
+    <t>Performance testing tools - b_Definitions_Tools.xlsx</t>
   </si>
 </sst>
 </file>
@@ -945,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,10 +1038,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1326,18 +1362,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.875" customWidth="1"/>
+    <col min="2" max="2" width="88.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
@@ -1355,11 +1391,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1372,7 +1408,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60">
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +1501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,8 +1671,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="34" t="s">
-        <v>233</v>
+      <c r="A33" s="33" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1909,7 +1945,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1917,7 +1953,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="39"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -1993,8 +2029,8 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="34" t="s">
-        <v>234</v>
+      <c r="A83" s="33" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2067,8 +2103,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="34" t="s">
-        <v>235</v>
+      <c r="A94" s="33" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2288,11 +2324,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="40"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2320,11 +2356,11 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="37"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="40"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
@@ -2348,11 +2384,11 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="37"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="40"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
@@ -2381,11 +2417,11 @@
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="147" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="36"/>
-      <c r="C147" s="37"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="40"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -2424,11 +2460,11 @@
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="155" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="36"/>
-      <c r="C155" s="37"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="40"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -2481,11 +2517,11 @@
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="35" t="s">
+      <c r="A165" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="36"/>
-      <c r="C165" s="37"/>
+      <c r="B165" s="39"/>
+      <c r="C165" s="40"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
@@ -2496,20 +2532,20 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="30">
-      <c r="A167" s="40" t="s">
+      <c r="A167" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C167" s="42"/>
+      <c r="C167" s="45"/>
     </row>
     <row r="168" spans="1:3" s="26" customFormat="1">
-      <c r="A168" s="41"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C168" s="42"/>
+      <c r="C168" s="45"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
@@ -2518,11 +2554,11 @@
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="172" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A172" s="35" t="s">
+      <c r="A172" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="36"/>
-      <c r="C172" s="37"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="40"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="26" t="s">
@@ -2541,9 +2577,7 @@
       </c>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:3" s="30" customFormat="1">
-      <c r="B176" s="2"/>
-    </row>
+    <row r="176" spans="1:3" s="30" customFormat="1"/>
     <row r="177" spans="1:3" s="30" customFormat="1">
       <c r="A177" s="5" t="s">
         <v>210</v>
@@ -2559,11 +2593,11 @@
     </row>
     <row r="179" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B180" s="36"/>
-      <c r="C180" s="37"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="40"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="5" t="s">
@@ -2579,16 +2613,11 @@
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B185" s="36"/>
-      <c r="C185" s="37"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="33" t="s">
-        <v>232</v>
-      </c>
+      <c r="B185" s="39"/>
+      <c r="C185" s="40"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
@@ -2606,11 +2635,11 @@
     </row>
     <row r="189" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="190" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A190" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B190" s="36"/>
-      <c r="C190" s="37"/>
+      <c r="A190" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" s="39"/>
+      <c r="C190" s="40"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
@@ -2623,16 +2652,105 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:3">
       <c r="A193" s="31" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="194" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A194" s="31"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A195" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B195" s="39"/>
+      <c r="C195" s="40"/>
+    </row>
+    <row r="196" spans="1:3" s="34" customFormat="1">
+      <c r="A196" s="31"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" s="34" customFormat="1">
+      <c r="A197" s="31"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" s="34" customFormat="1">
+      <c r="A198" s="31"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" s="34" customFormat="1">
+      <c r="A199" s="31"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="201" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A201" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B201" s="39"/>
+      <c r="C201" s="40"/>
+    </row>
+    <row r="202" spans="1:3" s="34" customFormat="1">
+      <c r="A202" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B209" s="39"/>
+      <c r="C209" s="40"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A190:C190"/>
+  <mergeCells count="17">
     <mergeCell ref="A185:C185"/>
     <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A209:C209"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2644,6 +2762,9 @@
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A167:A168"/>
     <mergeCell ref="C167:C168"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A190:C190"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2680,8 +2801,9 @@
     <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B168" r:id="rId33"/>
+    <hyperlink ref="B202" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1365,14 +1365,14 @@
   <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.875" customWidth="1"/>
-    <col min="2" max="2" width="88.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2748,6 +2748,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A190:C190"/>
     <mergeCell ref="A185:C185"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A209:C209"/>
@@ -2764,7 +2765,6 @@
     <mergeCell ref="C167:C168"/>
     <mergeCell ref="A201:C201"/>
     <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A190:C190"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1365,8 +1365,8 @@
   <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1408,7 +1408,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="60">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2748,6 +2748,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A195:C195"/>
     <mergeCell ref="A190:C190"/>
     <mergeCell ref="A185:C185"/>
     <mergeCell ref="A180:C180"/>
@@ -2764,7 +2765,6 @@
     <mergeCell ref="A167:A168"/>
     <mergeCell ref="C167:C168"/>
     <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A195:C195"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>Performance testing tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1045,6 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1059,12 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -1362,11 +1360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,11 +1389,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1945,7 +1943,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1953,7 +1951,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="42"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2324,11 +2322,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="40"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="41"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2356,11 +2354,11 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="39"/>
-      <c r="C136" s="40"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="41"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
@@ -2384,11 +2382,11 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B142" s="39"/>
-      <c r="C142" s="40"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="41"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
@@ -2417,11 +2415,11 @@
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="147" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="41"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -2460,11 +2458,11 @@
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="155" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A155" s="38" t="s">
+      <c r="A155" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="41"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -2517,14 +2515,14 @@
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="39"/>
-      <c r="C165" s="40"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="41"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B166" s="7" t="s">
@@ -2532,33 +2530,33 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="30">
-      <c r="A167" s="43" t="s">
+      <c r="A167" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C167" s="45"/>
+      <c r="C167" s="44"/>
     </row>
     <row r="168" spans="1:3" s="26" customFormat="1">
-      <c r="A168" s="44"/>
+      <c r="A168" s="38"/>
       <c r="B168" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C168" s="45"/>
+      <c r="C168" s="44"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="172" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A172" s="38" t="s">
+      <c r="A172" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="39"/>
-      <c r="C172" s="40"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="41"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="26" t="s">
@@ -2567,7 +2565,7 @@
       <c r="C173" s="26"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="38" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2577,96 +2575,108 @@
       </c>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:3" s="30" customFormat="1"/>
+    <row r="176" spans="1:3" s="30" customFormat="1">
+      <c r="A176" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="177" spans="1:3" s="30" customFormat="1">
-      <c r="A177" s="5" t="s">
-        <v>210</v>
+      <c r="A177" s="31" t="s">
+        <v>211</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" s="30" customFormat="1">
-      <c r="A178" s="31" t="s">
-        <v>211</v>
+      <c r="A178" s="37" t="s">
+        <v>234</v>
       </c>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A179" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="38" t="s">
+      <c r="A180" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B180" s="39"/>
-      <c r="C180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="41"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C181" s="26"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="38" t="s">
         <v>205</v>
       </c>
       <c r="C182" s="24"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="38" t="s">
+      <c r="A185" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B185" s="39"/>
-      <c r="C185" s="40"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="41"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1" t="s">
+      <c r="A187" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1">
+    <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A189" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" s="40"/>
+      <c r="C189" s="41"/>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B190" s="39"/>
-      <c r="C190" s="40"/>
+        <v>196</v>
+      </c>
+      <c r="C190" s="14"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C191" s="14"/>
+      <c r="A191" s="31" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="31" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="193" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A193" s="31"/>
+      <c r="B193" s="2"/>
+    </row>
     <row r="194" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="31"/>
-      <c r="B194" s="2"/>
-    </row>
-    <row r="195" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A195" s="38" t="s">
+      <c r="A194" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="39"/>
-      <c r="C195" s="40"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="41"/>
+    </row>
+    <row r="195" spans="1:3" s="34" customFormat="1">
+      <c r="A195" s="31"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:3" s="34" customFormat="1">
       <c r="A196" s="31"/>
@@ -2680,79 +2690,65 @@
       <c r="A198" s="31"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:3" s="34" customFormat="1">
-      <c r="A199" s="31"/>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="201" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A201" s="38" t="s">
+    <row r="199" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="200" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A200" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B201" s="39"/>
-      <c r="C201" s="40"/>
-    </row>
-    <row r="202" spans="1:3" s="34" customFormat="1">
+      <c r="B200" s="40"/>
+      <c r="C200" s="41"/>
+    </row>
+    <row r="201" spans="1:3" s="34" customFormat="1">
+      <c r="A201" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="34" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="38" t="s">
+    <row r="207" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A208" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B209" s="39"/>
-      <c r="C209" s="40"/>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="35" t="s">
+      <c r="B208" s="40"/>
+      <c r="C208" s="41"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A209:C209"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2762,9 +2758,13 @@
     <mergeCell ref="A155:C155"/>
     <mergeCell ref="A165:C165"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A167:A168"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A200:C200"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2801,7 +2801,7 @@
     <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B168" r:id="rId33"/>
-    <hyperlink ref="B202" r:id="rId34"/>
+    <hyperlink ref="B201" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="252">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>Docker</t>
+  </si>
+  <si>
+    <t>Code quality tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>Sonarqube</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
   </si>
 </sst>
 </file>
@@ -981,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1047,6 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,11 +1370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,11 +1399,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1943,7 +1953,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1951,7 +1961,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="43"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2322,11 +2332,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="39" t="s">
+      <c r="A130" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="41"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="42"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2354,11 +2364,11 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="41"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="42"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
@@ -2382,11 +2392,11 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A142" s="39" t="s">
+      <c r="A142" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="41"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="42"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
@@ -2415,11 +2425,11 @@
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="147" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A147" s="39" t="s">
+      <c r="A147" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="40"/>
-      <c r="C147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="42"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -2458,11 +2468,11 @@
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="155" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="40"/>
-      <c r="C155" s="41"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="42"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -2515,11 +2525,11 @@
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="39" t="s">
+      <c r="A165" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="40"/>
-      <c r="C165" s="41"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="42"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="38" t="s">
@@ -2536,14 +2546,14 @@
       <c r="B167" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C167" s="44"/>
+      <c r="C167" s="45"/>
     </row>
     <row r="168" spans="1:3" s="26" customFormat="1">
       <c r="A168" s="38"/>
       <c r="B168" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C168" s="44"/>
+      <c r="C168" s="45"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="38" t="s">
@@ -2552,11 +2562,11 @@
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="172" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A172" s="39" t="s">
+      <c r="A172" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="42"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="26" t="s">
@@ -2593,162 +2603,180 @@
       </c>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" thickBot="1">
+    <row r="179" spans="1:3">
       <c r="A179" s="38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="39" t="s">
+    <row r="180" spans="1:3" s="39" customFormat="1">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A182" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B180" s="40"/>
-      <c r="C180" s="41"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="38" t="s">
+      <c r="B182" s="41"/>
+      <c r="C182" s="42"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C181" s="26"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="38" t="s">
+      <c r="C183" s="26"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C182" s="24"/>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="39" t="s">
+      <c r="C184" s="24"/>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A187" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B185" s="40"/>
-      <c r="C185" s="41"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="38" t="s">
+      <c r="B187" s="41"/>
+      <c r="C187" s="42"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="38" t="s">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="189" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A189" s="39" t="s">
+    <row r="190" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A191" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B189" s="40"/>
-      <c r="C189" s="41"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="38" t="s">
+      <c r="B191" s="41"/>
+      <c r="C191" s="42"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C190" s="14"/>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="31" t="s">
+      <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="31" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" s="31" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A193" s="31"/>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B194" s="40"/>
-      <c r="C194" s="41"/>
-    </row>
-    <row r="195" spans="1:3" s="34" customFormat="1">
+    <row r="195" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A195" s="31"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:3" s="34" customFormat="1">
-      <c r="A196" s="31"/>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:3" s="34" customFormat="1">
+    <row r="196" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A196" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196" s="41"/>
+      <c r="C196" s="42"/>
+    </row>
+    <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A197" s="31"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:3" s="34" customFormat="1">
-      <c r="A198" s="31"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="200" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A200" s="39" t="s">
+    <row r="198" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A198" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="41"/>
-    </row>
-    <row r="201" spans="1:3" s="34" customFormat="1">
+      <c r="B198" s="41"/>
+      <c r="C198" s="42"/>
+    </row>
+    <row r="199" spans="1:3" s="34" customFormat="1">
+      <c r="A199" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="34" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A208" s="39" t="s">
+    <row r="205" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A206" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B208" s="40"/>
-      <c r="C208" s="41"/>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="35" t="s">
+      <c r="B206" s="41"/>
+      <c r="C206" s="42"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>246</v>
       </c>
     </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B209" s="41"/>
+      <c r="C209" s="42"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A198:C198"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2759,12 +2787,6 @@
     <mergeCell ref="A165:C165"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A200:C200"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2801,7 +2823,7 @@
     <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B168" r:id="rId33"/>
-    <hyperlink ref="B201" r:id="rId34"/>
+    <hyperlink ref="B199" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -632,9 +632,6 @@
     <t>Apache Cassandra</t>
   </si>
   <si>
-    <t>5_Definitions_JMS.xlsx</t>
-  </si>
-  <si>
     <t>4_Definitions_Algorithms.xlsx</t>
   </si>
   <si>
@@ -784,6 +781,24 @@
   </si>
   <si>
     <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>Ubuild</t>
+  </si>
+  <si>
+    <t>Build automation tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>JMS - Java Messaging Service - 5_Definitions_JMS.xlsx</t>
+  </si>
+  <si>
+    <t>Amazon SQS</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1056,6 +1071,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1370,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1395,15 +1413,15 @@
         <v>173</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1675,12 +1693,12 @@
         <v>52</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1799,17 +1817,6 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>85</v>
@@ -1953,7 +1960,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="46" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1961,7 +1968,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="44"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2038,7 +2045,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2107,12 +2114,12 @@
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2239,7 +2246,7 @@
         <v>136</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2264,7 +2271,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2272,7 +2279,7 @@
         <v>179</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2307,36 +2314,28 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" s="41"/>
-      <c r="C130" s="42"/>
+      <c r="A130" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="44"/>
+      <c r="C130" s="45"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2352,23 +2351,23 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" s="26"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="26"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="B136" s="41"/>
-      <c r="C136" s="42"/>
+      <c r="A136" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
@@ -2392,18 +2391,18 @@
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="142" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A142" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B142" s="41"/>
-      <c r="C142" s="42"/>
+      <c r="A142" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B142" s="44"/>
+      <c r="C142" s="45"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2412,7 +2411,7 @@
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2420,16 +2419,16 @@
         <v>141</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="147" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A147" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B147" s="41"/>
-      <c r="C147" s="42"/>
+      <c r="A147" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" s="44"/>
+      <c r="C147" s="45"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -2468,11 +2467,11 @@
     </row>
     <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="155" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A155" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B155" s="41"/>
-      <c r="C155" s="42"/>
+      <c r="A155" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" s="44"/>
+      <c r="C155" s="45"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -2525,11 +2524,11 @@
     </row>
     <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165" s="41"/>
-      <c r="C165" s="42"/>
+      <c r="A165" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="45"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="38" t="s">
@@ -2544,16 +2543,16 @@
         <v>29</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C167" s="45"/>
+        <v>219</v>
+      </c>
+      <c r="C167" s="48"/>
     </row>
     <row r="168" spans="1:3" s="26" customFormat="1">
       <c r="A168" s="38"/>
       <c r="B168" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" s="45"/>
+        <v>220</v>
+      </c>
+      <c r="C168" s="48"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="38" t="s">
@@ -2562,15 +2561,15 @@
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="172" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A172" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="42"/>
+      <c r="A172" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="44"/>
+      <c r="C172" s="45"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C173" s="26"/>
     </row>
@@ -2580,46 +2579,44 @@
       </c>
     </row>
     <row r="175" spans="1:3" s="26" customFormat="1">
-      <c r="A175" s="26" t="s">
-        <v>222</v>
-      </c>
       <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:3" s="30" customFormat="1">
       <c r="A176" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="30" customFormat="1">
       <c r="A177" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="26"/>
     </row>
     <row r="178" spans="1:3" s="30" customFormat="1">
       <c r="A178" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="39" customFormat="1">
+      <c r="A180" s="40"/>
       <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
       <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A182" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="B182" s="41"/>
-      <c r="C182" s="42"/>
+      <c r="A182" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B182" s="44"/>
+      <c r="C182" s="45"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="38" t="s">
@@ -2629,17 +2626,17 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C184" s="24"/>
     </row>
     <row r="186" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="187" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A187" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B187" s="41"/>
-      <c r="C187" s="42"/>
+      <c r="A187" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="44"/>
+      <c r="C187" s="45"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="38" t="s">
@@ -2657,11 +2654,11 @@
     </row>
     <row r="190" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="191" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A191" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B191" s="41"/>
-      <c r="C191" s="42"/>
+      <c r="A191" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" s="44"/>
+      <c r="C191" s="45"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="38" t="s">
@@ -2671,12 +2668,12 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
@@ -2684,99 +2681,155 @@
       <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A196" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="B196" s="41"/>
-      <c r="C196" s="42"/>
+      <c r="A196" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" s="44"/>
+      <c r="C196" s="45"/>
     </row>
     <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A197" s="31"/>
       <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B198" s="41"/>
-      <c r="C198" s="42"/>
+      <c r="A198" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" s="44"/>
+      <c r="C198" s="45"/>
     </row>
     <row r="199" spans="1:3" s="34" customFormat="1">
       <c r="A199" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B199" s="36" t="s">
         <v>242</v>
-      </c>
-      <c r="B199" s="36" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="206" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A206" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B206" s="41"/>
-      <c r="C206" s="42"/>
+      <c r="A206" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B206" s="44"/>
+      <c r="C206" s="45"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B209" s="41"/>
-      <c r="C209" s="42"/>
+      <c r="A209" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B209" s="44"/>
+      <c r="C209" s="45"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="214" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A214" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B214" s="44"/>
+      <c r="C214" s="45"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="40" t="s">
         <v>251</v>
       </c>
     </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A220" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" s="44"/>
+      <c r="C220" s="45"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="19"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C222" s="20"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A196:C196"/>
+  <mergeCells count="19">
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A187:C187"/>
     <mergeCell ref="A182:C182"/>
     <mergeCell ref="A206:C206"/>
     <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A214:C214"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2787,6 +2840,8 @@
     <mergeCell ref="A165:C165"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C167:C168"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A196:C196"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2798,7 +2853,7 @@
     <hyperlink ref="B80" r:id="rId7"/>
     <hyperlink ref="B56" r:id="rId8"/>
     <hyperlink ref="B66" r:id="rId9"/>
-    <hyperlink ref="B52" r:id="rId10"/>
+    <hyperlink ref="B221" r:id="rId10"/>
     <hyperlink ref="B151" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
     <hyperlink ref="B48" r:id="rId13"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="260">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -442,9 +442,6 @@
     <t>No SQL DB</t>
   </si>
   <si>
-    <t>Cassandra, CouchDB, Redis, Membase</t>
-  </si>
-  <si>
     <t>Wicket</t>
   </si>
   <si>
@@ -799,6 +796,18 @@
   </si>
   <si>
     <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>CouchDB</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Membase</t>
+  </si>
+  <si>
+    <t>Logging - 2_Definitions.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1071,6 +1080,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1388,11 +1399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1404,24 +1415,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="45" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1431,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
@@ -1442,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1453,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1461,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1472,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1483,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1494,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1502,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
@@ -1513,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
@@ -1524,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
@@ -1535,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1546,7 +1557,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1557,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1565,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
@@ -1576,7 +1587,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1584,7 +1595,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1592,7 +1603,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1600,7 +1611,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1608,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
@@ -1616,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60">
@@ -1627,7 +1638,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1635,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1646,7 +1657,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1693,12 +1704,12 @@
         <v>52</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1738,7 +1749,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1780,14 +1791,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>75</v>
@@ -1809,7 +1812,7 @@
         <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1848,7 +1851,7 @@
         <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1866,7 +1869,7 @@
         <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1889,13 +1892,13 @@
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1960,7 +1963,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="48" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1968,7 +1971,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="47"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1992,7 +1995,7 @@
         <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2027,7 +2030,7 @@
         <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2045,7 +2048,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2053,7 +2056,7 @@
         <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2061,7 +2064,7 @@
         <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2069,57 +2072,49 @@
         <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:3" s="13" customFormat="1">
       <c r="A91" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:3" s="13" customFormat="1">
       <c r="A93" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2134,111 +2129,111 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2246,541 +2241,562 @@
         <v>136</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30">
       <c r="A122" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="45"/>
+      <c r="A130" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="47"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131" s="26"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" s="26"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C133" s="26"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C134" s="26"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="45"/>
+      <c r="A136" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" s="46"/>
+      <c r="C136" s="47"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="5" t="s">
-        <v>197</v>
+      <c r="A137" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C137" s="15"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5" t="s">
-        <v>200</v>
+      <c r="A139" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C139" s="16"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A142" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B142" s="44"/>
-      <c r="C142" s="45"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>203</v>
-      </c>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="43" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A143" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="46"/>
+      <c r="C143" s="47"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="26" t="s">
+      <c r="B145" s="3"/>
+      <c r="C145" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A148" s="45" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A147" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B147" s="44"/>
-      <c r="C147" s="45"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148" t="s">
-        <v>174</v>
-      </c>
+      <c r="B148" s="46"/>
+      <c r="C148" s="47"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A155" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B155" s="44"/>
-      <c r="C155" s="45"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
+    <row r="155" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A156" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B156" s="46"/>
+      <c r="C156" s="47"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C156" s="26"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="C157" s="26"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C158" s="26"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159" s="3"/>
+        <v>147</v>
+      </c>
       <c r="C159" s="26"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="26"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="26"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="26"/>
     </row>
-    <row r="164" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="45"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="38" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="26"/>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A166" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="46"/>
+      <c r="C166" s="47"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30">
-      <c r="A167" s="38" t="s">
+    <row r="168" spans="1:3" ht="30">
+      <c r="A168" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" s="50"/>
+    </row>
+    <row r="169" spans="1:3" s="26" customFormat="1">
+      <c r="A169" s="38"/>
+      <c r="B169" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="48"/>
-    </row>
-    <row r="168" spans="1:3" s="26" customFormat="1">
-      <c r="A168" s="38"/>
-      <c r="B168" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C168" s="48"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="38" t="s">
+      <c r="C169" s="50"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="172" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A172" s="43" t="s">
+    <row r="172" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="173" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A173" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="46"/>
+      <c r="C173" s="47"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="26"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="26" customFormat="1">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:3" s="30" customFormat="1">
+      <c r="A177" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="30" customFormat="1">
+      <c r="A178" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="26"/>
+    </row>
+    <row r="179" spans="1:3" s="30" customFormat="1">
+      <c r="A179" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="39" customFormat="1">
+      <c r="A181" s="40"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A183" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B172" s="44"/>
-      <c r="C172" s="45"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C173" s="26"/>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" s="26" customFormat="1">
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" s="30" customFormat="1">
-      <c r="A176" s="38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="30" customFormat="1">
-      <c r="A177" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="26"/>
-    </row>
-    <row r="178" spans="1:3" s="30" customFormat="1">
-      <c r="A178" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="39" customFormat="1">
-      <c r="A180" s="40"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A182" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B182" s="44"/>
-      <c r="C182" s="45"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C183" s="26"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="47"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C184" s="24"/>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="187" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A187" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B187" s="44"/>
-      <c r="C187" s="45"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B188" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C184" s="26"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="24"/>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A188" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B188" s="46"/>
+      <c r="C188" s="47"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A191" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B191" s="44"/>
-      <c r="C191" s="45"/>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C192" s="14"/>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="192" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A192" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B192" s="46"/>
+      <c r="C192" s="47"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="31" t="s">
-        <v>229</v>
-      </c>
+      <c r="A193" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="14"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A195" s="31"/>
-      <c r="B195" s="2"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="31" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="196" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A196" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B196" s="44"/>
-      <c r="C196" s="45"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A197" s="31"/>
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="B198" s="44"/>
-      <c r="C198" s="45"/>
-    </row>
-    <row r="199" spans="1:3" s="34" customFormat="1">
-      <c r="A199" s="34" t="s">
+      <c r="A197" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" s="46"/>
+      <c r="C197" s="47"/>
+    </row>
+    <row r="198" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A198" s="31"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A199" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B199" s="46"/>
+      <c r="C199" s="47"/>
+    </row>
+    <row r="200" spans="1:3" s="34" customFormat="1">
+      <c r="A200" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B200" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="B199" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="34" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A206" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B206" s="44"/>
-      <c r="C206" s="45"/>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="207" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A207" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B207" s="46"/>
+      <c r="C207" s="47"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B209" s="44"/>
-      <c r="C209" s="45"/>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="39" t="s">
-        <v>249</v>
-      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="210" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A210" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B210" s="46"/>
+      <c r="C210" s="47"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="214" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A214" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B214" s="44"/>
-      <c r="C214" s="45"/>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="40" t="s">
-        <v>221</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A215" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B215" s="46"/>
+      <c r="C215" s="47"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="40" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2788,60 +2804,82 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="43" t="s">
+    <row r="218" spans="1:3">
+      <c r="A218" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="221" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A221" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221" s="46"/>
+      <c r="C221" s="47"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="19"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C223" s="20"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B220" s="44"/>
-      <c r="C220" s="45"/>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C221" s="19"/>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C222" s="20"/>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="41" t="s">
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="42" t="s">
-        <v>256</v>
-      </c>
+    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A227" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B227" s="46"/>
+      <c r="C227" s="47"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A214:C214"/>
+  <mergeCells count="20">
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A166:C166"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A188:C188"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2853,8 +2891,8 @@
     <hyperlink ref="B80" r:id="rId7"/>
     <hyperlink ref="B56" r:id="rId8"/>
     <hyperlink ref="B66" r:id="rId9"/>
-    <hyperlink ref="B221" r:id="rId10"/>
-    <hyperlink ref="B151" r:id="rId11"/>
+    <hyperlink ref="B222" r:id="rId10"/>
+    <hyperlink ref="B152" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
     <hyperlink ref="B48" r:id="rId13"/>
     <hyperlink ref="B81" r:id="rId14"/>
@@ -2866,7 +2904,7 @@
     <hyperlink ref="B97" r:id="rId20"/>
     <hyperlink ref="B98" r:id="rId21"/>
     <hyperlink ref="B38" r:id="rId22"/>
-    <hyperlink ref="B144" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B145" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
     <hyperlink ref="B105" r:id="rId24"/>
     <hyperlink ref="B65" r:id="rId25"/>
     <hyperlink ref="B110" r:id="rId26"/>
@@ -2877,8 +2915,8 @@
     <hyperlink ref="B138" r:id="rId31"/>
     <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B168" r:id="rId33"/>
-    <hyperlink ref="B199" r:id="rId34"/>
+    <hyperlink ref="B169" r:id="rId33"/>
+    <hyperlink ref="B200" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1402,8 +1402,8 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2860,12 +2860,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2876,6 +2870,12 @@
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
     <mergeCell ref="A210:C210"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A192:C192"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="A">'All Topics'!$A$232</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -808,6 +811,15 @@
   </si>
   <si>
     <t>Logging - 2_Definitions.xlsx</t>
+  </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>Core Java - 2_Definitions.xlsx</t>
+  </si>
+  <si>
+    <t>Groovy - k_Definitions_Groovy.xlsx</t>
   </si>
 </sst>
 </file>
@@ -912,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1009,12 +1021,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1088,6 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1096,6 +1118,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1399,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1428,33 +1456,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1963,7 +1969,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="51" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1971,7 +1977,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="49"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2326,11 +2332,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="47"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="48"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2358,11 +2364,11 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="45" t="s">
+      <c r="A136" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B136" s="46"/>
-      <c r="C136" s="47"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="48"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
@@ -2412,11 +2418,11 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A143" s="45" t="s">
+      <c r="A143" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="46"/>
-      <c r="C143" s="47"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="48"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
@@ -2445,11 +2451,11 @@
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="148" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A148" s="45" t="s">
+      <c r="A148" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B148" s="46"/>
-      <c r="C148" s="47"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="48"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
@@ -2488,11 +2494,11 @@
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="156" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A156" s="45" t="s">
+      <c r="A156" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B156" s="46"/>
-      <c r="C156" s="47"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="48"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -2545,11 +2551,11 @@
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="166" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A166" s="45" t="s">
+      <c r="A166" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="B166" s="46"/>
-      <c r="C166" s="47"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="48"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="38" t="s">
@@ -2566,14 +2572,14 @@
       <c r="B168" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C168" s="50"/>
+      <c r="C168" s="53"/>
     </row>
     <row r="169" spans="1:3" s="26" customFormat="1">
       <c r="A169" s="38"/>
       <c r="B169" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C169" s="50"/>
+      <c r="C169" s="53"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="38" t="s">
@@ -2582,11 +2588,11 @@
     </row>
     <row r="172" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="173" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A173" s="45" t="s">
+      <c r="A173" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B173" s="46"/>
-      <c r="C173" s="47"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="48"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="26" t="s">
@@ -2633,11 +2639,11 @@
       <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B183" s="46"/>
-      <c r="C183" s="47"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="48"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="38" t="s">
@@ -2653,11 +2659,11 @@
     </row>
     <row r="187" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="188" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A188" s="45" t="s">
+      <c r="A188" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="46"/>
-      <c r="C188" s="47"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="48"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="38" t="s">
@@ -2675,11 +2681,11 @@
     </row>
     <row r="191" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="45" t="s">
+      <c r="A192" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B192" s="46"/>
-      <c r="C192" s="47"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="48"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="38" t="s">
@@ -2702,22 +2708,22 @@
       <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B197" s="46"/>
-      <c r="C197" s="47"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="48"/>
     </row>
     <row r="198" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A198" s="31"/>
       <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A199" s="45" t="s">
+      <c r="A199" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="B199" s="46"/>
-      <c r="C199" s="47"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="48"/>
     </row>
     <row r="200" spans="1:3" s="34" customFormat="1">
       <c r="A200" s="34" t="s">
@@ -2754,11 +2760,11 @@
     </row>
     <row r="206" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="47"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="48"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="35" t="s">
@@ -2770,11 +2776,11 @@
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="210" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A210" s="45" t="s">
+      <c r="A210" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="B210" s="46"/>
-      <c r="C210" s="47"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="48"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="39" t="s">
@@ -2788,11 +2794,11 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="215" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A215" s="45" t="s">
+      <c r="A215" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="B215" s="46"/>
-      <c r="C215" s="47"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="48"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="40" t="s">
@@ -2811,11 +2817,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="45" t="s">
+      <c r="A221" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B221" s="46"/>
-      <c r="C221" s="47"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="48"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="44" t="s">
@@ -2844,11 +2850,11 @@
     </row>
     <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="227" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A227" s="45" t="s">
+      <c r="A227" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="B227" s="46"/>
-      <c r="C227" s="47"/>
+      <c r="B227" s="47"/>
+      <c r="C227" s="48"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="44" t="s">
@@ -2858,8 +2864,47 @@
     <row r="229" spans="1:3">
       <c r="A229" s="44"/>
     </row>
+    <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="231" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A231" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B231" s="47"/>
+      <c r="C231" s="48"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="50"/>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="237" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A237" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237" s="47"/>
+      <c r="C237" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="A237:C237"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="A136:C136"/>
@@ -2870,6 +2915,8 @@
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="B234:C234"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A199:C199"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="264">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>Groovy - k_Definitions_Groovy.xlsx</t>
+  </si>
+  <si>
+    <t>Apache Benchmark</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,6 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1119,19 +1123,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1430,8 +1434,8 @@
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,11 +1460,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1969,7 +1973,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1977,7 +1981,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="52"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2332,11 +2336,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="47"/>
-      <c r="C130" s="48"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="49"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="29" t="s">
@@ -2364,11 +2368,11 @@
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="B136" s="47"/>
-      <c r="C136" s="48"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="49"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
@@ -2418,11 +2422,11 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="47"/>
-      <c r="C143" s="48"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="49"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
@@ -2451,11 +2455,11 @@
     </row>
     <row r="147" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="148" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="B148" s="47"/>
-      <c r="C148" s="48"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="49"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
@@ -2494,11 +2498,11 @@
     </row>
     <row r="155" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="156" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B156" s="47"/>
-      <c r="C156" s="48"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="49"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -2551,11 +2555,11 @@
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="166" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A166" s="46" t="s">
+      <c r="A166" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B166" s="47"/>
-      <c r="C166" s="48"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="49"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="38" t="s">
@@ -2572,14 +2576,14 @@
       <c r="B168" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C168" s="53"/>
+      <c r="C168" s="52"/>
     </row>
     <row r="169" spans="1:3" s="26" customFormat="1">
       <c r="A169" s="38"/>
       <c r="B169" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C169" s="53"/>
+      <c r="C169" s="52"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="38" t="s">
@@ -2588,11 +2592,11 @@
     </row>
     <row r="172" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="173" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A173" s="46" t="s">
+      <c r="A173" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B173" s="47"/>
-      <c r="C173" s="48"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="49"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="26" t="s">
@@ -2639,11 +2643,11 @@
       <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="48"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="49"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="38" t="s">
@@ -2659,11 +2663,11 @@
     </row>
     <row r="187" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="188" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="47"/>
-      <c r="C188" s="48"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="49"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="38" t="s">
@@ -2681,11 +2685,11 @@
     </row>
     <row r="191" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B192" s="47"/>
-      <c r="C192" s="48"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="49"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="38" t="s">
@@ -2708,22 +2712,22 @@
       <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A197" s="46" t="s">
+      <c r="A197" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B197" s="47"/>
-      <c r="C197" s="48"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="49"/>
     </row>
     <row r="198" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
       <c r="A198" s="31"/>
       <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A199" s="46" t="s">
+      <c r="A199" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B199" s="47"/>
-      <c r="C199" s="48"/>
+      <c r="B199" s="48"/>
+      <c r="C199" s="49"/>
     </row>
     <row r="200" spans="1:3" s="34" customFormat="1">
       <c r="A200" s="34" t="s">
@@ -2760,11 +2764,11 @@
     </row>
     <row r="206" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="46" t="s">
+      <c r="A207" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B207" s="47"/>
-      <c r="C207" s="48"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="49"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="35" t="s">
@@ -2774,13 +2778,17 @@
         <v>244</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="210" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="B210" s="47"/>
-      <c r="C210" s="48"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="49"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="39" t="s">
@@ -2794,11 +2802,11 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="215" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A215" s="46" t="s">
+      <c r="A215" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="B215" s="47"/>
-      <c r="C215" s="48"/>
+      <c r="B215" s="48"/>
+      <c r="C215" s="49"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="40" t="s">
@@ -2817,11 +2825,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="46" t="s">
+      <c r="A221" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="48"/>
+      <c r="B221" s="48"/>
+      <c r="C221" s="49"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="44" t="s">
@@ -2850,11 +2858,11 @@
     </row>
     <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="227" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A227" s="46" t="s">
+      <c r="A227" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B227" s="47"/>
-      <c r="C227" s="48"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="49"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="44" t="s">
@@ -2866,11 +2874,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A231" s="46" t="s">
+      <c r="A231" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B231" s="47"/>
-      <c r="C231" s="48"/>
+      <c r="B231" s="48"/>
+      <c r="C231" s="49"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="45" t="s">
@@ -2889,21 +2897,28 @@
       <c r="A234" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="49" t="s">
+      <c r="B234" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="50"/>
+      <c r="C234" s="54"/>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="46" t="s">
+      <c r="A237" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B237" s="47"/>
-      <c r="C237" s="48"/>
+      <c r="B237" s="48"/>
+      <c r="C237" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A197:C197"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
@@ -2920,13 +2935,6 @@
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A188:C188"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>Apache Benchmark</t>
+  </si>
+  <si>
+    <t>Jmock</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1437,8 @@
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:C210"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2366,7 +2369,11 @@
       </c>
       <c r="C134" s="26"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A135" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1">
       <c r="A136" s="47" t="s">
         <v>225</v>
@@ -2912,13 +2919,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A197:C197"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A130:C130"/>
@@ -2935,6 +2935,13 @@
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A197:C197"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$232</definedName>
+    <definedName name="A">'All Topics'!$A$229</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="267">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -825,7 +825,13 @@
     <t>Apache Benchmark</t>
   </si>
   <si>
-    <t>Jmock</t>
+    <t>DBUnit</t>
+  </si>
+  <si>
+    <t>JMock</t>
+  </si>
+  <si>
+    <t>Splunk</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1095,9 +1101,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1116,6 +1119,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1434,11 +1445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1463,11 +1474,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1721,7 +1732,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>230</v>
       </c>
     </row>
@@ -1976,7 +1987,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="53" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1984,7 +1995,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="51"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2060,7 +2071,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="32" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2121,12 +2132,12 @@
         <v>190</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2322,626 +2333,631 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C125" s="26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A129" s="28" t="s">
+    <row r="126" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A126" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C126" s="26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1">
+    <row r="127" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A127" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="51"/>
+      <c r="C127" s="52"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="26"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="26"/>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="49"/>
+        <v>210</v>
+      </c>
+      <c r="C130" s="26"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="29" t="s">
-        <v>197</v>
+      <c r="A131" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="C131" s="26"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C132" s="26"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="26"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C134" s="26"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A135" s="5" t="s">
+      <c r="A132" s="48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="46" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A133" s="47" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="47" t="s">
+      <c r="B133" s="47"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A134" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B136" s="48"/>
-      <c r="C136" s="49"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="52"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C137" s="15"/>
+        <v>199</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="16"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>182</v>
+        <v>256</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="16"/>
-    </row>
-    <row r="140" spans="1:3">
+    </row>
+    <row r="140" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A142" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A143" s="47" t="s">
+    <row r="141" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A141" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="48"/>
-      <c r="C143" s="49"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="52"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="23" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
+      <c r="A144" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C144" s="26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="148" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A148" s="47" t="s">
+    <row r="145" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A146" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B148" s="48"/>
-      <c r="C148" s="49"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="52"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C149" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>26</v>
+      <c r="A150" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="156" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A156" s="47" t="s">
+    <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A154" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B156" s="48"/>
-      <c r="C156" s="49"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="52"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="26"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="26"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>24</v>
+      <c r="A157" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C157" s="26"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B158" s="3"/>
       <c r="C158" s="26"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="26"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="26"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="26"/>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="26"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="26"/>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="166" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A166" s="47" t="s">
+    <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="164" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A164" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B166" s="48"/>
-      <c r="C166" s="49"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="38" t="s">
+      <c r="B164" s="51"/>
+      <c r="C164" s="52"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B165" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="30">
-      <c r="A168" s="38" t="s">
+    <row r="166" spans="1:3" ht="30">
+      <c r="A166" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C168" s="52"/>
-    </row>
-    <row r="169" spans="1:3" s="26" customFormat="1">
-      <c r="A169" s="38"/>
-      <c r="B169" s="3" t="s">
+      <c r="C166" s="55"/>
+    </row>
+    <row r="167" spans="1:3" s="26" customFormat="1">
+      <c r="A167" s="37"/>
+      <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C169" s="52"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="38" t="s">
+      <c r="C167" s="55"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="173" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A173" s="47" t="s">
+    <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A171" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="B173" s="48"/>
-      <c r="C173" s="49"/>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="26" t="s">
+      <c r="B171" s="51"/>
+      <c r="C171" s="52"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C174" s="26"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="38" t="s">
+      <c r="C172" s="26"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="26" customFormat="1">
+    <row r="174" spans="1:3" s="29" customFormat="1">
+      <c r="A174" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="29" customFormat="1">
+      <c r="A175" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="26"/>
+    </row>
+    <row r="176" spans="1:3" s="29" customFormat="1">
+      <c r="A176" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:3" s="30" customFormat="1">
-      <c r="A177" s="38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="30" customFormat="1">
-      <c r="A178" s="31" t="s">
-        <v>209</v>
+    <row r="177" spans="1:3">
+      <c r="A177" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="38" customFormat="1">
+      <c r="A178" s="49" t="s">
+        <v>266</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="26"/>
-    </row>
-    <row r="179" spans="1:3" s="30" customFormat="1">
-      <c r="A179" s="37" t="s">
-        <v>232</v>
-      </c>
+    </row>
+    <row r="179" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="39" customFormat="1">
-      <c r="A181" s="40"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A183" s="47" t="s">
+    <row r="180" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A180" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="B183" s="48"/>
-      <c r="C183" s="49"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="38" t="s">
+      <c r="B180" s="51"/>
+      <c r="C180" s="52"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="26"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="38" t="s">
+      <c r="C181" s="26"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C185" s="24"/>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="188" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A188" s="47" t="s">
+      <c r="C182" s="24"/>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A185" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="48"/>
-      <c r="C188" s="49"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="38" t="s">
+      <c r="B185" s="51"/>
+      <c r="C185" s="52"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A189" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B189" s="51"/>
+      <c r="C189" s="52"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="49"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="38" t="s">
+      <c r="A190" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="14"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="31" t="s">
+      <c r="C190" s="14"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="31" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" s="30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A196" s="31"/>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A197" s="47" t="s">
+    <row r="193" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A193" s="30"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A194" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B197" s="48"/>
-      <c r="C197" s="49"/>
-    </row>
-    <row r="198" spans="1:3" s="34" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A198" s="31"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A199" s="47" t="s">
+      <c r="B194" s="51"/>
+      <c r="C194" s="52"/>
+    </row>
+    <row r="195" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A195" s="30"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A196" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="B199" s="48"/>
-      <c r="C199" s="49"/>
-    </row>
-    <row r="200" spans="1:3" s="34" customFormat="1">
-      <c r="A200" s="34" t="s">
+      <c r="B196" s="51"/>
+      <c r="C196" s="52"/>
+    </row>
+    <row r="197" spans="1:3" s="33" customFormat="1">
+      <c r="A197" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B200" s="36" t="s">
+      <c r="B197" s="35" t="s">
         <v>241</v>
       </c>
     </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="34" t="s">
-        <v>235</v>
+      <c r="A201" s="33" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="34" t="s">
-        <v>238</v>
-      </c>
+      <c r="A202" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="204" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A204" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B204" s="51"/>
+      <c r="C204" s="52"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1"/>
+        <v>243</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A206" s="45" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B207" s="48"/>
-      <c r="C207" s="49"/>
+      <c r="A207" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B207" s="51"/>
+      <c r="C207" s="52"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A210" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="B210" s="48"/>
-      <c r="C210" s="49"/>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="39" t="s">
+      <c r="A208" s="38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="39" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="38" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A215" s="47" t="s">
+    <row r="211" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="212" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A212" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="B215" s="48"/>
-      <c r="C215" s="49"/>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="40" t="s">
+      <c r="B212" s="51"/>
+      <c r="C212" s="52"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="40" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" s="39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="40" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="47" t="s">
+    <row r="217" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A218" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B221" s="48"/>
-      <c r="C221" s="49"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="52"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C219" s="19"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="20"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="40" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C222" s="19"/>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C223" s="20"/>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="41" t="s">
-        <v>254</v>
-      </c>
+      <c r="A222" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A224" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B224" s="51"/>
+      <c r="C224" s="52"/>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A227" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="B227" s="48"/>
-      <c r="C227" s="49"/>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="44" t="s">
+      <c r="A225" s="43" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="43"/>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A228" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B228" s="51"/>
+      <c r="C228" s="52"/>
+    </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="44"/>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="231" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A231" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B231" s="48"/>
-      <c r="C231" s="49"/>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="45" t="s">
+      <c r="A229" s="44" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="45" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="45" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="53" t="s">
+      <c r="B231" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="54"/>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="47" t="s">
+      <c r="C231" s="57"/>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="234" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A234" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="49"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A234:C234"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A212:C212"/>
     <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A194:C194"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2953,8 +2969,8 @@
     <hyperlink ref="B80" r:id="rId7"/>
     <hyperlink ref="B56" r:id="rId8"/>
     <hyperlink ref="B66" r:id="rId9"/>
-    <hyperlink ref="B222" r:id="rId10"/>
-    <hyperlink ref="B152" r:id="rId11"/>
+    <hyperlink ref="B219" r:id="rId10"/>
+    <hyperlink ref="B150" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
     <hyperlink ref="B48" r:id="rId13"/>
     <hyperlink ref="B81" r:id="rId14"/>
@@ -2966,7 +2982,7 @@
     <hyperlink ref="B97" r:id="rId20"/>
     <hyperlink ref="B98" r:id="rId21"/>
     <hyperlink ref="B38" r:id="rId22"/>
-    <hyperlink ref="B145" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B143" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
     <hyperlink ref="B105" r:id="rId24"/>
     <hyperlink ref="B65" r:id="rId25"/>
     <hyperlink ref="B110" r:id="rId26"/>
@@ -2974,11 +2990,11 @@
     <hyperlink ref="B74" r:id="rId28"/>
     <hyperlink ref="B112" r:id="rId29"/>
     <hyperlink ref="B64" r:id="rId30"/>
-    <hyperlink ref="B138" r:id="rId31"/>
+    <hyperlink ref="B136" r:id="rId31"/>
     <hyperlink ref="B122" r:id="rId32"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B169" r:id="rId33"/>
-    <hyperlink ref="B200" r:id="rId34"/>
+    <hyperlink ref="B167" r:id="rId33"/>
+    <hyperlink ref="B197" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId35"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="268">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Splunk</t>
+  </si>
+  <si>
+    <t>IDES - l_Definitions_ides.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2203,14 +2206,6 @@
       </c>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>159</v>
@@ -2933,8 +2928,32 @@
       <c r="B234" s="51"/>
       <c r="C234" s="52"/>
     </row>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="242" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A242" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242" s="51"/>
+      <c r="C242" s="52"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A194:C194"/>
     <mergeCell ref="A234:C234"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A127:C127"/>
@@ -2951,13 +2970,6 @@
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A194:C194"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -2983,7 +2995,7 @@
     <hyperlink ref="B98" r:id="rId21"/>
     <hyperlink ref="B38" r:id="rId22"/>
     <hyperlink ref="B143" r:id="rId23" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B105" r:id="rId24"/>
+    <hyperlink ref="B243" r:id="rId24"/>
     <hyperlink ref="B65" r:id="rId25"/>
     <hyperlink ref="B110" r:id="rId26"/>
     <hyperlink ref="B111" r:id="rId27" location="commandLine"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>IDES - l_Definitions_ides.xlsx</t>
+  </si>
+  <si>
+    <t>Groovy</t>
+  </si>
+  <si>
+    <t>Spock</t>
+  </si>
+  <si>
+    <t>MyEclipse</t>
+  </si>
+  <si>
+    <t>IntelliJIdea</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1130,6 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1448,11 +1461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1477,11 +1490,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1990,7 +2003,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="54" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1998,7 +2011,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2345,11 +2358,11 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A127" s="50" t="s">
+      <c r="A127" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="51"/>
-      <c r="C127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="53"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="47" t="s">
@@ -2387,11 +2400,11 @@
       <c r="B133" s="47"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A134" s="50" t="s">
+      <c r="A134" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B134" s="51"/>
-      <c r="C134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="53"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
@@ -2441,11 +2454,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A141" s="50" t="s">
+      <c r="A141" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="B141" s="51"/>
-      <c r="C141" s="52"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="53"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
@@ -2474,11 +2487,11 @@
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="52"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="53"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
@@ -2517,11 +2530,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="50" t="s">
+      <c r="A154" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="51"/>
-      <c r="C154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="53"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
@@ -2574,11 +2587,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="50" t="s">
+      <c r="A164" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B164" s="51"/>
-      <c r="C164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="53"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="37" t="s">
@@ -2595,14 +2608,14 @@
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="55"/>
+      <c r="C166" s="56"/>
     </row>
     <row r="167" spans="1:3" s="26" customFormat="1">
       <c r="A167" s="37"/>
       <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="55"/>
+      <c r="C167" s="56"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="37" t="s">
@@ -2611,11 +2624,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="50" t="s">
+      <c r="A171" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B171" s="51"/>
-      <c r="C171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="53"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="26" t="s">
@@ -2661,11 +2674,11 @@
       <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="50" t="s">
+      <c r="A180" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B180" s="51"/>
-      <c r="C180" s="52"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="53"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="37" t="s">
@@ -2681,11 +2694,11 @@
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="50" t="s">
+      <c r="A185" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B185" s="51"/>
-      <c r="C185" s="52"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="53"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="37" t="s">
@@ -2703,11 +2716,11 @@
     </row>
     <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="189" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A189" s="50" t="s">
+      <c r="A189" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="52"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="53"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="37" t="s">
@@ -2730,22 +2743,22 @@
       <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="50" t="s">
+      <c r="A194" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B194" s="51"/>
-      <c r="C194" s="52"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="53"/>
     </row>
     <row r="195" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
       <c r="A195" s="30"/>
       <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A196" s="50" t="s">
+      <c r="A196" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B196" s="51"/>
-      <c r="C196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="53"/>
     </row>
     <row r="197" spans="1:3" s="33" customFormat="1">
       <c r="A197" s="33" t="s">
@@ -2782,11 +2795,11 @@
     </row>
     <row r="203" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A204" s="50" t="s">
+      <c r="A204" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B204" s="51"/>
-      <c r="C204" s="52"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="53"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="34" t="s">
@@ -2802,11 +2815,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="50" t="s">
+      <c r="A207" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="B207" s="51"/>
-      <c r="C207" s="52"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="53"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="38" t="s">
@@ -2820,11 +2833,11 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="50" t="s">
+      <c r="A212" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B212" s="51"/>
-      <c r="C212" s="52"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="53"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="39" t="s">
@@ -2843,11 +2856,11 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="218" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A218" s="50" t="s">
+      <c r="A218" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="51"/>
-      <c r="C218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="53"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="43" t="s">
@@ -2876,11 +2889,11 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="50" t="s">
+      <c r="A224" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="51"/>
-      <c r="C224" s="52"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="53"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="43" t="s">
@@ -2892,11 +2905,11 @@
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="B228" s="51"/>
-      <c r="C228" s="52"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="53"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="44" t="s">
@@ -2915,26 +2928,36 @@
       <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="56" t="s">
+      <c r="B231" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="57"/>
+      <c r="C231" s="58"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A234" s="50" t="s">
+      <c r="A234" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B234" s="51"/>
-      <c r="C234" s="52"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="53"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="50" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="242" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A242" s="50" t="s">
+      <c r="A242" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="B242" s="51"/>
-      <c r="C242" s="52"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="53"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="5" t="s">
@@ -2942,6 +2965,16 @@
       </c>
       <c r="B243" s="3" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="50" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2955,6 +2988,11 @@
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A194:C194"/>
     <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A196:C196"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A127:C127"/>
     <mergeCell ref="A134:C134"/>
@@ -2965,11 +3003,6 @@
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A196:C196"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -834,9 +834,6 @@
     <t>Splunk</t>
   </si>
   <si>
-    <t>IDES - l_Definitions_ides.xlsx</t>
-  </si>
-  <si>
     <t>Groovy</t>
   </si>
   <si>
@@ -847,6 +844,12 @@
   </si>
   <si>
     <t>IntelliJIdea</t>
+  </si>
+  <si>
+    <t>UI Frameworks</t>
+  </si>
+  <si>
+    <t>IDES - l_Definitions_ide.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1144,6 +1147,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1153,6 +1157,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1160,12 +1170,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1461,11 +1465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,11 +1494,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -2003,7 +2007,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="57" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="55"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2268,14 +2272,6 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
         <v>177</v>
@@ -2358,11 +2354,11 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="53"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="54"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="47" t="s">
@@ -2400,11 +2396,11 @@
       <c r="B133" s="47"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
@@ -2454,11 +2450,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="B141" s="52"/>
-      <c r="C141" s="53"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="54"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
@@ -2487,11 +2483,11 @@
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="52"/>
-      <c r="C146" s="53"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="54"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
@@ -2530,11 +2526,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="51" t="s">
+      <c r="A154" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="52"/>
-      <c r="C154" s="53"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="54"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
@@ -2587,11 +2583,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="51" t="s">
+      <c r="A164" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="B164" s="52"/>
-      <c r="C164" s="53"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="54"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="37" t="s">
@@ -2608,14 +2604,14 @@
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="56"/>
+      <c r="C166" s="59"/>
     </row>
     <row r="167" spans="1:3" s="26" customFormat="1">
       <c r="A167" s="37"/>
       <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="56"/>
+      <c r="C167" s="59"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="37" t="s">
@@ -2624,11 +2620,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="51" t="s">
+      <c r="A171" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="53"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="54"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="26" t="s">
@@ -2674,11 +2670,11 @@
       <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="51" t="s">
+      <c r="A180" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="B180" s="52"/>
-      <c r="C180" s="53"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="54"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="37" t="s">
@@ -2694,11 +2690,11 @@
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="51" t="s">
+      <c r="A185" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B185" s="52"/>
-      <c r="C185" s="53"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="54"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="37" t="s">
@@ -2716,11 +2712,11 @@
     </row>
     <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="189" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B189" s="52"/>
-      <c r="C189" s="53"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="54"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="37" t="s">
@@ -2743,22 +2739,22 @@
       <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="51" t="s">
+      <c r="A194" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B194" s="52"/>
-      <c r="C194" s="53"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="54"/>
     </row>
     <row r="195" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
       <c r="A195" s="30"/>
       <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A196" s="51" t="s">
+      <c r="A196" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="B196" s="52"/>
-      <c r="C196" s="53"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="54"/>
     </row>
     <row r="197" spans="1:3" s="33" customFormat="1">
       <c r="A197" s="33" t="s">
@@ -2795,11 +2791,11 @@
     </row>
     <row r="203" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A204" s="51" t="s">
+      <c r="A204" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="B204" s="52"/>
-      <c r="C204" s="53"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="54"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="34" t="s">
@@ -2815,11 +2811,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="51" t="s">
+      <c r="A207" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="B207" s="52"/>
-      <c r="C207" s="53"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="54"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="38" t="s">
@@ -2833,11 +2829,11 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="51" t="s">
+      <c r="A212" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="B212" s="52"/>
-      <c r="C212" s="53"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="54"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="39" t="s">
@@ -2856,11 +2852,11 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="218" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A218" s="51" t="s">
+      <c r="A218" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="52"/>
-      <c r="C218" s="53"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="54"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="43" t="s">
@@ -2889,11 +2885,11 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="51" t="s">
+      <c r="A224" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="52"/>
-      <c r="C224" s="53"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="54"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="43" t="s">
@@ -2905,11 +2901,11 @@
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="51" t="s">
+      <c r="A228" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="B228" s="52"/>
-      <c r="C228" s="53"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="54"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="44" t="s">
@@ -2928,39 +2924,39 @@
       <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="57" t="s">
+      <c r="B231" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="58"/>
+      <c r="C231" s="56"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A234" s="51" t="s">
+      <c r="A234" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="B234" s="52"/>
-      <c r="C234" s="53"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="54"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="242" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A242" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B242" s="52"/>
-      <c r="C242" s="53"/>
+      <c r="A242" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" s="53"/>
+      <c r="C242" s="54"/>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="51" t="s">
         <v>157</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -2969,27 +2965,33 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A247" s="52" t="s">
         <v>271</v>
       </c>
+      <c r="B247" s="53"/>
+      <c r="C247" s="54"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="B231:C231"/>
+  <mergeCells count="25">
+    <mergeCell ref="A247:C247"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A196:C196"/>
@@ -3003,6 +3005,17 @@
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1157,19 +1157,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1468,8 +1468,8 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="55" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2604,14 +2604,14 @@
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="59"/>
+      <c r="C166" s="57"/>
     </row>
     <row r="167" spans="1:3" s="26" customFormat="1">
       <c r="A167" s="37"/>
       <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="59"/>
+      <c r="C167" s="57"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="37" t="s">
@@ -2924,10 +2924,10 @@
       <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="55" t="s">
+      <c r="B231" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="56"/>
+      <c r="C231" s="59"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
@@ -2991,6 +2991,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A194:C194"/>
     <mergeCell ref="A247:C247"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A204:C204"/>
@@ -3007,15 +3016,6 @@
     <mergeCell ref="C166:C167"/>
     <mergeCell ref="A242:C242"/>
     <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="B231:C231"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1157,6 +1157,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1164,12 +1170,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="57" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="56"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2604,14 +2604,14 @@
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="57"/>
+      <c r="C166" s="59"/>
     </row>
     <row r="167" spans="1:3" s="26" customFormat="1">
       <c r="A167" s="37"/>
       <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="57"/>
+      <c r="C167" s="59"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="37" t="s">
@@ -2924,10 +2924,10 @@
       <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="58" t="s">
+      <c r="B231" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="59"/>
+      <c r="C231" s="56"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
@@ -2991,15 +2991,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A194:C194"/>
     <mergeCell ref="A247:C247"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A204:C204"/>
@@ -3016,6 +3007,15 @@
     <mergeCell ref="C166:C167"/>
     <mergeCell ref="A242:C242"/>
     <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A194:C194"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="274">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>IDES - l_Definitions_ide.xlsx</t>
+  </si>
+  <si>
+    <t>XML Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -954,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1060,12 +1063,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1148,6 +1160,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1156,6 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1465,11 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1494,11 +1515,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1693,17 +1714,6 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>45</v>
@@ -2007,7 +2017,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="60" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2015,7 +2025,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="58"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="3" t="s">
         <v>116</v>
       </c>
@@ -2354,11 +2364,11 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="55"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="47" t="s">
@@ -2396,11 +2406,11 @@
       <c r="B133" s="47"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="55"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
@@ -2450,11 +2460,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="B141" s="53"/>
-      <c r="C141" s="54"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="55"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
@@ -2483,11 +2493,11 @@
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="53"/>
-      <c r="C146" s="54"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="55"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
@@ -2526,11 +2536,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="53"/>
-      <c r="C154" s="54"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="55"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
@@ -2583,11 +2593,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B164" s="53"/>
-      <c r="C164" s="54"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="55"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="37" t="s">
@@ -2604,14 +2614,14 @@
       <c r="B166" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C166" s="59"/>
+      <c r="C166" s="62"/>
     </row>
     <row r="167" spans="1:3" s="26" customFormat="1">
       <c r="A167" s="37"/>
       <c r="B167" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="59"/>
+      <c r="C167" s="62"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="37" t="s">
@@ -2620,11 +2630,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="B171" s="53"/>
-      <c r="C171" s="54"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="55"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="26" t="s">
@@ -2670,11 +2680,11 @@
       <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A180" s="52" t="s">
+      <c r="A180" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="B180" s="53"/>
-      <c r="C180" s="54"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="55"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="37" t="s">
@@ -2690,11 +2700,11 @@
     </row>
     <row r="184" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="52" t="s">
+      <c r="A185" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B185" s="53"/>
-      <c r="C185" s="54"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="55"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="37" t="s">
@@ -2712,11 +2722,11 @@
     </row>
     <row r="188" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="189" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B189" s="53"/>
-      <c r="C189" s="54"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="55"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="37" t="s">
@@ -2739,22 +2749,22 @@
       <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="52" t="s">
+      <c r="A194" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B194" s="53"/>
-      <c r="C194" s="54"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="55"/>
     </row>
     <row r="195" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
       <c r="A195" s="30"/>
       <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A196" s="52" t="s">
+      <c r="A196" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="B196" s="53"/>
-      <c r="C196" s="54"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="55"/>
     </row>
     <row r="197" spans="1:3" s="33" customFormat="1">
       <c r="A197" s="33" t="s">
@@ -2791,11 +2801,11 @@
     </row>
     <row r="203" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A204" s="52" t="s">
+      <c r="A204" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="54"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="55"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="34" t="s">
@@ -2811,11 +2821,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B207" s="53"/>
-      <c r="C207" s="54"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="55"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="38" t="s">
@@ -2829,11 +2839,11 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="52" t="s">
+      <c r="A212" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="B212" s="53"/>
-      <c r="C212" s="54"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="55"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="39" t="s">
@@ -2852,11 +2862,11 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="218" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A218" s="52" t="s">
+      <c r="A218" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="53"/>
-      <c r="C218" s="54"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="55"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="43" t="s">
@@ -2885,11 +2895,11 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="52" t="s">
+      <c r="A224" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="53"/>
-      <c r="C224" s="54"/>
+      <c r="B224" s="54"/>
+      <c r="C224" s="55"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="43" t="s">
@@ -2901,11 +2911,11 @@
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="52" t="s">
+      <c r="A228" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="B228" s="53"/>
-      <c r="C228" s="54"/>
+      <c r="B228" s="54"/>
+      <c r="C228" s="55"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="44" t="s">
@@ -2924,18 +2934,18 @@
       <c r="A231" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="55" t="s">
+      <c r="B231" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C231" s="56"/>
+      <c r="C231" s="59"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A234" s="52" t="s">
+      <c r="A234" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="B234" s="53"/>
-      <c r="C234" s="54"/>
+      <c r="B234" s="54"/>
+      <c r="C234" s="55"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="50" t="s">
@@ -2949,11 +2959,11 @@
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="242" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A242" s="52" t="s">
+      <c r="A242" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="B242" s="53"/>
-      <c r="C242" s="54"/>
+      <c r="B242" s="54"/>
+      <c r="C242" s="55"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="51" t="s">
@@ -2975,11 +2985,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="52" t="s">
+      <c r="A247" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="B247" s="53"/>
-      <c r="C247" s="54"/>
+      <c r="B247" s="54"/>
+      <c r="C247" s="55"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="51" t="s">
@@ -2989,9 +2999,33 @@
         <v>201</v>
       </c>
     </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A251" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B251" s="54"/>
+      <c r="C251" s="55"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C252" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="57"/>
+      <c r="B253" s="52" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A247:C247"/>
+  <mergeCells count="27">
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A204:C204"/>
     <mergeCell ref="A196:C196"/>
@@ -3005,17 +3039,20 @@
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A242:C242"/>
     <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="B231:C231"/>
     <mergeCell ref="A185:C185"/>
     <mergeCell ref="A224:C224"/>
     <mergeCell ref="A218:C218"/>
     <mergeCell ref="A212:C212"/>
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A242:C242"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
@@ -3034,7 +3071,7 @@
     <hyperlink ref="B81" r:id="rId14"/>
     <hyperlink ref="B75" r:id="rId15"/>
     <hyperlink ref="B69" r:id="rId16"/>
-    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B252" r:id="rId17"/>
     <hyperlink ref="B45" r:id="rId18" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B44" r:id="rId19"/>
     <hyperlink ref="B97" r:id="rId20"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$228</definedName>
+    <definedName name="A">'All Topics'!$A$241</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="285">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -860,6 +860,30 @@
   </si>
   <si>
     <t>Logging - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t>RAML</t>
+  </si>
+  <si>
+    <t>REST API Documentation Tools - b_Definitions_Tools.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST API Debugger Tools - </t>
+  </si>
+  <si>
+    <t>Burp</t>
+  </si>
+  <si>
+    <t>Fiddler</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>REST API - Packet Sniffers - To see Network traffic</t>
+  </si>
+  <si>
+    <t>Wire shark</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1083,6 +1107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1092,7 +1120,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1105,6 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1400,11 +1428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2232,11 +2260,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="42"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="37" t="s">
@@ -2274,11 +2302,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="37" t="s">
@@ -2334,11 +2362,11 @@
       <c r="B138" s="37"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="40" t="s">
+      <c r="A139" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B139" s="41"/>
-      <c r="C139" s="42"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="44"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="37" t="s">
@@ -2374,11 +2402,11 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="41"/>
-      <c r="C144" s="42"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="44"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="37" t="s">
@@ -2417,11 +2445,11 @@
     </row>
     <row r="151" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="152" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A152" s="40" t="s">
+      <c r="A152" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="41"/>
-      <c r="C152" s="42"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="44"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="37" t="s">
@@ -2474,11 +2502,11 @@
     </row>
     <row r="161" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="162" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A162" s="40" t="s">
+      <c r="A162" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B162" s="41"/>
-      <c r="C162" s="42"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="37" t="s">
@@ -2495,14 +2523,14 @@
       <c r="B164" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C164" s="43"/>
+      <c r="C164" s="49"/>
     </row>
     <row r="165" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A165" s="37"/>
       <c r="B165" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C165" s="43"/>
+      <c r="C165" s="49"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="37" t="s">
@@ -2511,11 +2539,11 @@
     </row>
     <row r="168" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="169" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A169" s="40" t="s">
+      <c r="A169" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B169" s="41"/>
-      <c r="C169" s="42"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="44"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="37" t="s">
@@ -2530,451 +2558,507 @@
     </row>
     <row r="172" spans="1:3" s="24" customFormat="1">
       <c r="A172" s="37" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="24" customFormat="1">
-      <c r="A173" s="39" t="s">
-        <v>202</v>
+      <c r="A173" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="37" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" s="28" customFormat="1">
-      <c r="A176" s="37" t="s">
-        <v>257</v>
-      </c>
+    <row r="176" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A177" s="37"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" thickBot="1">
+    <row r="177" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A177" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="43"/>
+      <c r="C177" s="44"/>
+    </row>
+    <row r="178" spans="1:3" s="41" customFormat="1">
       <c r="A178" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178" s="40"/>
+    </row>
+    <row r="179" spans="1:3" s="41" customFormat="1">
+      <c r="A179" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="40"/>
+    </row>
+    <row r="180" spans="1:3" s="41" customFormat="1">
+      <c r="A180" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B180" s="40"/>
+    </row>
+    <row r="181" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A181" s="40"/>
+      <c r="B181" s="40"/>
+    </row>
+    <row r="182" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A182" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44"/>
+    </row>
+    <row r="183" spans="1:3" s="41" customFormat="1">
+      <c r="A183" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B183" s="40"/>
+    </row>
+    <row r="184" spans="1:3" s="41" customFormat="1">
+      <c r="A184" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B184" s="40"/>
+    </row>
+    <row r="185" spans="1:3" s="28" customFormat="1">
+      <c r="A185" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
+    </row>
+    <row r="187" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A187" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B187" s="43"/>
+      <c r="C187" s="44"/>
+    </row>
+    <row r="188" spans="1:3" s="41" customFormat="1">
+      <c r="A188" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B188" s="40"/>
+    </row>
+    <row r="189" spans="1:3" s="41" customFormat="1">
+      <c r="A189" s="40"/>
+      <c r="B189" s="40"/>
+    </row>
+    <row r="190" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A191" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B178" s="41"/>
-      <c r="C178" s="42"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="37" t="s">
+      <c r="B191" s="43"/>
+      <c r="C191" s="44"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="22"/>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="37" t="s">
+      <c r="C192" s="22"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C180" s="20"/>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="183" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A183" s="40" t="s">
+      <c r="C193" s="20"/>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A196" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B183" s="41"/>
-      <c r="C183" s="42"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A187" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A188" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B188" s="41"/>
-      <c r="C188" s="42"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C189" s="10"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A192" s="39"/>
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A193" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B193" s="41"/>
-      <c r="C193" s="42"/>
-    </row>
-    <row r="194" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A194" s="39"/>
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A195" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B195" s="41"/>
-      <c r="C195" s="42"/>
-    </row>
-    <row r="196" spans="1:3" s="26" customFormat="1">
-      <c r="A196" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B196" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="B196" s="43"/>
+      <c r="C196" s="44"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="37" t="s">
-        <v>227</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="37" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="37" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>274</v>
+      </c>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A200" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A203" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="B203" s="41"/>
-      <c r="C203" s="42"/>
+        <v>273</v>
+      </c>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A201" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B201" s="43"/>
+      <c r="C201" s="44"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="39" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A205" s="37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A206" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B206" s="41"/>
-      <c r="C206" s="42"/>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="211" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A211" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B211" s="41"/>
-      <c r="C211" s="42"/>
+      <c r="A204" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A205" s="39"/>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A206" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B206" s="43"/>
+      <c r="C206" s="44"/>
+    </row>
+    <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A207" s="39"/>
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A208" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B208" s="43"/>
+      <c r="C208" s="44"/>
+    </row>
+    <row r="209" spans="1:3" s="26" customFormat="1">
+      <c r="A209" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="37" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="37" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="37" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A217" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B217" s="41"/>
-      <c r="C217" s="42"/>
-    </row>
-    <row r="218" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A216" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B216" s="43"/>
+      <c r="C216" s="44"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1">
       <c r="A218" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C218" s="15"/>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C219" s="16"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A219" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B219" s="43"/>
+      <c r="C219" s="44"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A223" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="B223" s="41"/>
-      <c r="C223" s="42"/>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="37" t="s">
-        <v>70</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A224" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B224" s="43"/>
+      <c r="C224" s="44"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A227" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B227" s="34"/>
-      <c r="C227" s="35"/>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B230" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="47"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A230" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B230" s="43"/>
+      <c r="C230" s="44"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C231" s="13"/>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A233" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B233" s="34"/>
-      <c r="C233" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C231" s="15"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C232" s="16"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="37" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B241" s="34"/>
-      <c r="C241" s="35"/>
-    </row>
-    <row r="242" spans="1:3" ht="30">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A236" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B236" s="43"/>
+      <c r="C236" s="44"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A240" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B240" s="34"/>
+      <c r="C240" s="35"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="37" t="s">
-        <v>260</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B243" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="48"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="37" t="s">
-        <v>261</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C244" s="13"/>
     </row>
     <row r="245" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="246" spans="1:3" ht="15.75" thickBot="1">
       <c r="A246" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B246" s="34"/>
       <c r="C246" s="35"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C247" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B250" s="34"/>
-      <c r="C250" s="35"/>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C251" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="45"/>
-      <c r="B252" s="32" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="37" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
       <c r="A254" s="33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B254" s="34"/>
       <c r="C254" s="35"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="30">
       <c r="A255" s="37" t="s">
-        <v>265</v>
+        <v>153</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A259" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259" s="34"/>
+      <c r="C259" s="35"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="263" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A263" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B263" s="34"/>
+      <c r="C263" s="35"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C264" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="46"/>
+      <c r="B265" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="267" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A267" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" s="34"/>
+      <c r="C267" s="35"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="37" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="37" t="s">
+    <row r="270" spans="1:3">
+      <c r="A270" s="37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="37" t="s">
+    <row r="271" spans="1:3">
+      <c r="A271" s="37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="37" t="s">
+    <row r="272" spans="1:3">
+      <c r="A272" s="37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="37" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" s="37" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A178:C178"/>
+  <mergeCells count="23">
+    <mergeCell ref="A191:C191"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A169:C169"/>
@@ -2983,6 +3067,20 @@
     <mergeCell ref="A152:C152"/>
     <mergeCell ref="A162:C162"/>
     <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A236:C236"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -2994,20 +3092,20 @@
     <hyperlink ref="B77" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
-    <hyperlink ref="B218" r:id="rId10"/>
+    <hyperlink ref="B231" r:id="rId10"/>
     <hyperlink ref="B148" r:id="rId11"/>
     <hyperlink ref="B45" r:id="rId12"/>
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B251" r:id="rId16"/>
+    <hyperlink ref="B264" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
     <hyperlink ref="B95" r:id="rId20"/>
     <hyperlink ref="B35" r:id="rId21"/>
     <hyperlink ref="B141" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B242" r:id="rId23"/>
+    <hyperlink ref="B255" r:id="rId23"/>
     <hyperlink ref="B62" r:id="rId24"/>
     <hyperlink ref="B107" r:id="rId25"/>
     <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
@@ -3017,7 +3115,7 @@
     <hyperlink ref="B119" r:id="rId30"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B165" r:id="rId31"/>
-    <hyperlink ref="B196" r:id="rId32"/>
+    <hyperlink ref="B209" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId33"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$241</definedName>
+    <definedName name="A">'All Topics'!$A$242</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="286">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Wire shark</t>
+  </si>
+  <si>
+    <t>cURL</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1111,6 +1114,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1120,6 +1127,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1132,7 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1428,11 +1435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2260,11 +2267,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B124" s="43"/>
-      <c r="C124" s="44"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="46"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="37" t="s">
@@ -2302,11 +2309,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="44"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="46"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="37" t="s">
@@ -2362,11 +2369,11 @@
       <c r="B138" s="37"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B139" s="43"/>
-      <c r="C139" s="44"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="46"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="37" t="s">
@@ -2393,7 +2400,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1">
+    <row r="143" spans="1:3">
       <c r="A143" s="37" t="s">
         <v>272</v>
       </c>
@@ -2401,24 +2408,25 @@
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1">
+    <row r="144" spans="1:3" s="43" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="42"/>
+      <c r="C144" s="43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A145" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="43"/>
-      <c r="C144" s="44"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" t="s">
-        <v>169</v>
-      </c>
+      <c r="B145" s="45"/>
+      <c r="C145" s="46"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
         <v>169</v>
@@ -2426,7 +2434,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
         <v>169</v>
@@ -2434,653 +2442,663 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A152" s="42" t="s">
+    <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A153" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="43"/>
-      <c r="C152" s="44"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="22"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="46"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="37" t="s">
-        <v>142</v>
+        <v>23</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C154" s="22"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B156" s="2"/>
+        <v>143</v>
+      </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A162" s="42" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="22"/>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A163" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B162" s="43"/>
-      <c r="C162" s="44"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="37" t="s">
+      <c r="B163" s="45"/>
+      <c r="C163" s="46"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B164" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
-      <c r="A164" s="37" t="s">
+    <row r="165" spans="1:3" ht="30">
+      <c r="A165" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C164" s="49"/>
-    </row>
-    <row r="165" spans="1:3" s="22" customFormat="1" ht="30">
-      <c r="A165" s="37"/>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="47"/>
+    </row>
+    <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
+      <c r="A166" s="37"/>
+      <c r="B166" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C165" s="49"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="37" t="s">
+      <c r="C166" s="47"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A169" s="42" t="s">
+    <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A170" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B169" s="43"/>
-      <c r="C169" s="44"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C170" s="22"/>
+      <c r="B170" s="45"/>
+      <c r="C170" s="46"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C171" s="22"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="37" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" s="24" customFormat="1">
-      <c r="A172" s="37" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="24" customFormat="1">
       <c r="A173" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="22"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="22"/>
+    </row>
+    <row r="175" spans="1:3" s="24" customFormat="1">
+      <c r="A175" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="176" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A177" s="42" t="s">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="177" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A178" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="B177" s="43"/>
-      <c r="C177" s="44"/>
-    </row>
-    <row r="178" spans="1:3" s="41" customFormat="1">
-      <c r="A178" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B178" s="40"/>
+      <c r="B178" s="45"/>
+      <c r="C178" s="46"/>
     </row>
     <row r="179" spans="1:3" s="41" customFormat="1">
       <c r="A179" s="40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B179" s="40"/>
     </row>
     <row r="180" spans="1:3" s="41" customFormat="1">
       <c r="A180" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="40"/>
+    </row>
+    <row r="181" spans="1:3" s="41" customFormat="1">
+      <c r="A181" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="B180" s="40"/>
-    </row>
-    <row r="181" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A181" s="40"/>
       <c r="B181" s="40"/>
     </row>
     <row r="182" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A182" s="42" t="s">
+      <c r="A182" s="40"/>
+      <c r="B182" s="40"/>
+    </row>
+    <row r="183" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A183" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="B182" s="43"/>
-      <c r="C182" s="44"/>
-    </row>
-    <row r="183" spans="1:3" s="41" customFormat="1">
-      <c r="A183" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="B183" s="40"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46"/>
     </row>
     <row r="184" spans="1:3" s="41" customFormat="1">
       <c r="A184" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B184" s="40"/>
+    </row>
+    <row r="185" spans="1:3" s="41" customFormat="1">
+      <c r="A185" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B184" s="40"/>
-    </row>
-    <row r="185" spans="1:3" s="28" customFormat="1">
-      <c r="A185" s="40" t="s">
+      <c r="B185" s="40"/>
+    </row>
+    <row r="186" spans="1:3" s="28" customFormat="1">
+      <c r="A186" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A187" s="42" t="s">
+      <c r="A187" s="40"/>
+      <c r="B187" s="40"/>
+    </row>
+    <row r="188" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A188" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="B187" s="43"/>
-      <c r="C187" s="44"/>
-    </row>
-    <row r="188" spans="1:3" s="41" customFormat="1">
-      <c r="A188" s="40" t="s">
+      <c r="B188" s="45"/>
+      <c r="C188" s="46"/>
+    </row>
+    <row r="189" spans="1:3" s="41" customFormat="1">
+      <c r="A189" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B188" s="40"/>
-    </row>
-    <row r="189" spans="1:3" s="41" customFormat="1">
-      <c r="A189" s="40"/>
       <c r="B189" s="40"/>
     </row>
-    <row r="190" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+    <row r="190" spans="1:3" s="41" customFormat="1">
       <c r="A190" s="40"/>
       <c r="B190" s="40"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A191" s="42" t="s">
+    <row r="191" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A191" s="40"/>
+      <c r="B191" s="40"/>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A192" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="B191" s="43"/>
-      <c r="C191" s="44"/>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C192" s="22"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="46"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="22"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C193" s="20"/>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A196" s="42" t="s">
+      <c r="C194" s="20"/>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A197" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B196" s="43"/>
-      <c r="C196" s="44"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B197" s="2"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="46"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="37" t="s">
-        <v>38</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A200" s="37" t="s">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A201" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A201" s="42" t="s">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A202" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="43"/>
-      <c r="C201" s="44"/>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="37" t="s">
+      <c r="B202" s="45"/>
+      <c r="C202" s="46"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C202" s="10"/>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="39" t="s">
-        <v>220</v>
-      </c>
+      <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="39" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A205" s="39"/>
-      <c r="B205" s="1"/>
-    </row>
     <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A206" s="42" t="s">
+      <c r="A206" s="39"/>
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A207" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B206" s="43"/>
-      <c r="C206" s="44"/>
-    </row>
-    <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="39"/>
-      <c r="B207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A208" s="42" t="s">
+      <c r="B207" s="45"/>
+      <c r="C207" s="46"/>
+    </row>
+    <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A208" s="39"/>
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B208" s="43"/>
-      <c r="C208" s="44"/>
-    </row>
-    <row r="209" spans="1:3" s="26" customFormat="1">
-      <c r="A209" s="37" t="s">
+      <c r="B209" s="45"/>
+      <c r="C209" s="46"/>
+    </row>
+    <row r="210" spans="1:3" s="26" customFormat="1">
+      <c r="A210" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B209" s="27" t="s">
+      <c r="B210" s="27" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="37" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A216" s="42" t="s">
+    <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="217" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A217" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B216" s="43"/>
-      <c r="C216" s="44"/>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="37" t="s">
+      <c r="B217" s="45"/>
+      <c r="C217" s="46"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A218" s="37" t="s">
+    <row r="219" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A219" s="37" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A219" s="42" t="s">
+    <row r="220" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A220" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B219" s="43"/>
-      <c r="C219" s="44"/>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="37" t="s">
-        <v>240</v>
-      </c>
+      <c r="B220" s="45"/>
+      <c r="C220" s="46"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="37" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="42" t="s">
+    <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A225" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B224" s="43"/>
-      <c r="C224" s="44"/>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="37" t="s">
-        <v>212</v>
-      </c>
+      <c r="B225" s="45"/>
+      <c r="C225" s="46"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="37" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A230" s="42" t="s">
+    <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A231" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B230" s="43"/>
-      <c r="C230" s="44"/>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C231" s="15"/>
+      <c r="B231" s="45"/>
+      <c r="C231" s="46"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C232" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C232" s="15"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="37" t="s">
-        <v>246</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A236" s="42" t="s">
+    <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="237" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A237" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="B236" s="43"/>
-      <c r="C236" s="44"/>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="37" t="s">
-        <v>70</v>
-      </c>
+      <c r="B237" s="45"/>
+      <c r="C237" s="46"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A240" s="33" t="s">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A241" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="B240" s="34"/>
-      <c r="C240" s="35"/>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="37" t="s">
-        <v>251</v>
-      </c>
+      <c r="B241" s="45"/>
+      <c r="C241" s="46"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B243" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="51"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C244" s="13"/>
-    </row>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="246" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A246" s="33" t="s">
+      <c r="C245" s="13"/>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A247" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="34"/>
-      <c r="C246" s="35"/>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="37" t="s">
-        <v>258</v>
-      </c>
+      <c r="B247" s="45"/>
+      <c r="C247" s="46"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="37" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="33" t="s">
+    <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="255" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A255" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B254" s="34"/>
-      <c r="C254" s="35"/>
-    </row>
-    <row r="255" spans="1:3" ht="30">
-      <c r="A255" s="37" t="s">
+      <c r="B255" s="34"/>
+      <c r="C255" s="35"/>
+    </row>
+    <row r="256" spans="1:3" ht="30">
+      <c r="A256" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="33" t="s">
+    <row r="259" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="260" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A260" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B259" s="34"/>
-      <c r="C259" s="35"/>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="37" t="s">
+      <c r="B260" s="34"/>
+      <c r="C260" s="35"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C261" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="33" t="s">
+    <row r="263" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="264" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A264" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B263" s="34"/>
-      <c r="C263" s="35"/>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="45" t="s">
+      <c r="B264" s="34"/>
+      <c r="C264" s="35"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="46"/>
-      <c r="B265" s="32" t="s">
+    <row r="266" spans="1:3">
+      <c r="A266" s="49"/>
+      <c r="B266" s="32" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="267" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A267" s="33" t="s">
+    <row r="267" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="268" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A268" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B267" s="34"/>
-      <c r="C267" s="35"/>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="37" t="s">
-        <v>265</v>
-      </c>
+      <c r="B268" s="34"/>
+      <c r="C268" s="35"/>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="37" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="37" t="s">
-        <v>268</v>
+        <v>139</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="37" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A191:C191"/>
+  <mergeCells count="25">
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
     <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3092,20 +3110,20 @@
     <hyperlink ref="B77" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
-    <hyperlink ref="B231" r:id="rId10"/>
-    <hyperlink ref="B148" r:id="rId11"/>
+    <hyperlink ref="B232" r:id="rId10"/>
+    <hyperlink ref="B149" r:id="rId11"/>
     <hyperlink ref="B45" r:id="rId12"/>
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B264" r:id="rId16"/>
+    <hyperlink ref="B265" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
     <hyperlink ref="B95" r:id="rId20"/>
     <hyperlink ref="B35" r:id="rId21"/>
     <hyperlink ref="B141" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B255" r:id="rId23"/>
+    <hyperlink ref="B256" r:id="rId23"/>
     <hyperlink ref="B62" r:id="rId24"/>
     <hyperlink ref="B107" r:id="rId25"/>
     <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
@@ -3114,8 +3132,8 @@
     <hyperlink ref="B133" r:id="rId29"/>
     <hyperlink ref="B119" r:id="rId30"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B165" r:id="rId31"/>
-    <hyperlink ref="B209" r:id="rId32"/>
+    <hyperlink ref="B166" r:id="rId31"/>
+    <hyperlink ref="B210" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId33"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="288">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -887,6 +887,12 @@
   </si>
   <si>
     <t>cURL</t>
+  </si>
+  <si>
+    <t>Beanio</t>
+  </si>
+  <si>
+    <t>http://www.beanio.org/2.0/docs/reference/index.html</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,15 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1118,6 +1115,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1127,7 +1127,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1140,6 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,22 +1435,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1505,7 +1505,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1557,7 +1557,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
@@ -1603,7 +1603,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
@@ -1627,11 +1627,11 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="37"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
@@ -1639,43 +1639,43 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1686,12 +1686,12 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="34" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1699,17 +1699,17 @@
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1717,27 +1717,27 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1745,7 +1745,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="75">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1769,12 +1769,12 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1785,12 +1785,12 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="34" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1798,17 +1798,17 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="34" t="s">
         <v>87</v>
       </c>
       <c r="C54" t="s">
@@ -1824,17 +1824,17 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="34" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C57" t="s">
@@ -1842,17 +1842,17 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="34" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="34" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1868,7 +1868,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="34" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1916,12 +1916,12 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="34" t="s">
         <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="34" t="s">
         <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -1956,7 +1956,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="34" t="s">
         <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="34" t="s">
         <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -1991,7 +1991,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -1999,17 +1999,17 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="34" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C81" t="s">
@@ -2017,7 +2017,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C82" t="s">
@@ -2025,7 +2025,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="34" t="s">
         <v>131</v>
       </c>
       <c r="C83" t="s">
@@ -2033,35 +2033,35 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="9" customFormat="1">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="34" t="s">
         <v>185</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:3" s="9" customFormat="1">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="34" t="s">
         <v>186</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:3" s="9" customFormat="1">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="34" t="s">
         <v>187</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="34" t="s">
         <v>184</v>
       </c>
       <c r="B90" s="2"/>
@@ -2070,22 +2070,22 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="34" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="34" t="s">
         <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
-      <c r="A95" s="37" t="s">
+      <c r="A95" s="34" t="s">
         <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -2101,63 +2101,63 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A96" s="37" t="s">
+      <c r="A96" s="34" t="s">
         <v>141</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="34" t="s">
         <v>144</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="34" t="s">
         <v>145</v>
       </c>
       <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="37" t="s">
+      <c r="A99" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="37" t="s">
+      <c r="A101" s="34" t="s">
         <v>148</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="34" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="34" t="s">
         <v>163</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -2181,37 +2181,37 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="34" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="37" t="s">
+      <c r="A117" s="34" t="s">
         <v>174</v>
       </c>
       <c r="C117" s="21" t="s">
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C118" t="s">
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -2235,7 +2235,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="34" t="s">
         <v>181</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="34" t="s">
         <v>182</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -2251,7 +2251,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="34" t="s">
         <v>199</v>
       </c>
       <c r="C122" s="22" t="s">
@@ -2259,7 +2259,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C123" s="22" t="s">
@@ -2267,62 +2267,62 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="44" t="s">
+      <c r="A124" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="34" t="s">
         <v>190</v>
       </c>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="34" t="s">
         <v>203</v>
       </c>
       <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="34" t="s">
         <v>204</v>
       </c>
       <c r="C128" s="22"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="37" t="s">
+      <c r="A129" s="34" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="30" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A130" s="37" t="s">
+      <c r="A130" s="34" t="s">
         <v>255</v>
       </c>
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="45"/>
-      <c r="C131" s="46"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="34" t="s">
         <v>189</v>
       </c>
       <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -2330,7 +2330,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="37" t="s">
+      <c r="A134" s="34" t="s">
         <v>192</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -2339,7 +2339,7 @@
       <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="34" t="s">
         <v>248</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2347,7 +2347,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="34" t="s">
         <v>249</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -2355,28 +2355,28 @@
       </c>
     </row>
     <row r="137" spans="1:3" s="29" customFormat="1">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="34" t="s">
         <v>250</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A138" s="37" t="s">
+    <row r="138" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A138" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="37"/>
+      <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="44" t="s">
+      <c r="A139" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="B139" s="45"/>
-      <c r="C139" s="46"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="44"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="19" t="s">
@@ -2384,7 +2384,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B141" s="2"/>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="34" t="s">
         <v>136</v>
       </c>
       <c r="C142" s="22" t="s">
@@ -2401,31 +2401,31 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="37" t="s">
+      <c r="A143" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A144" s="42" t="s">
+    <row r="144" spans="1:3" s="40" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A144" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="43" t="s">
+      <c r="B144" s="39"/>
+      <c r="C144" s="40" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="44" t="s">
+      <c r="A145" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="45"/>
-      <c r="C145" s="46"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="44"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="37" t="s">
+      <c r="A146" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C146" t="s">
@@ -2433,7 +2433,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="37" t="s">
+      <c r="A147" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C147" t="s">
@@ -2441,7 +2441,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C148" t="s">
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="37" t="s">
+      <c r="A149" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -2461,14 +2461,14 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="44" t="s">
+      <c r="A153" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B153" s="45"/>
-      <c r="C153" s="46"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="37" t="s">
+      <c r="A154" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -2477,40 +2477,40 @@
       <c r="C154" s="22"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="37" t="s">
+      <c r="A155" s="34" t="s">
         <v>142</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="37" t="s">
+      <c r="A156" s="34" t="s">
         <v>143</v>
       </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="37" t="s">
+      <c r="A157" s="34" t="s">
         <v>149</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="37" t="s">
+      <c r="A158" s="34" t="s">
         <v>150</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="37" t="s">
+      <c r="A160" s="34" t="s">
         <v>152</v>
       </c>
       <c r="B160" s="2"/>
@@ -2518,14 +2518,14 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="44" t="s">
+      <c r="A163" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B163" s="45"/>
-      <c r="C163" s="46"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="44"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="37" t="s">
+      <c r="A164" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -2533,59 +2533,59 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="30">
-      <c r="A165" s="37" t="s">
+      <c r="A165" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="47"/>
+      <c r="C165" s="49"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
-      <c r="A166" s="37"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C166" s="47"/>
+      <c r="C166" s="49"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="37" t="s">
+      <c r="A167" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B170" s="45"/>
-      <c r="C170" s="46"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="44"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="37" t="s">
+      <c r="A171" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C171" s="22"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="37" t="s">
+      <c r="A172" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="24" customFormat="1">
-      <c r="A173" s="37" t="s">
+      <c r="A173" s="34" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
-      <c r="A174" s="37" t="s">
+      <c r="A174" s="34" t="s">
         <v>238</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
-      <c r="A175" s="37" t="s">
+      <c r="A175" s="34" t="s">
         <v>257</v>
       </c>
       <c r="B175" s="1"/>
@@ -2593,182 +2593,182 @@
     <row r="177" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="44" t="s">
+    <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A178" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="B178" s="45"/>
-      <c r="C178" s="46"/>
-    </row>
-    <row r="179" spans="1:3" s="41" customFormat="1">
-      <c r="A179" s="40" t="s">
+      <c r="B178" s="43"/>
+      <c r="C178" s="44"/>
+    </row>
+    <row r="179" spans="1:3" s="38" customFormat="1">
+      <c r="A179" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="B179" s="40"/>
-    </row>
-    <row r="180" spans="1:3" s="41" customFormat="1">
-      <c r="A180" s="40" t="s">
+      <c r="B179" s="37"/>
+    </row>
+    <row r="180" spans="1:3" s="38" customFormat="1">
+      <c r="A180" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B180" s="40"/>
-    </row>
-    <row r="181" spans="1:3" s="41" customFormat="1">
-      <c r="A181" s="40" t="s">
+      <c r="B180" s="37"/>
+    </row>
+    <row r="181" spans="1:3" s="38" customFormat="1">
+      <c r="A181" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="B181" s="40"/>
-    </row>
-    <row r="182" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
-    </row>
-    <row r="183" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="44" t="s">
+      <c r="B181" s="37"/>
+    </row>
+    <row r="182" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A182" s="37"/>
+      <c r="B182" s="37"/>
+    </row>
+    <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A183" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="B183" s="45"/>
-      <c r="C183" s="46"/>
-    </row>
-    <row r="184" spans="1:3" s="41" customFormat="1">
-      <c r="A184" s="40" t="s">
+      <c r="B183" s="43"/>
+      <c r="C183" s="44"/>
+    </row>
+    <row r="184" spans="1:3" s="38" customFormat="1">
+      <c r="A184" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B184" s="40"/>
-    </row>
-    <row r="185" spans="1:3" s="41" customFormat="1">
-      <c r="A185" s="40" t="s">
+      <c r="B184" s="37"/>
+    </row>
+    <row r="185" spans="1:3" s="38" customFormat="1">
+      <c r="A185" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="B185" s="40"/>
+      <c r="B185" s="37"/>
     </row>
     <row r="186" spans="1:3" s="28" customFormat="1">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="37" t="s">
         <v>282</v>
       </c>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
-    </row>
-    <row r="188" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="44" t="s">
+    <row r="187" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A187" s="37"/>
+      <c r="B187" s="37"/>
+    </row>
+    <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A188" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B188" s="45"/>
-      <c r="C188" s="46"/>
-    </row>
-    <row r="189" spans="1:3" s="41" customFormat="1">
-      <c r="A189" s="40" t="s">
+      <c r="B188" s="43"/>
+      <c r="C188" s="44"/>
+    </row>
+    <row r="189" spans="1:3" s="38" customFormat="1">
+      <c r="A189" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B189" s="40"/>
-    </row>
-    <row r="190" spans="1:3" s="41" customFormat="1">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
-    </row>
-    <row r="191" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
+      <c r="B189" s="37"/>
+    </row>
+    <row r="190" spans="1:3" s="38" customFormat="1">
+      <c r="A190" s="37"/>
+      <c r="B190" s="37"/>
+    </row>
+    <row r="191" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A191" s="37"/>
+      <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="44" t="s">
+      <c r="A192" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B192" s="45"/>
-      <c r="C192" s="46"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="44"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="37" t="s">
+      <c r="A193" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C193" s="22"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="37" t="s">
+      <c r="A194" s="34" t="s">
         <v>196</v>
       </c>
       <c r="C194" s="20"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="44" t="s">
+      <c r="A197" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B197" s="45"/>
-      <c r="C197" s="46"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="44"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="37" t="s">
+      <c r="A198" s="34" t="s">
         <v>275</v>
       </c>
       <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="37" t="s">
+      <c r="A199" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="37" t="s">
+      <c r="A200" s="34" t="s">
         <v>274</v>
       </c>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:3" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A201" s="37" t="s">
+    <row r="201" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A201" s="34" t="s">
         <v>273</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="44" t="s">
+      <c r="A202" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B202" s="45"/>
-      <c r="C202" s="46"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="44"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="34" t="s">
         <v>188</v>
       </c>
       <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="39" t="s">
+      <c r="A204" s="36" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="39" t="s">
+      <c r="A205" s="36" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A206" s="39"/>
+      <c r="A206" s="36"/>
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="44" t="s">
+      <c r="A207" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="45"/>
-      <c r="C207" s="46"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="44"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A208" s="39"/>
+      <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="44" t="s">
+      <c r="A209" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="45"/>
-      <c r="C209" s="46"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="44"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
-      <c r="A210" s="37" t="s">
+      <c r="A210" s="34" t="s">
         <v>232</v>
       </c>
       <c r="B210" s="27" t="s">
@@ -2776,40 +2776,40 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="37" t="s">
+      <c r="A211" s="34" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="37" t="s">
+      <c r="A212" s="34" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="37" t="s">
+      <c r="A213" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="37" t="s">
+      <c r="A214" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="44" t="s">
+      <c r="A217" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B217" s="45"/>
-      <c r="C217" s="46"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="44"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="37" t="s">
+      <c r="A218" s="34" t="s">
         <v>235</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -2817,60 +2817,60 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A219" s="37" t="s">
+      <c r="A219" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="44" t="s">
+      <c r="A220" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B220" s="45"/>
-      <c r="C220" s="46"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="44"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="37" t="s">
+      <c r="A221" s="34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="37" t="s">
+      <c r="A222" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="44" t="s">
+      <c r="A225" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B225" s="45"/>
-      <c r="C225" s="46"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="44"/>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="37" t="s">
+      <c r="A226" s="34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="37" t="s">
+      <c r="A227" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="37" t="s">
+      <c r="A228" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="44" t="s">
+      <c r="A231" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="B231" s="45"/>
-      <c r="C231" s="46"/>
+      <c r="B231" s="43"/>
+      <c r="C231" s="44"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="37" t="s">
+      <c r="A232" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -2879,55 +2879,55 @@
       <c r="C232" s="15"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="37" t="s">
+      <c r="A233" s="34" t="s">
         <v>183</v>
       </c>
       <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="37" t="s">
+      <c r="A234" s="34" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="37" t="s">
+      <c r="A235" s="34" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="44" t="s">
+      <c r="A237" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="B237" s="45"/>
-      <c r="C237" s="46"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="44"/>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="37" t="s">
+      <c r="A238" s="34" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="37" t="s">
+      <c r="A239" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B239" s="2"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="44" t="s">
+      <c r="A241" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="B241" s="45"/>
-      <c r="C241" s="46"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="44"/>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="37" t="s">
+      <c r="A242" s="34" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="37" t="s">
+      <c r="A243" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -2935,158 +2935,163 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="37" t="s">
+      <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="50" t="s">
+      <c r="B244" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="51"/>
+      <c r="C244" s="48"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="37" t="s">
+      <c r="A245" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C245" s="13"/>
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="44" t="s">
+      <c r="A247" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B247" s="45"/>
-      <c r="C247" s="46"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="44"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="37" t="s">
+      <c r="A248" s="34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="37" t="s">
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A249" s="34" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A250" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B250" s="43"/>
+      <c r="C250" s="44"/>
+    </row>
+    <row r="251" spans="1:3" ht="30">
+      <c r="A251" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="34"/>
-      <c r="C255" s="35"/>
-    </row>
-    <row r="256" spans="1:3" ht="30">
-      <c r="A256" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="37" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="260" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A260" s="33" t="s">
+      <c r="A255" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="34"/>
-      <c r="C260" s="35"/>
+      <c r="B255" s="43"/>
+      <c r="C255" s="44"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A259" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B259" s="43"/>
+      <c r="C259" s="44"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="264" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A264" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B264" s="34"/>
-      <c r="C264" s="35"/>
+      <c r="A261" s="46"/>
+      <c r="B261" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="263" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A263" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="43"/>
+      <c r="C263" s="44"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="34" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C265" t="s">
-        <v>169</v>
+      <c r="A265" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="49"/>
-      <c r="B266" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="268" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A268" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B268" s="34"/>
-      <c r="C268" s="35"/>
+      <c r="A266" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="34" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="37" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="37" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="37" t="s">
-        <v>267</v>
-      </c>
+      <c r="A269" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="271" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A271" s="42"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="44"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="37" t="s">
-        <v>269</v>
+      <c r="A272" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A247:C247"/>
+  <mergeCells count="30">
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
@@ -3099,6 +3104,19 @@
     <mergeCell ref="A178:C178"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A247:C247"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3116,14 +3134,14 @@
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B265" r:id="rId16"/>
+    <hyperlink ref="B260" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
     <hyperlink ref="B95" r:id="rId20"/>
     <hyperlink ref="B35" r:id="rId21"/>
     <hyperlink ref="B141" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B256" r:id="rId23"/>
+    <hyperlink ref="B251" r:id="rId23"/>
     <hyperlink ref="B62" r:id="rId24"/>
     <hyperlink ref="B107" r:id="rId25"/>
     <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
@@ -3134,8 +3152,9 @@
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B166" r:id="rId31"/>
     <hyperlink ref="B210" r:id="rId32"/>
+    <hyperlink ref="B272" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1127,6 +1127,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1139,7 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1438,8 +1438,8 @@
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2539,14 +2539,14 @@
       <c r="B165" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="49"/>
+      <c r="C165" s="45"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C166" s="49"/>
+      <c r="C166" s="45"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="34" t="s">
@@ -2938,10 +2938,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="47" t="s">
+      <c r="B244" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="48"/>
+      <c r="C244" s="49"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3017,7 +3017,7 @@
       <c r="C259" s="44"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="45" t="s">
+      <c r="A260" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="46"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="32" t="s">
         <v>264</v>
       </c>
@@ -3087,23 +3087,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3117,6 +3100,23 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="289">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>http://www.beanio.org/2.0/docs/reference/index.html</t>
+  </si>
+  <si>
+    <t>JWT (JSON WEB TOKENS)</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1140,6 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1438,8 +1441,8 @@
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2539,14 +2542,14 @@
       <c r="B165" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="45"/>
+      <c r="C165" s="49"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C166" s="45"/>
+      <c r="C166" s="49"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="34" t="s">
@@ -2746,7 +2749,9 @@
       </c>
     </row>
     <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A206" s="36"/>
+      <c r="A206" s="36" t="s">
+        <v>288</v>
+      </c>
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
@@ -2938,10 +2943,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="48" t="s">
+      <c r="B244" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="49"/>
+      <c r="C244" s="48"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3017,7 +3022,7 @@
       <c r="C259" s="44"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="46" t="s">
+      <c r="A260" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3028,7 +3033,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="47"/>
+      <c r="A261" s="46"/>
       <c r="B261" s="32" t="s">
         <v>264</v>
       </c>
@@ -3087,6 +3092,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3100,23 +3122,6 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="290">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>JWT (JSON WEB TOKENS)</t>
+  </si>
+  <si>
+    <t>n_scala.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1121,6 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1130,6 +1134,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1142,7 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1441,8 +1445,8 @@
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207:C207"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2109,57 +2113,60 @@
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" s="34" t="s">
         <v>144</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" s="34" t="s">
         <v>145</v>
       </c>
       <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" s="34" t="s">
         <v>147</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" s="34" t="s">
         <v>148</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" s="34" t="s">
         <v>159</v>
       </c>
@@ -2167,7 +2174,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" s="34" t="s">
         <v>161</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" s="34" t="s">
         <v>163</v>
       </c>
@@ -2183,12 +2190,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3">
       <c r="A110" s="34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" s="34" t="s">
         <v>173</v>
       </c>
@@ -2270,11 +2277,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B124" s="43"/>
-      <c r="C124" s="44"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="34" t="s">
@@ -2312,11 +2319,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="44"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="45"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="34" t="s">
@@ -2372,11 +2379,11 @@
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B139" s="43"/>
-      <c r="C139" s="44"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="45"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="34" t="s">
@@ -2421,11 +2428,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="43"/>
-      <c r="C145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="45"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="34" t="s">
@@ -2464,11 +2471,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="B153" s="43"/>
-      <c r="C153" s="44"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="45"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="34" t="s">
@@ -2521,11 +2528,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="42" t="s">
+      <c r="A163" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="B163" s="43"/>
-      <c r="C163" s="44"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="45"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="34" t="s">
@@ -2542,14 +2549,14 @@
       <c r="B165" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C165" s="49"/>
+      <c r="C165" s="46"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C166" s="49"/>
+      <c r="C166" s="46"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="34" t="s">
@@ -2558,11 +2565,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B170" s="43"/>
-      <c r="C170" s="44"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="45"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="34" t="s">
@@ -2597,11 +2604,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="42" t="s">
+      <c r="A178" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B178" s="43"/>
-      <c r="C178" s="44"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="45"/>
     </row>
     <row r="179" spans="1:3" s="38" customFormat="1">
       <c r="A179" s="37" t="s">
@@ -2626,11 +2633,11 @@
       <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="42" t="s">
+      <c r="A183" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B183" s="43"/>
-      <c r="C183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="45"/>
     </row>
     <row r="184" spans="1:3" s="38" customFormat="1">
       <c r="A184" s="37" t="s">
@@ -2655,11 +2662,11 @@
       <c r="B187" s="37"/>
     </row>
     <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="42" t="s">
+      <c r="A188" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="B188" s="43"/>
-      <c r="C188" s="44"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="45"/>
     </row>
     <row r="189" spans="1:3" s="38" customFormat="1">
       <c r="A189" s="37" t="s">
@@ -2676,11 +2683,11 @@
       <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="42" t="s">
+      <c r="A192" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B192" s="43"/>
-      <c r="C192" s="44"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="45"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="34" t="s">
@@ -2696,11 +2703,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="42" t="s">
+      <c r="A197" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="B197" s="43"/>
-      <c r="C197" s="44"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="45"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="34" t="s">
@@ -2726,11 +2733,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="42" t="s">
+      <c r="A202" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="B202" s="43"/>
-      <c r="C202" s="44"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="45"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
@@ -2755,22 +2762,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="42" t="s">
+      <c r="A207" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B207" s="43"/>
-      <c r="C207" s="44"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="45"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="42" t="s">
+      <c r="A209" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="B209" s="43"/>
-      <c r="C209" s="44"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="45"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
       <c r="A210" s="34" t="s">
@@ -2807,11 +2814,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B217" s="43"/>
-      <c r="C217" s="44"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="45"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="34" t="s">
@@ -2827,11 +2834,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="42" t="s">
+      <c r="A220" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B220" s="43"/>
-      <c r="C220" s="44"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="45"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="34" t="s">
@@ -2845,11 +2852,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="42" t="s">
+      <c r="A225" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="B225" s="43"/>
-      <c r="C225" s="44"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="45"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="34" t="s">
@@ -2868,11 +2875,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="42" t="s">
+      <c r="A231" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="B231" s="43"/>
-      <c r="C231" s="44"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="45"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="34" t="s">
@@ -2901,11 +2908,11 @@
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="42" t="s">
+      <c r="A237" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="B237" s="43"/>
-      <c r="C237" s="44"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="45"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="34" t="s">
@@ -2920,11 +2927,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="42" t="s">
+      <c r="A241" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="B241" s="43"/>
-      <c r="C241" s="44"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="45"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="34" t="s">
@@ -2943,10 +2950,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="47" t="s">
+      <c r="B244" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="48"/>
+      <c r="C244" s="50"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -2956,11 +2963,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="42" t="s">
+      <c r="A247" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B247" s="43"/>
-      <c r="C247" s="44"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="45"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="34" t="s">
@@ -2973,11 +2980,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="42" t="s">
+      <c r="A250" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="B250" s="43"/>
-      <c r="C250" s="44"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="45"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="34" t="s">
@@ -2999,11 +3006,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="42" t="s">
+      <c r="A255" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B255" s="43"/>
-      <c r="C255" s="44"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="45"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="34" t="s">
@@ -3015,14 +3022,14 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="42" t="s">
+      <c r="A259" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="43"/>
-      <c r="C259" s="44"/>
+      <c r="B259" s="44"/>
+      <c r="C259" s="45"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="45" t="s">
+      <c r="A260" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3033,18 +3040,18 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="46"/>
+      <c r="A261" s="48"/>
       <c r="B261" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="42" t="s">
+      <c r="A263" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="B263" s="43"/>
-      <c r="C263" s="44"/>
+      <c r="B263" s="44"/>
+      <c r="C263" s="45"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="34" t="s">
@@ -3078,9 +3085,9 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="43"/>
-      <c r="C271" s="44"/>
+      <c r="A271" s="43"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="45"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="41" t="s">
@@ -3092,23 +3099,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3122,6 +3112,23 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="291">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -306,9 +306,6 @@
     <t>SVN</t>
   </si>
   <si>
-    <t>Graddle</t>
-  </si>
-  <si>
     <t>Hadoop</t>
   </si>
   <si>
@@ -899,6 +896,12 @@
   </si>
   <si>
     <t>n_scala.xlsx</t>
+  </si>
+  <si>
+    <t>Gradle</t>
+  </si>
+  <si>
+    <t>Dozer</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,6 +1128,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1134,7 +1140,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1147,6 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1442,11 +1448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,16 +1464,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1478,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1486,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1497,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1508,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -1519,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -1527,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -1538,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
@@ -1549,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
@@ -1560,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1571,7 +1577,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1579,7 +1585,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
@@ -1590,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1598,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1606,7 +1612,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1614,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1622,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
@@ -1630,7 +1636,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1642,7 +1648,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1689,12 +1695,12 @@
         <v>49</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1788,7 +1794,7 @@
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1827,7 +1833,7 @@
         <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1845,7 +1851,7 @@
         <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1860,225 +1866,225 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
       <c r="A76" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="9" customFormat="1">
       <c r="A87" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:3" s="9" customFormat="1">
       <c r="A88" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:3" s="9" customFormat="1">
       <c r="A89" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
       <c r="A90" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2093,304 +2099,304 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
       <c r="A95" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
       <c r="A119" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1">
       <c r="A123" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="45"/>
+      <c r="A124" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" s="45"/>
+      <c r="C124" s="46"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="22"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="30" customFormat="1" ht="15.75" thickBot="1">
       <c r="A130" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="45"/>
+      <c r="A131" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="45"/>
+      <c r="C131" s="46"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="29" customFormat="1">
       <c r="A137" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" s="44"/>
-      <c r="C139" s="45"/>
+      <c r="A139" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" s="45"/>
+      <c r="C139" s="46"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2399,47 +2405,47 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="40" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="39"/>
       <c r="C144" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B145" s="44"/>
-      <c r="C145" s="45"/>
+      <c r="A145" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" s="45"/>
+      <c r="C145" s="46"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2447,7 +2453,7 @@
         <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2455,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="C148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2466,16 +2472,16 @@
         <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B153" s="44"/>
-      <c r="C153" s="45"/>
+      <c r="A153" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B153" s="45"/>
+      <c r="C153" s="46"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="34" t="s">
@@ -2488,51 +2494,51 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="22"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B163" s="44"/>
-      <c r="C163" s="45"/>
+      <c r="A163" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" s="45"/>
+      <c r="C163" s="46"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="34" t="s">
@@ -2547,56 +2553,56 @@
         <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C165" s="46"/>
+        <v>209</v>
+      </c>
+      <c r="C165" s="51"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C166" s="46"/>
+        <v>210</v>
+      </c>
+      <c r="C166" s="51"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="34" t="s">
-        <v>92</v>
+      <c r="A167" s="43" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B170" s="44"/>
-      <c r="C170" s="45"/>
+      <c r="A170" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" s="45"/>
+      <c r="C170" s="46"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C171" s="22"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="24" customFormat="1">
       <c r="A173" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
       <c r="A175" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B175" s="1"/>
     </row>
@@ -2604,27 +2610,27 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" s="44"/>
-      <c r="C178" s="45"/>
+      <c r="A178" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" s="45"/>
+      <c r="C178" s="46"/>
     </row>
     <row r="179" spans="1:3" s="38" customFormat="1">
       <c r="A179" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B179" s="37"/>
     </row>
     <row r="180" spans="1:3" s="38" customFormat="1">
       <c r="A180" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B180" s="37"/>
     </row>
     <row r="181" spans="1:3" s="38" customFormat="1">
       <c r="A181" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B181" s="37"/>
     </row>
@@ -2633,27 +2639,27 @@
       <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="B183" s="44"/>
-      <c r="C183" s="45"/>
+      <c r="A183" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B183" s="45"/>
+      <c r="C183" s="46"/>
     </row>
     <row r="184" spans="1:3" s="38" customFormat="1">
       <c r="A184" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B184" s="37"/>
     </row>
     <row r="185" spans="1:3" s="38" customFormat="1">
       <c r="A185" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B185" s="37"/>
     </row>
     <row r="186" spans="1:3" s="28" customFormat="1">
       <c r="A186" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B186" s="1"/>
     </row>
@@ -2662,15 +2668,15 @@
       <c r="B187" s="37"/>
     </row>
     <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="B188" s="44"/>
-      <c r="C188" s="45"/>
+      <c r="A188" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B188" s="45"/>
+      <c r="C188" s="46"/>
     </row>
     <row r="189" spans="1:3" s="38" customFormat="1">
       <c r="A189" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B189" s="37"/>
     </row>
@@ -2683,11 +2689,11 @@
       <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B192" s="44"/>
-      <c r="C192" s="45"/>
+      <c r="A192" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="45"/>
+      <c r="C192" s="46"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="34" t="s">
@@ -2697,21 +2703,21 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="20"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B197" s="44"/>
-      <c r="C197" s="45"/>
+      <c r="A197" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="45"/>
+      <c r="C197" s="46"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B198" s="2"/>
     </row>
@@ -2722,164 +2728,164 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
       <c r="A201" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B202" s="44"/>
-      <c r="C202" s="45"/>
+      <c r="A202" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202" s="45"/>
+      <c r="C202" s="46"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A206" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B207" s="44"/>
-      <c r="C207" s="45"/>
+      <c r="A207" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" s="45"/>
+      <c r="C207" s="46"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B209" s="44"/>
-      <c r="C209" s="45"/>
+      <c r="A209" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209" s="45"/>
+      <c r="C209" s="46"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
       <c r="A210" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B210" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="B210" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="B217" s="44"/>
-      <c r="C217" s="45"/>
+      <c r="A217" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B217" s="45"/>
+      <c r="C217" s="46"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1">
       <c r="A219" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B220" s="44"/>
-      <c r="C220" s="45"/>
+      <c r="A220" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220" s="45"/>
+      <c r="C220" s="46"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B225" s="44"/>
-      <c r="C225" s="45"/>
+      <c r="A225" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225" s="45"/>
+      <c r="C225" s="46"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B231" s="44"/>
-      <c r="C231" s="45"/>
+      <c r="A231" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B231" s="45"/>
+      <c r="C231" s="46"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="34" t="s">
@@ -2892,27 +2898,27 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="45"/>
+      <c r="A237" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B237" s="45"/>
+      <c r="C237" s="46"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="34" t="s">
@@ -2927,15 +2933,15 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="B241" s="44"/>
-      <c r="C241" s="45"/>
+      <c r="A241" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B241" s="45"/>
+      <c r="C241" s="46"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -2963,70 +2969,70 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B247" s="44"/>
-      <c r="C247" s="45"/>
+      <c r="A247" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" s="45"/>
+      <c r="C247" s="46"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" thickBot="1">
       <c r="A249" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B250" s="44"/>
-      <c r="C250" s="45"/>
+      <c r="A250" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="45"/>
+      <c r="C250" s="46"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B255" s="44"/>
-      <c r="C255" s="45"/>
+      <c r="A255" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" s="45"/>
+      <c r="C255" s="46"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="43" t="s">
+      <c r="A259" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="44"/>
-      <c r="C259" s="45"/>
+      <c r="B259" s="45"/>
+      <c r="C259" s="46"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="47" t="s">
@@ -3036,69 +3042,91 @@
         <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="48"/>
       <c r="B261" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="B263" s="44"/>
-      <c r="C263" s="45"/>
+      <c r="A263" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263" s="45"/>
+      <c r="C263" s="46"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="43"/>
-      <c r="B271" s="44"/>
-      <c r="C271" s="45"/>
+      <c r="A271" s="44"/>
+      <c r="B271" s="45"/>
+      <c r="C271" s="46"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>287</v>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="43" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3112,23 +3140,6 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="293">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -902,6 +902,12 @@
   </si>
   <si>
     <t>Dozer</t>
+  </si>
+  <si>
+    <t>Bean tools</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1131,6 +1137,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1140,6 +1149,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1152,7 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1451,8 +1460,8 @@
   <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237:C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,11 +2292,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="44" t="s">
+      <c r="A124" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="47"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="34" t="s">
@@ -2325,11 +2334,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="45"/>
-      <c r="C131" s="46"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="47"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="34" t="s">
@@ -2385,11 +2394,11 @@
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="44" t="s">
+      <c r="A139" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="45"/>
-      <c r="C139" s="46"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="47"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="34" t="s">
@@ -2434,11 +2443,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="44" t="s">
+      <c r="A145" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="45"/>
-      <c r="C145" s="46"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="47"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="34" t="s">
@@ -2477,11 +2486,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="44" t="s">
+      <c r="A153" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="45"/>
-      <c r="C153" s="46"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="47"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="34" t="s">
@@ -2534,11 +2543,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="44" t="s">
+      <c r="A163" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="45"/>
-      <c r="C163" s="46"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="47"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="34" t="s">
@@ -2555,14 +2564,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="51"/>
+      <c r="C165" s="48"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="51"/>
+      <c r="C166" s="48"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2571,11 +2580,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="45"/>
-      <c r="C170" s="46"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="47"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="34" t="s">
@@ -2610,11 +2619,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="44" t="s">
+      <c r="A178" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="45"/>
-      <c r="C178" s="46"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="47"/>
     </row>
     <row r="179" spans="1:3" s="38" customFormat="1">
       <c r="A179" s="37" t="s">
@@ -2639,11 +2648,11 @@
       <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="44" t="s">
+      <c r="A183" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="45"/>
-      <c r="C183" s="46"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="47"/>
     </row>
     <row r="184" spans="1:3" s="38" customFormat="1">
       <c r="A184" s="37" t="s">
@@ -2668,11 +2677,11 @@
       <c r="B187" s="37"/>
     </row>
     <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="44" t="s">
+      <c r="A188" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="45"/>
-      <c r="C188" s="46"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="47"/>
     </row>
     <row r="189" spans="1:3" s="38" customFormat="1">
       <c r="A189" s="37" t="s">
@@ -2689,11 +2698,11 @@
       <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="44" t="s">
+      <c r="A192" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="45"/>
-      <c r="C192" s="46"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="47"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="34" t="s">
@@ -2709,11 +2718,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="44" t="s">
+      <c r="A197" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="45"/>
-      <c r="C197" s="46"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="47"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="34" t="s">
@@ -2739,11 +2748,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="44" t="s">
+      <c r="A202" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="45"/>
-      <c r="C202" s="46"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="47"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
@@ -2768,22 +2777,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="44" t="s">
+      <c r="A207" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="45"/>
-      <c r="C207" s="46"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="47"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="44" t="s">
+      <c r="A209" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="45"/>
-      <c r="C209" s="46"/>
+      <c r="B209" s="46"/>
+      <c r="C209" s="47"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
       <c r="A210" s="34" t="s">
@@ -2820,11 +2829,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="44" t="s">
+      <c r="A217" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="45"/>
-      <c r="C217" s="46"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="47"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="34" t="s">
@@ -2840,11 +2849,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="44" t="s">
+      <c r="A220" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="45"/>
-      <c r="C220" s="46"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="47"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="34" t="s">
@@ -2858,11 +2867,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="44" t="s">
+      <c r="A225" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="45"/>
-      <c r="C225" s="46"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="47"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="34" t="s">
@@ -2881,11 +2890,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="44" t="s">
+      <c r="A231" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="45"/>
-      <c r="C231" s="46"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="47"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="34" t="s">
@@ -2912,13 +2921,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A236" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="44" t="s">
+      <c r="A237" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="45"/>
-      <c r="C237" s="46"/>
+      <c r="B237" s="46"/>
+      <c r="C237" s="47"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="34" t="s">
@@ -2933,11 +2946,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="44" t="s">
+      <c r="A241" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="45"/>
-      <c r="C241" s="46"/>
+      <c r="B241" s="46"/>
+      <c r="C241" s="47"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="34" t="s">
@@ -2956,10 +2969,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="49" t="s">
+      <c r="B244" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="50"/>
+      <c r="C244" s="52"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -2969,11 +2982,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="44" t="s">
+      <c r="A247" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="45"/>
-      <c r="C247" s="46"/>
+      <c r="B247" s="46"/>
+      <c r="C247" s="47"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="34" t="s">
@@ -2986,11 +2999,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="44" t="s">
+      <c r="A250" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="45"/>
-      <c r="C250" s="46"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="47"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="34" t="s">
@@ -3012,11 +3025,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="44" t="s">
+      <c r="A255" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="45"/>
-      <c r="C255" s="46"/>
+      <c r="B255" s="46"/>
+      <c r="C255" s="47"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="34" t="s">
@@ -3028,14 +3041,14 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="44" t="s">
+      <c r="A259" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="45"/>
-      <c r="C259" s="46"/>
+      <c r="B259" s="46"/>
+      <c r="C259" s="47"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="47" t="s">
+      <c r="A260" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3046,18 +3059,18 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="48"/>
+      <c r="A261" s="50"/>
       <c r="B261" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="44" t="s">
+      <c r="A263" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="45"/>
-      <c r="C263" s="46"/>
+      <c r="B263" s="46"/>
+      <c r="C263" s="47"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="34" t="s">
@@ -3091,9 +3104,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="44"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="46"/>
+      <c r="A271" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B271" s="46"/>
+      <c r="C271" s="47"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="41" t="s">
@@ -3110,23 +3125,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3140,6 +3138,23 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1149,7 +1149,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1162,6 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,8 +1460,8 @@
   <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A237" sqref="A237:C237"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,14 +2564,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="48"/>
+      <c r="C165" s="52"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="48"/>
+      <c r="C166" s="52"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2969,10 +2969,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="51" t="s">
+      <c r="B244" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="52"/>
+      <c r="C244" s="51"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3048,7 +3048,7 @@
       <c r="C259" s="47"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="49" t="s">
+      <c r="A260" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="50"/>
+      <c r="A261" s="49"/>
       <c r="B261" s="32" t="s">
         <v>263</v>
       </c>
@@ -3125,6 +3125,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3138,23 +3155,6 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1149,6 +1149,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1161,7 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,8 +1460,8 @@
   <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,14 +2564,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="52"/>
+      <c r="C165" s="48"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="52"/>
+      <c r="C166" s="48"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2969,10 +2969,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="50" t="s">
+      <c r="B244" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="51"/>
+      <c r="C244" s="52"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3048,7 +3048,7 @@
       <c r="C259" s="47"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="48" t="s">
+      <c r="A260" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="49"/>
+      <c r="A261" s="50"/>
       <c r="B261" s="32" t="s">
         <v>263</v>
       </c>
@@ -3125,23 +3125,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3155,6 +3138,23 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="300">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -908,6 +908,27 @@
   </si>
   <si>
     <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>JSON Frameworks - Cerebro</t>
+  </si>
+  <si>
+    <t>Jackson JSON</t>
+  </si>
+  <si>
+    <t>GSON</t>
+  </si>
+  <si>
+    <t>Boon</t>
+  </si>
+  <si>
+    <t>Simple JSON</t>
+  </si>
+  <si>
+    <t>Json.org</t>
+  </si>
+  <si>
+    <t>JSONP</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1140,6 +1161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1149,7 +1173,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1162,6 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1457,11 +1481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2316,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="45" t="s">
+      <c r="A124" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="46"/>
-      <c r="C124" s="47"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="48"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="34" t="s">
@@ -2334,11 +2358,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="45" t="s">
+      <c r="A131" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="46"/>
-      <c r="C131" s="47"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="48"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="34" t="s">
@@ -2394,11 +2418,11 @@
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="45" t="s">
+      <c r="A139" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="46"/>
-      <c r="C139" s="47"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="48"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="34" t="s">
@@ -2443,11 +2467,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="46"/>
-      <c r="C145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="48"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="34" t="s">
@@ -2486,11 +2510,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="45" t="s">
+      <c r="A153" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="46"/>
-      <c r="C153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="48"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="34" t="s">
@@ -2543,11 +2567,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="45" t="s">
+      <c r="A163" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="46"/>
-      <c r="C163" s="47"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="48"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="34" t="s">
@@ -2564,14 +2588,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="48"/>
+      <c r="C165" s="53"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="48"/>
+      <c r="C166" s="53"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2580,11 +2604,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="45" t="s">
+      <c r="A170" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="46"/>
-      <c r="C170" s="47"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="48"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="34" t="s">
@@ -2619,11 +2643,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="45" t="s">
+      <c r="A178" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="46"/>
-      <c r="C178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="48"/>
     </row>
     <row r="179" spans="1:3" s="38" customFormat="1">
       <c r="A179" s="37" t="s">
@@ -2648,11 +2672,11 @@
       <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="46"/>
-      <c r="C183" s="47"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="48"/>
     </row>
     <row r="184" spans="1:3" s="38" customFormat="1">
       <c r="A184" s="37" t="s">
@@ -2677,11 +2701,11 @@
       <c r="B187" s="37"/>
     </row>
     <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="45" t="s">
+      <c r="A188" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="46"/>
-      <c r="C188" s="47"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="48"/>
     </row>
     <row r="189" spans="1:3" s="38" customFormat="1">
       <c r="A189" s="37" t="s">
@@ -2698,11 +2722,11 @@
       <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="45" t="s">
+      <c r="A192" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="46"/>
-      <c r="C192" s="47"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="48"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="34" t="s">
@@ -2718,11 +2742,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="46"/>
-      <c r="C197" s="47"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="48"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="34" t="s">
@@ -2748,11 +2772,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="45" t="s">
+      <c r="A202" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="46"/>
-      <c r="C202" s="47"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="48"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
@@ -2777,22 +2801,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="47"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="48"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="45" t="s">
+      <c r="A209" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="46"/>
-      <c r="C209" s="47"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="48"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
       <c r="A210" s="34" t="s">
@@ -2829,11 +2853,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="45" t="s">
+      <c r="A217" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="46"/>
-      <c r="C217" s="47"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="48"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="34" t="s">
@@ -2849,11 +2873,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="46"/>
-      <c r="C220" s="47"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="48"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="34" t="s">
@@ -2867,11 +2891,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="45" t="s">
+      <c r="A225" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="46"/>
-      <c r="C225" s="47"/>
+      <c r="B225" s="47"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="34" t="s">
@@ -2890,11 +2914,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="45" t="s">
+      <c r="A231" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="46"/>
-      <c r="C231" s="47"/>
+      <c r="B231" s="47"/>
+      <c r="C231" s="48"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="34" t="s">
@@ -2927,11 +2951,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="45" t="s">
+      <c r="A237" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="46"/>
-      <c r="C237" s="47"/>
+      <c r="B237" s="47"/>
+      <c r="C237" s="48"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="34" t="s">
@@ -2946,11 +2970,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="45" t="s">
+      <c r="A241" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="46"/>
-      <c r="C241" s="47"/>
+      <c r="B241" s="47"/>
+      <c r="C241" s="48"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="34" t="s">
@@ -2982,11 +3006,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="45" t="s">
+      <c r="A247" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="46"/>
-      <c r="C247" s="47"/>
+      <c r="B247" s="47"/>
+      <c r="C247" s="48"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="34" t="s">
@@ -2999,11 +3023,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="45" t="s">
+      <c r="A250" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="46"/>
-      <c r="C250" s="47"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="48"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="34" t="s">
@@ -3025,11 +3049,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="45" t="s">
+      <c r="A255" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="46"/>
-      <c r="C255" s="47"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="48"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="34" t="s">
@@ -3041,11 +3065,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="45" t="s">
+      <c r="A259" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="46"/>
-      <c r="C259" s="47"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="48"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="49" t="s">
@@ -3066,11 +3090,11 @@
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="45" t="s">
+      <c r="A263" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="46"/>
-      <c r="C263" s="47"/>
+      <c r="B263" s="47"/>
+      <c r="C263" s="48"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="34" t="s">
@@ -3104,11 +3128,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="45" t="s">
+      <c r="A271" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="46"/>
-      <c r="C271" s="47"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="48"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="41" t="s">
@@ -3118,13 +3142,69 @@
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:3">
       <c r="A273" s="43" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="275" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A275" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="B275" s="47"/>
+      <c r="C275" s="48"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3138,23 +3218,6 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1485,7 +1485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="302">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -929,6 +929,12 @@
   </si>
   <si>
     <t>JSONP</t>
+  </si>
+  <si>
+    <t>Cloud Computing - o-Definitions-Cloud-Computing.xlsx</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1164,6 +1170,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1173,6 +1182,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1185,7 +1195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1481,11 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2120,11 +2129,6 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="93" spans="1:3">
       <c r="A93" s="34" t="s">
         <v>53</v>
@@ -2316,11 +2320,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="49"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="34" t="s">
@@ -2358,11 +2362,11 @@
       <c r="B130" s="31"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="47"/>
-      <c r="C131" s="48"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="49"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="34" t="s">
@@ -2418,11 +2422,11 @@
       <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="46" t="s">
+      <c r="A139" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="47"/>
-      <c r="C139" s="48"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="49"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="34" t="s">
@@ -2467,11 +2471,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="47"/>
-      <c r="C145" s="48"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="49"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="34" t="s">
@@ -2510,11 +2514,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="47"/>
-      <c r="C153" s="48"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="49"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="34" t="s">
@@ -2567,11 +2571,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="47"/>
-      <c r="C163" s="48"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="49"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="34" t="s">
@@ -2588,14 +2592,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="53"/>
+      <c r="C165" s="50"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="53"/>
+      <c r="C166" s="50"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2604,11 +2608,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="47"/>
-      <c r="C170" s="48"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="49"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="34" t="s">
@@ -2643,11 +2647,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="46" t="s">
+      <c r="A178" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="47"/>
-      <c r="C178" s="48"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="49"/>
     </row>
     <row r="179" spans="1:3" s="38" customFormat="1">
       <c r="A179" s="37" t="s">
@@ -2672,11 +2676,11 @@
       <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="48"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="49"/>
     </row>
     <row r="184" spans="1:3" s="38" customFormat="1">
       <c r="A184" s="37" t="s">
@@ -2701,11 +2705,11 @@
       <c r="B187" s="37"/>
     </row>
     <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="47"/>
-      <c r="C188" s="48"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="49"/>
     </row>
     <row r="189" spans="1:3" s="38" customFormat="1">
       <c r="A189" s="37" t="s">
@@ -2722,11 +2726,11 @@
       <c r="B191" s="37"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="47"/>
-      <c r="C192" s="48"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="49"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="34" t="s">
@@ -2742,11 +2746,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="46" t="s">
+      <c r="A197" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="47"/>
-      <c r="C197" s="48"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="49"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="34" t="s">
@@ -2772,11 +2776,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="46" t="s">
+      <c r="A202" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="47"/>
-      <c r="C202" s="48"/>
+      <c r="B202" s="48"/>
+      <c r="C202" s="49"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="34" t="s">
@@ -2801,22 +2805,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="46" t="s">
+      <c r="A207" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="47"/>
-      <c r="C207" s="48"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="49"/>
     </row>
     <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="36"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="46" t="s">
+      <c r="A209" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="47"/>
-      <c r="C209" s="48"/>
+      <c r="B209" s="48"/>
+      <c r="C209" s="49"/>
     </row>
     <row r="210" spans="1:3" s="26" customFormat="1">
       <c r="A210" s="34" t="s">
@@ -2853,11 +2857,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="46" t="s">
+      <c r="A217" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="47"/>
-      <c r="C217" s="48"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="49"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="34" t="s">
@@ -2873,11 +2877,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="46" t="s">
+      <c r="A220" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="47"/>
-      <c r="C220" s="48"/>
+      <c r="B220" s="48"/>
+      <c r="C220" s="49"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="34" t="s">
@@ -2891,11 +2895,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="46" t="s">
+      <c r="A225" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="47"/>
-      <c r="C225" s="48"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="49"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="34" t="s">
@@ -2914,11 +2918,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="46" t="s">
+      <c r="A231" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="47"/>
-      <c r="C231" s="48"/>
+      <c r="B231" s="48"/>
+      <c r="C231" s="49"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="34" t="s">
@@ -2951,11 +2955,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="46" t="s">
+      <c r="A237" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="47"/>
-      <c r="C237" s="48"/>
+      <c r="B237" s="48"/>
+      <c r="C237" s="49"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="34" t="s">
@@ -2970,11 +2974,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="46" t="s">
+      <c r="A241" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="47"/>
-      <c r="C241" s="48"/>
+      <c r="B241" s="48"/>
+      <c r="C241" s="49"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="34" t="s">
@@ -2993,10 +2997,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="51" t="s">
+      <c r="B244" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="52"/>
+      <c r="C244" s="54"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3006,11 +3010,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="46" t="s">
+      <c r="A247" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="47"/>
-      <c r="C247" s="48"/>
+      <c r="B247" s="48"/>
+      <c r="C247" s="49"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="34" t="s">
@@ -3023,11 +3027,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="46" t="s">
+      <c r="A250" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="47"/>
-      <c r="C250" s="48"/>
+      <c r="B250" s="48"/>
+      <c r="C250" s="49"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="34" t="s">
@@ -3049,11 +3053,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="46" t="s">
+      <c r="A255" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="47"/>
-      <c r="C255" s="48"/>
+      <c r="B255" s="48"/>
+      <c r="C255" s="49"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="34" t="s">
@@ -3065,14 +3069,14 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="46" t="s">
+      <c r="A259" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="47"/>
-      <c r="C259" s="48"/>
+      <c r="B259" s="48"/>
+      <c r="C259" s="49"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="49" t="s">
+      <c r="A260" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3083,18 +3087,18 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="50"/>
+      <c r="A261" s="52"/>
       <c r="B261" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="46" t="s">
+      <c r="A263" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="47"/>
-      <c r="C263" s="48"/>
+      <c r="B263" s="48"/>
+      <c r="C263" s="49"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="34" t="s">
@@ -3128,11 +3132,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="46" t="s">
+      <c r="A271" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="47"/>
-      <c r="C271" s="48"/>
+      <c r="B271" s="48"/>
+      <c r="C271" s="49"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="41" t="s">
@@ -3149,11 +3153,11 @@
     </row>
     <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A275" s="46" t="s">
+      <c r="A275" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B275" s="47"/>
-      <c r="C275" s="48"/>
+      <c r="B275" s="48"/>
+      <c r="C275" s="49"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="45" t="s">
@@ -3185,26 +3189,22 @@
         <v>299</v>
       </c>
     </row>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="283" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A283" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B283" s="48"/>
+      <c r="C283" s="49"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
+  <mergeCells count="32">
+    <mergeCell ref="A283:C283"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
     <mergeCell ref="B244:C244"/>
@@ -3218,6 +3218,24 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1182,7 +1182,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1195,6 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,8 +1493,8 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2592,14 +2592,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="50"/>
+      <c r="C165" s="54"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="34"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="50"/>
+      <c r="C166" s="54"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="43" t="s">
@@ -2997,10 +2997,10 @@
       <c r="A244" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="53" t="s">
+      <c r="B244" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="54"/>
+      <c r="C244" s="53"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="34" t="s">
@@ -3076,7 +3076,7 @@
       <c r="C259" s="49"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="51" t="s">
+      <c r="A260" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="52"/>
+      <c r="A261" s="51"/>
       <c r="B261" s="32" t="s">
         <v>263</v>
       </c>
@@ -3204,6 +3204,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A283:C283"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
@@ -3218,24 +3234,8 @@
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A275:C275"/>
     <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="303">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>p_Definitions_Mule.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1173,6 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1182,6 +1185,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1194,7 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,19 +1496,19 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="71.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1519,7 +1522,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1530,7 +1533,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -1538,7 +1541,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1549,7 +1552,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1571,7 +1574,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -1579,7 +1582,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1590,7 +1593,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1601,7 +1604,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -1631,7 +1634,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1642,7 +1645,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -1650,7 +1653,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
@@ -1658,7 +1661,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
@@ -1666,7 +1669,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
@@ -1682,11 +1685,11 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
@@ -1694,43 +1697,43 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1741,12 +1744,12 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1754,17 +1757,17 @@
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1772,27 +1775,27 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1800,7 +1803,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1808,7 +1811,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="75">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1816,7 +1819,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1824,12 +1827,12 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1840,12 +1843,12 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1853,17 +1856,17 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1871,7 +1874,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C54" t="s">
@@ -1879,17 +1882,17 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C57" t="s">
@@ -1897,17 +1900,17 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1915,7 +1918,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1923,7 +1926,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1931,7 +1934,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1939,7 +1942,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1947,7 +1950,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1955,7 +1958,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1963,7 +1966,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1971,12 +1974,12 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -1989,7 +1992,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2000,7 +2003,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2011,7 +2014,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2019,7 +2022,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="33" t="s">
         <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2027,7 +2030,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2035,7 +2038,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2046,7 +2049,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2054,17 +2057,17 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C81" t="s">
@@ -2072,7 +2075,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C82" t="s">
@@ -2080,7 +2083,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="33" t="s">
         <v>130</v>
       </c>
       <c r="C83" t="s">
@@ -2088,54 +2091,57 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="33" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="9" customFormat="1">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="33" t="s">
         <v>184</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:3" s="9" customFormat="1">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:3" s="9" customFormat="1">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="33" t="s">
         <v>186</v>
       </c>
       <c r="B89" s="1"/>
+      <c r="C89" s="46" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="33" t="s">
         <v>183</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -2143,7 +2149,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="33" t="s">
         <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -2151,66 +2157,66 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="41" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="33" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -2218,7 +2224,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -2226,7 +2232,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -2234,37 +2240,37 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="33" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="33" t="s">
         <v>173</v>
       </c>
       <c r="C117" s="21" t="s">
@@ -2272,7 +2278,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="33" t="s">
         <v>177</v>
       </c>
       <c r="C118" t="s">
@@ -2280,7 +2286,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="33" t="s">
         <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -2288,7 +2294,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -2296,7 +2302,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="33" t="s">
         <v>181</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -2304,7 +2310,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C122" s="22" t="s">
@@ -2312,7 +2318,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="22" t="s">
@@ -2327,39 +2333,39 @@
       <c r="C124" s="49"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="33" t="s">
         <v>190</v>
       </c>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="33" t="s">
         <v>202</v>
       </c>
       <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="33" t="s">
         <v>203</v>
       </c>
       <c r="C128" s="22"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="30" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A130" s="34" t="s">
+    <row r="130" spans="1:3" s="29" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A130" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B130" s="31"/>
+      <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
       <c r="A131" s="47" t="s">
@@ -2369,13 +2375,13 @@
       <c r="C131" s="49"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="33" t="s">
         <v>188</v>
       </c>
       <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -2383,7 +2389,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -2392,7 +2398,7 @@
       <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="33" t="s">
         <v>247</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -2400,26 +2406,26 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="33" t="s">
         <v>248</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="29" customFormat="1">
-      <c r="A137" s="34" t="s">
+    <row r="137" spans="1:3" s="28" customFormat="1">
+      <c r="A137" s="33" t="s">
         <v>249</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A138" s="34" t="s">
+    <row r="138" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A138" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B138" s="34"/>
+      <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
       <c r="A139" s="47" t="s">
@@ -2429,7 +2435,7 @@
       <c r="C139" s="49"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="19" t="s">
@@ -2437,7 +2443,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="34" t="s">
+      <c r="A141" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B141" s="2"/>
@@ -2446,7 +2452,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="22" t="s">
@@ -2454,19 +2460,19 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C143" s="33" t="s">
+      <c r="C143" s="32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="40" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A144" s="39" t="s">
+    <row r="144" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A144" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="40" t="s">
+      <c r="B144" s="38"/>
+      <c r="C144" s="39" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2478,7 +2484,7 @@
       <c r="C145" s="49"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C146" t="s">
@@ -2486,7 +2492,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C147" t="s">
@@ -2494,7 +2500,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C148" t="s">
@@ -2502,7 +2508,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -2521,7 +2527,7 @@
       <c r="C153" s="49"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -2530,40 +2536,40 @@
       <c r="C154" s="22"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B160" s="2"/>
@@ -2578,7 +2584,7 @@
       <c r="C163" s="49"/>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -2586,23 +2592,23 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="30">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="54"/>
+      <c r="C165" s="50"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
-      <c r="A166" s="34"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="54"/>
+      <c r="C166" s="50"/>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="43" t="s">
+      <c r="A167" s="42" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2615,115 +2621,115 @@
       <c r="C170" s="49"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="34" t="s">
+      <c r="A171" s="33" t="s">
         <v>208</v>
       </c>
       <c r="C171" s="22"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="34" t="s">
+      <c r="A172" s="33" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="24" customFormat="1">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
-      <c r="A174" s="34" t="s">
+      <c r="A174" s="33" t="s">
         <v>237</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
-      <c r="A175" s="34" t="s">
+      <c r="A175" s="33" t="s">
         <v>256</v>
       </c>
       <c r="B175" s="1"/>
     </row>
-    <row r="177" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
+    <row r="177" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+    <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A178" s="47" t="s">
         <v>277</v>
       </c>
       <c r="B178" s="48"/>
       <c r="C178" s="49"/>
     </row>
-    <row r="179" spans="1:3" s="38" customFormat="1">
-      <c r="A179" s="37" t="s">
+    <row r="179" spans="1:3" s="37" customFormat="1">
+      <c r="A179" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="B179" s="37"/>
-    </row>
-    <row r="180" spans="1:3" s="38" customFormat="1">
-      <c r="A180" s="37" t="s">
+      <c r="B179" s="36"/>
+    </row>
+    <row r="180" spans="1:3" s="37" customFormat="1">
+      <c r="A180" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B180" s="37"/>
-    </row>
-    <row r="181" spans="1:3" s="38" customFormat="1">
-      <c r="A181" s="37" t="s">
+      <c r="B180" s="36"/>
+    </row>
+    <row r="181" spans="1:3" s="37" customFormat="1">
+      <c r="A181" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="B181" s="37"/>
-    </row>
-    <row r="182" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A182" s="37"/>
-      <c r="B182" s="37"/>
-    </row>
-    <row r="183" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B181" s="36"/>
+    </row>
+    <row r="182" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
+    </row>
+    <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A183" s="47" t="s">
         <v>278</v>
       </c>
       <c r="B183" s="48"/>
       <c r="C183" s="49"/>
     </row>
-    <row r="184" spans="1:3" s="38" customFormat="1">
-      <c r="A184" s="37" t="s">
+    <row r="184" spans="1:3" s="37" customFormat="1">
+      <c r="A184" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="B184" s="37"/>
-    </row>
-    <row r="185" spans="1:3" s="38" customFormat="1">
-      <c r="A185" s="37" t="s">
+      <c r="B184" s="36"/>
+    </row>
+    <row r="185" spans="1:3" s="37" customFormat="1">
+      <c r="A185" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="B185" s="37"/>
-    </row>
-    <row r="186" spans="1:3" s="28" customFormat="1">
-      <c r="A186" s="37" t="s">
+      <c r="B185" s="36"/>
+    </row>
+    <row r="186" spans="1:3" s="27" customFormat="1">
+      <c r="A186" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A187" s="37"/>
-      <c r="B187" s="37"/>
-    </row>
-    <row r="188" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
+    <row r="187" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
+    </row>
+    <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A188" s="47" t="s">
         <v>282</v>
       </c>
       <c r="B188" s="48"/>
       <c r="C188" s="49"/>
     </row>
-    <row r="189" spans="1:3" s="38" customFormat="1">
-      <c r="A189" s="37" t="s">
+    <row r="189" spans="1:3" s="37" customFormat="1">
+      <c r="A189" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="B189" s="37"/>
-    </row>
-    <row r="190" spans="1:3" s="38" customFormat="1">
-      <c r="A190" s="37"/>
-      <c r="B190" s="37"/>
-    </row>
-    <row r="191" spans="1:3" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A191" s="37"/>
-      <c r="B191" s="37"/>
+      <c r="B189" s="36"/>
+    </row>
+    <row r="190" spans="1:3" s="37" customFormat="1">
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
+    </row>
+    <row r="191" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
       <c r="A192" s="47" t="s">
@@ -2733,13 +2739,13 @@
       <c r="C192" s="49"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="34" t="s">
+      <c r="A193" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C193" s="22"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="34" t="s">
+      <c r="A194" s="33" t="s">
         <v>195</v>
       </c>
       <c r="C194" s="20"/>
@@ -2753,24 +2759,24 @@
       <c r="C197" s="49"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="34" t="s">
+      <c r="A198" s="33" t="s">
         <v>274</v>
       </c>
       <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="34" t="s">
+      <c r="A199" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="34" t="s">
+      <c r="A200" s="33" t="s">
         <v>273</v>
       </c>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:3" s="33" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A201" s="34" t="s">
+    <row r="201" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A201" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B201" s="2"/>
@@ -2783,36 +2789,36 @@
       <c r="C202" s="49"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="34" t="s">
+      <c r="A203" s="33" t="s">
         <v>187</v>
       </c>
       <c r="C203" s="10"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="36" t="s">
+      <c r="A204" s="35" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="36" t="s">
+      <c r="A205" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A206" s="36" t="s">
+    <row r="206" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A206" s="35" t="s">
         <v>287</v>
       </c>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="207" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A207" s="47" t="s">
         <v>225</v>
       </c>
       <c r="B207" s="48"/>
       <c r="C207" s="49"/>
     </row>
-    <row r="208" spans="1:3" s="26" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A208" s="36"/>
+    <row r="208" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A208" s="35"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
@@ -2822,36 +2828,36 @@
       <c r="B209" s="48"/>
       <c r="C209" s="49"/>
     </row>
-    <row r="210" spans="1:3" s="26" customFormat="1">
-      <c r="A210" s="34" t="s">
+    <row r="210" spans="1:3" s="25" customFormat="1">
+      <c r="A210" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B210" s="27" t="s">
+      <c r="B210" s="26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="34" t="s">
+      <c r="A211" s="33" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="34" t="s">
+      <c r="A212" s="33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="34" t="s">
+      <c r="A213" s="33" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="34" t="s">
+      <c r="A214" s="33" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="34" t="s">
+      <c r="A215" s="33" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2864,7 +2870,7 @@
       <c r="C217" s="49"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="33" t="s">
         <v>234</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -2872,7 +2878,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A219" s="34" t="s">
+      <c r="A219" s="33" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2884,12 +2890,12 @@
       <c r="C220" s="49"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="34" t="s">
+      <c r="A221" s="33" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="34" t="s">
+      <c r="A222" s="33" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2902,17 +2908,17 @@
       <c r="C225" s="49"/>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="34" t="s">
+      <c r="A226" s="33" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="34" t="s">
+      <c r="A227" s="33" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="34" t="s">
+      <c r="A228" s="33" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2925,7 +2931,7 @@
       <c r="C231" s="49"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="34" t="s">
+      <c r="A232" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -2934,23 +2940,23 @@
       <c r="C232" s="15"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="34" t="s">
+      <c r="A233" s="33" t="s">
         <v>182</v>
       </c>
       <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="34" t="s">
+      <c r="A234" s="33" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="34" t="s">
+      <c r="A235" s="33" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A236" s="44" t="s">
+      <c r="A236" s="43" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2962,12 +2968,12 @@
       <c r="C237" s="49"/>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="34" t="s">
+      <c r="A238" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="34" t="s">
+      <c r="A239" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B239" s="2"/>
@@ -2981,12 +2987,12 @@
       <c r="C241" s="49"/>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="34" t="s">
+      <c r="A242" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="34" t="s">
+      <c r="A243" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -2994,16 +3000,16 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="34" t="s">
+      <c r="A244" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="52" t="s">
+      <c r="B244" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="53"/>
+      <c r="C244" s="54"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="34" t="s">
+      <c r="A245" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C245" s="13"/>
@@ -3017,12 +3023,12 @@
       <c r="C247" s="49"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="34" t="s">
+      <c r="A248" s="33" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A249" s="34" t="s">
+      <c r="A249" s="33" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3034,7 +3040,7 @@
       <c r="C250" s="49"/>
     </row>
     <row r="251" spans="1:3" ht="30">
-      <c r="A251" s="34" t="s">
+      <c r="A251" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -3042,12 +3048,12 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="34" t="s">
+      <c r="A252" s="33" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="34" t="s">
+      <c r="A253" s="33" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3060,7 +3066,7 @@
       <c r="C255" s="49"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="34" t="s">
+      <c r="A256" s="33" t="s">
         <v>131</v>
       </c>
       <c r="C256" s="18" t="s">
@@ -3076,7 +3082,7 @@
       <c r="C259" s="49"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="50" t="s">
+      <c r="A260" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3087,8 +3093,8 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="51"/>
-      <c r="B261" s="32" t="s">
+      <c r="A261" s="52"/>
+      <c r="B261" s="31" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3101,32 +3107,32 @@
       <c r="C263" s="49"/>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="34" t="s">
+      <c r="A264" s="33" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="34" t="s">
+      <c r="A265" s="33" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="34" t="s">
+      <c r="A266" s="33" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="34" t="s">
+      <c r="A267" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="34" t="s">
+      <c r="A268" s="33" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="34" t="s">
+      <c r="A269" s="33" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3139,7 +3145,7 @@
       <c r="C271" s="49"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="41" t="s">
+      <c r="A272" s="40" t="s">
         <v>285</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -3147,7 +3153,7 @@
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="43" t="s">
+      <c r="A273" s="42" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3160,32 +3166,32 @@
       <c r="C275" s="49"/>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="45" t="s">
+      <c r="A276" s="44" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="45" t="s">
+      <c r="A277" s="44" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="45" t="s">
+      <c r="A278" s="44" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="45" t="s">
+      <c r="A279" s="44" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="45" t="s">
+      <c r="A280" s="44" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="45" t="s">
+      <c r="A281" s="44" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3198,25 +3204,14 @@
       <c r="C283" s="49"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="46" t="s">
+      <c r="A284" s="45" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A263:C263"/>
     <mergeCell ref="A178:C178"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A188:C188"/>
@@ -3233,9 +3228,20 @@
     <mergeCell ref="A231:C231"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A263:C263"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="304">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>p_Definitions_Mule.xlsx</t>
+  </si>
+  <si>
+    <t>q_Definitions_Node_JS.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1176,6 +1179,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1185,7 +1189,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1198,6 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1496,8 +1500,8 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2248,6 +2252,9 @@
       <c r="A112" s="33" t="s">
         <v>172</v>
       </c>
+      <c r="C112" s="47" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="33" t="s">
@@ -2326,11 +2333,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="48"/>
-      <c r="C124" s="49"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="50"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2368,11 +2375,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="49"/>
+      <c r="B131" s="49"/>
+      <c r="C131" s="50"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2428,11 +2435,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="49"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="50"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2477,11 +2484,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="49"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="50"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2520,11 +2527,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="49"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="50"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2577,11 +2584,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="48"/>
-      <c r="C163" s="49"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="50"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2598,14 +2605,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="50"/>
+      <c r="C165" s="55"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="50"/>
+      <c r="C166" s="55"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2614,11 +2621,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="48"/>
-      <c r="C170" s="49"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="50"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2653,11 +2660,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="47" t="s">
+      <c r="A178" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="48"/>
-      <c r="C178" s="49"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="50"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2682,11 +2689,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="47" t="s">
+      <c r="A183" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="48"/>
-      <c r="C183" s="49"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="50"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2711,11 +2718,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="47" t="s">
+      <c r="A188" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="48"/>
-      <c r="C188" s="49"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="50"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2732,11 +2739,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="49"/>
+      <c r="B192" s="49"/>
+      <c r="C192" s="50"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2752,11 +2759,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="47" t="s">
+      <c r="A197" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="48"/>
-      <c r="C197" s="49"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="50"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2782,11 +2789,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="48"/>
-      <c r="C202" s="49"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="50"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="33" t="s">
@@ -2811,22 +2818,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="48"/>
-      <c r="C207" s="49"/>
+      <c r="B207" s="49"/>
+      <c r="C207" s="50"/>
     </row>
     <row r="208" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="35"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="47" t="s">
+      <c r="A209" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="48"/>
-      <c r="C209" s="49"/>
+      <c r="B209" s="49"/>
+      <c r="C209" s="50"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1">
       <c r="A210" s="33" t="s">
@@ -2863,11 +2870,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="47" t="s">
+      <c r="A217" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="48"/>
-      <c r="C217" s="49"/>
+      <c r="B217" s="49"/>
+      <c r="C217" s="50"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
@@ -2883,11 +2890,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="47" t="s">
+      <c r="A220" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="48"/>
-      <c r="C220" s="49"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="50"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
@@ -2901,11 +2908,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="47" t="s">
+      <c r="A225" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="48"/>
-      <c r="C225" s="49"/>
+      <c r="B225" s="49"/>
+      <c r="C225" s="50"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="33" t="s">
@@ -2924,11 +2931,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="47" t="s">
+      <c r="A231" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="48"/>
-      <c r="C231" s="49"/>
+      <c r="B231" s="49"/>
+      <c r="C231" s="50"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="33" t="s">
@@ -2961,11 +2968,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="47" t="s">
+      <c r="A237" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="49"/>
+      <c r="B237" s="49"/>
+      <c r="C237" s="50"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
@@ -2980,11 +2987,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="47" t="s">
+      <c r="A241" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="48"/>
-      <c r="C241" s="49"/>
+      <c r="B241" s="49"/>
+      <c r="C241" s="50"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3016,11 +3023,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="47" t="s">
+      <c r="A247" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="48"/>
-      <c r="C247" s="49"/>
+      <c r="B247" s="49"/>
+      <c r="C247" s="50"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
@@ -3033,11 +3040,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="47" t="s">
+      <c r="A250" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="48"/>
-      <c r="C250" s="49"/>
+      <c r="B250" s="49"/>
+      <c r="C250" s="50"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="33" t="s">
@@ -3059,11 +3066,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="47" t="s">
+      <c r="A255" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="48"/>
-      <c r="C255" s="49"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="50"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
@@ -3075,11 +3082,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="47" t="s">
+      <c r="A259" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="48"/>
-      <c r="C259" s="49"/>
+      <c r="B259" s="49"/>
+      <c r="C259" s="50"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="51" t="s">
@@ -3100,11 +3107,11 @@
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="47" t="s">
+      <c r="A263" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="48"/>
-      <c r="C263" s="49"/>
+      <c r="B263" s="49"/>
+      <c r="C263" s="50"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="33" t="s">
@@ -3138,11 +3145,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="47" t="s">
+      <c r="A271" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="48"/>
-      <c r="C271" s="49"/>
+      <c r="B271" s="49"/>
+      <c r="C271" s="50"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="40" t="s">
@@ -3159,11 +3166,11 @@
     </row>
     <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A275" s="47" t="s">
+      <c r="A275" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B275" s="48"/>
-      <c r="C275" s="49"/>
+      <c r="B275" s="49"/>
+      <c r="C275" s="50"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="44" t="s">
@@ -3197,11 +3204,11 @@
     </row>
     <row r="282" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="283" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A283" s="47" t="s">
+      <c r="A283" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="B283" s="48"/>
-      <c r="C283" s="49"/>
+      <c r="B283" s="49"/>
+      <c r="C283" s="50"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="45" t="s">
@@ -3210,11 +3217,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
     <mergeCell ref="A283:C283"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
@@ -3228,17 +3238,14 @@
     <mergeCell ref="A231:C231"/>
     <mergeCell ref="A237:C237"/>
     <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A255:C255"/>
     <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
     <mergeCell ref="A271:C271"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A247:C247"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="305">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>q_Definitions_Node_JS.xlsx</t>
+  </si>
+  <si>
+    <t>NPM</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,6 +1183,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1189,6 +1196,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1201,7 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1501,7 +1508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2248,6 +2255,14 @@
         <v>164</v>
       </c>
     </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
     <row r="112" spans="1:3">
       <c r="A112" s="33" t="s">
         <v>172</v>
@@ -2333,11 +2348,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="50"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="52"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2375,11 +2390,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="49"/>
-      <c r="C131" s="50"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="52"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2435,11 +2450,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="50"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="52"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2484,11 +2499,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="48" t="s">
+      <c r="A145" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="49"/>
-      <c r="C145" s="50"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="52"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2527,11 +2542,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="48" t="s">
+      <c r="A153" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="50"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="52"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2584,11 +2599,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="48" t="s">
+      <c r="A163" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="49"/>
-      <c r="C163" s="50"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="52"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2605,14 +2620,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="55"/>
+      <c r="C165" s="53"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="55"/>
+      <c r="C166" s="53"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2621,11 +2636,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="50"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="52"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2660,11 +2675,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="48" t="s">
+      <c r="A178" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="49"/>
-      <c r="C178" s="50"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="52"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2689,11 +2704,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="48" t="s">
+      <c r="A183" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="49"/>
-      <c r="C183" s="50"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="52"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2718,11 +2733,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="49"/>
-      <c r="C188" s="50"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="52"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2739,11 +2754,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="48" t="s">
+      <c r="A192" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="49"/>
-      <c r="C192" s="50"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="52"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2759,11 +2774,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="48" t="s">
+      <c r="A197" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="49"/>
-      <c r="C197" s="50"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="52"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2789,11 +2804,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="48" t="s">
+      <c r="A202" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="49"/>
-      <c r="C202" s="50"/>
+      <c r="B202" s="51"/>
+      <c r="C202" s="52"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="33" t="s">
@@ -2818,22 +2833,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="48" t="s">
+      <c r="A207" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="49"/>
-      <c r="C207" s="50"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="52"/>
     </row>
     <row r="208" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="35"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="48" t="s">
+      <c r="A209" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="49"/>
-      <c r="C209" s="50"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="52"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1">
       <c r="A210" s="33" t="s">
@@ -2870,11 +2885,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="48" t="s">
+      <c r="A217" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="49"/>
-      <c r="C217" s="50"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="52"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
@@ -2890,11 +2905,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="48" t="s">
+      <c r="A220" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="49"/>
-      <c r="C220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="52"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
@@ -2908,11 +2923,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="48" t="s">
+      <c r="A225" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="49"/>
-      <c r="C225" s="50"/>
+      <c r="B225" s="51"/>
+      <c r="C225" s="52"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="33" t="s">
@@ -2931,11 +2946,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="48" t="s">
+      <c r="A231" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="49"/>
-      <c r="C231" s="50"/>
+      <c r="B231" s="51"/>
+      <c r="C231" s="52"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="33" t="s">
@@ -2968,11 +2983,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="48" t="s">
+      <c r="A237" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="49"/>
-      <c r="C237" s="50"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="52"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
@@ -2987,11 +3002,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="48" t="s">
+      <c r="A241" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="49"/>
-      <c r="C241" s="50"/>
+      <c r="B241" s="51"/>
+      <c r="C241" s="52"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3010,10 +3025,10 @@
       <c r="A244" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="53" t="s">
+      <c r="B244" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="54"/>
+      <c r="C244" s="57"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
@@ -3023,11 +3038,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="48" t="s">
+      <c r="A247" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="49"/>
-      <c r="C247" s="50"/>
+      <c r="B247" s="51"/>
+      <c r="C247" s="52"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
@@ -3040,11 +3055,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="48" t="s">
+      <c r="A250" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="49"/>
-      <c r="C250" s="50"/>
+      <c r="B250" s="51"/>
+      <c r="C250" s="52"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="33" t="s">
@@ -3066,11 +3081,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="48" t="s">
+      <c r="A255" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="49"/>
-      <c r="C255" s="50"/>
+      <c r="B255" s="51"/>
+      <c r="C255" s="52"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
@@ -3082,14 +3097,14 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="48" t="s">
+      <c r="A259" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="49"/>
-      <c r="C259" s="50"/>
+      <c r="B259" s="51"/>
+      <c r="C259" s="52"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="51" t="s">
+      <c r="A260" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3100,18 +3115,18 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="52"/>
+      <c r="A261" s="55"/>
       <c r="B261" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="48" t="s">
+      <c r="A263" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="49"/>
-      <c r="C263" s="50"/>
+      <c r="B263" s="51"/>
+      <c r="C263" s="52"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="33" t="s">
@@ -3145,11 +3160,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="48" t="s">
+      <c r="A271" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="49"/>
-      <c r="C271" s="50"/>
+      <c r="B271" s="51"/>
+      <c r="C271" s="52"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="40" t="s">
@@ -3166,11 +3181,11 @@
     </row>
     <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A275" s="48" t="s">
+      <c r="A275" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B275" s="49"/>
-      <c r="C275" s="50"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="52"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="44" t="s">
@@ -3204,11 +3219,11 @@
     </row>
     <row r="282" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="283" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A283" s="48" t="s">
+      <c r="A283" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="B283" s="49"/>
-      <c r="C283" s="50"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="52"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="45" t="s">
@@ -3217,14 +3232,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A247:C247"/>
     <mergeCell ref="A283:C283"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A260:A261"/>
@@ -3241,14 +3256,14 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A255:C255"/>
     <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="C165:C166"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="306">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>NPM</t>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1187,6 +1190,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1507,8 +1514,8 @@
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1659,8 +1666,8 @@
       <c r="A15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>168</v>
+      <c r="C15" s="50" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2348,11 +2355,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="50" t="s">
+      <c r="A124" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="51"/>
-      <c r="C124" s="52"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="54"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2390,11 +2397,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="51"/>
-      <c r="C131" s="52"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="54"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2450,11 +2457,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="52"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2499,11 +2506,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="50" t="s">
+      <c r="A145" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="51"/>
-      <c r="C145" s="52"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="54"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2540,13 +2547,18 @@
         <v>169</v>
       </c>
     </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="51" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="50" t="s">
+      <c r="A153" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="51"/>
-      <c r="C153" s="52"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="54"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2599,11 +2611,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="50" t="s">
+      <c r="A163" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="52"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="54"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2620,14 +2632,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="53"/>
+      <c r="C165" s="55"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="53"/>
+      <c r="C166" s="55"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2636,11 +2648,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="50" t="s">
+      <c r="A170" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="51"/>
-      <c r="C170" s="52"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="54"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2675,11 +2687,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="50" t="s">
+      <c r="A178" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="51"/>
-      <c r="C178" s="52"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="54"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2704,11 +2716,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="50" t="s">
+      <c r="A183" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="51"/>
-      <c r="C183" s="52"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="54"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2733,11 +2745,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="50" t="s">
+      <c r="A188" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="51"/>
-      <c r="C188" s="52"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="54"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2754,11 +2766,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="50" t="s">
+      <c r="A192" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="51"/>
-      <c r="C192" s="52"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="54"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2774,11 +2786,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="50" t="s">
+      <c r="A197" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="51"/>
-      <c r="C197" s="52"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="54"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2804,11 +2816,11 @@
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="50" t="s">
+      <c r="A202" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="51"/>
-      <c r="C202" s="52"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="54"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="33" t="s">
@@ -2833,22 +2845,22 @@
       <c r="B206" s="1"/>
     </row>
     <row r="207" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="50" t="s">
+      <c r="A207" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="51"/>
-      <c r="C207" s="52"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="54"/>
     </row>
     <row r="208" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A208" s="35"/>
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="50" t="s">
+      <c r="A209" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="51"/>
-      <c r="C209" s="52"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="54"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1">
       <c r="A210" s="33" t="s">
@@ -2885,11 +2897,11 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="50" t="s">
+      <c r="A217" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B217" s="51"/>
-      <c r="C217" s="52"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="54"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
@@ -2905,11 +2917,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="50" t="s">
+      <c r="A220" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="52"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="54"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
@@ -2923,11 +2935,11 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="50" t="s">
+      <c r="A225" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="51"/>
-      <c r="C225" s="52"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="54"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="33" t="s">
@@ -2946,11 +2958,11 @@
     </row>
     <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="50" t="s">
+      <c r="A231" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="51"/>
-      <c r="C231" s="52"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="54"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="33" t="s">
@@ -2983,11 +2995,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="50" t="s">
+      <c r="A237" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B237" s="51"/>
-      <c r="C237" s="52"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="54"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
@@ -3002,11 +3014,11 @@
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="50" t="s">
+      <c r="A241" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="B241" s="51"/>
-      <c r="C241" s="52"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="54"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3025,10 +3037,10 @@
       <c r="A244" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="56" t="s">
+      <c r="B244" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="57"/>
+      <c r="C244" s="59"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
@@ -3038,11 +3050,11 @@
     </row>
     <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="50" t="s">
+      <c r="A247" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="B247" s="51"/>
-      <c r="C247" s="52"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="54"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
@@ -3055,11 +3067,11 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="50" t="s">
+      <c r="A250" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="51"/>
-      <c r="C250" s="52"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="54"/>
     </row>
     <row r="251" spans="1:3" ht="30">
       <c r="A251" s="33" t="s">
@@ -3081,11 +3093,11 @@
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="50" t="s">
+      <c r="A255" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="51"/>
-      <c r="C255" s="52"/>
+      <c r="B255" s="53"/>
+      <c r="C255" s="54"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
@@ -3097,14 +3109,14 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="50" t="s">
+      <c r="A259" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="51"/>
-      <c r="C259" s="52"/>
+      <c r="B259" s="53"/>
+      <c r="C259" s="54"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="54" t="s">
+      <c r="A260" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3115,18 +3127,18 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="55"/>
+      <c r="A261" s="57"/>
       <c r="B261" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="50" t="s">
+      <c r="A263" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="51"/>
-      <c r="C263" s="52"/>
+      <c r="B263" s="53"/>
+      <c r="C263" s="54"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="33" t="s">
@@ -3160,11 +3172,11 @@
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="50" t="s">
+      <c r="A271" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="51"/>
-      <c r="C271" s="52"/>
+      <c r="B271" s="53"/>
+      <c r="C271" s="54"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="40" t="s">
@@ -3181,11 +3193,11 @@
     </row>
     <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="275" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A275" s="50" t="s">
+      <c r="A275" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B275" s="51"/>
-      <c r="C275" s="52"/>
+      <c r="B275" s="53"/>
+      <c r="C275" s="54"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="44" t="s">
@@ -3219,11 +3231,11 @@
     </row>
     <row r="282" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="283" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A283" s="50" t="s">
+      <c r="A283" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="B283" s="51"/>
-      <c r="C283" s="52"/>
+      <c r="B283" s="53"/>
+      <c r="C283" s="54"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="45" t="s">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$242</definedName>
+    <definedName name="A">'All Topics'!$A$245</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="307">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>ElasticSearch</t>
+  </si>
+  <si>
+    <t>Java Memory Model</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1194,6 +1197,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1203,7 +1210,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1216,6 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1511,11 +1518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2355,11 +2362,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2397,11 +2404,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="53"/>
-      <c r="C131" s="54"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2457,11 +2464,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="53"/>
-      <c r="C139" s="54"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2506,11 +2513,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="53"/>
-      <c r="C145" s="54"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="56"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2554,11 +2561,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="53"/>
-      <c r="C153" s="54"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="56"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2611,11 +2618,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="53"/>
-      <c r="C163" s="54"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="56"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2632,14 +2639,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="55"/>
+      <c r="C165" s="61"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="55"/>
+      <c r="C166" s="61"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2648,11 +2655,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="53"/>
-      <c r="C170" s="54"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="56"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2687,11 +2694,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="52" t="s">
+      <c r="A178" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="53"/>
-      <c r="C178" s="54"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="56"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2716,11 +2723,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="53"/>
-      <c r="C183" s="54"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="56"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2745,11 +2752,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="52" t="s">
+      <c r="A188" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="53"/>
-      <c r="C188" s="54"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="56"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2766,11 +2773,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="52" t="s">
+      <c r="A192" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="53"/>
-      <c r="C192" s="54"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="56"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2786,11 +2793,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="53"/>
-      <c r="C197" s="54"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="56"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2809,465 +2816,455 @@
       </c>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+    <row r="201" spans="1:3" s="32" customFormat="1">
       <c r="A201" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A202" s="52" t="s">
+    <row r="202" spans="1:3" s="52" customFormat="1">
+      <c r="A202" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" s="52" customFormat="1">
+      <c r="A203" s="53"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A204" s="53"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A205" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B202" s="53"/>
-      <c r="C202" s="54"/>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="33" t="s">
+      <c r="B205" s="55"/>
+      <c r="C205" s="56"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="C203" s="10"/>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="35" t="s">
+      <c r="C206" s="10"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="35" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A206" s="35" t="s">
+    <row r="209" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A209" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="B206" s="1"/>
-    </row>
-    <row r="207" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A207" s="52" t="s">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A210" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="B207" s="53"/>
-      <c r="C207" s="54"/>
-    </row>
-    <row r="208" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A208" s="35"/>
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A209" s="52" t="s">
+      <c r="B210" s="55"/>
+      <c r="C210" s="56"/>
+    </row>
+    <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A211" s="35"/>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A212" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="53"/>
-      <c r="C209" s="54"/>
-    </row>
-    <row r="210" spans="1:3" s="25" customFormat="1">
-      <c r="A210" s="33" t="s">
+      <c r="B212" s="55"/>
+      <c r="C212" s="56"/>
+    </row>
+    <row r="213" spans="1:3" s="25" customFormat="1">
+      <c r="A213" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="B213" s="26" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="33" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B217" s="53"/>
-      <c r="C217" s="54"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="33" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A219" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="B220" s="53"/>
-      <c r="C220" s="54"/>
+      <c r="A220" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" s="55"/>
+      <c r="C220" s="56"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A222" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A223" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B223" s="55"/>
+      <c r="C223" s="56"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="33" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" s="33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="225" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A225" s="52" t="s">
+    <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A228" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="B225" s="53"/>
-      <c r="C225" s="54"/>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="33" t="s">
+      <c r="B228" s="55"/>
+      <c r="C228" s="56"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="33" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" s="33" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="33" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A231" s="52" t="s">
+    <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A234" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="B231" s="53"/>
-      <c r="C231" s="54"/>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C232" s="15"/>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C233" s="16"/>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="33" t="s">
-        <v>245</v>
-      </c>
+      <c r="B234" s="55"/>
+      <c r="C234" s="56"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A236" s="43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A237" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="B237" s="53"/>
-      <c r="C237" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C235" s="15"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C236" s="16"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="33" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A239" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A240" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B240" s="55"/>
+      <c r="C240" s="56"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="B241" s="53"/>
-      <c r="C241" s="54"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B244" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="59"/>
+        <v>27</v>
+      </c>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="244" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A244" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" s="55"/>
+      <c r="C244" s="56"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C245" s="13"/>
-    </row>
-    <row r="246" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="247" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A247" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247" s="53"/>
-      <c r="C247" s="54"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="60"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C248" s="13"/>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A250" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" s="55"/>
+      <c r="C250" s="56"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A249" s="33" t="s">
+    <row r="252" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A252" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="52" t="s">
+    <row r="253" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A253" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="B250" s="53"/>
-      <c r="C250" s="54"/>
-    </row>
-    <row r="251" spans="1:3" ht="30">
-      <c r="A251" s="33" t="s">
+      <c r="B253" s="55"/>
+      <c r="C253" s="56"/>
+    </row>
+    <row r="254" spans="1:3" ht="30">
+      <c r="A254" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B254" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="33" t="s">
+    <row r="255" spans="1:3">
+      <c r="A255" s="33" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="255" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A255" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="B255" s="53"/>
-      <c r="C255" s="54"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A258" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258" s="55"/>
+      <c r="C258" s="56"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C259" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="52" t="s">
+    <row r="261" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A262" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B259" s="53"/>
-      <c r="C259" s="54"/>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="56" t="s">
+      <c r="B262" s="55"/>
+      <c r="C262" s="56"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C263" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="57"/>
-      <c r="B261" s="31" t="s">
+    <row r="264" spans="1:3">
+      <c r="A264" s="58"/>
+      <c r="B264" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="263" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A263" s="52" t="s">
+    <row r="265" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A266" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="53"/>
-      <c r="C263" s="54"/>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="33" t="s">
-        <v>266</v>
-      </c>
+      <c r="B266" s="55"/>
+      <c r="C266" s="56"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="33" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="271" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A271" s="52" t="s">
+    <row r="273" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A274" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="B271" s="53"/>
-      <c r="C271" s="54"/>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="40" t="s">
+      <c r="B274" s="55"/>
+      <c r="C274" s="56"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="42" t="s">
+    <row r="276" spans="1:3">
+      <c r="A276" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="275" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A275" s="52" t="s">
+    <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A278" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="B275" s="53"/>
-      <c r="C275" s="54"/>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="44" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="44" t="s">
-        <v>296</v>
-      </c>
+      <c r="B278" s="55"/>
+      <c r="C278" s="56"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="44" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="283" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A283" s="52" t="s">
+    <row r="285" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="286" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A286" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="B283" s="53"/>
-      <c r="C283" s="54"/>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="45" t="s">
+      <c r="B286" s="55"/>
+      <c r="C286" s="56"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="45" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A250:C250"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A170:C170"/>
@@ -3276,6 +3273,30 @@
     <mergeCell ref="A153:C153"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A250:C250"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3287,20 +3308,20 @@
     <hyperlink ref="B77" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
-    <hyperlink ref="B232" r:id="rId10"/>
+    <hyperlink ref="B235" r:id="rId10"/>
     <hyperlink ref="B149" r:id="rId11"/>
     <hyperlink ref="B45" r:id="rId12"/>
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B260" r:id="rId16"/>
+    <hyperlink ref="B263" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
     <hyperlink ref="B95" r:id="rId20"/>
     <hyperlink ref="B35" r:id="rId21"/>
     <hyperlink ref="B141" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B251" r:id="rId23"/>
+    <hyperlink ref="B254" r:id="rId23"/>
     <hyperlink ref="B62" r:id="rId24"/>
     <hyperlink ref="B107" r:id="rId25"/>
     <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
@@ -3310,8 +3331,8 @@
     <hyperlink ref="B119" r:id="rId30"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B166" r:id="rId31"/>
-    <hyperlink ref="B210" r:id="rId32"/>
-    <hyperlink ref="B272" r:id="rId33"/>
+    <hyperlink ref="B213" r:id="rId32"/>
+    <hyperlink ref="B275" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="308">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>Java Memory Model</t>
+  </si>
+  <si>
+    <t>Hygieia - r-Definitions-Hygieia.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1518,11 +1521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D287"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3263,8 +3266,20 @@
         <v>301</v>
       </c>
     </row>
+    <row r="288" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="289" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A289" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B289" s="55"/>
+      <c r="C289" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A253:C253"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A170:C170"/>
@@ -3273,22 +3288,12 @@
     <mergeCell ref="A153:C153"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A212:C212"/>
     <mergeCell ref="A220:C220"/>
     <mergeCell ref="A223:C223"/>
     <mergeCell ref="A228:C228"/>
     <mergeCell ref="A234:C234"/>
     <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A289:C289"/>
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A266:C266"/>
     <mergeCell ref="A178:C178"/>
@@ -3297,6 +3302,13 @@
     <mergeCell ref="A274:C274"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A212:C212"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="310">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -953,6 +953,12 @@
   </si>
   <si>
     <t>Hygieia - r-Definitions-Hygieia.xlsx</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Google - s-Definitions-Google.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1204,6 +1210,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1213,6 +1222,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1225,7 +1235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1521,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A290" sqref="A290"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2365,11 +2374,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="57"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2407,11 +2416,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="57"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2467,11 +2476,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="57"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2516,11 +2525,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="56"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="57"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2564,11 +2573,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="55"/>
-      <c r="C153" s="56"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="57"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2621,11 +2630,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="54" t="s">
+      <c r="A163" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="55"/>
-      <c r="C163" s="56"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="57"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2642,14 +2651,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="61"/>
+      <c r="C165" s="58"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="61"/>
+      <c r="C166" s="58"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2658,11 +2667,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="54" t="s">
+      <c r="A170" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="55"/>
-      <c r="C170" s="56"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="57"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2697,11 +2706,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="54" t="s">
+      <c r="A178" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="55"/>
-      <c r="C178" s="56"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="57"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2726,11 +2735,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="54" t="s">
+      <c r="A183" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="55"/>
-      <c r="C183" s="56"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="57"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2755,11 +2764,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="54" t="s">
+      <c r="A188" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="55"/>
-      <c r="C188" s="56"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="57"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2776,11 +2785,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="54" t="s">
+      <c r="A192" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="55"/>
-      <c r="C192" s="56"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="57"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2796,11 +2805,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="54" t="s">
+      <c r="A197" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="55"/>
-      <c r="C197" s="56"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="57"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2840,11 +2849,11 @@
       <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A205" s="54" t="s">
+      <c r="A205" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B205" s="55"/>
-      <c r="C205" s="56"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="57"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="33" t="s">
@@ -2869,22 +2878,22 @@
       <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A210" s="54" t="s">
+      <c r="A210" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="B210" s="55"/>
-      <c r="C210" s="56"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="57"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A211" s="35"/>
       <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="54" t="s">
+      <c r="A212" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="B212" s="55"/>
-      <c r="C212" s="56"/>
+      <c r="B212" s="56"/>
+      <c r="C212" s="57"/>
     </row>
     <row r="213" spans="1:3" s="25" customFormat="1">
       <c r="A213" s="33" t="s">
@@ -2921,11 +2930,11 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="54" t="s">
+      <c r="A220" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="B220" s="55"/>
-      <c r="C220" s="56"/>
+      <c r="B220" s="56"/>
+      <c r="C220" s="57"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
@@ -2941,11 +2950,11 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A223" s="54" t="s">
+      <c r="A223" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="B223" s="55"/>
-      <c r="C223" s="56"/>
+      <c r="B223" s="56"/>
+      <c r="C223" s="57"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="33" t="s">
@@ -2959,11 +2968,11 @@
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="54" t="s">
+      <c r="A228" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B228" s="55"/>
-      <c r="C228" s="56"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="57"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="33" t="s">
@@ -2982,11 +2991,11 @@
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A234" s="54" t="s">
+      <c r="A234" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B234" s="55"/>
-      <c r="C234" s="56"/>
+      <c r="B234" s="56"/>
+      <c r="C234" s="57"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="33" t="s">
@@ -3019,11 +3028,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A240" s="54" t="s">
+      <c r="A240" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="55"/>
-      <c r="C240" s="56"/>
+      <c r="B240" s="56"/>
+      <c r="C240" s="57"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="33" t="s">
@@ -3038,11 +3047,11 @@
     </row>
     <row r="243" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="244" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A244" s="54" t="s">
+      <c r="A244" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="55"/>
-      <c r="C244" s="56"/>
+      <c r="B244" s="56"/>
+      <c r="C244" s="57"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
@@ -3061,10 +3070,10 @@
       <c r="A247" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B247" s="59" t="s">
+      <c r="B247" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C247" s="60"/>
+      <c r="C247" s="62"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
@@ -3074,11 +3083,11 @@
     </row>
     <row r="249" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="54" t="s">
+      <c r="A250" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="55"/>
-      <c r="C250" s="56"/>
+      <c r="B250" s="56"/>
+      <c r="C250" s="57"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="33" t="s">
@@ -3091,11 +3100,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A253" s="54" t="s">
+      <c r="A253" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="B253" s="55"/>
-      <c r="C253" s="56"/>
+      <c r="B253" s="56"/>
+      <c r="C253" s="57"/>
     </row>
     <row r="254" spans="1:3" ht="30">
       <c r="A254" s="33" t="s">
@@ -3117,11 +3126,11 @@
     </row>
     <row r="257" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="258" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A258" s="54" t="s">
+      <c r="A258" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="B258" s="55"/>
-      <c r="C258" s="56"/>
+      <c r="B258" s="56"/>
+      <c r="C258" s="57"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="33" t="s">
@@ -3133,14 +3142,14 @@
     </row>
     <row r="261" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="262" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A262" s="54" t="s">
+      <c r="A262" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B262" s="55"/>
-      <c r="C262" s="56"/>
+      <c r="B262" s="56"/>
+      <c r="C262" s="57"/>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="57" t="s">
+      <c r="A263" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -3151,18 +3160,18 @@
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="58"/>
+      <c r="A264" s="60"/>
       <c r="B264" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="54" t="s">
+      <c r="A266" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="55"/>
-      <c r="C266" s="56"/>
+      <c r="B266" s="56"/>
+      <c r="C266" s="57"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="33" t="s">
@@ -3196,11 +3205,11 @@
     </row>
     <row r="273" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="274" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A274" s="54" t="s">
+      <c r="A274" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="B274" s="55"/>
-      <c r="C274" s="56"/>
+      <c r="B274" s="56"/>
+      <c r="C274" s="57"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="40" t="s">
@@ -3217,11 +3226,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="54" t="s">
+      <c r="A278" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="B278" s="55"/>
-      <c r="C278" s="56"/>
+      <c r="B278" s="56"/>
+      <c r="C278" s="57"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="44" t="s">
@@ -3255,11 +3264,11 @@
     </row>
     <row r="285" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="286" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A286" s="54" t="s">
+      <c r="A286" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="B286" s="55"/>
-      <c r="C286" s="56"/>
+      <c r="B286" s="56"/>
+      <c r="C286" s="57"/>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="45" t="s">
@@ -3268,14 +3277,45 @@
     </row>
     <row r="288" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="289" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A289" s="54" t="s">
+      <c r="A289" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="B289" s="55"/>
-      <c r="C289" s="56"/>
+      <c r="B289" s="56"/>
+      <c r="C289" s="57"/>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A293" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B293" s="56"/>
+      <c r="C293" s="57"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="54" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A210:C210"/>
     <mergeCell ref="A244:C244"/>
     <mergeCell ref="A262:C262"/>
     <mergeCell ref="A258:C258"/>
@@ -3292,23 +3332,6 @@
     <mergeCell ref="A223:C223"/>
     <mergeCell ref="A228:C228"/>
     <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A212:C212"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:D294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C294" sqref="C294"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A289" sqref="A289:C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3304,13 +3304,16 @@
     <mergeCell ref="A289:C289"/>
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A234:C234"/>
     <mergeCell ref="A178:C178"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A188:C188"/>
     <mergeCell ref="A274:C274"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A286:C286"/>
     <mergeCell ref="A197:C197"/>
     <mergeCell ref="A263:A264"/>
     <mergeCell ref="B247:C247"/>
@@ -3320,6 +3323,7 @@
     <mergeCell ref="A262:C262"/>
     <mergeCell ref="A258:C258"/>
     <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A220:C220"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A170:C170"/>
@@ -3328,10 +3332,6 @@
     <mergeCell ref="A153:C153"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A234:C234"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="312">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -952,13 +952,19 @@
     <t>Java Memory Model</t>
   </si>
   <si>
-    <t>Hygieia - r-Definitions-Hygieia.xlsx</t>
-  </si>
-  <si>
     <t>Google Analytics</t>
   </si>
   <si>
     <t>Google - s-Definitions-Google.xlsx</t>
+  </si>
+  <si>
+    <t>Hygieia - r_Definitions_Dashboard.xlsx</t>
+  </si>
+  <si>
+    <t>HighCharts</t>
+  </si>
+  <si>
+    <t>t-Definitions-UI.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1213,6 +1219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1222,7 +1236,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1235,6 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1530,11 +1544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A289" sqref="A289:C289"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2103,14 +2117,6 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="82" spans="1:3">
       <c r="A82" s="33" t="s">
         <v>129</v>
@@ -2374,11 +2380,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="55" t="s">
+      <c r="A124" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="57"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="61"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2416,11 +2422,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="57"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="61"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2476,11 +2482,11 @@
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="56"/>
-      <c r="C139" s="57"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="61"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
@@ -2525,11 +2531,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="55" t="s">
+      <c r="A145" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="56"/>
-      <c r="C145" s="57"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="61"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="33" t="s">
@@ -2573,11 +2579,11 @@
     </row>
     <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="56"/>
-      <c r="C153" s="57"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="61"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -2630,11 +2636,11 @@
     </row>
     <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="55" t="s">
+      <c r="A163" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="56"/>
-      <c r="C163" s="57"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="61"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="33" t="s">
@@ -2651,14 +2657,14 @@
       <c r="B165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="58"/>
+      <c r="C165" s="66"/>
     </row>
     <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A166" s="33"/>
       <c r="B166" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="58"/>
+      <c r="C166" s="66"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="42" t="s">
@@ -2667,11 +2673,11 @@
     </row>
     <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="55" t="s">
+      <c r="A170" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="56"/>
-      <c r="C170" s="57"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="61"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
@@ -2706,11 +2712,11 @@
       <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="55" t="s">
+      <c r="A178" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="B178" s="56"/>
-      <c r="C178" s="57"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="61"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
@@ -2735,11 +2741,11 @@
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="55" t="s">
+      <c r="A183" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="56"/>
-      <c r="C183" s="57"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="61"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
@@ -2764,11 +2770,11 @@
       <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="55" t="s">
+      <c r="A188" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="56"/>
-      <c r="C188" s="57"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="61"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36" t="s">
@@ -2785,11 +2791,11 @@
       <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="55" t="s">
+      <c r="A192" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="56"/>
-      <c r="C192" s="57"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="61"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
@@ -2805,11 +2811,11 @@
     </row>
     <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="55" t="s">
+      <c r="A197" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="56"/>
-      <c r="C197" s="57"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="61"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
@@ -2849,11 +2855,11 @@
       <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A205" s="55" t="s">
+      <c r="A205" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="B205" s="56"/>
-      <c r="C205" s="57"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="61"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="33" t="s">
@@ -2878,22 +2884,22 @@
       <c r="B209" s="1"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A210" s="55" t="s">
+      <c r="A210" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B210" s="56"/>
-      <c r="C210" s="57"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="61"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A211" s="35"/>
       <c r="B211" s="1"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="55" t="s">
+      <c r="A212" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="B212" s="56"/>
-      <c r="C212" s="57"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="61"/>
     </row>
     <row r="213" spans="1:3" s="25" customFormat="1">
       <c r="A213" s="33" t="s">
@@ -2930,11 +2936,11 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="55" t="s">
+      <c r="A220" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="B220" s="56"/>
-      <c r="C220" s="57"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="61"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="33" t="s">
@@ -2950,11 +2956,11 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="B223" s="56"/>
-      <c r="C223" s="57"/>
+      <c r="B223" s="60"/>
+      <c r="C223" s="61"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="33" t="s">
@@ -2968,11 +2974,11 @@
     </row>
     <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="55" t="s">
+      <c r="A228" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B228" s="56"/>
-      <c r="C228" s="57"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="61"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="33" t="s">
@@ -2991,11 +2997,11 @@
     </row>
     <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A234" s="55" t="s">
+      <c r="A234" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="B234" s="56"/>
-      <c r="C234" s="57"/>
+      <c r="B234" s="60"/>
+      <c r="C234" s="61"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="33" t="s">
@@ -3028,11 +3034,11 @@
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A240" s="55" t="s">
+      <c r="A240" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="56"/>
-      <c r="C240" s="57"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="61"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="33" t="s">
@@ -3047,11 +3053,11 @@
     </row>
     <row r="243" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="244" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A244" s="55" t="s">
+      <c r="A244" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="56"/>
-      <c r="C244" s="57"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="61"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
@@ -3070,10 +3076,10 @@
       <c r="A247" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B247" s="61" t="s">
+      <c r="B247" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C247" s="62"/>
+      <c r="C247" s="65"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
@@ -3083,11 +3089,11 @@
     </row>
     <row r="249" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="55" t="s">
+      <c r="A250" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="56"/>
-      <c r="C250" s="57"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="61"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="33" t="s">
@@ -3100,11 +3106,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A253" s="55" t="s">
+      <c r="A253" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="B253" s="56"/>
-      <c r="C253" s="57"/>
+      <c r="B253" s="60"/>
+      <c r="C253" s="61"/>
     </row>
     <row r="254" spans="1:3" ht="30">
       <c r="A254" s="33" t="s">
@@ -3126,11 +3132,11 @@
     </row>
     <row r="257" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="258" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A258" s="55" t="s">
+      <c r="A258" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B258" s="56"/>
-      <c r="C258" s="57"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="61"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="33" t="s">
@@ -3140,190 +3146,191 @@
         <v>193</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="262" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A262" s="55" t="s">
+    <row r="260" spans="1:3">
+      <c r="A260" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C260" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C261" s="57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" s="57" customFormat="1">
+      <c r="A262" s="58"/>
+      <c r="B262" s="58"/>
+    </row>
+    <row r="263" spans="1:3" s="57" customFormat="1">
+      <c r="A263" s="58"/>
+      <c r="B263" s="58"/>
+    </row>
+    <row r="264" spans="1:3" s="57" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A264" s="58"/>
+      <c r="B264" s="58"/>
+    </row>
+    <row r="265" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A265" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B262" s="56"/>
-      <c r="C262" s="57"/>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="59" t="s">
+      <c r="B265" s="60"/>
+      <c r="C265" s="61"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C266" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="60"/>
-      <c r="B264" s="31" t="s">
+    <row r="267" spans="1:3">
+      <c r="A267" s="63"/>
+      <c r="B267" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="55" t="s">
+    <row r="268" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="269" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A269" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="B266" s="56"/>
-      <c r="C266" s="57"/>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="33" t="s">
-        <v>266</v>
-      </c>
+      <c r="B269" s="60"/>
+      <c r="C269" s="61"/>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="33" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="274" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A274" s="55" t="s">
+    <row r="276" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="277" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A277" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="B274" s="56"/>
-      <c r="C274" s="57"/>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="40" t="s">
+      <c r="B277" s="60"/>
+      <c r="C277" s="61"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B278" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="42" t="s">
+    <row r="279" spans="1:3">
+      <c r="A279" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="55" t="s">
+    <row r="280" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="281" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A281" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="B278" s="56"/>
-      <c r="C278" s="57"/>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="44" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="44" t="s">
-        <v>296</v>
-      </c>
+      <c r="B281" s="60"/>
+      <c r="C281" s="61"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="44" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="286" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A286" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B286" s="56"/>
-      <c r="C286" s="57"/>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="45" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="289" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A289" s="55" t="s">
+      <c r="A289" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B289" s="60"/>
+      <c r="C289" s="61"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A292" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="B292" s="60"/>
+      <c r="C292" s="61"/>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="296" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A296" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B296" s="60"/>
+      <c r="C296" s="61"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="54" t="s">
         <v>307</v>
-      </c>
-      <c r="B289" s="56"/>
-      <c r="C289" s="57"/>
-    </row>
-    <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B293" s="56"/>
-      <c r="C293" s="57"/>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="54" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A220:C220"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A170:C170"/>
@@ -3332,6 +3339,32 @@
     <mergeCell ref="A153:C153"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A234:C234"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3349,7 +3382,7 @@
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B263" r:id="rId16"/>
+    <hyperlink ref="B266" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
@@ -3367,7 +3400,7 @@
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
     <hyperlink ref="B166" r:id="rId31"/>
     <hyperlink ref="B213" r:id="rId32"/>
-    <hyperlink ref="B275" r:id="rId33"/>
+    <hyperlink ref="B278" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$245</definedName>
+    <definedName name="A">'All Topics'!$A$246</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="314">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -694,9 +694,6 @@
     <t>JVM and JDK Tools - c_Definitions_JVM.xlsx</t>
   </si>
   <si>
-    <t>Docker Hub</t>
-  </si>
-  <si>
     <t>APIGEE</t>
   </si>
   <si>
@@ -965,6 +962,15 @@
   </si>
   <si>
     <t>t-Definitions-UI.xlsx</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>ORM - u-Definitions-ORM.xlsx</t>
+  </si>
+  <si>
+    <t>Eclipselink</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1227,6 +1233,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1236,6 +1249,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1248,7 +1262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1544,11 +1557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1794,11 +1807,6 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="31" spans="1:3">
       <c r="A31" s="33" t="s">
         <v>51</v>
@@ -2114,7 +2122,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2161,7 +2169,7 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
@@ -2175,7 +2183,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2217,7 +2225,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2289,10 +2297,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2300,7 +2308,7 @@
         <v>172</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2380,11 +2388,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="61"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="64"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2412,21 +2420,21 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="29" customFormat="1" ht="15.75" thickBot="1">
       <c r="A130" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="60"/>
-      <c r="C131" s="61"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="64"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2453,7 +2461,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>132</v>
@@ -2461,7 +2469,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>132</v>
@@ -2469,525 +2477,518 @@
     </row>
     <row r="137" spans="1:3" s="28" customFormat="1">
       <c r="A137" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:3" s="32" customFormat="1">
       <c r="A138" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B138" s="33"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="59" t="s">
+    <row r="139" spans="1:3" s="59" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A139" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" s="60"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A140" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="B139" s="60"/>
-      <c r="C139" s="61"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B140" s="63"/>
+      <c r="C140" s="64"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B141" s="2"/>
+        <v>22</v>
+      </c>
       <c r="C141" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>206</v>
+        <v>52</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" s="32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A144" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" s="38"/>
-      <c r="C144" s="39" t="s">
+    <row r="145" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A145" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="38"/>
+      <c r="C145" s="39" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A145" s="59" t="s">
+    <row r="146" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A146" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="60"/>
-      <c r="C145" s="61"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C146" t="s">
-        <v>168</v>
-      </c>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C148" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="149" spans="1:3">
       <c r="A149" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A153" s="59" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A154" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="60"/>
-      <c r="C153" s="61"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="22"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="64"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>142</v>
+      </c>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="22"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="163" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A163" s="59" t="s">
+    <row r="161" spans="1:3">
+      <c r="A161" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="22"/>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="164" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A164" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="60"/>
-      <c r="C163" s="61"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="33" t="s">
+      <c r="B164" s="63"/>
+      <c r="C164" s="64"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30">
-      <c r="A165" s="33" t="s">
+    <row r="166" spans="1:3" ht="30">
+      <c r="A166" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="66"/>
-    </row>
-    <row r="166" spans="1:3" s="22" customFormat="1" ht="30">
-      <c r="A166" s="33"/>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="65"/>
+    </row>
+    <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
+      <c r="A167" s="33"/>
+      <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C166" s="66"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A170" s="59" t="s">
+      <c r="C167" s="65"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A171" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B170" s="60"/>
-      <c r="C170" s="61"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" s="22"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="64"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C172" s="22"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="33" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="24" customFormat="1">
-      <c r="A173" s="33" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="22"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
       <c r="A175" s="33" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B175" s="1"/>
-    </row>
-    <row r="177" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A178" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="B178" s="60"/>
-      <c r="C178" s="61"/>
-    </row>
-    <row r="179" spans="1:3" s="37" customFormat="1">
-      <c r="A179" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="36"/>
+      <c r="C175" s="22"/>
+    </row>
+    <row r="176" spans="1:3" s="24" customFormat="1">
+      <c r="A176" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="178" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A179" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B179" s="63"/>
+      <c r="C179" s="64"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B180" s="36"/>
     </row>
     <row r="181" spans="1:3" s="37" customFormat="1">
       <c r="A181" s="36" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A182" s="36"/>
+    <row r="182" spans="1:3" s="37" customFormat="1">
+      <c r="A182" s="36" t="s">
+        <v>275</v>
+      </c>
       <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="B183" s="60"/>
-      <c r="C183" s="61"/>
-    </row>
-    <row r="184" spans="1:3" s="37" customFormat="1">
-      <c r="A184" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="B184" s="36"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
+    </row>
+    <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A184" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" s="63"/>
+      <c r="C184" s="64"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B185" s="36"/>
+    </row>
+    <row r="186" spans="1:3" s="37" customFormat="1">
+      <c r="A186" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B186" s="36"/>
+    </row>
+    <row r="187" spans="1:3" s="27" customFormat="1">
+      <c r="A187" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="B185" s="36"/>
-    </row>
-    <row r="186" spans="1:3" s="27" customFormat="1">
-      <c r="A186" s="36" t="s">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
+    </row>
+    <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A189" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
-    </row>
-    <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="59" t="s">
+      <c r="B189" s="63"/>
+      <c r="C189" s="64"/>
+    </row>
+    <row r="190" spans="1:3" s="37" customFormat="1">
+      <c r="A190" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="B188" s="60"/>
-      <c r="C188" s="61"/>
-    </row>
-    <row r="189" spans="1:3" s="37" customFormat="1">
-      <c r="A189" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B189" s="36"/>
-    </row>
-    <row r="190" spans="1:3" s="37" customFormat="1">
-      <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="191" spans="1:3" s="37" customFormat="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A192" s="59" t="s">
+    <row r="192" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A193" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="B192" s="60"/>
-      <c r="C192" s="61"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C193" s="22"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="64"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" s="22"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C194" s="20"/>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="59" t="s">
+      <c r="C195" s="20"/>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="198" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A198" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="60"/>
-      <c r="C197" s="61"/>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B198" s="2"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="64"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
-        <v>38</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="1:3" s="32" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:3" s="52" customFormat="1">
-      <c r="A202" s="53" t="s">
-        <v>306</v>
+    <row r="202" spans="1:3" s="32" customFormat="1">
+      <c r="A202" s="33" t="s">
+        <v>271</v>
       </c>
       <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:3" s="52" customFormat="1">
-      <c r="A203" s="53"/>
+      <c r="A203" s="53" t="s">
+        <v>305</v>
+      </c>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+    <row r="204" spans="1:3" s="52" customFormat="1">
       <c r="A204" s="53"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A205" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="B205" s="60"/>
-      <c r="C205" s="61"/>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="33" t="s">
+    <row r="205" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A205" s="53"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A206" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" s="63"/>
+      <c r="C206" s="64"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="C206" s="10"/>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="35" t="s">
-        <v>219</v>
-      </c>
+      <c r="C207" s="10"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A209" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B209" s="1"/>
-    </row>
     <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A210" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="61"/>
+      <c r="A210" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="35"/>
-      <c r="B211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A212" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B212" s="60"/>
-      <c r="C212" s="61"/>
-    </row>
-    <row r="213" spans="1:3" s="25" customFormat="1">
-      <c r="A213" s="33" t="s">
+      <c r="A211" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" s="63"/>
+      <c r="C211" s="64"/>
+    </row>
+    <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A212" s="35"/>
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A213" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B213" s="63"/>
+      <c r="C213" s="64"/>
+    </row>
+    <row r="214" spans="1:3" s="25" customFormat="1">
+      <c r="A214" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="B213" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="33" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A220" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="B220" s="60"/>
-      <c r="C220" s="61"/>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="221" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A221" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B221" s="63"/>
+      <c r="C221" s="64"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A222" s="33" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A223" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="B223" s="60"/>
-      <c r="C223" s="61"/>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="33" t="s">
-        <v>239</v>
-      </c>
+      <c r="A223" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A224" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="B224" s="63"/>
+      <c r="C224" s="64"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="B228" s="60"/>
-      <c r="C228" s="61"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="33" t="s">
-        <v>211</v>
-      </c>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A229" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="63"/>
+      <c r="C229" s="64"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2995,376 +2996,400 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A234" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="B234" s="60"/>
-      <c r="C234" s="61"/>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C235" s="15"/>
+    <row r="232" spans="1:3">
+      <c r="A232" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A235" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235" s="63"/>
+      <c r="C235" s="64"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C236" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C236" s="15"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="33" t="s">
-        <v>245</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C237" s="16"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A239" s="43" t="s">
-        <v>292</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A240" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B240" s="60"/>
-      <c r="C240" s="61"/>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="A240" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A241" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B241" s="63"/>
+      <c r="C241" s="64"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="244" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A244" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="B244" s="60"/>
-      <c r="C244" s="61"/>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="33" t="s">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="245" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A245" s="62" t="s">
         <v>250</v>
       </c>
+      <c r="B245" s="63"/>
+      <c r="C245" s="64"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B247" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="69"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C248" s="13"/>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A250" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="B250" s="60"/>
-      <c r="C250" s="61"/>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="33" t="s">
+      <c r="C249" s="13"/>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A251" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" s="63"/>
+      <c r="C251" s="64"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A253" s="33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A252" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A253" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="B253" s="60"/>
-      <c r="C253" s="61"/>
-    </row>
-    <row r="254" spans="1:3" ht="30">
-      <c r="A254" s="33" t="s">
+    <row r="254" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A254" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="63"/>
+      <c r="C254" s="64"/>
+    </row>
+    <row r="255" spans="1:3" ht="30">
+      <c r="A255" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="33" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A259" s="62" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="258" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A258" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B258" s="60"/>
-      <c r="C258" s="61"/>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="33" t="s">
+      <c r="B259" s="63"/>
+      <c r="C259" s="64"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C260" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="55" t="s">
+    <row r="261" spans="1:3">
+      <c r="A261" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C261" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C262" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="C260" s="56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C261" s="57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" s="57" customFormat="1">
-      <c r="A262" s="58"/>
-      <c r="B262" s="58"/>
     </row>
     <row r="263" spans="1:3" s="57" customFormat="1">
       <c r="A263" s="58"/>
       <c r="B263" s="58"/>
     </row>
-    <row r="264" spans="1:3" s="57" customFormat="1" ht="15.75" thickBot="1">
+    <row r="264" spans="1:3" s="57" customFormat="1">
       <c r="A264" s="58"/>
       <c r="B264" s="58"/>
     </row>
-    <row r="265" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A265" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B265" s="60"/>
-      <c r="C265" s="61"/>
-    </row>
-    <row r="266" spans="1:3">
+    <row r="265" spans="1:3" s="57" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A265" s="58"/>
+      <c r="B265" s="58"/>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1">
       <c r="A266" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="63"/>
+      <c r="C266" s="64"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="63"/>
-      <c r="B267" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="269" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A269" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="B269" s="60"/>
-      <c r="C269" s="61"/>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="33" t="s">
-        <v>264</v>
-      </c>
+    <row r="268" spans="1:3">
+      <c r="A268" s="67"/>
+      <c r="B268" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A270" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="63"/>
+      <c r="C270" s="64"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="33" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="33" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A277" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B277" s="60"/>
-      <c r="C277" s="61"/>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A278" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B278" s="63"/>
+      <c r="C278" s="64"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="281" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A281" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="B281" s="60"/>
-      <c r="C281" s="61"/>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="44" t="s">
-        <v>294</v>
-      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A282" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B282" s="63"/>
+      <c r="C282" s="64"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="290" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A290" s="62" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="289" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A289" s="59" t="s">
+      <c r="B290" s="63"/>
+      <c r="C290" s="64"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="B289" s="60"/>
-      <c r="C289" s="61"/>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="292" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A292" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="B292" s="60"/>
-      <c r="C292" s="61"/>
-    </row>
-    <row r="295" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="296" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A296" s="59" t="s">
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A293" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="B296" s="60"/>
-      <c r="C296" s="61"/>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="54" t="s">
+      <c r="B293" s="63"/>
+      <c r="C293" s="64"/>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="297" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A297" s="62" t="s">
         <v>307</v>
       </c>
+      <c r="B297" s="63"/>
+      <c r="C297" s="64"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="301" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A301" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="B301" s="63"/>
+      <c r="C301" s="64"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="61" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3376,20 +3401,20 @@
     <hyperlink ref="B77" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
-    <hyperlink ref="B235" r:id="rId10"/>
-    <hyperlink ref="B149" r:id="rId11"/>
+    <hyperlink ref="B236" r:id="rId10"/>
+    <hyperlink ref="B150" r:id="rId11"/>
     <hyperlink ref="B45" r:id="rId12"/>
     <hyperlink ref="B78" r:id="rId13"/>
     <hyperlink ref="B72" r:id="rId14"/>
     <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B266" r:id="rId16"/>
+    <hyperlink ref="B267" r:id="rId16"/>
     <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId18"/>
     <hyperlink ref="B94" r:id="rId19"/>
     <hyperlink ref="B95" r:id="rId20"/>
     <hyperlink ref="B35" r:id="rId21"/>
-    <hyperlink ref="B141" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B254" r:id="rId23"/>
+    <hyperlink ref="B142" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B255" r:id="rId23"/>
     <hyperlink ref="B62" r:id="rId24"/>
     <hyperlink ref="B107" r:id="rId25"/>
     <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
@@ -3398,9 +3423,9 @@
     <hyperlink ref="B133" r:id="rId29"/>
     <hyperlink ref="B119" r:id="rId30"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B166" r:id="rId31"/>
-    <hyperlink ref="B213" r:id="rId32"/>
-    <hyperlink ref="B278" r:id="rId33"/>
+    <hyperlink ref="B167" r:id="rId31"/>
+    <hyperlink ref="B214" r:id="rId32"/>
+    <hyperlink ref="B279" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="314">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1249,7 +1249,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1262,6 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1557,11 +1557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2559,14 +2559,6 @@
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C149" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="150" spans="1:3">
       <c r="A150" s="33" t="s">
         <v>68</v>
@@ -2663,14 +2655,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="65"/>
+      <c r="C166" s="69"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="65"/>
+      <c r="C167" s="69"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -3082,10 +3074,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="68" t="s">
+      <c r="B248" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="69"/>
+      <c r="C248" s="68"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3188,7 +3180,7 @@
       <c r="C266" s="64"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="66" t="s">
+      <c r="A267" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3199,7 +3191,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="67"/>
+      <c r="A268" s="66"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
@@ -3353,19 +3345,21 @@
         <v>313</v>
       </c>
     </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3382,14 +3376,17 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="315">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>Eclipselink</t>
+  </si>
+  <si>
+    <t>MyBatis</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1240,6 +1243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1249,6 +1255,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1261,7 +1268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1557,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2388,11 +2394,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="65"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2430,11 +2436,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="62" t="s">
+      <c r="A131" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="65"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2496,11 +2502,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="65"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2545,11 +2551,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="62" t="s">
+      <c r="A146" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="65"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2577,11 +2583,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="62" t="s">
+      <c r="A154" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="63"/>
-      <c r="C154" s="64"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="65"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2634,11 +2640,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="62" t="s">
+      <c r="A164" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="63"/>
-      <c r="C164" s="64"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="65"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2655,14 +2661,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="69"/>
+      <c r="C166" s="66"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="69"/>
+      <c r="C167" s="66"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2671,11 +2677,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="63"/>
-      <c r="C171" s="64"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="65"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2710,11 +2716,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="63"/>
-      <c r="C179" s="64"/>
+      <c r="B179" s="64"/>
+      <c r="C179" s="65"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2739,11 +2745,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="62" t="s">
+      <c r="A184" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="63"/>
-      <c r="C184" s="64"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="65"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2768,11 +2774,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="62" t="s">
+      <c r="A189" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="63"/>
-      <c r="C189" s="64"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="65"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2789,11 +2795,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="62" t="s">
+      <c r="A193" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="63"/>
-      <c r="C193" s="64"/>
+      <c r="B193" s="64"/>
+      <c r="C193" s="65"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2809,11 +2815,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="62" t="s">
+      <c r="A198" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="63"/>
-      <c r="C198" s="64"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="65"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2853,11 +2859,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="62" t="s">
+      <c r="A206" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="63"/>
-      <c r="C206" s="64"/>
+      <c r="B206" s="64"/>
+      <c r="C206" s="65"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2882,22 +2888,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="62" t="s">
+      <c r="A211" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="63"/>
-      <c r="C211" s="64"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="65"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="62" t="s">
+      <c r="A213" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="63"/>
-      <c r="C213" s="64"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="65"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2934,11 +2940,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="62" t="s">
+      <c r="A221" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="63"/>
-      <c r="C221" s="64"/>
+      <c r="B221" s="64"/>
+      <c r="C221" s="65"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -2954,11 +2960,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="62" t="s">
+      <c r="A224" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="63"/>
-      <c r="C224" s="64"/>
+      <c r="B224" s="64"/>
+      <c r="C224" s="65"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -2972,11 +2978,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="62" t="s">
+      <c r="A229" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="63"/>
-      <c r="C229" s="64"/>
+      <c r="B229" s="64"/>
+      <c r="C229" s="65"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -2995,11 +3001,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="62" t="s">
+      <c r="A235" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="63"/>
-      <c r="C235" s="64"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="65"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3032,11 +3038,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="62" t="s">
+      <c r="A241" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="63"/>
-      <c r="C241" s="64"/>
+      <c r="B241" s="64"/>
+      <c r="C241" s="65"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3051,11 +3057,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="62" t="s">
+      <c r="A245" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="63"/>
-      <c r="C245" s="64"/>
+      <c r="B245" s="64"/>
+      <c r="C245" s="65"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3074,10 +3080,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="67" t="s">
+      <c r="B248" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="68"/>
+      <c r="C248" s="70"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3087,11 +3093,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="62" t="s">
+      <c r="A251" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="63"/>
-      <c r="C251" s="64"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="65"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3104,11 +3110,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="62" t="s">
+      <c r="A254" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="63"/>
-      <c r="C254" s="64"/>
+      <c r="B254" s="64"/>
+      <c r="C254" s="65"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3130,11 +3136,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="62" t="s">
+      <c r="A259" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="63"/>
-      <c r="C259" s="64"/>
+      <c r="B259" s="64"/>
+      <c r="C259" s="65"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3173,14 +3179,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="62" t="s">
+      <c r="A266" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="63"/>
-      <c r="C266" s="64"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="65"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="65" t="s">
+      <c r="A267" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3191,18 +3197,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="66"/>
+      <c r="A268" s="68"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="62" t="s">
+      <c r="A270" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="63"/>
-      <c r="C270" s="64"/>
+      <c r="B270" s="64"/>
+      <c r="C270" s="65"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3236,11 +3242,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="62" t="s">
+      <c r="A278" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="63"/>
-      <c r="C278" s="64"/>
+      <c r="B278" s="64"/>
+      <c r="C278" s="65"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3257,11 +3263,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="62" t="s">
+      <c r="A282" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="63"/>
-      <c r="C282" s="64"/>
+      <c r="B282" s="64"/>
+      <c r="C282" s="65"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3295,11 +3301,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="62" t="s">
+      <c r="A290" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="63"/>
-      <c r="C290" s="64"/>
+      <c r="B290" s="64"/>
+      <c r="C290" s="65"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3308,19 +3314,19 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="62" t="s">
+      <c r="A293" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="B293" s="63"/>
-      <c r="C293" s="64"/>
+      <c r="B293" s="64"/>
+      <c r="C293" s="65"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="62" t="s">
+      <c r="A297" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="63"/>
-      <c r="C297" s="64"/>
+      <c r="B297" s="64"/>
+      <c r="C297" s="65"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3329,11 +3335,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="62" t="s">
+      <c r="A301" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="B301" s="63"/>
-      <c r="C301" s="64"/>
+      <c r="B301" s="64"/>
+      <c r="C301" s="65"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3350,16 +3356,24 @@
         <v>30</v>
       </c>
     </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="62" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3376,17 +3390,14 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1255,7 +1255,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1268,6 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1566,8 +1566,8 @@
   <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2661,14 +2661,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="66"/>
+      <c r="C166" s="70"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="66"/>
+      <c r="C167" s="70"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -3080,10 +3080,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="69" t="s">
+      <c r="B248" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="70"/>
+      <c r="C248" s="69"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3186,7 +3186,7 @@
       <c r="C266" s="65"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="67" t="s">
+      <c r="A267" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="68"/>
+      <c r="A268" s="67"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
@@ -3363,17 +3363,14 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3390,14 +3387,17 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="316">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -955,9 +955,6 @@
     <t>Google - s-Definitions-Google.xlsx</t>
   </si>
   <si>
-    <t>Hygieia - r_Definitions_Dashboard.xlsx</t>
-  </si>
-  <si>
     <t>HighCharts</t>
   </si>
   <si>
@@ -974,6 +971,12 @@
   </si>
   <si>
     <t>MyBatis</t>
+  </si>
+  <si>
+    <t>Hygieia</t>
+  </si>
+  <si>
+    <t>Dashboards - r_Definitions_Dashboard.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1246,6 +1249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1255,6 +1262,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1267,7 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1566,8 +1573,8 @@
   <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2394,11 +2401,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="63" t="s">
+      <c r="A124" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="64"/>
-      <c r="C124" s="65"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="67"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2436,11 +2443,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="63" t="s">
+      <c r="A131" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="64"/>
-      <c r="C131" s="65"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="67"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2497,16 +2504,16 @@
     </row>
     <row r="139" spans="1:3" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="63" t="s">
+      <c r="A140" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="64"/>
-      <c r="C140" s="65"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="67"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2551,11 +2558,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="63" t="s">
+      <c r="A146" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="64"/>
-      <c r="C146" s="65"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="67"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2583,11 +2590,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="63" t="s">
+      <c r="A154" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="64"/>
-      <c r="C154" s="65"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="67"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2640,11 +2647,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="63" t="s">
+      <c r="A164" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="64"/>
-      <c r="C164" s="65"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="67"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2661,14 +2668,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="70"/>
+      <c r="C166" s="68"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="70"/>
+      <c r="C167" s="68"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2677,11 +2684,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="63" t="s">
+      <c r="A171" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="64"/>
-      <c r="C171" s="65"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="67"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2716,11 +2723,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="63" t="s">
+      <c r="A179" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="64"/>
-      <c r="C179" s="65"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="67"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2745,11 +2752,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="63" t="s">
+      <c r="A184" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="64"/>
-      <c r="C184" s="65"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="67"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2774,11 +2781,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="63" t="s">
+      <c r="A189" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="64"/>
-      <c r="C189" s="65"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="67"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2795,11 +2802,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="63" t="s">
+      <c r="A193" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="64"/>
-      <c r="C193" s="65"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="67"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2815,11 +2822,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="63" t="s">
+      <c r="A198" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="64"/>
-      <c r="C198" s="65"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="67"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2859,11 +2866,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="63" t="s">
+      <c r="A206" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="64"/>
-      <c r="C206" s="65"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="67"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2888,22 +2895,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="63" t="s">
+      <c r="A211" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="64"/>
-      <c r="C211" s="65"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="67"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="63" t="s">
+      <c r="A213" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="64"/>
-      <c r="C213" s="65"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="67"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2940,11 +2947,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="63" t="s">
+      <c r="A221" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="64"/>
-      <c r="C221" s="65"/>
+      <c r="B221" s="66"/>
+      <c r="C221" s="67"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -2960,11 +2967,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="63" t="s">
+      <c r="A224" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="64"/>
-      <c r="C224" s="65"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="67"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -2978,11 +2985,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="63" t="s">
+      <c r="A229" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="64"/>
-      <c r="C229" s="65"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="67"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3001,11 +3008,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="63" t="s">
+      <c r="A235" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="64"/>
-      <c r="C235" s="65"/>
+      <c r="B235" s="66"/>
+      <c r="C235" s="67"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3038,11 +3045,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="63" t="s">
+      <c r="A241" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="64"/>
-      <c r="C241" s="65"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="67"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3057,11 +3064,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="63" t="s">
+      <c r="A245" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="64"/>
-      <c r="C245" s="65"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="67"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3080,10 +3087,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="68" t="s">
+      <c r="B248" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="69"/>
+      <c r="C248" s="72"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3093,11 +3100,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="63" t="s">
+      <c r="A251" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="64"/>
-      <c r="C251" s="65"/>
+      <c r="B251" s="66"/>
+      <c r="C251" s="67"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3110,11 +3117,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="63" t="s">
+      <c r="A254" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="64"/>
-      <c r="C254" s="65"/>
+      <c r="B254" s="66"/>
+      <c r="C254" s="67"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3136,11 +3143,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="63" t="s">
+      <c r="A259" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="64"/>
-      <c r="C259" s="65"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="67"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3152,7 +3159,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C261" s="56" t="s">
         <v>193</v>
@@ -3163,7 +3170,7 @@
         <v>128</v>
       </c>
       <c r="C262" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263" spans="1:3" s="57" customFormat="1">
@@ -3179,14 +3186,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="63" t="s">
+      <c r="A266" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="64"/>
-      <c r="C266" s="65"/>
+      <c r="B266" s="66"/>
+      <c r="C266" s="67"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="66" t="s">
+      <c r="A267" s="69" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3197,18 +3204,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="67"/>
+      <c r="A268" s="70"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="63" t="s">
+      <c r="A270" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="64"/>
-      <c r="C270" s="65"/>
+      <c r="B270" s="66"/>
+      <c r="C270" s="67"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3242,11 +3249,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="63" t="s">
+      <c r="A278" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="64"/>
-      <c r="C278" s="65"/>
+      <c r="B278" s="66"/>
+      <c r="C278" s="67"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3263,11 +3270,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="63" t="s">
+      <c r="A282" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="64"/>
-      <c r="C282" s="65"/>
+      <c r="B282" s="66"/>
+      <c r="C282" s="67"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3301,11 +3308,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="63" t="s">
+      <c r="A290" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="64"/>
-      <c r="C290" s="65"/>
+      <c r="B290" s="66"/>
+      <c r="C290" s="67"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3314,19 +3321,25 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="B293" s="64"/>
-      <c r="C293" s="65"/>
+      <c r="A293" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B293" s="66"/>
+      <c r="C293" s="67"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C294" s="64"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="63" t="s">
+      <c r="A297" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="64"/>
-      <c r="C297" s="65"/>
+      <c r="B297" s="66"/>
+      <c r="C297" s="67"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3335,11 +3348,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="B301" s="64"/>
-      <c r="C301" s="65"/>
+      <c r="A301" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B301" s="66"/>
+      <c r="C301" s="67"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3348,7 +3361,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3358,19 +3371,22 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3387,17 +3403,14 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="318">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -977,6 +977,12 @@
   </si>
   <si>
     <t>Dashboards - r_Definitions_Dashboard.xlsx</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>Apache Server</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1253,6 +1259,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1262,7 +1272,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1275,6 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1570,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A294" sqref="A294"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2388,7 +2398,7 @@
       <c r="A122" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="65" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2401,11 +2411,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="65" t="s">
+      <c r="A124" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="66"/>
-      <c r="C124" s="67"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2443,11 +2453,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="65" t="s">
+      <c r="A131" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="66"/>
-      <c r="C131" s="67"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="69"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2509,11 +2519,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="66"/>
-      <c r="C140" s="67"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="69"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2558,11 +2568,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="65" t="s">
+      <c r="A146" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="66"/>
-      <c r="C146" s="67"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="69"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2590,11 +2600,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="65" t="s">
+      <c r="A154" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="66"/>
-      <c r="C154" s="67"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="69"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2647,11 +2657,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="65" t="s">
+      <c r="A164" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="66"/>
-      <c r="C164" s="67"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="69"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2668,14 +2678,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="68"/>
+      <c r="C166" s="74"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="68"/>
+      <c r="C167" s="74"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2684,11 +2694,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="65" t="s">
+      <c r="A171" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="66"/>
-      <c r="C171" s="67"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="69"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2723,11 +2733,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="65" t="s">
+      <c r="A179" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="66"/>
-      <c r="C179" s="67"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="69"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2752,11 +2762,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="65" t="s">
+      <c r="A184" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="66"/>
-      <c r="C184" s="67"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="69"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2781,11 +2791,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="65" t="s">
+      <c r="A189" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="66"/>
-      <c r="C189" s="67"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="69"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2802,11 +2812,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="65" t="s">
+      <c r="A193" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="66"/>
-      <c r="C193" s="67"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="69"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2822,11 +2832,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="65" t="s">
+      <c r="A198" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="66"/>
-      <c r="C198" s="67"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="69"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2866,11 +2876,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="65" t="s">
+      <c r="A206" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="66"/>
-      <c r="C206" s="67"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="69"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2895,22 +2905,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="66"/>
-      <c r="C211" s="67"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="69"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="66"/>
-      <c r="C213" s="67"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="69"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2947,11 +2957,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="65" t="s">
+      <c r="A221" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="66"/>
-      <c r="C221" s="67"/>
+      <c r="B221" s="68"/>
+      <c r="C221" s="69"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -2967,11 +2977,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="65" t="s">
+      <c r="A224" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="66"/>
-      <c r="C224" s="67"/>
+      <c r="B224" s="68"/>
+      <c r="C224" s="69"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -2985,11 +2995,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="65" t="s">
+      <c r="A229" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="66"/>
-      <c r="C229" s="67"/>
+      <c r="B229" s="68"/>
+      <c r="C229" s="69"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3008,11 +3018,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="65" t="s">
+      <c r="A235" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="66"/>
-      <c r="C235" s="67"/>
+      <c r="B235" s="68"/>
+      <c r="C235" s="69"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3045,11 +3055,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="65" t="s">
+      <c r="A241" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="66"/>
-      <c r="C241" s="67"/>
+      <c r="B241" s="68"/>
+      <c r="C241" s="69"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3064,11 +3074,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="65" t="s">
+      <c r="A245" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="66"/>
-      <c r="C245" s="67"/>
+      <c r="B245" s="68"/>
+      <c r="C245" s="69"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3087,10 +3097,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="71" t="s">
+      <c r="B248" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="72"/>
+      <c r="C248" s="73"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3100,11 +3110,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="65" t="s">
+      <c r="A251" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="66"/>
-      <c r="C251" s="67"/>
+      <c r="B251" s="68"/>
+      <c r="C251" s="69"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3117,11 +3127,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="65" t="s">
+      <c r="A254" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="66"/>
-      <c r="C254" s="67"/>
+      <c r="B254" s="68"/>
+      <c r="C254" s="69"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3143,11 +3153,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="65" t="s">
+      <c r="A259" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="66"/>
-      <c r="C259" s="67"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="69"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3186,14 +3196,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="65" t="s">
+      <c r="A266" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="66"/>
-      <c r="C266" s="67"/>
+      <c r="B266" s="68"/>
+      <c r="C266" s="69"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="69" t="s">
+      <c r="A267" s="70" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3204,18 +3214,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="70"/>
+      <c r="A268" s="71"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="65" t="s">
+      <c r="A270" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="66"/>
-      <c r="C270" s="67"/>
+      <c r="B270" s="68"/>
+      <c r="C270" s="69"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3249,11 +3259,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="65" t="s">
+      <c r="A278" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="66"/>
-      <c r="C278" s="67"/>
+      <c r="B278" s="68"/>
+      <c r="C278" s="69"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3270,11 +3280,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="65" t="s">
+      <c r="A282" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="66"/>
-      <c r="C282" s="67"/>
+      <c r="B282" s="68"/>
+      <c r="C282" s="69"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3308,11 +3318,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="65" t="s">
+      <c r="A290" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="66"/>
-      <c r="C290" s="67"/>
+      <c r="B290" s="68"/>
+      <c r="C290" s="69"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3321,11 +3331,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="65" t="s">
+      <c r="A293" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="B293" s="66"/>
-      <c r="C293" s="67"/>
+      <c r="B293" s="68"/>
+      <c r="C293" s="69"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3335,11 +3345,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="65" t="s">
+      <c r="A297" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="66"/>
-      <c r="C297" s="67"/>
+      <c r="B297" s="68"/>
+      <c r="C297" s="69"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3348,11 +3358,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="65" t="s">
+      <c r="A301" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="B301" s="66"/>
-      <c r="C301" s="67"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="69"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3369,24 +3379,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:3">
       <c r="A305" s="62" t="s">
         <v>313</v>
       </c>
     </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C308" s="65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C309" s="65" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3403,14 +3426,17 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="321">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -983,6 +983,15 @@
   </si>
   <si>
     <t>Apache Server</t>
+  </si>
+  <si>
+    <t>Version Control tools - v-Definitions-VersionController.xlsx</t>
+  </si>
+  <si>
+    <t>GitLab</t>
+  </si>
+  <si>
+    <t>BitBucket</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1263,6 +1272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1272,6 +1284,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1284,7 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1580,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B309" sqref="B309"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,14 +1743,6 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
     <row r="16" spans="1:4">
       <c r="A16" s="33" t="s">
         <v>34</v>
@@ -1986,11 +1990,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="60" spans="1:3">
       <c r="A60" s="33" t="s">
         <v>92</v>
@@ -2411,11 +2410,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="67" t="s">
+      <c r="A124" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="68"/>
-      <c r="C124" s="69"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="70"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2453,11 +2452,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="67" t="s">
+      <c r="A131" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="68"/>
-      <c r="C131" s="69"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="70"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2519,11 +2518,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="67" t="s">
+      <c r="A140" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="68"/>
-      <c r="C140" s="69"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="70"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2568,11 +2567,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="67" t="s">
+      <c r="A146" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="68"/>
-      <c r="C146" s="69"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="70"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2600,11 +2599,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="67" t="s">
+      <c r="A154" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="68"/>
-      <c r="C154" s="69"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="70"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2657,11 +2656,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="67" t="s">
+      <c r="A164" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="68"/>
-      <c r="C164" s="69"/>
+      <c r="B164" s="69"/>
+      <c r="C164" s="70"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2678,14 +2677,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="74"/>
+      <c r="C166" s="71"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="74"/>
+      <c r="C167" s="71"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2694,11 +2693,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="67" t="s">
+      <c r="A171" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="68"/>
-      <c r="C171" s="69"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="70"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2733,11 +2732,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="67" t="s">
+      <c r="A179" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="68"/>
-      <c r="C179" s="69"/>
+      <c r="B179" s="69"/>
+      <c r="C179" s="70"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2762,11 +2761,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="67" t="s">
+      <c r="A184" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="68"/>
-      <c r="C184" s="69"/>
+      <c r="B184" s="69"/>
+      <c r="C184" s="70"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2791,11 +2790,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="67" t="s">
+      <c r="A189" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="68"/>
-      <c r="C189" s="69"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="70"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2812,11 +2811,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="67" t="s">
+      <c r="A193" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="68"/>
-      <c r="C193" s="69"/>
+      <c r="B193" s="69"/>
+      <c r="C193" s="70"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2832,11 +2831,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="67" t="s">
+      <c r="A198" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="68"/>
-      <c r="C198" s="69"/>
+      <c r="B198" s="69"/>
+      <c r="C198" s="70"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2876,11 +2875,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="67" t="s">
+      <c r="A206" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="68"/>
-      <c r="C206" s="69"/>
+      <c r="B206" s="69"/>
+      <c r="C206" s="70"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2905,22 +2904,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="67" t="s">
+      <c r="A211" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="68"/>
-      <c r="C211" s="69"/>
+      <c r="B211" s="69"/>
+      <c r="C211" s="70"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="67" t="s">
+      <c r="A213" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="68"/>
-      <c r="C213" s="69"/>
+      <c r="B213" s="69"/>
+      <c r="C213" s="70"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2957,11 +2956,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="67" t="s">
+      <c r="A221" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="68"/>
-      <c r="C221" s="69"/>
+      <c r="B221" s="69"/>
+      <c r="C221" s="70"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -2977,11 +2976,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="67" t="s">
+      <c r="A224" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="68"/>
-      <c r="C224" s="69"/>
+      <c r="B224" s="69"/>
+      <c r="C224" s="70"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -2995,11 +2994,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="67" t="s">
+      <c r="A229" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="68"/>
-      <c r="C229" s="69"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="70"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3018,11 +3017,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="67" t="s">
+      <c r="A235" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="68"/>
-      <c r="C235" s="69"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="70"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3055,11 +3054,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="67" t="s">
+      <c r="A241" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="68"/>
-      <c r="C241" s="69"/>
+      <c r="B241" s="69"/>
+      <c r="C241" s="70"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3074,11 +3073,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="67" t="s">
+      <c r="A245" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="68"/>
-      <c r="C245" s="69"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="70"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3097,10 +3096,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="72" t="s">
+      <c r="B248" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="73"/>
+      <c r="C248" s="75"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3110,11 +3109,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="67" t="s">
+      <c r="A251" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="68"/>
-      <c r="C251" s="69"/>
+      <c r="B251" s="69"/>
+      <c r="C251" s="70"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3127,11 +3126,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="67" t="s">
+      <c r="A254" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="68"/>
-      <c r="C254" s="69"/>
+      <c r="B254" s="69"/>
+      <c r="C254" s="70"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3153,11 +3152,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="67" t="s">
+      <c r="A259" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="68"/>
-      <c r="C259" s="69"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="70"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3196,14 +3195,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="67" t="s">
+      <c r="A266" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="68"/>
-      <c r="C266" s="69"/>
+      <c r="B266" s="69"/>
+      <c r="C266" s="70"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="70" t="s">
+      <c r="A267" s="72" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3214,18 +3213,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="71"/>
+      <c r="A268" s="73"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="67" t="s">
+      <c r="A270" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="68"/>
-      <c r="C270" s="69"/>
+      <c r="B270" s="69"/>
+      <c r="C270" s="70"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3259,11 +3258,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="67" t="s">
+      <c r="A278" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="68"/>
-      <c r="C278" s="69"/>
+      <c r="B278" s="69"/>
+      <c r="C278" s="70"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3280,11 +3279,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="67" t="s">
+      <c r="A282" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="68"/>
-      <c r="C282" s="69"/>
+      <c r="B282" s="69"/>
+      <c r="C282" s="70"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3318,11 +3317,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="67" t="s">
+      <c r="A290" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="68"/>
-      <c r="C290" s="69"/>
+      <c r="B290" s="69"/>
+      <c r="C290" s="70"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3331,11 +3330,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="67" t="s">
+      <c r="A293" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="B293" s="68"/>
-      <c r="C293" s="69"/>
+      <c r="B293" s="69"/>
+      <c r="C293" s="70"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3345,11 +3344,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="67" t="s">
+      <c r="A297" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="68"/>
-      <c r="C297" s="69"/>
+      <c r="B297" s="69"/>
+      <c r="C297" s="70"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3358,11 +3357,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="67" t="s">
+      <c r="A301" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="B301" s="68"/>
-      <c r="C301" s="69"/>
+      <c r="B301" s="69"/>
+      <c r="C301" s="70"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3400,16 +3399,49 @@
         <v>199</v>
       </c>
     </row>
+    <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="312" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A312" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312" s="69"/>
+      <c r="C312" s="70"/>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" s="50"/>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="67" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
+  <mergeCells count="36">
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A189:C189"/>
@@ -3426,17 +3458,14 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="C166:C167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="330">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -992,6 +992,33 @@
   </si>
   <si>
     <t>BitBucket</t>
+  </si>
+  <si>
+    <t>Python - w-Definitions-Python.xlsx</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>For web development</t>
+  </si>
+  <si>
+    <t>Tensor Flow</t>
+  </si>
+  <si>
+    <t>for artifical intelligence</t>
+  </si>
+  <si>
+    <t>SCIPY</t>
+  </si>
+  <si>
+    <t>for scientific computations</t>
+  </si>
+  <si>
+    <t>PYQT</t>
+  </si>
+  <si>
+    <t>cross platform desktop applications</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1269,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1592,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2410,11 +2440,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="68" t="s">
+      <c r="A124" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="69"/>
-      <c r="C124" s="70"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="71"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2452,11 +2482,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="68" t="s">
+      <c r="A131" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="69"/>
-      <c r="C131" s="70"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="71"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2518,11 +2548,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="68" t="s">
+      <c r="A140" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="69"/>
-      <c r="C140" s="70"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="71"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2567,11 +2597,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="68" t="s">
+      <c r="A146" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="69"/>
-      <c r="C146" s="70"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="71"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2599,11 +2629,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="68" t="s">
+      <c r="A154" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="69"/>
-      <c r="C154" s="70"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="71"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2656,11 +2686,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="69"/>
-      <c r="C164" s="70"/>
+      <c r="B164" s="70"/>
+      <c r="C164" s="71"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2677,14 +2707,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="71"/>
+      <c r="C166" s="72"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="71"/>
+      <c r="C167" s="72"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2693,11 +2723,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="70"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="71"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2732,11 +2762,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="68" t="s">
+      <c r="A179" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="69"/>
-      <c r="C179" s="70"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="71"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2761,11 +2791,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="68" t="s">
+      <c r="A184" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="69"/>
-      <c r="C184" s="70"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="71"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2790,11 +2820,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="68" t="s">
+      <c r="A189" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="69"/>
-      <c r="C189" s="70"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="71"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2811,11 +2841,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="68" t="s">
+      <c r="A193" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="69"/>
-      <c r="C193" s="70"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="71"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2831,11 +2861,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="68" t="s">
+      <c r="A198" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="69"/>
-      <c r="C198" s="70"/>
+      <c r="B198" s="70"/>
+      <c r="C198" s="71"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2875,11 +2905,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="68" t="s">
+      <c r="A206" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="69"/>
-      <c r="C206" s="70"/>
+      <c r="B206" s="70"/>
+      <c r="C206" s="71"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2904,22 +2934,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="68" t="s">
+      <c r="A211" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="69"/>
-      <c r="C211" s="70"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="71"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="69"/>
-      <c r="C213" s="70"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="71"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2956,11 +2986,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="68" t="s">
+      <c r="A221" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="69"/>
-      <c r="C221" s="70"/>
+      <c r="B221" s="70"/>
+      <c r="C221" s="71"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -2976,11 +3006,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="68" t="s">
+      <c r="A224" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="69"/>
-      <c r="C224" s="70"/>
+      <c r="B224" s="70"/>
+      <c r="C224" s="71"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -2994,11 +3024,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="68" t="s">
+      <c r="A229" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="69"/>
-      <c r="C229" s="70"/>
+      <c r="B229" s="70"/>
+      <c r="C229" s="71"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3017,11 +3047,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="68" t="s">
+      <c r="A235" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="69"/>
-      <c r="C235" s="70"/>
+      <c r="B235" s="70"/>
+      <c r="C235" s="71"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3054,11 +3084,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="68" t="s">
+      <c r="A241" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="69"/>
-      <c r="C241" s="70"/>
+      <c r="B241" s="70"/>
+      <c r="C241" s="71"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3073,11 +3103,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="68" t="s">
+      <c r="A245" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="69"/>
-      <c r="C245" s="70"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="71"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3096,10 +3126,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="74" t="s">
+      <c r="B248" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="75"/>
+      <c r="C248" s="76"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3109,11 +3139,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="68" t="s">
+      <c r="A251" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="69"/>
-      <c r="C251" s="70"/>
+      <c r="B251" s="70"/>
+      <c r="C251" s="71"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3126,11 +3156,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="68" t="s">
+      <c r="A254" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="69"/>
-      <c r="C254" s="70"/>
+      <c r="B254" s="70"/>
+      <c r="C254" s="71"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3152,11 +3182,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="68" t="s">
+      <c r="A259" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="69"/>
-      <c r="C259" s="70"/>
+      <c r="B259" s="70"/>
+      <c r="C259" s="71"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3195,14 +3225,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="68" t="s">
+      <c r="A266" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="69"/>
-      <c r="C266" s="70"/>
+      <c r="B266" s="70"/>
+      <c r="C266" s="71"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="72" t="s">
+      <c r="A267" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3213,18 +3243,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="73"/>
+      <c r="A268" s="74"/>
       <c r="B268" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="68" t="s">
+      <c r="A270" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="69"/>
-      <c r="C270" s="70"/>
+      <c r="B270" s="70"/>
+      <c r="C270" s="71"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3258,11 +3288,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="68" t="s">
+      <c r="A278" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="69"/>
-      <c r="C278" s="70"/>
+      <c r="B278" s="70"/>
+      <c r="C278" s="71"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3279,11 +3309,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="68" t="s">
+      <c r="A282" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="69"/>
-      <c r="C282" s="70"/>
+      <c r="B282" s="70"/>
+      <c r="C282" s="71"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3317,11 +3347,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="68" t="s">
+      <c r="A290" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="69"/>
-      <c r="C290" s="70"/>
+      <c r="B290" s="70"/>
+      <c r="C290" s="71"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3330,11 +3360,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="68" t="s">
+      <c r="A293" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="B293" s="69"/>
-      <c r="C293" s="70"/>
+      <c r="B293" s="70"/>
+      <c r="C293" s="71"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3344,11 +3374,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="68" t="s">
+      <c r="A297" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="69"/>
-      <c r="C297" s="70"/>
+      <c r="B297" s="70"/>
+      <c r="C297" s="71"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3357,11 +3387,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="68" t="s">
+      <c r="A301" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="B301" s="69"/>
-      <c r="C301" s="70"/>
+      <c r="B301" s="70"/>
+      <c r="C301" s="71"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3401,11 +3431,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="68" t="s">
+      <c r="A312" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="B312" s="69"/>
-      <c r="C312" s="70"/>
+      <c r="B312" s="70"/>
+      <c r="C312" s="71"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3428,8 +3458,48 @@
         <v>320</v>
       </c>
     </row>
+    <row r="317" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="318" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A318" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318" s="70"/>
+      <c r="C318" s="71"/>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319" s="68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B320" s="68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="B321" s="68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="B322" s="68" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="A312:C312"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A213:C213"/>
@@ -3442,13 +3512,6 @@
     <mergeCell ref="A224:C224"/>
     <mergeCell ref="A229:C229"/>
     <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A198:C198"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="B248:C248"/>
     <mergeCell ref="A206:C206"/>
@@ -3458,6 +3521,7 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A318:C318"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A171:C171"/>
@@ -3466,6 +3530,13 @@
     <mergeCell ref="A154:C154"/>
     <mergeCell ref="A164:C164"/>
     <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A198:C198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="331">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>cross platform desktop applications</t>
+  </si>
+  <si>
+    <t>Flask</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1305,6 +1308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1314,7 +1320,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1327,6 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1622,11 +1628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2440,11 +2446,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="69" t="s">
+      <c r="A124" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B124" s="70"/>
-      <c r="C124" s="71"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="72"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2482,11 +2488,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="69" t="s">
+      <c r="A131" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="B131" s="70"/>
-      <c r="C131" s="71"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="72"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2548,11 +2554,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="69" t="s">
+      <c r="A140" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="B140" s="70"/>
-      <c r="C140" s="71"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="72"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2597,11 +2603,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="70"/>
-      <c r="C146" s="71"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="72"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2629,11 +2635,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="69" t="s">
+      <c r="A154" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="B154" s="70"/>
-      <c r="C154" s="71"/>
+      <c r="B154" s="71"/>
+      <c r="C154" s="72"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2686,11 +2692,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="69" t="s">
+      <c r="A164" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="B164" s="70"/>
-      <c r="C164" s="71"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="72"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2707,14 +2713,14 @@
       <c r="B166" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="72"/>
+      <c r="C166" s="77"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C167" s="72"/>
+      <c r="C167" s="77"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2723,11 +2729,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="69" t="s">
+      <c r="A171" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="B171" s="70"/>
-      <c r="C171" s="71"/>
+      <c r="B171" s="71"/>
+      <c r="C171" s="72"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2762,11 +2768,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="69" t="s">
+      <c r="A179" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="B179" s="70"/>
-      <c r="C179" s="71"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="72"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2791,11 +2797,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="69" t="s">
+      <c r="A184" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B184" s="70"/>
-      <c r="C184" s="71"/>
+      <c r="B184" s="71"/>
+      <c r="C184" s="72"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2820,11 +2826,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="69" t="s">
+      <c r="A189" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="B189" s="70"/>
-      <c r="C189" s="71"/>
+      <c r="B189" s="71"/>
+      <c r="C189" s="72"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2841,11 +2847,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="69" t="s">
+      <c r="A193" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="70"/>
-      <c r="C193" s="71"/>
+      <c r="B193" s="71"/>
+      <c r="C193" s="72"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2861,11 +2867,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="69" t="s">
+      <c r="A198" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B198" s="70"/>
-      <c r="C198" s="71"/>
+      <c r="B198" s="71"/>
+      <c r="C198" s="72"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2905,11 +2911,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="69" t="s">
+      <c r="A206" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B206" s="70"/>
-      <c r="C206" s="71"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="72"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2934,22 +2940,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="69" t="s">
+      <c r="A211" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="B211" s="70"/>
-      <c r="C211" s="71"/>
+      <c r="B211" s="71"/>
+      <c r="C211" s="72"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="69" t="s">
+      <c r="A213" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="B213" s="70"/>
-      <c r="C213" s="71"/>
+      <c r="B213" s="71"/>
+      <c r="C213" s="72"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2986,11 +2992,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="69" t="s">
+      <c r="A221" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="B221" s="70"/>
-      <c r="C221" s="71"/>
+      <c r="B221" s="71"/>
+      <c r="C221" s="72"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -3006,11 +3012,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="69" t="s">
+      <c r="A224" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B224" s="70"/>
-      <c r="C224" s="71"/>
+      <c r="B224" s="71"/>
+      <c r="C224" s="72"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -3024,11 +3030,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="69" t="s">
+      <c r="A229" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="B229" s="70"/>
-      <c r="C229" s="71"/>
+      <c r="B229" s="71"/>
+      <c r="C229" s="72"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3047,11 +3053,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="69" t="s">
+      <c r="A235" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="70"/>
-      <c r="C235" s="71"/>
+      <c r="B235" s="71"/>
+      <c r="C235" s="72"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3084,11 +3090,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="69" t="s">
+      <c r="A241" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="70"/>
-      <c r="C241" s="71"/>
+      <c r="B241" s="71"/>
+      <c r="C241" s="72"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3103,11 +3109,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="69" t="s">
+      <c r="A245" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B245" s="70"/>
-      <c r="C245" s="71"/>
+      <c r="B245" s="71"/>
+      <c r="C245" s="72"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3139,11 +3145,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="69" t="s">
+      <c r="A251" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="70"/>
-      <c r="C251" s="71"/>
+      <c r="B251" s="71"/>
+      <c r="C251" s="72"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3156,11 +3162,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="69" t="s">
+      <c r="A254" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="70"/>
-      <c r="C254" s="71"/>
+      <c r="B254" s="71"/>
+      <c r="C254" s="72"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3182,11 +3188,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="69" t="s">
+      <c r="A259" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="70"/>
-      <c r="C259" s="71"/>
+      <c r="B259" s="71"/>
+      <c r="C259" s="72"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3225,11 +3231,11 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="69" t="s">
+      <c r="A266" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="70"/>
-      <c r="C266" s="71"/>
+      <c r="B266" s="71"/>
+      <c r="C266" s="72"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="73" t="s">
@@ -3250,11 +3256,11 @@
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="69" t="s">
+      <c r="A270" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="70"/>
-      <c r="C270" s="71"/>
+      <c r="B270" s="71"/>
+      <c r="C270" s="72"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3288,11 +3294,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="69" t="s">
+      <c r="A278" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="B278" s="70"/>
-      <c r="C278" s="71"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="72"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3309,11 +3315,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="69" t="s">
+      <c r="A282" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="B282" s="70"/>
-      <c r="C282" s="71"/>
+      <c r="B282" s="71"/>
+      <c r="C282" s="72"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3347,11 +3353,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="69" t="s">
+      <c r="A290" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="70"/>
-      <c r="C290" s="71"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="72"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3360,11 +3366,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="69" t="s">
+      <c r="A293" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="B293" s="70"/>
-      <c r="C293" s="71"/>
+      <c r="B293" s="71"/>
+      <c r="C293" s="72"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3374,11 +3380,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="69" t="s">
+      <c r="A297" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="70"/>
-      <c r="C297" s="71"/>
+      <c r="B297" s="71"/>
+      <c r="C297" s="72"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3387,11 +3393,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="69" t="s">
+      <c r="A301" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="B301" s="70"/>
-      <c r="C301" s="71"/>
+      <c r="B301" s="71"/>
+      <c r="C301" s="72"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3431,11 +3437,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="69" t="s">
+      <c r="A312" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B312" s="70"/>
-      <c r="C312" s="71"/>
+      <c r="B312" s="71"/>
+      <c r="C312" s="72"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3460,11 +3466,11 @@
     </row>
     <row r="317" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="318" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A318" s="69" t="s">
+      <c r="A318" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="B318" s="70"/>
-      <c r="C318" s="71"/>
+      <c r="B318" s="71"/>
+      <c r="C318" s="72"/>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="68" t="s">
@@ -3498,29 +3504,13 @@
         <v>329</v>
       </c>
     </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A318:C318"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
@@ -3537,6 +3527,27 @@
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
     <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="331">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Lucene</t>
   </si>
   <si>
-    <t>http://www.tutorialspoint.com/lucene/index.htm</t>
-  </si>
-  <si>
     <t>Log4J</t>
   </si>
   <si>
@@ -1022,6 +1019,9 @@
   </si>
   <si>
     <t>Flask</t>
+  </si>
+  <si>
+    <t>Solr</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1299,6 +1299,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1631,8 +1634,8 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1644,16 +1647,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1664,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1672,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1683,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -1705,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -1713,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -1724,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60">
@@ -1735,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
@@ -1746,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1757,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1765,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
@@ -1776,7 +1779,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1784,7 +1787,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1792,7 +1795,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1800,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
@@ -1808,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1820,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1867,7 +1870,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1942,70 +1945,70 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2015,233 +2018,233 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
       <c r="A76" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="9" customFormat="1">
       <c r="A87" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:3" s="9" customFormat="1">
       <c r="A88" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:3" s="9" customFormat="1">
       <c r="A89" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
       <c r="A90" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2251,321 +2254,321 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
       <c r="A95" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30">
       <c r="A119" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="65" t="s">
         <v>198</v>
-      </c>
-      <c r="C122" s="65" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1">
       <c r="A123" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B124" s="71"/>
-      <c r="C124" s="72"/>
+      <c r="A124" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="72"/>
+      <c r="C124" s="73"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C127" s="22"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C128" s="22"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="29" customFormat="1" ht="15.75" thickBot="1">
       <c r="A130" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="B131" s="71"/>
-      <c r="C131" s="72"/>
+      <c r="A131" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="72"/>
+      <c r="C131" s="73"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="28" customFormat="1">
       <c r="A137" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="32" customFormat="1">
       <c r="A138" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B138" s="33"/>
     </row>
     <row r="139" spans="1:3" s="59" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="B140" s="71"/>
-      <c r="C140" s="72"/>
+      <c r="A140" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" s="72"/>
+      <c r="C140" s="73"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2574,72 +2577,56 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
       <c r="A145" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B145" s="38"/>
       <c r="C145" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="B146" s="71"/>
-      <c r="C146" s="72"/>
+      <c r="A146" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="72"/>
+      <c r="C146" s="73"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="51" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="B154" s="71"/>
-      <c r="C154" s="72"/>
+      <c r="A154" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B154" s="72"/>
+      <c r="C154" s="73"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2652,58 +2639,58 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="22"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="22"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="B164" s="71"/>
-      <c r="C164" s="72"/>
+      <c r="A164" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="B164" s="72"/>
+      <c r="C164" s="73"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30">
@@ -2711,56 +2698,56 @@
         <v>28</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C166" s="77"/>
+        <v>208</v>
+      </c>
+      <c r="C166" s="78"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C167" s="77"/>
+        <v>209</v>
+      </c>
+      <c r="C167" s="78"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="B171" s="71"/>
-      <c r="C171" s="72"/>
+      <c r="A171" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="72"/>
+      <c r="C171" s="73"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C172" s="22"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
       <c r="A175" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="22"/>
     </row>
     <row r="176" spans="1:3" s="24" customFormat="1">
       <c r="A176" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B176" s="1"/>
     </row>
@@ -2768,27 +2755,27 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="B179" s="71"/>
-      <c r="C179" s="72"/>
+      <c r="A179" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="B179" s="72"/>
+      <c r="C179" s="73"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B180" s="36"/>
     </row>
     <row r="181" spans="1:3" s="37" customFormat="1">
       <c r="A181" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181" s="36"/>
     </row>
     <row r="182" spans="1:3" s="37" customFormat="1">
       <c r="A182" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B182" s="36"/>
     </row>
@@ -2797,27 +2784,27 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="B184" s="71"/>
-      <c r="C184" s="72"/>
+      <c r="A184" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="B184" s="72"/>
+      <c r="C184" s="73"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B185" s="36"/>
     </row>
     <row r="186" spans="1:3" s="37" customFormat="1">
       <c r="A186" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B186" s="36"/>
     </row>
     <row r="187" spans="1:3" s="27" customFormat="1">
       <c r="A187" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B187" s="1"/>
     </row>
@@ -2826,15 +2813,15 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="B189" s="71"/>
-      <c r="C189" s="72"/>
+      <c r="A189" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="B189" s="72"/>
+      <c r="C189" s="73"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" s="36"/>
     </row>
@@ -2847,11 +2834,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B193" s="71"/>
-      <c r="C193" s="72"/>
+      <c r="A193" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193" s="72"/>
+      <c r="C193" s="73"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2861,21 +2848,21 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" s="20"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="71"/>
-      <c r="C198" s="72"/>
+      <c r="A198" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B198" s="72"/>
+      <c r="C198" s="73"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B199" s="2"/>
     </row>
@@ -2886,19 +2873,19 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:3" s="32" customFormat="1">
       <c r="A202" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:3" s="52" customFormat="1">
       <c r="A203" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B203" s="2"/>
     </row>
@@ -2911,194 +2898,194 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B206" s="71"/>
-      <c r="C206" s="72"/>
+      <c r="A206" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" s="72"/>
+      <c r="C206" s="73"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C207" s="10"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A210" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="B211" s="71"/>
-      <c r="C211" s="72"/>
+      <c r="A211" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="72"/>
+      <c r="C211" s="73"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B213" s="71"/>
-      <c r="C213" s="72"/>
+      <c r="A213" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B213" s="72"/>
+      <c r="C213" s="73"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B214" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="B214" s="26" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="B221" s="71"/>
-      <c r="C221" s="72"/>
+      <c r="A221" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="72"/>
+      <c r="C221" s="73"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
       <c r="A223" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="B224" s="71"/>
-      <c r="C224" s="72"/>
+      <c r="A224" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="72"/>
+      <c r="C224" s="73"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B229" s="71"/>
-      <c r="C229" s="72"/>
+      <c r="A229" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="72"/>
+      <c r="C229" s="73"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B235" s="71"/>
-      <c r="C235" s="72"/>
+      <c r="A235" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" s="72"/>
+      <c r="C235" s="73"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C236" s="15"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C237" s="16"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" thickBot="1">
       <c r="A240" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B241" s="71"/>
-      <c r="C241" s="72"/>
+      <c r="A241" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" s="72"/>
+      <c r="C241" s="73"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3109,15 +3096,15 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245" s="71"/>
-      <c r="C245" s="72"/>
+      <c r="A245" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="72"/>
+      <c r="C245" s="73"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3132,10 +3119,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="75" t="s">
+      <c r="B248" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="76"/>
+      <c r="C248" s="77"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3145,77 +3132,77 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="B251" s="71"/>
-      <c r="C251" s="72"/>
+      <c r="A251" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" s="72"/>
+      <c r="C251" s="73"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" thickBot="1">
       <c r="A253" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="B254" s="71"/>
-      <c r="C254" s="72"/>
+      <c r="A254" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254" s="72"/>
+      <c r="C254" s="73"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" s="71"/>
-      <c r="C259" s="72"/>
+      <c r="A259" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" s="72"/>
+      <c r="C259" s="73"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C261" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C262" s="57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:3" s="57" customFormat="1">
@@ -3231,173 +3218,173 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="70" t="s">
+      <c r="A266" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="71"/>
-      <c r="C266" s="72"/>
+      <c r="B266" s="72"/>
+      <c r="C266" s="73"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="73" t="s">
+      <c r="A267" s="74" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C267" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="74"/>
+      <c r="A268" s="75"/>
       <c r="B268" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="B270" s="71"/>
-      <c r="C270" s="72"/>
+      <c r="A270" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="B270" s="72"/>
+      <c r="C270" s="73"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="B278" s="71"/>
-      <c r="C278" s="72"/>
+      <c r="A278" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="B278" s="72"/>
+      <c r="C278" s="73"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="70" t="s">
-        <v>292</v>
-      </c>
-      <c r="B282" s="71"/>
-      <c r="C282" s="72"/>
+      <c r="A282" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B282" s="72"/>
+      <c r="C282" s="73"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B290" s="71"/>
-      <c r="C290" s="72"/>
+      <c r="A290" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290" s="72"/>
+      <c r="C290" s="73"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="B293" s="71"/>
-      <c r="C293" s="72"/>
+      <c r="A293" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="B293" s="72"/>
+      <c r="C293" s="73"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C294" s="64"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="B297" s="71"/>
-      <c r="C297" s="72"/>
+      <c r="A297" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="B297" s="72"/>
+      <c r="C297" s="73"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="B301" s="71"/>
-      <c r="C301" s="72"/>
+      <c r="A301" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B301" s="72"/>
+      <c r="C301" s="73"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3406,7 +3393,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3416,32 +3403,47 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="62" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="51" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C308" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C309" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="70" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="B312" s="71"/>
-      <c r="C312" s="72"/>
+      <c r="A312" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312" s="72"/>
+      <c r="C312" s="73"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3451,62 +3453,62 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="318" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A318" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="B318" s="71"/>
-      <c r="C318" s="72"/>
+      <c r="A318" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" s="72"/>
+      <c r="C318" s="73"/>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" s="68" t="s">
         <v>322</v>
-      </c>
-      <c r="B319" s="68" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" s="68" t="s">
         <v>324</v>
-      </c>
-      <c r="B320" s="68" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B321" s="68" t="s">
         <v>326</v>
-      </c>
-      <c r="B321" s="68" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="B322" s="68" t="s">
         <v>328</v>
-      </c>
-      <c r="B322" s="68" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3560,32 +3562,31 @@
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
     <hyperlink ref="B236" r:id="rId10"/>
-    <hyperlink ref="B150" r:id="rId11"/>
-    <hyperlink ref="B45" r:id="rId12"/>
-    <hyperlink ref="B78" r:id="rId13"/>
-    <hyperlink ref="B72" r:id="rId14"/>
-    <hyperlink ref="B66" r:id="rId15"/>
-    <hyperlink ref="B267" r:id="rId16"/>
-    <hyperlink ref="B42" r:id="rId17" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
-    <hyperlink ref="B41" r:id="rId18"/>
-    <hyperlink ref="B94" r:id="rId19"/>
-    <hyperlink ref="B95" r:id="rId20"/>
-    <hyperlink ref="B35" r:id="rId21"/>
-    <hyperlink ref="B142" r:id="rId22" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B255" r:id="rId23"/>
-    <hyperlink ref="B62" r:id="rId24"/>
-    <hyperlink ref="B107" r:id="rId25"/>
-    <hyperlink ref="B108" r:id="rId26" location="commandLine"/>
-    <hyperlink ref="B71" r:id="rId27"/>
-    <hyperlink ref="B109" r:id="rId28"/>
-    <hyperlink ref="B133" r:id="rId29"/>
-    <hyperlink ref="B119" r:id="rId30"/>
+    <hyperlink ref="B45" r:id="rId11"/>
+    <hyperlink ref="B78" r:id="rId12"/>
+    <hyperlink ref="B72" r:id="rId13"/>
+    <hyperlink ref="B66" r:id="rId14"/>
+    <hyperlink ref="B267" r:id="rId15"/>
+    <hyperlink ref="B42" r:id="rId16" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
+    <hyperlink ref="B41" r:id="rId17"/>
+    <hyperlink ref="B94" r:id="rId18"/>
+    <hyperlink ref="B95" r:id="rId19"/>
+    <hyperlink ref="B35" r:id="rId20"/>
+    <hyperlink ref="B142" r:id="rId21" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B255" r:id="rId22"/>
+    <hyperlink ref="B62" r:id="rId23"/>
+    <hyperlink ref="B107" r:id="rId24"/>
+    <hyperlink ref="B108" r:id="rId25" location="commandLine"/>
+    <hyperlink ref="B71" r:id="rId26"/>
+    <hyperlink ref="B109" r:id="rId27"/>
+    <hyperlink ref="B133" r:id="rId28"/>
+    <hyperlink ref="B119" r:id="rId29"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B167" r:id="rId31"/>
-    <hyperlink ref="B214" r:id="rId32"/>
-    <hyperlink ref="B279" r:id="rId33"/>
+    <hyperlink ref="B167" r:id="rId30"/>
+    <hyperlink ref="B214" r:id="rId31"/>
+    <hyperlink ref="B279" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1323,6 +1323,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1335,7 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1634,8 +1634,8 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2700,14 +2700,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="78"/>
+      <c r="C166" s="74"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="78"/>
+      <c r="C167" s="74"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -3119,10 +3119,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="76" t="s">
+      <c r="B248" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="77"/>
+      <c r="C248" s="78"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3225,7 +3225,7 @@
       <c r="C266" s="73"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="74" t="s">
+      <c r="A267" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3236,7 +3236,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="75"/>
+      <c r="A268" s="76"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
@@ -3513,6 +3513,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A318:C318"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
@@ -3529,27 +3550,6 @@
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
     <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="332">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>Solr</t>
+  </si>
+  <si>
+    <t>Machine Learning - x-Defnitions-machine-learning.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1631,11 +1634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A325" sqref="A325:C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3490,7 +3493,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:3">
       <c r="A321" s="68" t="s">
         <v>325</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:3">
       <c r="A322" s="68" t="s">
         <v>327</v>
       </c>
@@ -3506,13 +3509,21 @@
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:3">
       <c r="A323" s="69" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="324" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="325" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A325" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="B325" s="72"/>
+      <c r="C325" s="73"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="A312:C312"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A213:C213"/>
@@ -3527,6 +3538,7 @@
     <mergeCell ref="A235:C235"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A198:C198"/>
     <mergeCell ref="A206:C206"/>
     <mergeCell ref="A211:C211"/>
     <mergeCell ref="A245:C245"/>
@@ -3534,6 +3546,7 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A325:C325"/>
     <mergeCell ref="A318:C318"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
@@ -3549,7 +3562,6 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A198:C198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1025,6 +1025,12 @@
   </si>
   <si>
     <t>Machine Learning - x-Defnitions-machine-learning.xlsx</t>
+  </si>
+  <si>
+    <t>SourceTree</t>
+  </si>
+  <si>
+    <t>Git Extensions</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1317,6 +1323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1634,11 +1644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A325" sqref="A325:C325"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2452,11 +2462,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="72"/>
-      <c r="C124" s="73"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="75"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2494,11 +2504,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="71" t="s">
+      <c r="A131" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="72"/>
-      <c r="C131" s="73"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="75"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2560,11 +2570,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="71" t="s">
+      <c r="A140" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="72"/>
-      <c r="C140" s="73"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="75"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2609,11 +2619,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="71" t="s">
+      <c r="A146" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="72"/>
-      <c r="C146" s="73"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="75"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2625,11 +2635,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="71" t="s">
+      <c r="A154" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="B154" s="72"/>
-      <c r="C154" s="73"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="75"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2682,11 +2692,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="71" t="s">
+      <c r="A164" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="72"/>
-      <c r="C164" s="73"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="75"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2703,14 +2713,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="74"/>
+      <c r="C166" s="76"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="74"/>
+      <c r="C167" s="76"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2719,11 +2729,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="71" t="s">
+      <c r="A171" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="72"/>
-      <c r="C171" s="73"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="75"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2758,11 +2768,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="71" t="s">
+      <c r="A179" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="72"/>
-      <c r="C179" s="73"/>
+      <c r="B179" s="74"/>
+      <c r="C179" s="75"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2787,11 +2797,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="71" t="s">
+      <c r="A184" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="B184" s="72"/>
-      <c r="C184" s="73"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="75"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2816,11 +2826,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="71" t="s">
+      <c r="A189" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="72"/>
-      <c r="C189" s="73"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="75"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2837,11 +2847,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="71" t="s">
+      <c r="A193" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="72"/>
-      <c r="C193" s="73"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="75"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2857,11 +2867,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="71" t="s">
+      <c r="A198" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="72"/>
-      <c r="C198" s="73"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="75"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2901,11 +2911,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="71" t="s">
+      <c r="A206" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="72"/>
-      <c r="C206" s="73"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="75"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2930,22 +2940,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="71" t="s">
+      <c r="A211" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="73"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="75"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="71" t="s">
+      <c r="A213" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="72"/>
-      <c r="C213" s="73"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="75"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2982,11 +2992,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="71" t="s">
+      <c r="A221" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="72"/>
-      <c r="C221" s="73"/>
+      <c r="B221" s="74"/>
+      <c r="C221" s="75"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -3002,11 +3012,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="71" t="s">
+      <c r="A224" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="B224" s="72"/>
-      <c r="C224" s="73"/>
+      <c r="B224" s="74"/>
+      <c r="C224" s="75"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -3020,11 +3030,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="71" t="s">
+      <c r="A229" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="B229" s="72"/>
-      <c r="C229" s="73"/>
+      <c r="B229" s="74"/>
+      <c r="C229" s="75"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3043,11 +3053,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="71" t="s">
+      <c r="A235" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="72"/>
-      <c r="C235" s="73"/>
+      <c r="B235" s="74"/>
+      <c r="C235" s="75"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3080,11 +3090,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="71" t="s">
+      <c r="A241" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="72"/>
-      <c r="C241" s="73"/>
+      <c r="B241" s="74"/>
+      <c r="C241" s="75"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3099,11 +3109,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="71" t="s">
+      <c r="A245" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="72"/>
-      <c r="C245" s="73"/>
+      <c r="B245" s="74"/>
+      <c r="C245" s="75"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3122,10 +3132,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="77" t="s">
+      <c r="B248" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="78"/>
+      <c r="C248" s="80"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3135,11 +3145,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="71" t="s">
+      <c r="A251" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="72"/>
-      <c r="C251" s="73"/>
+      <c r="B251" s="74"/>
+      <c r="C251" s="75"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3152,11 +3162,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="71" t="s">
+      <c r="A254" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="72"/>
-      <c r="C254" s="73"/>
+      <c r="B254" s="74"/>
+      <c r="C254" s="75"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3178,11 +3188,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="71" t="s">
+      <c r="A259" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="72"/>
-      <c r="C259" s="73"/>
+      <c r="B259" s="74"/>
+      <c r="C259" s="75"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3221,14 +3231,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="71" t="s">
+      <c r="A266" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="72"/>
-      <c r="C266" s="73"/>
+      <c r="B266" s="74"/>
+      <c r="C266" s="75"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="75" t="s">
+      <c r="A267" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3239,18 +3249,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="76"/>
+      <c r="A268" s="78"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="71" t="s">
+      <c r="A270" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="72"/>
-      <c r="C270" s="73"/>
+      <c r="B270" s="74"/>
+      <c r="C270" s="75"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3284,11 +3294,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="71" t="s">
+      <c r="A278" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="72"/>
-      <c r="C278" s="73"/>
+      <c r="B278" s="74"/>
+      <c r="C278" s="75"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3305,11 +3315,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="71" t="s">
+      <c r="A282" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="72"/>
-      <c r="C282" s="73"/>
+      <c r="B282" s="74"/>
+      <c r="C282" s="75"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3343,11 +3353,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="71" t="s">
+      <c r="A290" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="72"/>
-      <c r="C290" s="73"/>
+      <c r="B290" s="74"/>
+      <c r="C290" s="75"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3356,11 +3366,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="71" t="s">
+      <c r="A293" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="B293" s="72"/>
-      <c r="C293" s="73"/>
+      <c r="B293" s="74"/>
+      <c r="C293" s="75"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3370,11 +3380,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="71" t="s">
+      <c r="A297" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="72"/>
-      <c r="C297" s="73"/>
+      <c r="B297" s="74"/>
+      <c r="C297" s="75"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3383,11 +3393,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="71" t="s">
+      <c r="A301" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="72"/>
-      <c r="C301" s="73"/>
+      <c r="B301" s="74"/>
+      <c r="C301" s="75"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3442,11 +3452,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="71" t="s">
+      <c r="A312" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="B312" s="72"/>
-      <c r="C312" s="73"/>
+      <c r="B312" s="74"/>
+      <c r="C312" s="75"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3469,58 +3479,68 @@
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="317" spans="1:3" s="72" customFormat="1">
+      <c r="A317" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="B317" s="71"/>
+    </row>
     <row r="318" spans="1:3" ht="15.75" thickBot="1">
       <c r="A318" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A319" s="73" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="72"/>
-      <c r="C318" s="73"/>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="68" t="s">
-        <v>321</v>
-      </c>
-      <c r="B319" s="68" t="s">
-        <v>322</v>
-      </c>
+      <c r="B319" s="74"/>
+      <c r="C319" s="75"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B320" s="68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B321" s="68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322" s="68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="B322" s="68" t="s">
+      <c r="B323" s="68" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="69" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" s="69" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="325" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A325" s="71" t="s">
+    <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="326" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A326" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="B325" s="72"/>
-      <c r="C325" s="73"/>
+      <c r="B326" s="74"/>
+      <c r="C326" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3546,8 +3566,8 @@
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A319:C319"/>
     <mergeCell ref="A124:C124"/>
     <mergeCell ref="A131:C131"/>
     <mergeCell ref="A171:C171"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>Git Extensions</t>
+  </si>
+  <si>
+    <t>Spring Integration</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1327,6 +1330,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1647,8 +1653,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2462,11 +2468,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="73" t="s">
+      <c r="A124" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="74"/>
-      <c r="C124" s="75"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="76"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2504,11 +2510,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="73" t="s">
+      <c r="A131" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="74"/>
-      <c r="C131" s="75"/>
+      <c r="B131" s="75"/>
+      <c r="C131" s="76"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2570,11 +2576,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="73" t="s">
+      <c r="A140" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="74"/>
-      <c r="C140" s="75"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="76"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2619,11 +2625,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="73" t="s">
+      <c r="A146" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="74"/>
-      <c r="C146" s="75"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="76"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2635,11 +2641,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="73" t="s">
+      <c r="A154" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="B154" s="74"/>
-      <c r="C154" s="75"/>
+      <c r="B154" s="75"/>
+      <c r="C154" s="76"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2690,13 +2696,18 @@
       <c r="B161" s="2"/>
       <c r="C161" s="22"/>
     </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="73" t="s">
+        <v>334</v>
+      </c>
+    </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="73" t="s">
+      <c r="A164" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="74"/>
-      <c r="C164" s="75"/>
+      <c r="B164" s="75"/>
+      <c r="C164" s="76"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2713,14 +2724,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="76"/>
+      <c r="C166" s="77"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="76"/>
+      <c r="C167" s="77"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2729,11 +2740,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="73" t="s">
+      <c r="A171" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="74"/>
-      <c r="C171" s="75"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="76"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2768,11 +2779,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="73" t="s">
+      <c r="A179" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="74"/>
-      <c r="C179" s="75"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="76"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2797,11 +2808,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="73" t="s">
+      <c r="A184" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="B184" s="74"/>
-      <c r="C184" s="75"/>
+      <c r="B184" s="75"/>
+      <c r="C184" s="76"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2826,11 +2837,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="73" t="s">
+      <c r="A189" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="74"/>
-      <c r="C189" s="75"/>
+      <c r="B189" s="75"/>
+      <c r="C189" s="76"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2847,11 +2858,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="73" t="s">
+      <c r="A193" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="74"/>
-      <c r="C193" s="75"/>
+      <c r="B193" s="75"/>
+      <c r="C193" s="76"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2867,11 +2878,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="73" t="s">
+      <c r="A198" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="74"/>
-      <c r="C198" s="75"/>
+      <c r="B198" s="75"/>
+      <c r="C198" s="76"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2911,11 +2922,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="73" t="s">
+      <c r="A206" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="74"/>
-      <c r="C206" s="75"/>
+      <c r="B206" s="75"/>
+      <c r="C206" s="76"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2940,22 +2951,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="73" t="s">
+      <c r="A211" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="B211" s="74"/>
-      <c r="C211" s="75"/>
+      <c r="B211" s="75"/>
+      <c r="C211" s="76"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="74"/>
-      <c r="C213" s="75"/>
+      <c r="B213" s="75"/>
+      <c r="C213" s="76"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -2992,11 +3003,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="74"/>
-      <c r="C221" s="75"/>
+      <c r="B221" s="75"/>
+      <c r="C221" s="76"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -3012,11 +3023,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="73" t="s">
+      <c r="A224" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="B224" s="74"/>
-      <c r="C224" s="75"/>
+      <c r="B224" s="75"/>
+      <c r="C224" s="76"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -3030,11 +3041,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="73" t="s">
+      <c r="A229" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="B229" s="74"/>
-      <c r="C229" s="75"/>
+      <c r="B229" s="75"/>
+      <c r="C229" s="76"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3053,11 +3064,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="73" t="s">
+      <c r="A235" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="74"/>
-      <c r="C235" s="75"/>
+      <c r="B235" s="75"/>
+      <c r="C235" s="76"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3090,11 +3101,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="73" t="s">
+      <c r="A241" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="74"/>
-      <c r="C241" s="75"/>
+      <c r="B241" s="75"/>
+      <c r="C241" s="76"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3109,11 +3120,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="73" t="s">
+      <c r="A245" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="74"/>
-      <c r="C245" s="75"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="76"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3132,10 +3143,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="79" t="s">
+      <c r="B248" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="80"/>
+      <c r="C248" s="81"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3145,11 +3156,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="73" t="s">
+      <c r="A251" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="74"/>
-      <c r="C251" s="75"/>
+      <c r="B251" s="75"/>
+      <c r="C251" s="76"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3162,11 +3173,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="73" t="s">
+      <c r="A254" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="74"/>
-      <c r="C254" s="75"/>
+      <c r="B254" s="75"/>
+      <c r="C254" s="76"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3188,11 +3199,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="74"/>
-      <c r="C259" s="75"/>
+      <c r="B259" s="75"/>
+      <c r="C259" s="76"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3231,14 +3242,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="73" t="s">
+      <c r="A266" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="74"/>
-      <c r="C266" s="75"/>
+      <c r="B266" s="75"/>
+      <c r="C266" s="76"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="77" t="s">
+      <c r="A267" s="78" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3249,18 +3260,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="78"/>
+      <c r="A268" s="79"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="73" t="s">
+      <c r="A270" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="74"/>
-      <c r="C270" s="75"/>
+      <c r="B270" s="75"/>
+      <c r="C270" s="76"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3294,11 +3305,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="73" t="s">
+      <c r="A278" s="74" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="74"/>
-      <c r="C278" s="75"/>
+      <c r="B278" s="75"/>
+      <c r="C278" s="76"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3315,11 +3326,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="73" t="s">
+      <c r="A282" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="74"/>
-      <c r="C282" s="75"/>
+      <c r="B282" s="75"/>
+      <c r="C282" s="76"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3353,11 +3364,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="73" t="s">
+      <c r="A290" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="74"/>
-      <c r="C290" s="75"/>
+      <c r="B290" s="75"/>
+      <c r="C290" s="76"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3366,11 +3377,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="73" t="s">
+      <c r="A293" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="B293" s="74"/>
-      <c r="C293" s="75"/>
+      <c r="B293" s="75"/>
+      <c r="C293" s="76"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3380,11 +3391,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="73" t="s">
+      <c r="A297" s="74" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="74"/>
-      <c r="C297" s="75"/>
+      <c r="B297" s="75"/>
+      <c r="C297" s="76"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3393,11 +3404,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="73" t="s">
+      <c r="A301" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="74"/>
-      <c r="C301" s="75"/>
+      <c r="B301" s="75"/>
+      <c r="C301" s="76"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3452,11 +3463,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="73" t="s">
+      <c r="A312" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B312" s="74"/>
-      <c r="C312" s="75"/>
+      <c r="B312" s="75"/>
+      <c r="C312" s="76"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3491,11 +3502,11 @@
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A319" s="73" t="s">
+      <c r="A319" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="74"/>
-      <c r="C319" s="75"/>
+      <c r="B319" s="75"/>
+      <c r="C319" s="76"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="68" t="s">
@@ -3536,11 +3547,11 @@
     </row>
     <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="326" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A326" s="73" t="s">
+      <c r="A326" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="B326" s="74"/>
-      <c r="C326" s="75"/>
+      <c r="B326" s="75"/>
+      <c r="C326" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1342,7 +1342,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1355,6 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1653,8 +1653,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2724,14 +2724,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="77"/>
+      <c r="C166" s="81"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="77"/>
+      <c r="C167" s="81"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -3143,10 +3143,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="80" t="s">
+      <c r="B248" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="81"/>
+      <c r="C248" s="80"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3249,7 +3249,7 @@
       <c r="C266" s="76"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="78" t="s">
+      <c r="A267" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3260,7 +3260,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="79"/>
+      <c r="A268" s="78"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
@@ -3555,28 +3555,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A124:C124"/>
@@ -3593,6 +3571,28 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="337">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1034,6 +1034,12 @@
   </si>
   <si>
     <t>Spring Integration</t>
+  </si>
+  <si>
+    <t>ReactJS/React JS</t>
+  </si>
+  <si>
+    <t>y_Definitions_React_JS.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1333,6 +1339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1342,6 +1352,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1354,7 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1654,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2468,11 +2478,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="74" t="s">
+      <c r="A124" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="75"/>
-      <c r="C124" s="76"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="78"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2510,11 +2520,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="74" t="s">
+      <c r="A131" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="76"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="78"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2576,11 +2586,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="74" t="s">
+      <c r="A140" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="75"/>
-      <c r="C140" s="76"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="78"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2625,11 +2635,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="75"/>
-      <c r="C146" s="76"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="78"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2641,11 +2651,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="74" t="s">
+      <c r="A154" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="B154" s="75"/>
-      <c r="C154" s="76"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="78"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2703,11 +2713,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="74" t="s">
+      <c r="A164" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="75"/>
-      <c r="C164" s="76"/>
+      <c r="B164" s="77"/>
+      <c r="C164" s="78"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2724,14 +2734,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="81"/>
+      <c r="C166" s="79"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="81"/>
+      <c r="C167" s="79"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2740,11 +2750,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="74" t="s">
+      <c r="A171" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="75"/>
-      <c r="C171" s="76"/>
+      <c r="B171" s="77"/>
+      <c r="C171" s="78"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2779,11 +2789,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="74" t="s">
+      <c r="A179" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="75"/>
-      <c r="C179" s="76"/>
+      <c r="B179" s="77"/>
+      <c r="C179" s="78"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2808,11 +2818,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="74" t="s">
+      <c r="A184" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="B184" s="75"/>
-      <c r="C184" s="76"/>
+      <c r="B184" s="77"/>
+      <c r="C184" s="78"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2837,11 +2847,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="74" t="s">
+      <c r="A189" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="75"/>
-      <c r="C189" s="76"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="78"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2858,11 +2868,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="74" t="s">
+      <c r="A193" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="75"/>
-      <c r="C193" s="76"/>
+      <c r="B193" s="77"/>
+      <c r="C193" s="78"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2878,11 +2888,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="74" t="s">
+      <c r="A198" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="75"/>
-      <c r="C198" s="76"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="78"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2922,11 +2932,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="74" t="s">
+      <c r="A206" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="75"/>
-      <c r="C206" s="76"/>
+      <c r="B206" s="77"/>
+      <c r="C206" s="78"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2951,22 +2961,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="74" t="s">
+      <c r="A211" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="B211" s="75"/>
-      <c r="C211" s="76"/>
+      <c r="B211" s="77"/>
+      <c r="C211" s="78"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="74" t="s">
+      <c r="A213" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="75"/>
-      <c r="C213" s="76"/>
+      <c r="B213" s="77"/>
+      <c r="C213" s="78"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -3003,11 +3013,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="74" t="s">
+      <c r="A221" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="75"/>
-      <c r="C221" s="76"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="78"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -3023,11 +3033,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="74" t="s">
+      <c r="A224" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="B224" s="75"/>
-      <c r="C224" s="76"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="78"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -3041,11 +3051,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="74" t="s">
+      <c r="A229" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="B229" s="75"/>
-      <c r="C229" s="76"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="78"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3064,11 +3074,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="74" t="s">
+      <c r="A235" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="75"/>
-      <c r="C235" s="76"/>
+      <c r="B235" s="77"/>
+      <c r="C235" s="78"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3101,11 +3111,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="74" t="s">
+      <c r="A241" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="75"/>
-      <c r="C241" s="76"/>
+      <c r="B241" s="77"/>
+      <c r="C241" s="78"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3120,11 +3130,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="74" t="s">
+      <c r="A245" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="75"/>
-      <c r="C245" s="76"/>
+      <c r="B245" s="77"/>
+      <c r="C245" s="78"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3143,10 +3153,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="79" t="s">
+      <c r="B248" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="80"/>
+      <c r="C248" s="83"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3156,11 +3166,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="74" t="s">
+      <c r="A251" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="75"/>
-      <c r="C251" s="76"/>
+      <c r="B251" s="77"/>
+      <c r="C251" s="78"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3173,11 +3183,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="74" t="s">
+      <c r="A254" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="75"/>
-      <c r="C254" s="76"/>
+      <c r="B254" s="77"/>
+      <c r="C254" s="78"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3199,11 +3209,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="74" t="s">
+      <c r="A259" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="75"/>
-      <c r="C259" s="76"/>
+      <c r="B259" s="77"/>
+      <c r="C259" s="78"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3230,8 +3240,13 @@
       </c>
     </row>
     <row r="263" spans="1:3" s="57" customFormat="1">
-      <c r="A263" s="58"/>
+      <c r="A263" s="74" t="s">
+        <v>335</v>
+      </c>
       <c r="B263" s="58"/>
+      <c r="C263" s="75" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="264" spans="1:3" s="57" customFormat="1">
       <c r="A264" s="58"/>
@@ -3242,14 +3257,14 @@
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="74" t="s">
+      <c r="A266" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="75"/>
-      <c r="C266" s="76"/>
+      <c r="B266" s="77"/>
+      <c r="C266" s="78"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="77" t="s">
+      <c r="A267" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3260,18 +3275,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="78"/>
+      <c r="A268" s="81"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="74" t="s">
+      <c r="A270" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="75"/>
-      <c r="C270" s="76"/>
+      <c r="B270" s="77"/>
+      <c r="C270" s="78"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3305,11 +3320,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="74" t="s">
+      <c r="A278" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="75"/>
-      <c r="C278" s="76"/>
+      <c r="B278" s="77"/>
+      <c r="C278" s="78"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3326,11 +3341,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="74" t="s">
+      <c r="A282" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="75"/>
-      <c r="C282" s="76"/>
+      <c r="B282" s="77"/>
+      <c r="C282" s="78"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3364,11 +3379,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="74" t="s">
+      <c r="A290" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="75"/>
-      <c r="C290" s="76"/>
+      <c r="B290" s="77"/>
+      <c r="C290" s="78"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3377,11 +3392,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="74" t="s">
+      <c r="A293" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="B293" s="75"/>
-      <c r="C293" s="76"/>
+      <c r="B293" s="77"/>
+      <c r="C293" s="78"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3391,11 +3406,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="74" t="s">
+      <c r="A297" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="75"/>
-      <c r="C297" s="76"/>
+      <c r="B297" s="77"/>
+      <c r="C297" s="78"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3404,11 +3419,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="74" t="s">
+      <c r="A301" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="75"/>
-      <c r="C301" s="76"/>
+      <c r="B301" s="77"/>
+      <c r="C301" s="78"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3463,11 +3478,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="74" t="s">
+      <c r="A312" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="B312" s="75"/>
-      <c r="C312" s="76"/>
+      <c r="B312" s="77"/>
+      <c r="C312" s="78"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3502,11 +3517,11 @@
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A319" s="74" t="s">
+      <c r="A319" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="75"/>
-      <c r="C319" s="76"/>
+      <c r="B319" s="77"/>
+      <c r="C319" s="78"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="68" t="s">
@@ -3547,14 +3562,36 @@
     </row>
     <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="326" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A326" s="74" t="s">
+      <c r="A326" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="B326" s="75"/>
-      <c r="C326" s="76"/>
+      <c r="B326" s="77"/>
+      <c r="C326" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A124:C124"/>
@@ -3571,28 +3608,6 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="338">
   <si>
     <t>OOPS concepts</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>y_Definitions_React_JS.xlsx</t>
+  </si>
+  <si>
+    <t>Typescript</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1343,6 +1346,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1352,7 +1359,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1365,6 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1663,8 +1670,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2478,11 +2485,11 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="76" t="s">
+      <c r="A124" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="77"/>
-      <c r="C124" s="78"/>
+      <c r="B124" s="79"/>
+      <c r="C124" s="80"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
@@ -2520,11 +2527,11 @@
       <c r="B130" s="30"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="76" t="s">
+      <c r="A131" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="77"/>
-      <c r="C131" s="78"/>
+      <c r="B131" s="79"/>
+      <c r="C131" s="80"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
@@ -2586,11 +2593,11 @@
       <c r="B139" s="60"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="77"/>
-      <c r="C140" s="78"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="80"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
@@ -2635,11 +2642,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="76" t="s">
+      <c r="A146" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="77"/>
-      <c r="C146" s="78"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="80"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="33" t="s">
@@ -2651,11 +2658,11 @@
     </row>
     <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="76" t="s">
+      <c r="A154" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="B154" s="77"/>
-      <c r="C154" s="78"/>
+      <c r="B154" s="79"/>
+      <c r="C154" s="80"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
@@ -2713,11 +2720,11 @@
     </row>
     <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="76" t="s">
+      <c r="A164" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="77"/>
-      <c r="C164" s="78"/>
+      <c r="B164" s="79"/>
+      <c r="C164" s="80"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="33" t="s">
@@ -2734,14 +2741,14 @@
       <c r="B166" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C166" s="79"/>
+      <c r="C166" s="85"/>
     </row>
     <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
       <c r="A167" s="33"/>
       <c r="B167" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C167" s="79"/>
+      <c r="C167" s="85"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="42" t="s">
@@ -2750,11 +2757,11 @@
     </row>
     <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="76" t="s">
+      <c r="A171" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="77"/>
-      <c r="C171" s="78"/>
+      <c r="B171" s="79"/>
+      <c r="C171" s="80"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
@@ -2789,11 +2796,11 @@
       <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="76" t="s">
+      <c r="A179" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="77"/>
-      <c r="C179" s="78"/>
+      <c r="B179" s="79"/>
+      <c r="C179" s="80"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
@@ -2818,11 +2825,11 @@
       <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="76" t="s">
+      <c r="A184" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="B184" s="77"/>
-      <c r="C184" s="78"/>
+      <c r="B184" s="79"/>
+      <c r="C184" s="80"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
@@ -2847,11 +2854,11 @@
       <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="76" t="s">
+      <c r="A189" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="77"/>
-      <c r="C189" s="78"/>
+      <c r="B189" s="79"/>
+      <c r="C189" s="80"/>
     </row>
     <row r="190" spans="1:3" s="37" customFormat="1">
       <c r="A190" s="36" t="s">
@@ -2868,11 +2875,11 @@
       <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="76" t="s">
+      <c r="A193" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="77"/>
-      <c r="C193" s="78"/>
+      <c r="B193" s="79"/>
+      <c r="C193" s="80"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="33" t="s">
@@ -2888,11 +2895,11 @@
     </row>
     <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="76" t="s">
+      <c r="A198" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="77"/>
-      <c r="C198" s="78"/>
+      <c r="B198" s="79"/>
+      <c r="C198" s="80"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
@@ -2932,11 +2939,11 @@
       <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="76" t="s">
+      <c r="A206" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="77"/>
-      <c r="C206" s="78"/>
+      <c r="B206" s="79"/>
+      <c r="C206" s="80"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="33" t="s">
@@ -2961,22 +2968,22 @@
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="76" t="s">
+      <c r="A211" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="B211" s="77"/>
-      <c r="C211" s="78"/>
+      <c r="B211" s="79"/>
+      <c r="C211" s="80"/>
     </row>
     <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A212" s="35"/>
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="76" t="s">
+      <c r="A213" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="77"/>
-      <c r="C213" s="78"/>
+      <c r="B213" s="79"/>
+      <c r="C213" s="80"/>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
@@ -3013,11 +3020,11 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="76" t="s">
+      <c r="A221" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B221" s="77"/>
-      <c r="C221" s="78"/>
+      <c r="B221" s="79"/>
+      <c r="C221" s="80"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="33" t="s">
@@ -3033,11 +3040,11 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="76" t="s">
+      <c r="A224" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="B224" s="77"/>
-      <c r="C224" s="78"/>
+      <c r="B224" s="79"/>
+      <c r="C224" s="80"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="33" t="s">
@@ -3051,11 +3058,11 @@
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="76" t="s">
+      <c r="A229" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="B229" s="77"/>
-      <c r="C229" s="78"/>
+      <c r="B229" s="79"/>
+      <c r="C229" s="80"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
@@ -3074,11 +3081,11 @@
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="76" t="s">
+      <c r="A235" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="77"/>
-      <c r="C235" s="78"/>
+      <c r="B235" s="79"/>
+      <c r="C235" s="80"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
@@ -3111,11 +3118,11 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="76" t="s">
+      <c r="A241" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="77"/>
-      <c r="C241" s="78"/>
+      <c r="B241" s="79"/>
+      <c r="C241" s="80"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="33" t="s">
@@ -3130,11 +3137,11 @@
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="76" t="s">
+      <c r="A245" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="77"/>
-      <c r="C245" s="78"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="80"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
@@ -3153,10 +3160,10 @@
       <c r="A248" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="82" t="s">
+      <c r="B248" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="83"/>
+      <c r="C248" s="84"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="33" t="s">
@@ -3166,11 +3173,11 @@
     </row>
     <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="76" t="s">
+      <c r="A251" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="77"/>
-      <c r="C251" s="78"/>
+      <c r="B251" s="79"/>
+      <c r="C251" s="80"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="33" t="s">
@@ -3183,11 +3190,11 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="76" t="s">
+      <c r="A254" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="77"/>
-      <c r="C254" s="78"/>
+      <c r="B254" s="79"/>
+      <c r="C254" s="80"/>
     </row>
     <row r="255" spans="1:3" ht="30">
       <c r="A255" s="33" t="s">
@@ -3209,11 +3216,11 @@
     </row>
     <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="76" t="s">
+      <c r="A259" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="77"/>
-      <c r="C259" s="78"/>
+      <c r="B259" s="79"/>
+      <c r="C259" s="80"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
@@ -3249,22 +3256,27 @@
       </c>
     </row>
     <row r="264" spans="1:3" s="57" customFormat="1">
-      <c r="A264" s="58"/>
+      <c r="A264" s="77" t="s">
+        <v>337</v>
+      </c>
       <c r="B264" s="58"/>
+      <c r="C264" s="76" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="265" spans="1:3" s="57" customFormat="1" ht="15.75" thickBot="1">
       <c r="A265" s="58"/>
       <c r="B265" s="58"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="76" t="s">
+      <c r="A266" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="77"/>
-      <c r="C266" s="78"/>
+      <c r="B266" s="79"/>
+      <c r="C266" s="80"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="80" t="s">
+      <c r="A267" s="81" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3275,18 +3287,18 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="81"/>
+      <c r="A268" s="82"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="76" t="s">
+      <c r="A270" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="77"/>
-      <c r="C270" s="78"/>
+      <c r="B270" s="79"/>
+      <c r="C270" s="80"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3320,11 +3332,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="76" t="s">
+      <c r="A278" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="77"/>
-      <c r="C278" s="78"/>
+      <c r="B278" s="79"/>
+      <c r="C278" s="80"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3341,11 +3353,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="76" t="s">
+      <c r="A282" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="77"/>
-      <c r="C282" s="78"/>
+      <c r="B282" s="79"/>
+      <c r="C282" s="80"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3379,11 +3391,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="76" t="s">
+      <c r="A290" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="77"/>
-      <c r="C290" s="78"/>
+      <c r="B290" s="79"/>
+      <c r="C290" s="80"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3392,11 +3404,11 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="76" t="s">
+      <c r="A293" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="B293" s="77"/>
-      <c r="C293" s="78"/>
+      <c r="B293" s="79"/>
+      <c r="C293" s="80"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="63" t="s">
@@ -3406,11 +3418,11 @@
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="76" t="s">
+      <c r="A297" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="77"/>
-      <c r="C297" s="78"/>
+      <c r="B297" s="79"/>
+      <c r="C297" s="80"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3419,11 +3431,11 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="76" t="s">
+      <c r="A301" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="77"/>
-      <c r="C301" s="78"/>
+      <c r="B301" s="79"/>
+      <c r="C301" s="80"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="61" t="s">
@@ -3478,11 +3490,11 @@
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="76" t="s">
+      <c r="A312" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B312" s="77"/>
-      <c r="C312" s="78"/>
+      <c r="B312" s="79"/>
+      <c r="C312" s="80"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3517,11 +3529,11 @@
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A319" s="76" t="s">
+      <c r="A319" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="77"/>
-      <c r="C319" s="78"/>
+      <c r="B319" s="79"/>
+      <c r="C319" s="80"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="68" t="s">
@@ -3562,36 +3574,14 @@
     </row>
     <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="326" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A326" s="76" t="s">
+      <c r="A326" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B326" s="77"/>
-      <c r="C326" s="78"/>
+      <c r="B326" s="79"/>
+      <c r="C326" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A124:C124"/>
@@ -3608,6 +3598,28 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A193:C193"/>
     <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B248:C248"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -10,7 +10,7 @@
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A">'All Topics'!$A$246</definedName>
+    <definedName name="A">'All Topics'!$A$244</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1195,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1301,7 +1301,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1346,10 +1345,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1359,6 +1358,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1371,7 +1371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1670,8 +1669,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2222,1058 +2221,1095 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="83" spans="1:3">
       <c r="A83" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" t="s">
-        <v>167</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="33" t="s">
-        <v>132</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="33" t="s">
-        <v>133</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" s="9" customFormat="1">
       <c r="A87" s="33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B87" s="1"/>
+      <c r="C87" s="46" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="88" spans="1:3" s="9" customFormat="1">
       <c r="A88" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="46" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="89" spans="1:3" s="9" customFormat="1">
       <c r="A89" s="33" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="46" t="s">
-        <v>300</v>
-      </c>
+      <c r="C89"/>
     </row>
     <row r="90" spans="1:3" s="9" customFormat="1">
-      <c r="A90" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="46" t="s">
-        <v>217</v>
-      </c>
+      <c r="A90" s="33"/>
+      <c r="B90" s="1"/>
+      <c r="C90"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="33" t="s">
-        <v>53</v>
+        <v>137</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2"/>
+      <c r="C96" s="41" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="41" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="33" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>162</v>
+      <c r="A109" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="49" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="33" t="s">
-        <v>163</v>
+        <v>171</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="C111" s="49" t="s">
-        <v>301</v>
+      <c r="A111" s="33" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112" s="47" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="33" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C118" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
+        <v>179</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>197</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1">
       <c r="A121" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C122" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" thickBot="1">
+    <row r="122" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A122" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" s="78"/>
+      <c r="C122" s="79"/>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A124" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="B124" s="79"/>
-      <c r="C124" s="80"/>
+        <v>188</v>
+      </c>
+      <c r="C123" s="22"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="22"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C125" s="22"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="33" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C126" s="22"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C127" s="22"/>
-    </row>
-    <row r="128" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C128" s="22"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="29" customFormat="1" ht="15.75" thickBot="1">
+        <v>252</v>
+      </c>
+      <c r="B128" s="30"/>
+      <c r="C128" s="29"/>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A129" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="78"/>
+      <c r="C129" s="79"/>
+    </row>
+    <row r="130" spans="1:3" s="29" customFormat="1">
       <c r="A130" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B130" s="30"/>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="B131" s="79"/>
-      <c r="C131" s="80"/>
+        <v>187</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="33" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="12"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C135" s="28"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="28" customFormat="1">
-      <c r="A137" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="32" customFormat="1">
-      <c r="A138" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B138" s="33"/>
-    </row>
-    <row r="139" spans="1:3" s="59" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A139" s="60" t="s">
+      <c r="B136" s="33"/>
+      <c r="C136" s="32"/>
+    </row>
+    <row r="137" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A137" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="B139" s="60"/>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A140" s="78" t="s">
+      <c r="B137" s="59"/>
+      <c r="C137" s="58"/>
+    </row>
+    <row r="138" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A138" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="79"/>
-      <c r="C140" s="80"/>
+      <c r="B138" s="78"/>
+      <c r="C138" s="79"/>
+    </row>
+    <row r="139" spans="1:3" s="58" customFormat="1">
+      <c r="A139" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="19" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>193</v>
+        <v>134</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C144" s="32" t="s">
+    <row r="143" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A143" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="38"/>
+      <c r="C143" s="39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="39" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A145" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="38"/>
-      <c r="C145" s="39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A146" s="78" t="s">
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A144" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B146" s="79"/>
-      <c r="C146" s="80"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="33" t="s">
+      <c r="B144" s="78"/>
+      <c r="C144" s="79"/>
+    </row>
+    <row r="145" spans="1:3" s="39" customFormat="1">
+      <c r="A145" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B145" s="1"/>
+      <c r="C145" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A154" s="78" t="s">
+    <row r="151" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A152" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="B154" s="79"/>
-      <c r="C154" s="80"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="79"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="22"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="22"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="C155" s="22"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="33" t="s">
-        <v>140</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="22"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="33" t="s">
-        <v>141</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="22"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="22"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="73" t="s">
+      <c r="A160" s="72" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="164" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A164" s="78" t="s">
+    <row r="161" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A162" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="79"/>
+      <c r="B162" s="78"/>
+      <c r="C162" s="79"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30">
+      <c r="A164" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C164" s="80"/>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="30">
-      <c r="A166" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C166" s="85"/>
-    </row>
-    <row r="167" spans="1:3" s="22" customFormat="1" ht="30">
+    <row r="165" spans="1:3" ht="30">
+      <c r="B165" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C165" s="80"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="22" customFormat="1">
       <c r="A167" s="33"/>
-      <c r="B167" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C167" s="85"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="171" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A171" s="78" t="s">
+      <c r="B167" s="1"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A169" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="B171" s="79"/>
-      <c r="C171" s="80"/>
+      <c r="B169" s="78"/>
+      <c r="C169" s="79"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" s="22"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="33" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C172" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="33" t="s">
-        <v>126</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C173" s="22"/>
     </row>
     <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="33" t="s">
-        <v>221</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:3" s="24" customFormat="1">
-      <c r="A175" s="33" t="s">
-        <v>235</v>
-      </c>
+      <c r="A175" s="33"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="22"/>
-    </row>
-    <row r="176" spans="1:3" s="24" customFormat="1">
-      <c r="A176" s="33" t="s">
-        <v>254</v>
-      </c>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3" s="24" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A176" s="27"/>
       <c r="B176" s="1"/>
-    </row>
-    <row r="178" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A179" s="78" t="s">
+      <c r="C176" s="27"/>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A177" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B179" s="79"/>
-      <c r="C179" s="80"/>
+      <c r="B177" s="78"/>
+      <c r="C177" s="79"/>
+    </row>
+    <row r="178" spans="1:3" s="27" customFormat="1">
+      <c r="A178" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="36"/>
+      <c r="C178" s="37"/>
+    </row>
+    <row r="179" spans="1:3" s="37" customFormat="1">
+      <c r="A179" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B179" s="36"/>
     </row>
     <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:3" s="37" customFormat="1">
-      <c r="A181" s="36" t="s">
-        <v>199</v>
-      </c>
+    <row r="181" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:3" s="37" customFormat="1">
-      <c r="A182" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="B182" s="36"/>
-    </row>
-    <row r="183" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A183" s="36"/>
+    <row r="182" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A182" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="B182" s="78"/>
+      <c r="C182" s="79"/>
+    </row>
+    <row r="183" spans="1:3" s="37" customFormat="1">
+      <c r="A183" s="36" t="s">
+        <v>277</v>
+      </c>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A184" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="B184" s="79"/>
-      <c r="C184" s="80"/>
+    <row r="184" spans="1:3" s="37" customFormat="1">
+      <c r="A184" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B184" s="36"/>
     </row>
     <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B185" s="36"/>
-    </row>
-    <row r="186" spans="1:3" s="37" customFormat="1">
-      <c r="A186" s="36" t="s">
-        <v>278</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="27"/>
+    </row>
+    <row r="186" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:3" s="27" customFormat="1">
-      <c r="A187" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A188" s="36"/>
+    <row r="187" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A187" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B187" s="78"/>
+      <c r="C187" s="79"/>
+    </row>
+    <row r="188" spans="1:3" s="37" customFormat="1">
+      <c r="A188" s="36" t="s">
+        <v>281</v>
+      </c>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A189" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="B189" s="79"/>
-      <c r="C189" s="80"/>
-    </row>
-    <row r="190" spans="1:3" s="37" customFormat="1">
-      <c r="A190" s="36" t="s">
-        <v>281</v>
-      </c>
+    <row r="189" spans="1:3" s="37" customFormat="1">
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
+    </row>
+    <row r="190" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:3" s="37" customFormat="1">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-    </row>
-    <row r="192" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A193" s="78" t="s">
+    <row r="191" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A191" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="79"/>
-      <c r="C193" s="80"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="33" t="s">
+      <c r="B191" s="78"/>
+      <c r="C191" s="79"/>
+    </row>
+    <row r="192" spans="1:3" s="37" customFormat="1">
+      <c r="A192" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C194" s="22"/>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="33" t="s">
+      <c r="B192" s="1"/>
+      <c r="C192" s="22"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="20"/>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="198" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A198" s="78" t="s">
+      <c r="C193" s="20"/>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A196" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="B198" s="79"/>
-      <c r="C198" s="80"/>
+      <c r="B196" s="78"/>
+      <c r="C196" s="79"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="33" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="33" t="s">
-        <v>38</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="32"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="33" t="s">
-        <v>271</v>
+      <c r="A201" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="B201" s="2"/>
+      <c r="C201" s="52"/>
     </row>
     <row r="202" spans="1:3" s="32" customFormat="1">
-      <c r="A202" s="33" t="s">
-        <v>270</v>
-      </c>
+      <c r="A202" s="53"/>
       <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="1:3" s="52" customFormat="1">
-      <c r="A203" s="53" t="s">
-        <v>304</v>
-      </c>
+      <c r="C202" s="52"/>
+    </row>
+    <row r="203" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A203" s="53"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:3" s="52" customFormat="1">
-      <c r="A204" s="53"/>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A205" s="53"/>
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A206" s="78" t="s">
+    <row r="204" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A204" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="79"/>
-      <c r="C206" s="80"/>
+      <c r="B204" s="78"/>
+      <c r="C204" s="79"/>
+    </row>
+    <row r="205" spans="1:3" s="52" customFormat="1">
+      <c r="A205" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="10"/>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A206" s="35" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C207" s="10"/>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="A207" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1">
       <c r="A208" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="35" t="s">
-        <v>197</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C208" s="25"/>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A209" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209" s="78"/>
+      <c r="C209" s="79"/>
     </row>
     <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A210" s="35" t="s">
-        <v>285</v>
-      </c>
+      <c r="A210" s="35"/>
       <c r="B210" s="1"/>
     </row>
     <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A211" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B211" s="79"/>
-      <c r="C211" s="80"/>
-    </row>
-    <row r="212" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A212" s="35"/>
-      <c r="B212" s="1"/>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A213" s="78" t="s">
+      <c r="A211" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="B213" s="79"/>
-      <c r="C213" s="80"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="79"/>
+    </row>
+    <row r="212" spans="1:3" s="25" customFormat="1">
+      <c r="A212" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="33" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B214" s="26" t="s">
-        <v>230</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A219" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B219" s="78"/>
+      <c r="C219" s="79"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
     <row r="221" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A221" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="B221" s="79"/>
-      <c r="C221" s="80"/>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A221" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A222" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B222" s="78"/>
+      <c r="C222" s="79"/>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A224" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="79"/>
-      <c r="C224" s="80"/>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="33" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="229" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A229" s="78" t="s">
+    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A227" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="B229" s="79"/>
-      <c r="C229" s="80"/>
+      <c r="B227" s="78"/>
+      <c r="C227" s="79"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="33" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A235" s="78" t="s">
+    <row r="232" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A233" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="79"/>
-      <c r="C235" s="80"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="79"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C234" s="15"/>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A235" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C235" s="16"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C236" s="15"/>
+        <v>243</v>
+      </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C237" s="16"/>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A240" s="43" t="s">
+    <row r="238" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A238" s="43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A241" s="78" t="s">
+    <row r="239" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A239" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="B241" s="79"/>
-      <c r="C241" s="80"/>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="33" t="s">
+      <c r="B239" s="78"/>
+      <c r="C239" s="79"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="33" t="s">
+    <row r="241" spans="1:3">
+      <c r="A241" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="78" t="s">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A243" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="80"/>
+      <c r="B243" s="78"/>
+      <c r="C243" s="79"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
-        <v>248</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B246" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="84"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B248" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" s="84"/>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C249" s="13"/>
-    </row>
-    <row r="250" spans="1:3" ht="15.75" thickBot="1"/>
+      <c r="C247" s="13"/>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A249" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="78"/>
+      <c r="C249" s="79"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="251" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A251" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251" s="79"/>
-      <c r="C251" s="80"/>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A251" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A252" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252" s="78"/>
+      <c r="C252" s="79"/>
+    </row>
+    <row r="253" spans="1:3" ht="30">
       <c r="A253" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A254" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="B254" s="79"/>
-      <c r="C254" s="80"/>
-    </row>
-    <row r="255" spans="1:3" ht="30">
+        <v>151</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="259" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A259" s="78" t="s">
+    <row r="256" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A257" s="77" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="79"/>
-      <c r="C259" s="80"/>
+      <c r="B257" s="78"/>
+      <c r="C257" s="79"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C259" s="76" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>192</v>
+        <v>127</v>
+      </c>
+      <c r="C260" s="56" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="C261" s="56" t="s">
-        <v>192</v>
+      <c r="A261" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="B261" s="57"/>
+      <c r="C261" s="74" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C262" s="57" t="s">
+      <c r="A262" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="B262" s="57"/>
+      <c r="C262" s="76" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="57" customFormat="1">
-      <c r="A263" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="B263" s="58"/>
-      <c r="C263" s="75" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" s="57" customFormat="1">
-      <c r="A264" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="B264" s="58"/>
+    <row r="263" spans="1:3" s="56" customFormat="1">
+      <c r="A263" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" s="56" customFormat="1">
+      <c r="A264" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B264" s="1"/>
       <c r="C264" s="76" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="57" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A265" s="58"/>
-      <c r="B265" s="58"/>
+    <row r="265" spans="1:3" s="56" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A265" s="57"/>
+      <c r="B265" s="57"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A266" s="78" t="s">
+      <c r="A266" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B266" s="79"/>
-      <c r="C266" s="80"/>
+      <c r="B266" s="78"/>
+      <c r="C266" s="79"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="81" t="s">
@@ -3294,11 +3330,11 @@
     </row>
     <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="78" t="s">
+      <c r="A270" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="79"/>
-      <c r="C270" s="80"/>
+      <c r="B270" s="78"/>
+      <c r="C270" s="79"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
@@ -3332,11 +3368,11 @@
     </row>
     <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="278" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A278" s="78" t="s">
+      <c r="A278" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B278" s="79"/>
-      <c r="C278" s="80"/>
+      <c r="B278" s="78"/>
+      <c r="C278" s="79"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
@@ -3353,11 +3389,11 @@
     </row>
     <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="282" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A282" s="78" t="s">
+      <c r="A282" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="79"/>
-      <c r="C282" s="80"/>
+      <c r="B282" s="78"/>
+      <c r="C282" s="79"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
@@ -3391,11 +3427,11 @@
     </row>
     <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="290" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A290" s="78" t="s">
+      <c r="A290" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="79"/>
-      <c r="C290" s="80"/>
+      <c r="B290" s="78"/>
+      <c r="C290" s="79"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
@@ -3404,25 +3440,25 @@
     </row>
     <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="293" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A293" s="78" t="s">
+      <c r="A293" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B293" s="79"/>
-      <c r="C293" s="80"/>
+      <c r="B293" s="78"/>
+      <c r="C293" s="79"/>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="63" t="s">
+      <c r="A294" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="C294" s="64"/>
+      <c r="C294" s="63"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="297" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A297" s="78" t="s">
+      <c r="A297" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="79"/>
-      <c r="C297" s="80"/>
+      <c r="B297" s="78"/>
+      <c r="C297" s="79"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
@@ -3431,19 +3467,19 @@
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="301" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A301" s="78" t="s">
+      <c r="A301" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="79"/>
-      <c r="C301" s="80"/>
+      <c r="B301" s="78"/>
+      <c r="C301" s="79"/>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="61" t="s">
+      <c r="A302" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="61" t="s">
+      <c r="A303" s="60" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3453,7 +3489,7 @@
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="62" t="s">
+      <c r="A305" s="61" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3468,33 +3504,33 @@
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="66" t="s">
+      <c r="A308" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="C308" s="65" t="s">
+      <c r="C308" s="64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="66" t="s">
+      <c r="A309" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="C309" s="65" t="s">
+      <c r="C309" s="64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="70" t="s">
+      <c r="A310" s="69" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="312" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A312" s="78" t="s">
+      <c r="A312" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="B312" s="79"/>
-      <c r="C312" s="80"/>
+      <c r="B312" s="78"/>
+      <c r="C312" s="79"/>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
@@ -3508,118 +3544,118 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="67" t="s">
+      <c r="A315" s="66" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="67" t="s">
+      <c r="A316" s="66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="72" customFormat="1">
-      <c r="A317" s="71" t="s">
+    <row r="317" spans="1:3" s="71" customFormat="1">
+      <c r="A317" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B317" s="71"/>
+      <c r="B317" s="70"/>
     </row>
     <row r="318" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A318" s="71" t="s">
+      <c r="A318" s="70" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A319" s="78" t="s">
+      <c r="A319" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="B319" s="79"/>
-      <c r="C319" s="80"/>
+      <c r="B319" s="78"/>
+      <c r="C319" s="79"/>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="68" t="s">
+      <c r="A320" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B320" s="68" t="s">
+      <c r="B320" s="67" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="68" t="s">
+      <c r="A321" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="68" t="s">
+      <c r="B321" s="67" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="68" t="s">
+      <c r="A322" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="B322" s="68" t="s">
+      <c r="B322" s="67" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="68" t="s">
+      <c r="A323" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="B323" s="68" t="s">
+      <c r="B323" s="67" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="69" t="s">
+      <c r="A324" s="68" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="326" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A326" s="78" t="s">
+      <c r="A326" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="B326" s="79"/>
-      <c r="C326" s="80"/>
+      <c r="B326" s="78"/>
+      <c r="C326" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A221:C221"/>
     <mergeCell ref="A312:C312"/>
     <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A211:C211"/>
     <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A239:C239"/>
     <mergeCell ref="A293:C293"/>
     <mergeCell ref="A282:C282"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A233:C233"/>
     <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A249:C249"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
@@ -3631,7 +3667,7 @@
     <hyperlink ref="B77" r:id="rId7"/>
     <hyperlink ref="B53" r:id="rId8"/>
     <hyperlink ref="B63" r:id="rId9"/>
-    <hyperlink ref="B236" r:id="rId10"/>
+    <hyperlink ref="B234" r:id="rId10"/>
     <hyperlink ref="B45" r:id="rId11"/>
     <hyperlink ref="B78" r:id="rId12"/>
     <hyperlink ref="B72" r:id="rId13"/>
@@ -3639,21 +3675,21 @@
     <hyperlink ref="B267" r:id="rId15"/>
     <hyperlink ref="B42" r:id="rId16" display="http://howtodoinjava.com/2014/04/13/java-8-tutorial-streams-by-examples/"/>
     <hyperlink ref="B41" r:id="rId17"/>
-    <hyperlink ref="B94" r:id="rId18"/>
-    <hyperlink ref="B95" r:id="rId19"/>
+    <hyperlink ref="B92" r:id="rId18"/>
+    <hyperlink ref="B93" r:id="rId19"/>
     <hyperlink ref="B35" r:id="rId20"/>
-    <hyperlink ref="B142" r:id="rId21" display="http://www.tutorialspoint.com/restful/index.htm"/>
-    <hyperlink ref="B255" r:id="rId22"/>
+    <hyperlink ref="B140" r:id="rId21" display="http://www.tutorialspoint.com/restful/index.htm"/>
+    <hyperlink ref="B253" r:id="rId22"/>
     <hyperlink ref="B62" r:id="rId23"/>
-    <hyperlink ref="B107" r:id="rId24"/>
-    <hyperlink ref="B108" r:id="rId25" location="commandLine"/>
+    <hyperlink ref="B105" r:id="rId24"/>
+    <hyperlink ref="B106" r:id="rId25" location="commandLine"/>
     <hyperlink ref="B71" r:id="rId26"/>
-    <hyperlink ref="B109" r:id="rId27"/>
-    <hyperlink ref="B133" r:id="rId28"/>
-    <hyperlink ref="B119" r:id="rId29"/>
+    <hyperlink ref="B107" r:id="rId27"/>
+    <hyperlink ref="B131" r:id="rId28"/>
+    <hyperlink ref="B117" r:id="rId29"/>
     <hyperlink ref="D1" location="'All Topics'!A2" display="Up"/>
-    <hyperlink ref="B167" r:id="rId30"/>
-    <hyperlink ref="B214" r:id="rId31"/>
+    <hyperlink ref="B165" r:id="rId30"/>
+    <hyperlink ref="B212" r:id="rId31"/>
     <hyperlink ref="B279" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1358,7 +1358,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1371,6 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1669,8 +1669,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2738,13 +2738,13 @@
       <c r="B164" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C164" s="80"/>
+      <c r="C164" s="84"/>
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="B165" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="80"/>
+      <c r="C165" s="84"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="42" t="s">
@@ -3178,10 +3178,10 @@
       <c r="A246" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="83" t="s">
+      <c r="B246" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="84"/>
+      <c r="C246" s="83"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="33" t="s">
@@ -3312,7 +3312,7 @@
       <c r="C266" s="79"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="81" t="s">
+      <c r="A267" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3323,7 +3323,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="82"/>
+      <c r="A268" s="81"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
@@ -3618,28 +3618,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A219:C219"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A122:C122"/>
@@ -3656,6 +3634,28 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B246:C246"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
@@ -1048,8 +1048,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1358,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1370,7 +1371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1378,6 +1378,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1424,7 +1432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,9 +1464,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1490,6 +1499,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1665,22 +1675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="71.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="71.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>164</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1723,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1786,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1808,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
@@ -1825,7 +1835,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>36</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>37</v>
       </c>
@@ -1849,11 +1859,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="33"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
@@ -1861,43 +1871,43 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>48</v>
       </c>
@@ -1908,25 +1918,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>55</v>
       </c>
@@ -1934,27 +1944,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>62</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45">
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>64</v>
       </c>
@@ -1970,7 +1980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="75">
+    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>66</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>70</v>
       </c>
@@ -1986,12 +1996,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>75</v>
       </c>
@@ -2002,12 +2012,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>80</v>
       </c>
@@ -2015,17 +2025,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>86</v>
       </c>
@@ -2041,17 +2051,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>88</v>
       </c>
@@ -2059,12 +2069,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>91</v>
       </c>
@@ -2072,7 +2082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>93</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>95</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>97</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>99</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>101</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>103</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>105</v>
       </c>
@@ -2128,12 +2138,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>108</v>
       </c>
@@ -2141,12 +2151,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>111</v>
       </c>
@@ -2157,7 +2167,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>113</v>
       </c>
@@ -2168,7 +2178,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>115</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>117</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>119</v>
       </c>
@@ -2192,7 +2202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>121</v>
       </c>
@@ -2203,7 +2213,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30">
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>123</v>
       </c>
@@ -2211,39 +2221,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>184</v>
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" s="9" customFormat="1">
+    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>185</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="9" customFormat="1">
+    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>182</v>
       </c>
@@ -2261,24 +2271,24 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="9" customFormat="1">
+    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" s="9" customFormat="1">
+    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33"/>
       <c r="B90" s="1"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>135</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30">
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>137</v>
       </c>
@@ -2294,19 +2304,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
         <v>143</v>
       </c>
@@ -2315,45 +2325,45 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
         <v>157</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>159</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>161</v>
       </c>
@@ -2377,12 +2387,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>302</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>171</v>
       </c>
@@ -2398,27 +2408,27 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
         <v>172</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
         <v>176</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="30">
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>177</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>179</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>180</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>197</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1">
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
         <v>200</v>
       </c>
@@ -2474,64 +2484,64 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" thickBot="1">
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="77" t="s">
         <v>216</v>
       </c>
       <c r="B122" s="78"/>
       <c r="C122" s="79"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>188</v>
       </c>
       <c r="C123" s="22"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C124" s="22"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C125" s="22"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
         <v>202</v>
       </c>
       <c r="C126" s="22"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" thickBot="1">
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="33" t="s">
         <v>252</v>
       </c>
       <c r="B128" s="30"/>
       <c r="C128" s="29"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" thickBot="1">
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="77" t="s">
         <v>215</v>
       </c>
       <c r="B129" s="78"/>
       <c r="C129" s="79"/>
     </row>
-    <row r="130" spans="1:3" s="29" customFormat="1">
+    <row r="130" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
         <v>187</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
         <v>174</v>
       </c>
@@ -2539,7 +2549,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
         <v>190</v>
       </c>
@@ -2548,7 +2558,7 @@
       </c>
       <c r="C132" s="12"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
         <v>245</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
         <v>246</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
         <v>247</v>
       </c>
@@ -2573,28 +2583,28 @@
       </c>
       <c r="C135" s="28"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
         <v>268</v>
       </c>
       <c r="B136" s="33"/>
       <c r="C136" s="32"/>
     </row>
-    <row r="137" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:3" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="59" t="s">
         <v>309</v>
       </c>
       <c r="B137" s="59"/>
       <c r="C137" s="58"/>
     </row>
-    <row r="138" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:3" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="77" t="s">
         <v>204</v>
       </c>
       <c r="B138" s="78"/>
       <c r="C138" s="79"/>
     </row>
-    <row r="139" spans="1:3" s="58" customFormat="1">
+    <row r="139" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
         <v>22</v>
       </c>
@@ -2603,7 +2613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>52</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>134</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>269</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1">
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="38" t="s">
         <v>282</v>
       </c>
@@ -2637,14 +2647,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" thickBot="1">
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="77" t="s">
         <v>206</v>
       </c>
       <c r="B144" s="78"/>
       <c r="C144" s="79"/>
     </row>
-    <row r="145" spans="1:3" s="39" customFormat="1">
+    <row r="145" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
         <v>25</v>
       </c>
@@ -2653,15 +2663,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="152" spans="1:3" ht="15.75" thickBot="1">
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="77" t="s">
         <v>213</v>
       </c>
       <c r="B152" s="78"/>
       <c r="C152" s="79"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
         <v>23</v>
       </c>
@@ -2670,60 +2680,60 @@
       </c>
       <c r="C153" s="22"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C154" s="22"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C155" s="22"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="22"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="72" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1">
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="77" t="s">
         <v>214</v>
       </c>
       <c r="B162" s="78"/>
       <c r="C162" s="79"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
         <v>72</v>
       </c>
@@ -2731,277 +2741,277 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30">
+    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C164" s="84"/>
-    </row>
-    <row r="165" spans="1:3" ht="30">
+      <c r="C164" s="80"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B165" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="84"/>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="C165" s="80"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="42" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="22" customFormat="1">
+    <row r="167" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="33"/>
       <c r="B167" s="1"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1">
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="77" t="s">
         <v>211</v>
       </c>
       <c r="B169" s="78"/>
       <c r="C169" s="79"/>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
         <v>207</v>
       </c>
       <c r="C170" s="22"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
         <v>235</v>
       </c>
       <c r="C173" s="22"/>
     </row>
-    <row r="174" spans="1:3" s="24" customFormat="1">
+    <row r="174" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
         <v>254</v>
       </c>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:3" s="24" customFormat="1">
+    <row r="175" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33"/>
       <c r="B175" s="1"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:3" s="24" customFormat="1" ht="15.75" thickBot="1">
+    <row r="176" spans="1:3" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="27"/>
       <c r="B176" s="1"/>
       <c r="C176" s="27"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" thickBot="1">
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="77" t="s">
         <v>275</v>
       </c>
       <c r="B177" s="78"/>
       <c r="C177" s="79"/>
     </row>
-    <row r="178" spans="1:3" s="27" customFormat="1">
+    <row r="178" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="36" t="s">
         <v>200</v>
       </c>
       <c r="B178" s="36"/>
       <c r="C178" s="37"/>
     </row>
-    <row r="179" spans="1:3" s="37" customFormat="1">
+    <row r="179" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="36" t="s">
         <v>199</v>
       </c>
       <c r="B179" s="36"/>
     </row>
-    <row r="180" spans="1:3" s="37" customFormat="1">
+    <row r="180" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="181" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="182" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="77" t="s">
         <v>276</v>
       </c>
       <c r="B182" s="78"/>
       <c r="C182" s="79"/>
     </row>
-    <row r="183" spans="1:3" s="37" customFormat="1">
+    <row r="183" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:3" s="37" customFormat="1">
+    <row r="184" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B184" s="36"/>
     </row>
-    <row r="185" spans="1:3" s="37" customFormat="1">
+    <row r="185" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="27"/>
     </row>
-    <row r="186" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="186" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
+    <row r="187" spans="1:3" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="77" t="s">
         <v>280</v>
       </c>
       <c r="B187" s="78"/>
       <c r="C187" s="79"/>
     </row>
-    <row r="188" spans="1:3" s="37" customFormat="1">
+    <row r="188" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:3" s="37" customFormat="1">
+    <row r="189" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
     </row>
-    <row r="190" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="190" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
+    <row r="191" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="77" t="s">
         <v>212</v>
       </c>
       <c r="B191" s="78"/>
       <c r="C191" s="79"/>
     </row>
-    <row r="192" spans="1:3" s="37" customFormat="1">
+    <row r="192" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="22"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C193" s="20"/>
     </row>
-    <row r="195" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1">
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="77" t="s">
         <v>219</v>
       </c>
       <c r="B196" s="78"/>
       <c r="C196" s="79"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
         <v>270</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="32"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="53" t="s">
         <v>304</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="52"/>
     </row>
-    <row r="202" spans="1:3" s="32" customFormat="1">
+    <row r="202" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="53"/>
       <c r="B202" s="2"/>
       <c r="C202" s="52"/>
     </row>
-    <row r="203" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+    <row r="203" spans="1:3" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="53"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
+    <row r="204" spans="1:3" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="77" t="s">
         <v>222</v>
       </c>
       <c r="B204" s="78"/>
       <c r="C204" s="79"/>
     </row>
-    <row r="205" spans="1:3" s="52" customFormat="1">
+    <row r="205" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
         <v>186</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="10"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" thickBot="1">
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="35" t="s">
         <v>285</v>
       </c>
       <c r="C208" s="25"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="77" t="s">
         <v>223</v>
       </c>
       <c r="B209" s="78"/>
       <c r="C209" s="79"/>
     </row>
-    <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+    <row r="210" spans="1:3" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="35"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
+    <row r="211" spans="1:3" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="77" t="s">
         <v>231</v>
       </c>
       <c r="B211" s="78"/>
       <c r="C211" s="79"/>
     </row>
-    <row r="212" spans="1:3" s="25" customFormat="1">
+    <row r="212" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
         <v>229</v>
       </c>
@@ -3009,42 +3019,42 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="33" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="25" customFormat="1">
+    <row r="214" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="33" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1">
+    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="77" t="s">
         <v>234</v>
       </c>
       <c r="B219" s="78"/>
       <c r="C219" s="79"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="33" t="s">
         <v>232</v>
       </c>
@@ -3052,60 +3062,60 @@
         <v>233</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" thickBot="1">
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1">
+    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="77" t="s">
         <v>236</v>
       </c>
       <c r="B222" s="78"/>
       <c r="C222" s="79"/>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="227" spans="1:3" ht="15.75" thickBot="1">
+    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="77" t="s">
         <v>241</v>
       </c>
       <c r="B227" s="78"/>
       <c r="C227" s="79"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="233" spans="1:3" ht="15.75" thickBot="1">
+    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="77" t="s">
         <v>242</v>
       </c>
       <c r="B233" s="78"/>
       <c r="C233" s="79"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
         <v>78</v>
       </c>
@@ -3114,59 +3124,59 @@
       </c>
       <c r="C234" s="15"/>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
         <v>181</v>
       </c>
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" thickBot="1">
+    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" thickBot="1">
+    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="77" t="s">
         <v>273</v>
       </c>
       <c r="B239" s="78"/>
       <c r="C239" s="79"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="243" spans="1:3" ht="15.75" thickBot="1">
+    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="77" t="s">
         <v>249</v>
       </c>
       <c r="B243" s="78"/>
       <c r="C243" s="79"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="33" t="s">
         <v>0</v>
       </c>
@@ -3174,47 +3184,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="82" t="s">
+      <c r="B246" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="83"/>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="C246" s="84"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C247" s="13"/>
     </row>
-    <row r="248" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="249" spans="1:3" ht="15.75" thickBot="1">
+    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="77" t="s">
         <v>250</v>
       </c>
       <c r="B249" s="78"/>
       <c r="C249" s="79"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" thickBot="1">
+    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" thickBot="1">
+    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="77" t="s">
         <v>260</v>
       </c>
       <c r="B252" s="78"/>
       <c r="C252" s="79"/>
     </row>
-    <row r="253" spans="1:3" ht="30">
+    <row r="253" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="33" t="s">
         <v>151</v>
       </c>
@@ -3222,25 +3232,25 @@
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="257" spans="1:3" ht="15.75" thickBot="1">
+    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="257" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="77" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="78"/>
       <c r="C257" s="79"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="33" t="s">
         <v>130</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="55" t="s">
         <v>307</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="33" t="s">
         <v>127</v>
       </c>
@@ -3264,7 +3274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="73" t="s">
         <v>335</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="75" t="s">
         <v>337</v>
       </c>
@@ -3282,7 +3292,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="56" customFormat="1">
+    <row r="263" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="33" t="s">
         <v>128</v>
       </c>
@@ -3291,7 +3301,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="56" customFormat="1">
+    <row r="264" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="33" t="s">
         <v>129</v>
       </c>
@@ -3300,19 +3310,19 @@
         <v>308</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="56" customFormat="1" ht="15.75" thickBot="1">
+    <row r="265" spans="1:3" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="57"/>
       <c r="B265" s="57"/>
     </row>
-    <row r="266" spans="1:3" ht="15.75" thickBot="1">
+    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B266" s="78"/>
       <c r="C266" s="79"/>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="80" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="81" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3322,59 +3332,59 @@
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="81"/>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="82"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="270" spans="1:3" ht="15.75" thickBot="1">
+    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="77" t="s">
         <v>267</v>
       </c>
       <c r="B270" s="78"/>
       <c r="C270" s="79"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="33" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="33" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="278" spans="1:3" ht="15.75" thickBot="1">
+    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="77" t="s">
         <v>289</v>
       </c>
       <c r="B278" s="78"/>
       <c r="C278" s="79"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="40" t="s">
         <v>283</v>
       </c>
@@ -3382,128 +3392,128 @@
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="42" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="282" spans="1:3" ht="15.75" thickBot="1">
+    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="77" t="s">
         <v>291</v>
       </c>
       <c r="B282" s="78"/>
       <c r="C282" s="79"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="44" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="44" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="290" spans="1:3" ht="15.75" thickBot="1">
+    <row r="289" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="290" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="77" t="s">
         <v>298</v>
       </c>
       <c r="B290" s="78"/>
       <c r="C290" s="79"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="45" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="293" spans="1:3" ht="15.75" thickBot="1">
+    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="77" t="s">
         <v>314</v>
       </c>
       <c r="B293" s="78"/>
       <c r="C293" s="79"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="62" t="s">
         <v>313</v>
       </c>
       <c r="C294" s="63"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="297" spans="1:3" ht="15.75" thickBot="1">
+    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="77" t="s">
         <v>306</v>
       </c>
       <c r="B297" s="78"/>
       <c r="C297" s="79"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="301" spans="1:3" ht="15.75" thickBot="1">
+    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="77" t="s">
         <v>310</v>
       </c>
       <c r="B301" s="78"/>
       <c r="C301" s="79"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="60" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="61" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="51" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="65" t="s">
         <v>315</v>
       </c>
@@ -3511,7 +3521,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="65" t="s">
         <v>316</v>
       </c>
@@ -3519,59 +3529,59 @@
         <v>198</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="69" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="312" spans="1:3" ht="15.75" thickBot="1">
+    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="312" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="77" t="s">
         <v>317</v>
       </c>
       <c r="B312" s="78"/>
       <c r="C312" s="79"/>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C313" s="50"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="66" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="71" customFormat="1">
+    <row r="317" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
         <v>333</v>
       </c>
       <c r="B317" s="70"/>
     </row>
-    <row r="318" spans="1:3" ht="15.75" thickBot="1">
+    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="70" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" thickBot="1">
+    <row r="319" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="77" t="s">
         <v>320</v>
       </c>
       <c r="B319" s="78"/>
       <c r="C319" s="79"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="67" t="s">
         <v>321</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="67" t="s">
         <v>323</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="67" t="s">
         <v>325</v>
       </c>
@@ -3595,7 +3605,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="67" t="s">
         <v>327</v>
       </c>
@@ -3603,13 +3613,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="68" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="326" spans="1:3" ht="15.75" thickBot="1">
+    <row r="325" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="77" t="s">
         <v>331</v>
       </c>
@@ -3618,6 +3628,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A219:C219"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A122:C122"/>
@@ -3634,28 +3666,6 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B246:C246"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
@@ -1048,8 +1048,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,7 +1432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,10 +1464,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1499,7 +1498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1675,22 +1673,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A303" sqref="A303"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="71.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
         <v>164</v>
       </c>
@@ -1704,7 +1702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1713,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="33" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
@@ -1764,7 +1762,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="33" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="33" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="33" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="33" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1841,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="33" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="33" t="s">
         <v>37</v>
       </c>
@@ -1859,11 +1857,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="B20" s="33"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
@@ -1871,43 +1869,43 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="33" t="s">
         <v>48</v>
       </c>
@@ -1918,25 +1916,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="33" t="s">
         <v>55</v>
       </c>
@@ -1944,27 +1942,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="33" t="s">
         <v>62</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="45">
       <c r="A42" s="33" t="s">
         <v>64</v>
       </c>
@@ -1980,7 +1978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="75">
       <c r="A43" s="33" t="s">
         <v>66</v>
       </c>
@@ -1988,7 +1986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="33" t="s">
         <v>70</v>
       </c>
@@ -1996,12 +1994,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="33" t="s">
         <v>75</v>
       </c>
@@ -2012,12 +2010,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="33" t="s">
         <v>80</v>
       </c>
@@ -2025,17 +2023,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="33" t="s">
         <v>84</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="33" t="s">
         <v>86</v>
       </c>
@@ -2051,17 +2049,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="33" t="s">
         <v>88</v>
       </c>
@@ -2069,12 +2067,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="33" t="s">
         <v>91</v>
       </c>
@@ -2082,7 +2080,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="33" t="s">
         <v>93</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="33" t="s">
         <v>95</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="33" t="s">
         <v>97</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="33" t="s">
         <v>99</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="33" t="s">
         <v>101</v>
       </c>
@@ -2122,7 +2120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="33" t="s">
         <v>103</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="33" t="s">
         <v>105</v>
       </c>
@@ -2138,12 +2136,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="33" t="s">
         <v>108</v>
       </c>
@@ -2151,12 +2149,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="33" t="s">
         <v>111</v>
       </c>
@@ -2167,7 +2165,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="33" t="s">
         <v>113</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="33" t="s">
         <v>115</v>
       </c>
@@ -2186,7 +2184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="33" t="s">
         <v>117</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" s="33" t="s">
         <v>119</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="33" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="30">
       <c r="A78" s="33" t="s">
         <v>123</v>
       </c>
@@ -2221,39 +2219,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="33" t="s">
         <v>184</v>
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" s="9" customFormat="1">
       <c r="A87" s="33" t="s">
         <v>185</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" s="9" customFormat="1">
       <c r="A88" s="33" t="s">
         <v>182</v>
       </c>
@@ -2271,24 +2269,24 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" s="9" customFormat="1">
       <c r="A89" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" s="9" customFormat="1">
       <c r="A90" s="33"/>
       <c r="B90" s="1"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="33" t="s">
         <v>135</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="33" t="s">
         <v>137</v>
       </c>
@@ -2304,19 +2302,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="s">
         <v>143</v>
       </c>
@@ -2325,45 +2323,45 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="33" t="s">
         <v>157</v>
       </c>
@@ -2371,7 +2369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="33" t="s">
         <v>159</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="33" t="s">
         <v>161</v>
       </c>
@@ -2387,12 +2385,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="48" t="s">
         <v>302</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="33" t="s">
         <v>171</v>
       </c>
@@ -2408,27 +2406,27 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="33" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="33" t="s">
         <v>172</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="33" t="s">
         <v>176</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="33" t="s">
         <v>177</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="33" t="s">
         <v>179</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="33" t="s">
         <v>180</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="33" t="s">
         <v>197</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="15.75" thickBot="1">
       <c r="A121" s="33" t="s">
         <v>200</v>
       </c>
@@ -2484,64 +2482,64 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="15.75" thickBot="1">
       <c r="A122" s="77" t="s">
         <v>216</v>
       </c>
       <c r="B122" s="78"/>
       <c r="C122" s="79"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="33" t="s">
         <v>188</v>
       </c>
       <c r="C123" s="22"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C124" s="22"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C125" s="22"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="33" t="s">
         <v>202</v>
       </c>
       <c r="C126" s="22"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="33" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="15.75" thickBot="1">
       <c r="A128" s="33" t="s">
         <v>252</v>
       </c>
       <c r="B128" s="30"/>
       <c r="C128" s="29"/>
     </row>
-    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="77" t="s">
         <v>215</v>
       </c>
       <c r="B129" s="78"/>
       <c r="C129" s="79"/>
     </row>
-    <row r="130" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" s="29" customFormat="1">
       <c r="A130" s="33" t="s">
         <v>187</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="33" t="s">
         <v>174</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="33" t="s">
         <v>190</v>
       </c>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="C132" s="12"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="33" t="s">
         <v>245</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="33" t="s">
         <v>246</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="33" t="s">
         <v>247</v>
       </c>
@@ -2583,28 +2581,28 @@
       </c>
       <c r="C135" s="28"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="33" t="s">
         <v>268</v>
       </c>
       <c r="B136" s="33"/>
       <c r="C136" s="32"/>
     </row>
-    <row r="137" spans="1:3" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="59" t="s">
         <v>309</v>
       </c>
       <c r="B137" s="59"/>
       <c r="C137" s="58"/>
     </row>
-    <row r="138" spans="1:3" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="77" t="s">
         <v>204</v>
       </c>
       <c r="B138" s="78"/>
       <c r="C138" s="79"/>
     </row>
-    <row r="139" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" s="58" customFormat="1">
       <c r="A139" s="33" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="33" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="33" t="s">
         <v>134</v>
       </c>
@@ -2630,7 +2628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="33" t="s">
         <v>269</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" ht="15.75" thickBot="1">
       <c r="A143" s="38" t="s">
         <v>282</v>
       </c>
@@ -2647,14 +2645,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" ht="15.75" thickBot="1">
       <c r="A144" s="77" t="s">
         <v>206</v>
       </c>
       <c r="B144" s="78"/>
       <c r="C144" s="79"/>
     </row>
-    <row r="145" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" s="39" customFormat="1">
       <c r="A145" s="33" t="s">
         <v>25</v>
       </c>
@@ -2663,15 +2661,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1">
       <c r="A152" s="77" t="s">
         <v>213</v>
       </c>
       <c r="B152" s="78"/>
       <c r="C152" s="79"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" s="33" t="s">
         <v>23</v>
       </c>
@@ -2680,60 +2678,60 @@
       </c>
       <c r="C153" s="22"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C154" s="22"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C155" s="22"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="22"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" s="72" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1">
       <c r="A162" s="77" t="s">
         <v>214</v>
       </c>
       <c r="B162" s="78"/>
       <c r="C162" s="79"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="33" t="s">
         <v>72</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="30">
       <c r="A164" s="33" t="s">
         <v>28</v>
       </c>
@@ -2750,268 +2748,268 @@
       </c>
       <c r="C164" s="80"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="30">
       <c r="B165" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C165" s="80"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" s="42" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" s="22" customFormat="1">
       <c r="A167" s="33"/>
       <c r="B167" s="1"/>
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1">
       <c r="A169" s="77" t="s">
         <v>211</v>
       </c>
       <c r="B169" s="78"/>
       <c r="C169" s="79"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="33" t="s">
         <v>207</v>
       </c>
       <c r="C170" s="22"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B172" s="24"/>
       <c r="C172" s="24"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="33" t="s">
         <v>235</v>
       </c>
       <c r="C173" s="22"/>
     </row>
-    <row r="174" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" s="24" customFormat="1">
       <c r="A174" s="33" t="s">
         <v>254</v>
       </c>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" s="24" customFormat="1">
       <c r="A175" s="33"/>
       <c r="B175" s="1"/>
       <c r="C175"/>
     </row>
-    <row r="176" spans="1:3" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A176" s="27"/>
       <c r="B176" s="1"/>
       <c r="C176" s="27"/>
     </row>
-    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" ht="15.75" thickBot="1">
       <c r="A177" s="77" t="s">
         <v>275</v>
       </c>
       <c r="B177" s="78"/>
       <c r="C177" s="79"/>
     </row>
-    <row r="178" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" s="27" customFormat="1">
       <c r="A178" s="36" t="s">
         <v>200</v>
       </c>
       <c r="B178" s="36"/>
       <c r="C178" s="37"/>
     </row>
-    <row r="179" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" s="37" customFormat="1">
       <c r="A179" s="36" t="s">
         <v>199</v>
       </c>
       <c r="B179" s="36"/>
     </row>
-    <row r="180" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" s="37" customFormat="1">
       <c r="A180" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A182" s="77" t="s">
         <v>276</v>
       </c>
       <c r="B182" s="78"/>
       <c r="C182" s="79"/>
     </row>
-    <row r="183" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" s="37" customFormat="1">
       <c r="A183" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" s="37" customFormat="1">
       <c r="A184" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B184" s="36"/>
     </row>
-    <row r="185" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" s="37" customFormat="1">
       <c r="A185" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="27"/>
     </row>
-    <row r="186" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:3" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A187" s="77" t="s">
         <v>280</v>
       </c>
       <c r="B187" s="78"/>
       <c r="C187" s="79"/>
     </row>
-    <row r="188" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" s="37" customFormat="1">
       <c r="A188" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" s="37" customFormat="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
     </row>
-    <row r="190" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:3" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" s="37" customFormat="1" ht="15.75" thickBot="1">
       <c r="A191" s="77" t="s">
         <v>212</v>
       </c>
       <c r="B191" s="78"/>
       <c r="C191" s="79"/>
     </row>
-    <row r="192" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" s="37" customFormat="1">
       <c r="A192" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="22"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C193" s="20"/>
     </row>
-    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1">
       <c r="A196" s="77" t="s">
         <v>219</v>
       </c>
       <c r="B196" s="78"/>
       <c r="C196" s="79"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" s="33" t="s">
         <v>270</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="32"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" s="53" t="s">
         <v>304</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="52"/>
     </row>
-    <row r="202" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" s="32" customFormat="1">
       <c r="A202" s="53"/>
       <c r="B202" s="2"/>
       <c r="C202" s="52"/>
     </row>
-    <row r="203" spans="1:3" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
       <c r="A203" s="53"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:3" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" s="52" customFormat="1" ht="15.75" thickBot="1">
       <c r="A204" s="77" t="s">
         <v>222</v>
       </c>
       <c r="B204" s="78"/>
       <c r="C204" s="79"/>
     </row>
-    <row r="205" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" s="52" customFormat="1">
       <c r="A205" s="33" t="s">
         <v>186</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="10"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" ht="15.75" thickBot="1">
       <c r="A208" s="35" t="s">
         <v>285</v>
       </c>
       <c r="C208" s="25"/>
     </row>
-    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" ht="15.75" thickBot="1">
       <c r="A209" s="77" t="s">
         <v>223</v>
       </c>
       <c r="B209" s="78"/>
       <c r="C209" s="79"/>
     </row>
-    <row r="210" spans="1:3" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A210" s="35"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:3" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" s="25" customFormat="1" ht="15.75" thickBot="1">
       <c r="A211" s="77" t="s">
         <v>231</v>
       </c>
       <c r="B211" s="78"/>
       <c r="C211" s="79"/>
     </row>
-    <row r="212" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" s="25" customFormat="1">
       <c r="A212" s="33" t="s">
         <v>229</v>
       </c>
@@ -3019,42 +3017,42 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" s="33" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" s="25" customFormat="1">
       <c r="A214" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" s="33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" s="33" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="219" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1">
       <c r="A219" s="77" t="s">
         <v>234</v>
       </c>
       <c r="B219" s="78"/>
       <c r="C219" s="79"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="33" t="s">
         <v>232</v>
       </c>
@@ -3062,60 +3060,60 @@
         <v>233</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" ht="15.75" thickBot="1">
       <c r="A221" s="33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" ht="15.75" thickBot="1">
       <c r="A222" s="77" t="s">
         <v>236</v>
       </c>
       <c r="B222" s="78"/>
       <c r="C222" s="79"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1">
       <c r="A227" s="77" t="s">
         <v>241</v>
       </c>
       <c r="B227" s="78"/>
       <c r="C227" s="79"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" s="33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="233" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1">
       <c r="A233" s="77" t="s">
         <v>242</v>
       </c>
       <c r="B233" s="78"/>
       <c r="C233" s="79"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" s="33" t="s">
         <v>78</v>
       </c>
@@ -3124,59 +3122,59 @@
       </c>
       <c r="C234" s="15"/>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1">
       <c r="A235" s="33" t="s">
         <v>181</v>
       </c>
       <c r="C235" s="16"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" s="33" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" ht="15.75" thickBot="1">
       <c r="A238" s="43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" ht="15.75" thickBot="1">
       <c r="A239" s="77" t="s">
         <v>273</v>
       </c>
       <c r="B239" s="78"/>
       <c r="C239" s="79"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1">
       <c r="A243" s="77" t="s">
         <v>249</v>
       </c>
       <c r="B243" s="78"/>
       <c r="C243" s="79"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="33" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="33" t="s">
         <v>2</v>
       </c>
@@ -3193,38 +3191,38 @@
       </c>
       <c r="C246" s="84"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C247" s="13"/>
     </row>
-    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1">
       <c r="A249" s="77" t="s">
         <v>250</v>
       </c>
       <c r="B249" s="78"/>
       <c r="C249" s="79"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" ht="15.75" thickBot="1">
       <c r="A251" s="33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" ht="15.75" thickBot="1">
       <c r="A252" s="77" t="s">
         <v>260</v>
       </c>
       <c r="B252" s="78"/>
       <c r="C252" s="79"/>
     </row>
-    <row r="253" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="30">
       <c r="A253" s="33" t="s">
         <v>151</v>
       </c>
@@ -3232,25 +3230,25 @@
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3">
       <c r="A254" s="33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3">
       <c r="A255" s="33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="257" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1">
       <c r="A257" s="77" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="78"/>
       <c r="C257" s="79"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3">
       <c r="A258" s="33" t="s">
         <v>130</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3">
       <c r="A259" s="55" t="s">
         <v>307</v>
       </c>
@@ -3266,7 +3264,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3">
       <c r="A260" s="33" t="s">
         <v>127</v>
       </c>
@@ -3274,7 +3272,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3">
       <c r="A261" s="73" t="s">
         <v>335</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3">
       <c r="A262" s="75" t="s">
         <v>337</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" s="56" customFormat="1">
       <c r="A263" s="33" t="s">
         <v>128</v>
       </c>
@@ -3301,7 +3299,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" s="56" customFormat="1">
       <c r="A264" s="33" t="s">
         <v>129</v>
       </c>
@@ -3310,18 +3308,18 @@
         <v>308</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" s="56" customFormat="1" ht="15.75" thickBot="1">
       <c r="A265" s="57"/>
       <c r="B265" s="57"/>
     </row>
-    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" ht="15.75" thickBot="1">
       <c r="A266" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B266" s="78"/>
       <c r="C266" s="79"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3">
       <c r="A267" s="81" t="s">
         <v>40</v>
       </c>
@@ -3332,59 +3330,59 @@
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3">
       <c r="A268" s="82"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1">
       <c r="A270" s="77" t="s">
         <v>267</v>
       </c>
       <c r="B270" s="78"/>
       <c r="C270" s="79"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3">
       <c r="A271" s="33" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3">
       <c r="A272" s="33" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3">
       <c r="A273" s="33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3">
       <c r="A274" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3">
       <c r="A275" s="33" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3">
       <c r="A276" s="33" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1">
       <c r="A278" s="77" t="s">
         <v>289</v>
       </c>
       <c r="B278" s="78"/>
       <c r="C278" s="79"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3">
       <c r="A279" s="40" t="s">
         <v>283</v>
       </c>
@@ -3392,128 +3390,128 @@
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3">
       <c r="A280" s="42" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1">
       <c r="A282" s="77" t="s">
         <v>291</v>
       </c>
       <c r="B282" s="78"/>
       <c r="C282" s="79"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3">
       <c r="A283" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3">
       <c r="A284" s="44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3">
       <c r="A285" s="44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3">
       <c r="A286" s="44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3">
       <c r="A287" s="44" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3">
       <c r="A288" s="44" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="290" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="290" spans="1:3" ht="15.75" thickBot="1">
       <c r="A290" s="77" t="s">
         <v>298</v>
       </c>
       <c r="B290" s="78"/>
       <c r="C290" s="79"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3">
       <c r="A291" s="45" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="293" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1">
       <c r="A293" s="77" t="s">
         <v>314</v>
       </c>
       <c r="B293" s="78"/>
       <c r="C293" s="79"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3">
       <c r="A294" s="62" t="s">
         <v>313</v>
       </c>
       <c r="C294" s="63"/>
     </row>
-    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="297" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="297" spans="1:3" ht="15.75" thickBot="1">
       <c r="A297" s="77" t="s">
         <v>306</v>
       </c>
       <c r="B297" s="78"/>
       <c r="C297" s="79"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3">
       <c r="A298" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="301" spans="1:3" ht="15.75" thickBot="1">
       <c r="A301" s="77" t="s">
         <v>310</v>
       </c>
       <c r="B301" s="78"/>
       <c r="C301" s="79"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3">
       <c r="A302" s="60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3">
       <c r="A303" s="60" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3">
       <c r="A304" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3">
       <c r="A305" s="61" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3">
       <c r="A306" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3">
       <c r="A307" s="51" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3">
       <c r="A308" s="65" t="s">
         <v>315</v>
       </c>
@@ -3521,7 +3519,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3">
       <c r="A309" s="65" t="s">
         <v>316</v>
       </c>
@@ -3529,59 +3527,59 @@
         <v>198</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3">
       <c r="A310" s="69" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="312" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="312" spans="1:3" ht="15.75" thickBot="1">
       <c r="A312" s="77" t="s">
         <v>317</v>
       </c>
       <c r="B312" s="78"/>
       <c r="C312" s="79"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3">
       <c r="A313" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C313" s="50"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3">
       <c r="A314" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3">
       <c r="A315" s="66" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3">
       <c r="A316" s="66" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" s="71" customFormat="1">
       <c r="A317" s="70" t="s">
         <v>333</v>
       </c>
       <c r="B317" s="70"/>
     </row>
-    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" ht="15.75" thickBot="1">
       <c r="A318" s="70" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" ht="15.75" thickBot="1">
       <c r="A319" s="77" t="s">
         <v>320</v>
       </c>
       <c r="B319" s="78"/>
       <c r="C319" s="79"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3">
       <c r="A320" s="67" t="s">
         <v>321</v>
       </c>
@@ -3589,7 +3587,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3">
       <c r="A321" s="67" t="s">
         <v>323</v>
       </c>
@@ -3597,7 +3595,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3">
       <c r="A322" s="67" t="s">
         <v>325</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3">
       <c r="A323" s="67" t="s">
         <v>327</v>
       </c>
@@ -3613,13 +3611,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3">
       <c r="A324" s="68" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="326" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="326" spans="1:3" ht="15.75" thickBot="1">
       <c r="A326" s="77" t="s">
         <v>331</v>
       </c>

--- a/Definitions/1_Grand_Definitions.xlsx
+++ b/Definitions/1_Grand_Definitions.xlsx
@@ -1358,7 +1358,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1371,6 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1677,8 +1677,8 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2746,13 +2746,13 @@
       <c r="B164" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C164" s="80"/>
+      <c r="C164" s="84"/>
     </row>
     <row r="165" spans="1:3" ht="30">
       <c r="B165" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C165" s="80"/>
+      <c r="C165" s="84"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="42" t="s">
@@ -3186,10 +3186,10 @@
       <c r="A246" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="83" t="s">
+      <c r="B246" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C246" s="84"/>
+      <c r="C246" s="83"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="33" t="s">
@@ -3320,7 +3320,7 @@
       <c r="C266" s="79"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="81" t="s">
+      <c r="A267" s="80" t="s">
         <v>40</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -3331,7 +3331,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="82"/>
+      <c r="A268" s="81"/>
       <c r="B268" s="31" t="s">
         <v>261</v>
       </c>
@@ -3626,28 +3626,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A219:C219"/>
     <mergeCell ref="A326:C326"/>
     <mergeCell ref="A319:C319"/>
     <mergeCell ref="A122:C122"/>
@@ -3664,6 +3642,28 @@
     <mergeCell ref="A278:C278"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B246:C246"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
